--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC321"/>
+  <dimension ref="A1:AC315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5245627</v>
+        <v>5245629</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L22">
         <v>3.5</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O22">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q22">
         <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>2.2</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.7</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5245629</v>
+        <v>5245627</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L23">
         <v>3.5</v>
       </c>
       <c r="M23">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O23">
+        <v>3.2</v>
+      </c>
+      <c r="P23">
         <v>3.4</v>
-      </c>
-      <c r="P23">
-        <v>2.9</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>2.2</v>
       </c>
       <c r="V23">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.875</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5245639</v>
+        <v>5244153</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M41">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="N41">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="O41">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="Q41">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
+        <v>1.975</v>
+      </c>
+      <c r="S41">
         <v>1.825</v>
-      </c>
-      <c r="S41">
-        <v>1.975</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5244153</v>
+        <v>5245639</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L42">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="N42">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P42">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R42">
+        <v>1.825</v>
+      </c>
+      <c r="S42">
         <v>1.975</v>
-      </c>
-      <c r="S42">
-        <v>1.825</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5245640</v>
+        <v>5245643</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4651,13 +4651,13 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -4666,40 +4666,40 @@
         <v>52</v>
       </c>
       <c r="K47">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L47">
         <v>3.4</v>
       </c>
       <c r="M47">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="N47">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
+        <v>2.5</v>
+      </c>
+      <c r="U47">
         <v>1.8</v>
       </c>
-      <c r="T47">
-        <v>2.25</v>
-      </c>
-      <c r="U47">
-        <v>1.975</v>
-      </c>
       <c r="V47">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4708,19 +4708,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.9</v>
+        <v>0.833</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB47">
         <v>0.8</v>
       </c>
-      <c r="AB47">
-        <v>-0.5</v>
-      </c>
       <c r="AC47">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5245643</v>
+        <v>5245640</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,13 +4740,13 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4755,40 +4755,40 @@
         <v>52</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="L48">
         <v>3.4</v>
       </c>
       <c r="M48">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="N48">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="Q48">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4797,19 +4797,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.833</v>
+        <v>1.9</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5245651</v>
+        <v>5245650</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,55 +4918,55 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>52</v>
       </c>
       <c r="K50">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="O50">
         <v>3.3</v>
       </c>
       <c r="P50">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4975,19 +4975,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB50">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5245650</v>
+        <v>5245651</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5007,55 +5007,55 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>52</v>
       </c>
       <c r="K51">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N51">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
         <v>3.3</v>
       </c>
       <c r="P51">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5064,19 +5064,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB51">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5246910</v>
+        <v>5245659</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,76 +6876,76 @@
         <v>45017.375</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M72">
         <v>2</v>
       </c>
       <c r="N72">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q72">
         <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X72">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5245659</v>
+        <v>5245664</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,58 +6965,58 @@
         <v>45017.375</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>51</v>
       </c>
       <c r="K73">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="L73">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="N73">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W73">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7025,13 +7025,13 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5245664</v>
+        <v>5246910</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,76 +7054,76 @@
         <v>45017.375</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K74">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="N74">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
+        <v>1.9</v>
+      </c>
+      <c r="S74">
         <v>1.95</v>
-      </c>
-      <c r="S74">
-        <v>1.9</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -10602,7 +10602,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5419784</v>
+        <v>5423332</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10614,76 +10614,76 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K114">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N114">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
+        <v>2.25</v>
+      </c>
+      <c r="Q114">
+        <v>0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.775</v>
+      </c>
+      <c r="S114">
+        <v>2.025</v>
+      </c>
+      <c r="T114">
         <v>2.75</v>
       </c>
-      <c r="Q114">
-        <v>-0.25</v>
-      </c>
-      <c r="R114">
+      <c r="U114">
         <v>1.925</v>
       </c>
-      <c r="S114">
+      <c r="V114">
         <v>1.875</v>
       </c>
-      <c r="T114">
-        <v>3</v>
-      </c>
-      <c r="U114">
-        <v>1.8</v>
-      </c>
-      <c r="V114">
-        <v>2</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC114">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10691,7 +10691,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5423332</v>
+        <v>5419784</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10703,76 +10703,76 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11581,7 +11581,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5466288</v>
+        <v>5461060</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11593,10 +11593,10 @@
         <v>45059.375</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -11608,43 +11608,43 @@
         <v>51</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N125">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T125">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>0.615</v>
+        <v>1.1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11653,13 +11653,13 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11670,7 +11670,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5246921</v>
+        <v>5466288</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11682,73 +11682,73 @@
         <v>45059.375</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K126">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L126">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="N126">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P126">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U126">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11759,7 +11759,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5461061</v>
+        <v>5246921</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11771,76 +11771,76 @@
         <v>45059.375</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K127">
-        <v>1.181</v>
+        <v>2.375</v>
       </c>
       <c r="L127">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="M127">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="N127">
-        <v>1.125</v>
+        <v>2.7</v>
       </c>
       <c r="O127">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="Q127">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
         <v>1.9</v>
       </c>
       <c r="S127">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W127">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z127">
+        <v>-1</v>
+      </c>
+      <c r="AA127">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11848,7 +11848,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5461060</v>
+        <v>5461061</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11860,58 +11860,58 @@
         <v>45059.375</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>51</v>
       </c>
       <c r="K128">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M128">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="N128">
-        <v>2.1</v>
+        <v>1.125</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P128">
-        <v>2.875</v>
+        <v>13</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
+        <v>1.95</v>
+      </c>
+      <c r="T128">
+        <v>4.25</v>
+      </c>
+      <c r="U128">
         <v>1.875</v>
       </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
-      <c r="U128">
-        <v>2</v>
-      </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>1.1</v>
+        <v>0.125</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11920,16 +11920,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6880528</v>
+        <v>6886883</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,10 +13106,10 @@
         <v>45143.375</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13121,43 +13121,43 @@
         <v>51</v>
       </c>
       <c r="K142">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N142">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O142">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="Q142">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>2.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13166,16 +13166,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13361,7 +13361,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6886883</v>
+        <v>6880528</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13373,10 +13373,10 @@
         <v>45143.375</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13388,43 +13388,43 @@
         <v>51</v>
       </c>
       <c r="K145">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L145">
+        <v>3.6</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>3.2</v>
+      </c>
+      <c r="O145">
         <v>3.75</v>
       </c>
-      <c r="M145">
-        <v>5</v>
-      </c>
-      <c r="N145">
-        <v>1.4</v>
-      </c>
-      <c r="O145">
-        <v>4.2</v>
-      </c>
       <c r="P145">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q145">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>0.3999999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13433,16 +13433,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA145">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -14251,7 +14251,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7082424</v>
+        <v>6884489</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14263,13 +14263,13 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F155" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -14278,43 +14278,43 @@
         <v>51</v>
       </c>
       <c r="K155">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L155">
+        <v>3.5</v>
+      </c>
+      <c r="M155">
+        <v>3.25</v>
+      </c>
+      <c r="N155">
+        <v>1.85</v>
+      </c>
+      <c r="O155">
+        <v>3.6</v>
+      </c>
+      <c r="P155">
         <v>3.3</v>
       </c>
-      <c r="M155">
-        <v>3.1</v>
-      </c>
-      <c r="N155">
-        <v>1.75</v>
-      </c>
-      <c r="O155">
-        <v>3.4</v>
-      </c>
-      <c r="P155">
-        <v>4</v>
-      </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T155">
         <v>3</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V155">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14323,16 +14323,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6884489</v>
+        <v>7082424</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,13 +14352,13 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -14367,43 +14367,43 @@
         <v>51</v>
       </c>
       <c r="K156">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M156">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N156">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
         <v>3</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W156">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14412,16 +14412,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6884525</v>
+        <v>6882778</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,67 +16132,67 @@
         <v>45171.375</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G176" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M176">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="N176">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="O176">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q176">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S176">
+        <v>1.8</v>
+      </c>
+      <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
         <v>1.925</v>
       </c>
-      <c r="T176">
-        <v>3.25</v>
-      </c>
-      <c r="U176">
-        <v>1.95</v>
-      </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.4375</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA176">
         <v>-0.5</v>
@@ -16201,7 +16201,7 @@
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6882778</v>
+        <v>6884525</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,67 +16221,67 @@
         <v>45171.375</v>
       </c>
       <c r="F177" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M177">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="N177">
-        <v>3.1</v>
+        <v>1.222</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P177">
+        <v>8</v>
+      </c>
+      <c r="Q177">
+        <v>-1.75</v>
+      </c>
+      <c r="R177">
+        <v>1.875</v>
+      </c>
+      <c r="S177">
+        <v>1.925</v>
+      </c>
+      <c r="T177">
+        <v>3.25</v>
+      </c>
+      <c r="U177">
         <v>1.95</v>
       </c>
-      <c r="Q177">
-        <v>0.25</v>
-      </c>
-      <c r="R177">
-        <v>2.05</v>
-      </c>
-      <c r="S177">
-        <v>1.8</v>
-      </c>
-      <c r="T177">
-        <v>2.75</v>
-      </c>
-      <c r="U177">
-        <v>1.925</v>
-      </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X177">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.5249999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA177">
         <v>-0.5</v>
@@ -16290,7 +16290,7 @@
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6886899</v>
+        <v>6885366</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,58 +16310,58 @@
         <v>45171.375</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="L178">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M178">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="N178">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
         <v>3</v>
       </c>
       <c r="U178">
+        <v>1.975</v>
+      </c>
+      <c r="V178">
         <v>1.825</v>
       </c>
-      <c r="V178">
-        <v>1.975</v>
-      </c>
       <c r="W178">
-        <v>0.444</v>
+        <v>1.375</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16370,13 +16370,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6885366</v>
+        <v>6886899</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,58 +16488,58 @@
         <v>45171.375</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
         <v>51</v>
       </c>
       <c r="K180">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="L180">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M180">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="N180">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T180">
         <v>3</v>
       </c>
       <c r="U180">
+        <v>1.825</v>
+      </c>
+      <c r="V180">
         <v>1.975</v>
       </c>
-      <c r="V180">
-        <v>1.825</v>
-      </c>
       <c r="W180">
-        <v>1.375</v>
+        <v>0.444</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16548,13 +16548,13 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6884491</v>
+        <v>6886906</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,76 +17289,76 @@
         <v>45185.375</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K189">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L189">
         <v>3.75</v>
       </c>
       <c r="M189">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N189">
         <v>1.95</v>
       </c>
       <c r="O189">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
         <v>3</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
+        <v>2.025</v>
+      </c>
+      <c r="S189">
         <v>1.825</v>
       </c>
-      <c r="S189">
-        <v>1.975</v>
-      </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
+        <v>-1</v>
+      </c>
+      <c r="AA189">
         <v>0.825</v>
       </c>
-      <c r="AA189">
-        <v>-1</v>
-      </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6886906</v>
+        <v>6884491</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,76 +17378,76 @@
         <v>45185.375</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K190">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L190">
         <v>3.75</v>
       </c>
       <c r="M190">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N190">
         <v>1.95</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P190">
         <v>3</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X190">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA190">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6884493</v>
+        <v>6886912</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,76 +18713,76 @@
         <v>45199.375</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G205" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K205">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L205">
         <v>3.6</v>
       </c>
       <c r="M205">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N205">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O205">
         <v>3.6</v>
       </c>
       <c r="P205">
+        <v>2.25</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>2.025</v>
+      </c>
+      <c r="S205">
+        <v>1.775</v>
+      </c>
+      <c r="T205">
         <v>3</v>
       </c>
-      <c r="Q205">
-        <v>-0.25</v>
-      </c>
-      <c r="R205">
-        <v>1.8</v>
-      </c>
-      <c r="S205">
-        <v>2</v>
-      </c>
-      <c r="T205">
-        <v>2.75</v>
-      </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC205">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6886912</v>
+        <v>6886915</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,76 +18802,76 @@
         <v>45199.375</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H206">
         <v>1</v>
       </c>
       <c r="I206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K206">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L206">
         <v>3.6</v>
       </c>
       <c r="M206">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N206">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P206">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S206">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
+        <v>1.9</v>
+      </c>
+      <c r="V206">
+        <v>1.9</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
         <v>3</v>
       </c>
-      <c r="U206">
-        <v>1.975</v>
-      </c>
-      <c r="V206">
-        <v>1.825</v>
-      </c>
-      <c r="W206">
-        <v>-1</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
       <c r="Y206">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA206">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18879,7 +18879,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6886915</v>
+        <v>6884493</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18891,10 +18891,10 @@
         <v>45199.375</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18906,31 +18906,31 @@
         <v>53</v>
       </c>
       <c r="K207">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L207">
         <v>3.6</v>
       </c>
       <c r="M207">
+        <v>2.8</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207">
+        <v>3.6</v>
+      </c>
+      <c r="P207">
+        <v>3</v>
+      </c>
+      <c r="Q207">
+        <v>-0.25</v>
+      </c>
+      <c r="R207">
         <v>1.8</v>
       </c>
-      <c r="N207">
-        <v>4.75</v>
-      </c>
-      <c r="O207">
-        <v>4</v>
-      </c>
-      <c r="P207">
-        <v>1.533</v>
-      </c>
-      <c r="Q207">
-        <v>1</v>
-      </c>
-      <c r="R207">
-        <v>1.825</v>
-      </c>
       <c r="S207">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T207">
         <v>2.75</v>
@@ -18945,16 +18945,16 @@
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB207">
         <v>-1</v>
@@ -19591,7 +19591,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6886921</v>
+        <v>6884529</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19603,76 +19603,76 @@
         <v>45206.375</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K215">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M215">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N215">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="O215">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P215">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T215">
         <v>3</v>
       </c>
       <c r="U215">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z215">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19680,7 +19680,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6884529</v>
+        <v>6886921</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19692,76 +19692,76 @@
         <v>45206.375</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216" t="s">
+        <v>51</v>
+      </c>
+      <c r="K216">
+        <v>1.666</v>
+      </c>
+      <c r="L216">
+        <v>3.75</v>
+      </c>
+      <c r="M216">
         <v>4</v>
       </c>
-      <c r="J216" t="s">
-        <v>52</v>
-      </c>
-      <c r="K216">
-        <v>1.363</v>
-      </c>
-      <c r="L216">
-        <v>4.75</v>
-      </c>
-      <c r="M216">
-        <v>6</v>
-      </c>
       <c r="N216">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="O216">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P216">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T216">
         <v>3</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA216">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB216">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20036,7 +20036,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6884495</v>
+        <v>6880535</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20048,76 +20048,76 @@
         <v>45213.375</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G220" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H220">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K220">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L220">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N220">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O220">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="Q220">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W220">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB220">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20125,7 +20125,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6882773</v>
+        <v>6884530</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20137,76 +20137,76 @@
         <v>45213.375</v>
       </c>
       <c r="F221" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>53</v>
+      </c>
+      <c r="K221">
+        <v>1.833</v>
+      </c>
+      <c r="L221">
+        <v>3.75</v>
+      </c>
+      <c r="M221">
+        <v>3.3</v>
+      </c>
+      <c r="N221">
+        <v>1.909</v>
+      </c>
+      <c r="O221">
+        <v>3.8</v>
+      </c>
+      <c r="P221">
+        <v>3.1</v>
+      </c>
+      <c r="Q221">
+        <v>-0.5</v>
+      </c>
+      <c r="R221">
+        <v>1.95</v>
+      </c>
+      <c r="S221">
+        <v>1.85</v>
+      </c>
+      <c r="T221">
         <v>3</v>
       </c>
-      <c r="J221" t="s">
-        <v>52</v>
-      </c>
-      <c r="K221">
-        <v>3.2</v>
-      </c>
-      <c r="L221">
-        <v>3.6</v>
-      </c>
-      <c r="M221">
-        <v>1.909</v>
-      </c>
-      <c r="N221">
-        <v>2.625</v>
-      </c>
-      <c r="O221">
-        <v>3.5</v>
-      </c>
-      <c r="P221">
-        <v>2.2</v>
-      </c>
-      <c r="Q221">
-        <v>0.25</v>
-      </c>
-      <c r="R221">
+      <c r="U221">
+        <v>2</v>
+      </c>
+      <c r="V221">
         <v>1.8</v>
       </c>
-      <c r="S221">
-        <v>2</v>
-      </c>
-      <c r="T221">
-        <v>2.75</v>
-      </c>
-      <c r="U221">
-        <v>1.925</v>
-      </c>
-      <c r="V221">
-        <v>1.875</v>
-      </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y221">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB221">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20214,7 +20214,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6884530</v>
+        <v>6884495</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20226,76 +20226,76 @@
         <v>45213.375</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I222">
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K222">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L222">
         <v>3.75</v>
       </c>
       <c r="M222">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N222">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O222">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
         <v>1.95</v>
       </c>
-      <c r="S222">
-        <v>1.85</v>
-      </c>
       <c r="T222">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V222">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X222">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20303,7 +20303,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6880535</v>
+        <v>6882773</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20315,16 +20315,16 @@
         <v>45213.375</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J223" t="s">
         <v>52</v>
@@ -20339,31 +20339,31 @@
         <v>1.909</v>
       </c>
       <c r="N223">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P223">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T223">
         <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V223">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
         <v>-1</v>
@@ -20372,19 +20372,19 @@
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC223">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -22261,7 +22261,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6886939</v>
+        <v>6882770</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22273,13 +22273,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F245" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G245" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245">
         <v>3</v>
@@ -22288,41 +22288,41 @@
         <v>52</v>
       </c>
       <c r="K245">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L245">
         <v>4.5</v>
       </c>
       <c r="M245">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N245">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O245">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P245">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
+        <v>1.95</v>
+      </c>
+      <c r="T245">
+        <v>3</v>
+      </c>
+      <c r="U245">
+        <v>1.775</v>
+      </c>
+      <c r="V245">
         <v>2.025</v>
       </c>
-      <c r="T245">
-        <v>3.25</v>
-      </c>
-      <c r="U245">
-        <v>1.875</v>
-      </c>
-      <c r="V245">
-        <v>1.975</v>
-      </c>
       <c r="W245">
         <v>-1</v>
       </c>
@@ -22330,16 +22330,16 @@
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB245">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC245">
         <v>-1</v>
@@ -22350,7 +22350,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6880538</v>
+        <v>6884532</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22362,58 +22362,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G246" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="s">
         <v>51</v>
       </c>
       <c r="K246">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M246">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="N246">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O246">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P246">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q246">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R246">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S246">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T246">
         <v>2.75</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W246">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22422,13 +22422,13 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AC246">
         <v>-0.5</v>
@@ -22439,7 +22439,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6882770</v>
+        <v>6886935</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22451,13 +22451,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G247" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247">
         <v>3</v>
@@ -22466,58 +22466,58 @@
         <v>52</v>
       </c>
       <c r="K247">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="L247">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M247">
+        <v>9</v>
+      </c>
+      <c r="N247">
+        <v>1.25</v>
+      </c>
+      <c r="O247">
+        <v>6</v>
+      </c>
+      <c r="P247">
+        <v>6.5</v>
+      </c>
+      <c r="Q247">
+        <v>-1.5</v>
+      </c>
+      <c r="R247">
+        <v>1.95</v>
+      </c>
+      <c r="S247">
+        <v>1.9</v>
+      </c>
+      <c r="T247">
+        <v>3.5</v>
+      </c>
+      <c r="U247">
+        <v>2</v>
+      </c>
+      <c r="V247">
+        <v>1.85</v>
+      </c>
+      <c r="W247">
+        <v>-1</v>
+      </c>
+      <c r="X247">
+        <v>-1</v>
+      </c>
+      <c r="Y247">
         <v>5.5</v>
       </c>
-      <c r="N247">
-        <v>1.5</v>
-      </c>
-      <c r="O247">
-        <v>4.333</v>
-      </c>
-      <c r="P247">
-        <v>4.75</v>
-      </c>
-      <c r="Q247">
-        <v>-1</v>
-      </c>
-      <c r="R247">
-        <v>1.85</v>
-      </c>
-      <c r="S247">
-        <v>1.95</v>
-      </c>
-      <c r="T247">
-        <v>3</v>
-      </c>
-      <c r="U247">
-        <v>1.775</v>
-      </c>
-      <c r="V247">
-        <v>2.025</v>
-      </c>
-      <c r="W247">
-        <v>-1</v>
-      </c>
-      <c r="X247">
-        <v>-1</v>
-      </c>
-      <c r="Y247">
-        <v>3.75</v>
-      </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB247">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22528,7 +22528,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6884532</v>
+        <v>6886936</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22540,76 +22540,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K248">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L248">
+        <v>4.2</v>
+      </c>
+      <c r="M248">
+        <v>4</v>
+      </c>
+      <c r="N248">
+        <v>1.65</v>
+      </c>
+      <c r="O248">
         <v>3.75</v>
       </c>
-      <c r="M248">
-        <v>2.55</v>
-      </c>
-      <c r="N248">
-        <v>2.4</v>
-      </c>
-      <c r="O248">
-        <v>3.6</v>
-      </c>
       <c r="P248">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R248">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T248">
+        <v>2.5</v>
+      </c>
+      <c r="U248">
+        <v>1.9</v>
+      </c>
+      <c r="V248">
+        <v>1.95</v>
+      </c>
+      <c r="W248">
+        <v>-1</v>
+      </c>
+      <c r="X248">
         <v>2.75</v>
       </c>
-      <c r="U248">
-        <v>1.925</v>
-      </c>
-      <c r="V248">
-        <v>1.875</v>
-      </c>
-      <c r="W248">
-        <v>1.4</v>
-      </c>
-      <c r="X248">
-        <v>-1</v>
-      </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB248">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC248">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22617,7 +22617,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6886935</v>
+        <v>6886937</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22629,76 +22629,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K249">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="L249">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M249">
+        <v>6</v>
+      </c>
+      <c r="N249">
+        <v>1.2</v>
+      </c>
+      <c r="O249">
+        <v>6.5</v>
+      </c>
+      <c r="P249">
         <v>9</v>
       </c>
-      <c r="N249">
-        <v>1.25</v>
-      </c>
-      <c r="O249">
-        <v>6</v>
-      </c>
-      <c r="P249">
-        <v>6.5</v>
-      </c>
       <c r="Q249">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R249">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S249">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T249">
         <v>3.5</v>
       </c>
       <c r="U249">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W249">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA249">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB249">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22706,7 +22706,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6886936</v>
+        <v>6886938</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22718,73 +22718,73 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F250" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G250" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J250" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K250">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L250">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M250">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N250">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O250">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P250">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q250">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R250">
+        <v>1.975</v>
+      </c>
+      <c r="S250">
         <v>1.875</v>
       </c>
-      <c r="S250">
+      <c r="T250">
+        <v>2.75</v>
+      </c>
+      <c r="U250">
         <v>1.975</v>
       </c>
-      <c r="T250">
-        <v>2.5</v>
-      </c>
-      <c r="U250">
-        <v>1.9</v>
-      </c>
       <c r="V250">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z250">
         <v>-1</v>
       </c>
       <c r="AA250">
+        <v>0.875</v>
+      </c>
+      <c r="AB250">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB250">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC250">
         <v>-1</v>
@@ -22795,7 +22795,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6886937</v>
+        <v>6886939</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22807,76 +22807,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J251" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K251">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L251">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M251">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N251">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="O251">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="Q251">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
+        <v>2.025</v>
+      </c>
+      <c r="T251">
+        <v>3.25</v>
+      </c>
+      <c r="U251">
         <v>1.875</v>
       </c>
-      <c r="T251">
-        <v>3.5</v>
-      </c>
-      <c r="U251">
-        <v>1.925</v>
-      </c>
       <c r="V251">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W251">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC251">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6886938</v>
+        <v>6880538</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G252" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H252">
+        <v>3</v>
+      </c>
+      <c r="I252">
         <v>0</v>
       </c>
-      <c r="I252">
+      <c r="J252" t="s">
+        <v>51</v>
+      </c>
+      <c r="K252">
+        <v>2</v>
+      </c>
+      <c r="L252">
         <v>4</v>
       </c>
-      <c r="J252" t="s">
-        <v>52</v>
-      </c>
-      <c r="K252">
+      <c r="M252">
+        <v>2.75</v>
+      </c>
+      <c r="N252">
         <v>2.5</v>
       </c>
-      <c r="L252">
-        <v>3.75</v>
-      </c>
-      <c r="M252">
+      <c r="O252">
+        <v>3.8</v>
+      </c>
+      <c r="P252">
         <v>2.25</v>
       </c>
-      <c r="N252">
-        <v>2.1</v>
-      </c>
-      <c r="O252">
-        <v>3.6</v>
-      </c>
-      <c r="P252">
-        <v>2.75</v>
-      </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R252">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T252">
         <v>2.75</v>
       </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V252">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA252">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -25465,7 +25465,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6886954</v>
+        <v>6886958</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25477,73 +25477,73 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G281" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K281">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L281">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M281">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N281">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O281">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P281">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q281">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S281">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T281">
         <v>3</v>
       </c>
       <c r="U281">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V281">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X281">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA281">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC281">
         <v>-1</v>
@@ -25554,7 +25554,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6886958</v>
+        <v>6886954</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25566,73 +25566,73 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G282" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K282">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L282">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M282">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N282">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O282">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P282">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q282">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S282">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T282">
         <v>3</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V282">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W282">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB282">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC282">
         <v>-1</v>
@@ -25732,7 +25732,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6886961</v>
+        <v>6880543</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25744,76 +25744,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G284" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K284">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L284">
         <v>3.75</v>
       </c>
       <c r="M284">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N284">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O284">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P284">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q284">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S284">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T284">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U284">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V284">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA284">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25821,7 +25821,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6880543</v>
+        <v>6886961</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25833,76 +25833,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G285" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J285" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K285">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L285">
         <v>3.75</v>
       </c>
       <c r="M285">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N285">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O285">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P285">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q285">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R285">
+        <v>2.05</v>
+      </c>
+      <c r="S285">
+        <v>1.8</v>
+      </c>
+      <c r="T285">
+        <v>2.75</v>
+      </c>
+      <c r="U285">
+        <v>1.875</v>
+      </c>
+      <c r="V285">
         <v>1.975</v>
       </c>
-      <c r="S285">
-        <v>1.875</v>
-      </c>
-      <c r="T285">
-        <v>2.5</v>
-      </c>
-      <c r="U285">
-        <v>1.925</v>
-      </c>
-      <c r="V285">
-        <v>1.925</v>
-      </c>
       <c r="W285">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z285">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB285">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC285">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26533,7 +26533,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6880544</v>
+        <v>6886963</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26545,76 +26545,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G293" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K293">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L293">
         <v>3.6</v>
       </c>
       <c r="M293">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N293">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O293">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P293">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q293">
         <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S293">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T293">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U293">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V293">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z293">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AB293">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26622,7 +26622,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6886963</v>
+        <v>6886966</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26634,52 +26634,52 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F294" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G294" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J294" t="s">
         <v>52</v>
       </c>
       <c r="K294">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L294">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M294">
         <v>2.875</v>
       </c>
       <c r="N294">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O294">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P294">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S294">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T294">
         <v>2.5</v>
       </c>
       <c r="U294">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V294">
         <v>1.95</v>
@@ -26691,19 +26691,19 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>1.875</v>
+        <v>1.625</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC294">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26711,7 +26711,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6886966</v>
+        <v>6880544</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26723,73 +26723,73 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G295" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H295">
         <v>2</v>
       </c>
       <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295" t="s">
+        <v>53</v>
+      </c>
+      <c r="K295">
+        <v>2</v>
+      </c>
+      <c r="L295">
+        <v>3.6</v>
+      </c>
+      <c r="M295">
         <v>3</v>
       </c>
-      <c r="J295" t="s">
-        <v>52</v>
-      </c>
-      <c r="K295">
+      <c r="N295">
         <v>2.1</v>
       </c>
-      <c r="L295">
-        <v>3.5</v>
-      </c>
-      <c r="M295">
-        <v>2.875</v>
-      </c>
-      <c r="N295">
-        <v>2.4</v>
-      </c>
       <c r="O295">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P295">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q295">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S295">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T295">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U295">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V295">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W295">
         <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y295">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA295">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AB295">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -27868,7 +27868,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6882763</v>
+        <v>6880545</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27880,13 +27880,13 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G308" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308">
         <v>2</v>
@@ -27895,40 +27895,40 @@
         <v>52</v>
       </c>
       <c r="K308">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L308">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M308">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="N308">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O308">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P308">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R308">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S308">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T308">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U308">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V308">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W308">
         <v>-1</v>
@@ -27937,19 +27937,19 @@
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z308">
         <v>-1</v>
       </c>
       <c r="AA308">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB308">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27957,7 +27957,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6880545</v>
+        <v>6882763</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27969,13 +27969,13 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G309" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309">
         <v>2</v>
@@ -27984,61 +27984,61 @@
         <v>52</v>
       </c>
       <c r="K309">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M309">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="N309">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="O309">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P309">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q309">
+        <v>-0.25</v>
+      </c>
+      <c r="R309">
+        <v>2.125</v>
+      </c>
+      <c r="S309">
+        <v>1.75</v>
+      </c>
+      <c r="T309">
+        <v>2.75</v>
+      </c>
+      <c r="U309">
+        <v>2.025</v>
+      </c>
+      <c r="V309">
+        <v>1.825</v>
+      </c>
+      <c r="W309">
+        <v>-1</v>
+      </c>
+      <c r="X309">
+        <v>-1</v>
+      </c>
+      <c r="Y309">
+        <v>1.8</v>
+      </c>
+      <c r="Z309">
+        <v>-1</v>
+      </c>
+      <c r="AA309">
         <v>0.75</v>
       </c>
-      <c r="R309">
-        <v>1.875</v>
-      </c>
-      <c r="S309">
-        <v>1.975</v>
-      </c>
-      <c r="T309">
-        <v>2.5</v>
-      </c>
-      <c r="U309">
-        <v>1.9</v>
-      </c>
-      <c r="V309">
-        <v>1.95</v>
-      </c>
-      <c r="W309">
-        <v>-1</v>
-      </c>
-      <c r="X309">
-        <v>-1</v>
-      </c>
-      <c r="Y309">
-        <v>0.7</v>
-      </c>
-      <c r="Z309">
-        <v>-1</v>
-      </c>
-      <c r="AA309">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC309">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28491,7 +28491,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6886975</v>
+        <v>6884505</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28500,49 +28500,49 @@
         <v>28</v>
       </c>
       <c r="E315" s="2">
-        <v>45339.41666666666</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F315" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G315" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K315">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="L315">
         <v>3.75</v>
       </c>
       <c r="M315">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N315">
+        <v>4</v>
+      </c>
+      <c r="O315">
+        <v>4</v>
+      </c>
+      <c r="P315">
+        <v>1.7</v>
+      </c>
+      <c r="Q315">
+        <v>0.5</v>
+      </c>
+      <c r="R315">
+        <v>2.125</v>
+      </c>
+      <c r="S315">
         <v>1.75</v>
       </c>
-      <c r="O315">
-        <v>3.4</v>
-      </c>
-      <c r="P315">
-        <v>3.8</v>
-      </c>
-      <c r="Q315">
-        <v>-0.5</v>
-      </c>
-      <c r="R315">
-        <v>1.825</v>
-      </c>
-      <c r="S315">
-        <v>2.025</v>
-      </c>
       <c r="T315">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U315">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V315">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W315">
         <v>0</v>
@@ -28557,450 +28557,6 @@
         <v>0</v>
       </c>
       <c r="AA315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:29">
-      <c r="A316" s="1">
-        <v>314</v>
-      </c>
-      <c r="B316">
-        <v>6886974</v>
-      </c>
-      <c r="C316" t="s">
-        <v>28</v>
-      </c>
-      <c r="D316" t="s">
-        <v>28</v>
-      </c>
-      <c r="E316" s="2">
-        <v>45339.41666666666</v>
-      </c>
-      <c r="F316" t="s">
-        <v>44</v>
-      </c>
-      <c r="G316" t="s">
-        <v>41</v>
-      </c>
-      <c r="K316">
-        <v>2.6</v>
-      </c>
-      <c r="L316">
-        <v>4</v>
-      </c>
-      <c r="M316">
-        <v>2.1</v>
-      </c>
-      <c r="N316">
-        <v>3</v>
-      </c>
-      <c r="O316">
-        <v>3.8</v>
-      </c>
-      <c r="P316">
-        <v>1.95</v>
-      </c>
-      <c r="Q316">
-        <v>0.5</v>
-      </c>
-      <c r="R316">
-        <v>1.85</v>
-      </c>
-      <c r="S316">
-        <v>2</v>
-      </c>
-      <c r="T316">
-        <v>3</v>
-      </c>
-      <c r="U316">
-        <v>2.05</v>
-      </c>
-      <c r="V316">
-        <v>1.8</v>
-      </c>
-      <c r="W316">
-        <v>0</v>
-      </c>
-      <c r="X316">
-        <v>0</v>
-      </c>
-      <c r="Y316">
-        <v>0</v>
-      </c>
-      <c r="Z316">
-        <v>0</v>
-      </c>
-      <c r="AA316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:29">
-      <c r="A317" s="1">
-        <v>315</v>
-      </c>
-      <c r="B317">
-        <v>6886973</v>
-      </c>
-      <c r="C317" t="s">
-        <v>28</v>
-      </c>
-      <c r="D317" t="s">
-        <v>28</v>
-      </c>
-      <c r="E317" s="2">
-        <v>45339.41666666666</v>
-      </c>
-      <c r="F317" t="s">
-        <v>33</v>
-      </c>
-      <c r="G317" t="s">
-        <v>48</v>
-      </c>
-      <c r="K317">
-        <v>1.4</v>
-      </c>
-      <c r="L317">
-        <v>4.5</v>
-      </c>
-      <c r="M317">
-        <v>5.5</v>
-      </c>
-      <c r="N317">
-        <v>1.363</v>
-      </c>
-      <c r="O317">
-        <v>4.2</v>
-      </c>
-      <c r="P317">
-        <v>6.5</v>
-      </c>
-      <c r="Q317">
-        <v>-1.25</v>
-      </c>
-      <c r="R317">
-        <v>1.925</v>
-      </c>
-      <c r="S317">
-        <v>1.925</v>
-      </c>
-      <c r="T317">
-        <v>2.75</v>
-      </c>
-      <c r="U317">
-        <v>1.825</v>
-      </c>
-      <c r="V317">
-        <v>2.025</v>
-      </c>
-      <c r="W317">
-        <v>0</v>
-      </c>
-      <c r="X317">
-        <v>0</v>
-      </c>
-      <c r="Y317">
-        <v>0</v>
-      </c>
-      <c r="Z317">
-        <v>0</v>
-      </c>
-      <c r="AA317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:29">
-      <c r="A318" s="1">
-        <v>316</v>
-      </c>
-      <c r="B318">
-        <v>6885378</v>
-      </c>
-      <c r="C318" t="s">
-        <v>28</v>
-      </c>
-      <c r="D318" t="s">
-        <v>28</v>
-      </c>
-      <c r="E318" s="2">
-        <v>45339.41666666666</v>
-      </c>
-      <c r="F318" t="s">
-        <v>37</v>
-      </c>
-      <c r="G318" t="s">
-        <v>47</v>
-      </c>
-      <c r="K318">
-        <v>1.222</v>
-      </c>
-      <c r="L318">
-        <v>5.5</v>
-      </c>
-      <c r="M318">
-        <v>9</v>
-      </c>
-      <c r="N318">
-        <v>1.3</v>
-      </c>
-      <c r="O318">
-        <v>5</v>
-      </c>
-      <c r="P318">
-        <v>7</v>
-      </c>
-      <c r="Q318">
-        <v>-1.5</v>
-      </c>
-      <c r="R318">
-        <v>1.85</v>
-      </c>
-      <c r="S318">
-        <v>2</v>
-      </c>
-      <c r="T318">
-        <v>3.25</v>
-      </c>
-      <c r="U318">
-        <v>2.025</v>
-      </c>
-      <c r="V318">
-        <v>1.825</v>
-      </c>
-      <c r="W318">
-        <v>0</v>
-      </c>
-      <c r="X318">
-        <v>0</v>
-      </c>
-      <c r="Y318">
-        <v>0</v>
-      </c>
-      <c r="Z318">
-        <v>0</v>
-      </c>
-      <c r="AA318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:29">
-      <c r="A319" s="1">
-        <v>317</v>
-      </c>
-      <c r="B319">
-        <v>6882762</v>
-      </c>
-      <c r="C319" t="s">
-        <v>28</v>
-      </c>
-      <c r="D319" t="s">
-        <v>28</v>
-      </c>
-      <c r="E319" s="2">
-        <v>45339.41666666666</v>
-      </c>
-      <c r="F319" t="s">
-        <v>30</v>
-      </c>
-      <c r="G319" t="s">
-        <v>49</v>
-      </c>
-      <c r="K319">
-        <v>1.615</v>
-      </c>
-      <c r="L319">
-        <v>4</v>
-      </c>
-      <c r="M319">
-        <v>4</v>
-      </c>
-      <c r="N319">
-        <v>1.727</v>
-      </c>
-      <c r="O319">
-        <v>3.75</v>
-      </c>
-      <c r="P319">
-        <v>3.75</v>
-      </c>
-      <c r="Q319">
-        <v>-0.75</v>
-      </c>
-      <c r="R319">
-        <v>1.975</v>
-      </c>
-      <c r="S319">
-        <v>1.875</v>
-      </c>
-      <c r="T319">
-        <v>2.75</v>
-      </c>
-      <c r="U319">
-        <v>1.975</v>
-      </c>
-      <c r="V319">
-        <v>1.875</v>
-      </c>
-      <c r="W319">
-        <v>0</v>
-      </c>
-      <c r="X319">
-        <v>0</v>
-      </c>
-      <c r="Y319">
-        <v>0</v>
-      </c>
-      <c r="Z319">
-        <v>0</v>
-      </c>
-      <c r="AA319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:29">
-      <c r="A320" s="1">
-        <v>318</v>
-      </c>
-      <c r="B320">
-        <v>6886972</v>
-      </c>
-      <c r="C320" t="s">
-        <v>28</v>
-      </c>
-      <c r="D320" t="s">
-        <v>28</v>
-      </c>
-      <c r="E320" s="2">
-        <v>45339.41666666666</v>
-      </c>
-      <c r="F320" t="s">
-        <v>45</v>
-      </c>
-      <c r="G320" t="s">
-        <v>39</v>
-      </c>
-      <c r="K320">
-        <v>2.55</v>
-      </c>
-      <c r="L320">
-        <v>3.75</v>
-      </c>
-      <c r="M320">
-        <v>2.2</v>
-      </c>
-      <c r="N320">
-        <v>2.5</v>
-      </c>
-      <c r="O320">
-        <v>3.6</v>
-      </c>
-      <c r="P320">
-        <v>2.3</v>
-      </c>
-      <c r="Q320">
-        <v>0</v>
-      </c>
-      <c r="R320">
-        <v>2</v>
-      </c>
-      <c r="S320">
-        <v>1.85</v>
-      </c>
-      <c r="T320">
-        <v>2.75</v>
-      </c>
-      <c r="U320">
-        <v>2.025</v>
-      </c>
-      <c r="V320">
-        <v>1.825</v>
-      </c>
-      <c r="W320">
-        <v>0</v>
-      </c>
-      <c r="X320">
-        <v>0</v>
-      </c>
-      <c r="Y320">
-        <v>0</v>
-      </c>
-      <c r="Z320">
-        <v>0</v>
-      </c>
-      <c r="AA320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:27">
-      <c r="A321" s="1">
-        <v>319</v>
-      </c>
-      <c r="B321">
-        <v>6884505</v>
-      </c>
-      <c r="C321" t="s">
-        <v>28</v>
-      </c>
-      <c r="D321" t="s">
-        <v>28</v>
-      </c>
-      <c r="E321" s="2">
-        <v>45340.41666666666</v>
-      </c>
-      <c r="F321" t="s">
-        <v>35</v>
-      </c>
-      <c r="G321" t="s">
-        <v>29</v>
-      </c>
-      <c r="K321">
-        <v>2.7</v>
-      </c>
-      <c r="L321">
-        <v>3.75</v>
-      </c>
-      <c r="M321">
-        <v>2.1</v>
-      </c>
-      <c r="N321">
-        <v>4</v>
-      </c>
-      <c r="O321">
-        <v>4</v>
-      </c>
-      <c r="P321">
-        <v>1.7</v>
-      </c>
-      <c r="Q321">
-        <v>0.5</v>
-      </c>
-      <c r="R321">
-        <v>2.125</v>
-      </c>
-      <c r="S321">
-        <v>1.75</v>
-      </c>
-      <c r="T321">
-        <v>3</v>
-      </c>
-      <c r="U321">
-        <v>1.925</v>
-      </c>
-      <c r="V321">
-        <v>1.925</v>
-      </c>
-      <c r="W321">
-        <v>0</v>
-      </c>
-      <c r="X321">
-        <v>0</v>
-      </c>
-      <c r="Y321">
-        <v>0</v>
-      </c>
-      <c r="Z321">
-        <v>0</v>
-      </c>
-      <c r="AA321">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5244153</v>
+        <v>5245639</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L41">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="N41">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P41">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R41">
+        <v>1.825</v>
+      </c>
+      <c r="S41">
         <v>1.975</v>
-      </c>
-      <c r="S41">
-        <v>1.825</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z41">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5245639</v>
+        <v>5244153</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M42">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="N42">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="O42">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
+        <v>1.975</v>
+      </c>
+      <c r="S42">
         <v>1.825</v>
-      </c>
-      <c r="S42">
-        <v>1.975</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5245643</v>
+        <v>5245640</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4651,13 +4651,13 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -4666,40 +4666,40 @@
         <v>52</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="L47">
         <v>3.4</v>
       </c>
       <c r="M47">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="N47">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="Q47">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4708,19 +4708,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.833</v>
+        <v>1.9</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB47">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5245640</v>
+        <v>5245643</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,13 +4740,13 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4755,40 +4755,40 @@
         <v>52</v>
       </c>
       <c r="K48">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L48">
         <v>3.4</v>
       </c>
       <c r="M48">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="N48">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
+        <v>1.85</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
         <v>1.8</v>
       </c>
-      <c r="T48">
-        <v>2.25</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4797,19 +4797,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.9</v>
+        <v>0.833</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB48">
         <v>0.8</v>
       </c>
-      <c r="AB48">
-        <v>-0.5</v>
-      </c>
       <c r="AC48">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -6508,7 +6508,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5245665</v>
+        <v>5245661</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6520,76 +6520,76 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="N68">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
+        <v>1.9</v>
+      </c>
+      <c r="S68">
+        <v>1.9</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
         <v>1.825</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>1.975</v>
       </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.775</v>
-      </c>
-      <c r="V68">
-        <v>2.025</v>
-      </c>
       <c r="W68">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5245661</v>
+        <v>5245665</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,76 +6609,76 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K69">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="L69">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V69">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X69">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5245664</v>
+        <v>5246910</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,76 +6965,76 @@
         <v>45017.375</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K73">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
+        <v>1.9</v>
+      </c>
+      <c r="S73">
         <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.9</v>
       </c>
       <c r="T73">
         <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5246910</v>
+        <v>5245664</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,76 +7054,76 @@
         <v>45017.375</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="N74">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
         <v>1.9</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X74">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -10780,7 +10780,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5419782</v>
+        <v>5419780</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10792,73 +10792,73 @@
         <v>45052.375</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K116">
+        <v>3.4</v>
+      </c>
+      <c r="L116">
+        <v>3.4</v>
+      </c>
+      <c r="M116">
         <v>1.909</v>
       </c>
-      <c r="L116">
-        <v>3.5</v>
-      </c>
-      <c r="M116">
-        <v>3.2</v>
-      </c>
       <c r="N116">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q116">
         <v>0</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10869,7 +10869,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5419780</v>
+        <v>5419782</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10881,73 +10881,73 @@
         <v>45052.375</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K117">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M117">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N117">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q117">
         <v>0</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB117">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10958,7 +10958,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5423331</v>
+        <v>5419783</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10970,55 +10970,55 @@
         <v>45052.375</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
         <v>52</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="L118">
         <v>3.5</v>
       </c>
       <c r="M118">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N118">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q118">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
         <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11027,19 +11027,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.55</v>
+        <v>1.625</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11047,7 +11047,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5419783</v>
+        <v>5423331</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11059,55 +11059,55 @@
         <v>45052.375</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>52</v>
       </c>
       <c r="K119">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="L119">
         <v>3.5</v>
       </c>
       <c r="M119">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N119">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="O119">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11116,19 +11116,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.625</v>
+        <v>0.55</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11759,7 +11759,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5246921</v>
+        <v>5461061</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11771,76 +11771,76 @@
         <v>45059.375</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K127">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="L127">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="M127">
-        <v>2.375</v>
+        <v>11</v>
       </c>
       <c r="N127">
-        <v>2.7</v>
+        <v>1.125</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P127">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R127">
         <v>1.9</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="U127">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11848,7 +11848,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5461061</v>
+        <v>5246921</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11860,76 +11860,76 @@
         <v>45059.375</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K128">
-        <v>1.181</v>
+        <v>2.375</v>
       </c>
       <c r="L128">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="M128">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="N128">
-        <v>1.125</v>
+        <v>2.7</v>
       </c>
       <c r="O128">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="Q128">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
         <v>1.9</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W128">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12115,7 +12115,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6885362</v>
+        <v>6886876</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12127,13 +12127,13 @@
         <v>45136.375</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12142,43 +12142,43 @@
         <v>51</v>
       </c>
       <c r="K131">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
+        <v>3.5</v>
+      </c>
+      <c r="M131">
+        <v>2.5</v>
+      </c>
+      <c r="N131">
+        <v>4.2</v>
+      </c>
+      <c r="O131">
         <v>3.6</v>
       </c>
-      <c r="M131">
-        <v>2.8</v>
-      </c>
-      <c r="N131">
-        <v>2</v>
-      </c>
-      <c r="O131">
-        <v>3.75</v>
-      </c>
       <c r="P131">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
         <v>3</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12187,7 +12187,7 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA131">
         <v>-1</v>
@@ -12196,7 +12196,7 @@
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12204,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6880527</v>
+        <v>6885362</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,76 +12216,76 @@
         <v>45136.375</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H132">
         <v>2</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K132">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L132">
+        <v>3.6</v>
+      </c>
+      <c r="M132">
+        <v>2.8</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132">
         <v>3.75</v>
       </c>
-      <c r="M132">
-        <v>3.25</v>
-      </c>
-      <c r="N132">
-        <v>1.666</v>
-      </c>
-      <c r="O132">
-        <v>4</v>
-      </c>
       <c r="P132">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6886876</v>
+        <v>6880527</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,76 +12305,76 @@
         <v>45136.375</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K133">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N133">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U133">
         <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6884521</v>
+        <v>6880528</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13195,58 +13195,58 @@
         <v>45143.375</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>51</v>
       </c>
       <c r="K143">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L143">
         <v>3.6</v>
       </c>
       <c r="M143">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P143">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S143">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13255,16 +13255,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6886881</v>
+        <v>6884521</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,46 +13284,46 @@
         <v>45143.375</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K144">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="L144">
         <v>3.6</v>
       </c>
       <c r="M144">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N144">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
         <v>3.25</v>
@@ -13335,10 +13335,10 @@
         <v>1.9</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X144">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
@@ -13361,7 +13361,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6880528</v>
+        <v>6886881</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13373,76 +13373,76 @@
         <v>45143.375</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K145">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="L145">
         <v>3.6</v>
       </c>
       <c r="M145">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N145">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6886885</v>
+        <v>6886887</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45150.375</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
         <v>1</v>
       </c>
-      <c r="I151">
-        <v>4</v>
-      </c>
       <c r="J151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K151">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L151">
+        <v>3.6</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
+        <v>2.3</v>
+      </c>
+      <c r="O151">
         <v>3.5</v>
       </c>
-      <c r="M151">
-        <v>3.2</v>
-      </c>
-      <c r="N151">
-        <v>1.727</v>
-      </c>
-      <c r="O151">
-        <v>3.6</v>
-      </c>
       <c r="P151">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q151">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S151">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
         <v>3</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA151">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6886887</v>
+        <v>6886885</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45150.375</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L152">
+        <v>3.5</v>
+      </c>
+      <c r="M152">
+        <v>3.2</v>
+      </c>
+      <c r="N152">
+        <v>1.727</v>
+      </c>
+      <c r="O152">
         <v>3.6</v>
       </c>
-      <c r="M152">
-        <v>3</v>
-      </c>
-      <c r="N152">
-        <v>2.3</v>
-      </c>
-      <c r="O152">
-        <v>3.5</v>
-      </c>
       <c r="P152">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T152">
         <v>3</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6880530</v>
+        <v>6886892</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,76 +14530,76 @@
         <v>45157.375</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K158">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L158">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="N158">
+        <v>1.45</v>
+      </c>
+      <c r="O158">
+        <v>4.2</v>
+      </c>
+      <c r="P158">
+        <v>5</v>
+      </c>
+      <c r="Q158">
+        <v>-1</v>
+      </c>
+      <c r="R158">
         <v>1.8</v>
       </c>
-      <c r="O158">
-        <v>3.5</v>
-      </c>
-      <c r="P158">
-        <v>3.6</v>
-      </c>
-      <c r="Q158">
-        <v>-0.75</v>
-      </c>
-      <c r="R158">
-        <v>2</v>
-      </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T158">
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z158">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6884523</v>
+        <v>6880530</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,43 +14619,43 @@
         <v>45157.375</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>51</v>
       </c>
       <c r="K159">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L159">
         <v>3.25</v>
       </c>
       <c r="M159">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N159">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O159">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P159">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q159">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S159">
         <v>1.8</v>
@@ -14664,13 +14664,13 @@
         <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14679,16 +14679,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6885364</v>
+        <v>6884523</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14708,76 +14708,76 @@
         <v>45157.375</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K160">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L160">
         <v>3.25</v>
       </c>
       <c r="M160">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N160">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O160">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P160">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q160">
         <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S160">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X160">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA160">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6886892</v>
+        <v>6885364</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,76 +14797,76 @@
         <v>45157.375</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K161">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L161">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M161">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N161">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O161">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P161">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y161">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB161">
         <v>-1</v>
       </c>
       <c r="AC161">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6886893</v>
+        <v>6886891</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,76 +14886,76 @@
         <v>45157.375</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K162">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N162">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O162">
         <v>3.5</v>
       </c>
       <c r="P162">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R162">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S162">
         <v>2</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y162">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6886891</v>
+        <v>6886893</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,76 +14975,76 @@
         <v>45157.375</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G163" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J163" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K163">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M163">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N163">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O163">
         <v>3.5</v>
       </c>
       <c r="P163">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="Q163">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S163">
         <v>2</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15408,7 +15408,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6886897</v>
+        <v>6886896</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15420,76 +15420,76 @@
         <v>45164.375</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K168">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L168">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N168">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O168">
         <v>3.6</v>
       </c>
       <c r="P168">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S168">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
         <v>3</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB168">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC168">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6886896</v>
+        <v>6882779</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,76 +15509,76 @@
         <v>45164.375</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K169">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L169">
         <v>4</v>
       </c>
       <c r="M169">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="N169">
+        <v>1.533</v>
+      </c>
+      <c r="O169">
+        <v>4</v>
+      </c>
+      <c r="P169">
+        <v>5</v>
+      </c>
+      <c r="Q169">
+        <v>-1</v>
+      </c>
+      <c r="R169">
         <v>1.85</v>
       </c>
-      <c r="O169">
-        <v>3.6</v>
-      </c>
-      <c r="P169">
-        <v>3.3</v>
-      </c>
-      <c r="Q169">
-        <v>-0.5</v>
-      </c>
-      <c r="R169">
+      <c r="S169">
         <v>1.95</v>
       </c>
-      <c r="S169">
-        <v>1.9</v>
-      </c>
       <c r="T169">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U169">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA169">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6882779</v>
+        <v>6884524</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,76 +15598,76 @@
         <v>45164.375</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K170">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="N170">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="O170">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P170">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q170">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V170">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W170">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC170">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6884524</v>
+        <v>6886897</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,76 +15687,76 @@
         <v>45164.375</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K171">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L171">
+        <v>3.75</v>
+      </c>
+      <c r="M171">
+        <v>2.25</v>
+      </c>
+      <c r="N171">
+        <v>2.55</v>
+      </c>
+      <c r="O171">
         <v>3.6</v>
       </c>
-      <c r="M171">
-        <v>2.1</v>
-      </c>
-      <c r="N171">
-        <v>3.5</v>
-      </c>
-      <c r="O171">
-        <v>3.5</v>
-      </c>
       <c r="P171">
+        <v>2.25</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
         <v>1.85</v>
-      </c>
-      <c r="Q171">
-        <v>0.5</v>
-      </c>
-      <c r="R171">
-        <v>1.925</v>
-      </c>
-      <c r="S171">
-        <v>1.875</v>
       </c>
       <c r="T171">
         <v>3</v>
       </c>
       <c r="U171">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X171">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6882778</v>
+        <v>6884525</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,67 +16132,67 @@
         <v>45171.375</v>
       </c>
       <c r="F176" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M176">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="N176">
-        <v>3.1</v>
+        <v>1.222</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P176">
+        <v>8</v>
+      </c>
+      <c r="Q176">
+        <v>-1.75</v>
+      </c>
+      <c r="R176">
+        <v>1.875</v>
+      </c>
+      <c r="S176">
+        <v>1.925</v>
+      </c>
+      <c r="T176">
+        <v>3.25</v>
+      </c>
+      <c r="U176">
         <v>1.95</v>
       </c>
-      <c r="Q176">
-        <v>0.25</v>
-      </c>
-      <c r="R176">
-        <v>2.05</v>
-      </c>
-      <c r="S176">
-        <v>1.8</v>
-      </c>
-      <c r="T176">
-        <v>2.75</v>
-      </c>
-      <c r="U176">
-        <v>1.925</v>
-      </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.5249999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA176">
         <v>-0.5</v>
@@ -16201,7 +16201,7 @@
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6884525</v>
+        <v>6882778</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,67 +16221,67 @@
         <v>45171.375</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G177" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K177">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="L177">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="N177">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="O177">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q177">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S177">
+        <v>1.8</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
         <v>1.925</v>
       </c>
-      <c r="T177">
-        <v>3.25</v>
-      </c>
-      <c r="U177">
-        <v>1.95</v>
-      </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.4375</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA177">
         <v>-0.5</v>
@@ -16290,7 +16290,7 @@
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6885366</v>
+        <v>6886899</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,58 +16310,58 @@
         <v>45171.375</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="L178">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M178">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="N178">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T178">
         <v>3</v>
       </c>
       <c r="U178">
+        <v>1.825</v>
+      </c>
+      <c r="V178">
         <v>1.975</v>
       </c>
-      <c r="V178">
-        <v>1.825</v>
-      </c>
       <c r="W178">
-        <v>1.375</v>
+        <v>0.444</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16370,13 +16370,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6886899</v>
+        <v>6885366</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,58 +16488,58 @@
         <v>45171.375</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
         <v>51</v>
       </c>
       <c r="K180">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="L180">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M180">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="N180">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P180">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T180">
         <v>3</v>
       </c>
       <c r="U180">
+        <v>1.975</v>
+      </c>
+      <c r="V180">
         <v>1.825</v>
       </c>
-      <c r="V180">
-        <v>1.975</v>
-      </c>
       <c r="W180">
-        <v>0.444</v>
+        <v>1.375</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16548,13 +16548,13 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6886906</v>
+        <v>6884491</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,76 +17289,76 @@
         <v>45185.375</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K189">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L189">
         <v>3.75</v>
       </c>
       <c r="M189">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N189">
         <v>1.95</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P189">
         <v>3</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X189">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6884491</v>
+        <v>6886906</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,76 +17378,76 @@
         <v>45185.375</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K190">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L190">
         <v>3.75</v>
       </c>
       <c r="M190">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N190">
         <v>1.95</v>
       </c>
       <c r="O190">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
         <v>3</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
+        <v>2.025</v>
+      </c>
+      <c r="S190">
         <v>1.825</v>
       </c>
-      <c r="S190">
-        <v>1.975</v>
-      </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
+        <v>-1</v>
+      </c>
+      <c r="AA190">
         <v>0.825</v>
       </c>
-      <c r="AA190">
-        <v>-1</v>
-      </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18345,7 +18345,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6886914</v>
+        <v>6884528</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18357,37 +18357,37 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H201">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>51</v>
       </c>
       <c r="K201">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M201">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N201">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P201">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="Q201">
         <v>1</v>
@@ -18399,16 +18399,16 @@
         <v>2.025</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U201">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V201">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18423,10 +18423,10 @@
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18434,7 +18434,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6884528</v>
+        <v>6886914</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18446,37 +18446,37 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H202">
+        <v>4</v>
+      </c>
+      <c r="I202">
         <v>1</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
       </c>
       <c r="J202" t="s">
         <v>51</v>
       </c>
       <c r="K202">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L202">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N202">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O202">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -18488,16 +18488,16 @@
         <v>2.025</v>
       </c>
       <c r="T202">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18512,10 +18512,10 @@
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC202">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6886915</v>
+        <v>6884493</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,10 +18802,10 @@
         <v>45199.375</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -18817,31 +18817,31 @@
         <v>53</v>
       </c>
       <c r="K206">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L206">
         <v>3.6</v>
       </c>
       <c r="M206">
+        <v>2.8</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206">
+        <v>3.6</v>
+      </c>
+      <c r="P206">
+        <v>3</v>
+      </c>
+      <c r="Q206">
+        <v>-0.25</v>
+      </c>
+      <c r="R206">
         <v>1.8</v>
       </c>
-      <c r="N206">
-        <v>4.75</v>
-      </c>
-      <c r="O206">
-        <v>4</v>
-      </c>
-      <c r="P206">
-        <v>1.533</v>
-      </c>
-      <c r="Q206">
-        <v>1</v>
-      </c>
-      <c r="R206">
-        <v>1.825</v>
-      </c>
       <c r="S206">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T206">
         <v>2.75</v>
@@ -18856,16 +18856,16 @@
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB206">
         <v>-1</v>
@@ -18879,7 +18879,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6884493</v>
+        <v>6886915</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18891,10 +18891,10 @@
         <v>45199.375</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18906,31 +18906,31 @@
         <v>53</v>
       </c>
       <c r="K207">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L207">
         <v>3.6</v>
       </c>
       <c r="M207">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N207">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="O207">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P207">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T207">
         <v>2.75</v>
@@ -18945,16 +18945,16 @@
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA207">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
         <v>-1</v>
@@ -19324,7 +19324,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6885368</v>
+        <v>6886917</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19336,76 +19336,76 @@
         <v>45206.375</v>
       </c>
       <c r="F212" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G212" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K212">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L212">
+        <v>3.75</v>
+      </c>
+      <c r="M212">
+        <v>3.1</v>
+      </c>
+      <c r="N212">
+        <v>2.55</v>
+      </c>
+      <c r="O212">
         <v>3.6</v>
       </c>
-      <c r="M212">
-        <v>3.4</v>
-      </c>
-      <c r="N212">
-        <v>1.615</v>
-      </c>
-      <c r="O212">
-        <v>4</v>
-      </c>
       <c r="P212">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q212">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T212">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V212">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z212">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB212">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19413,7 +19413,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6886917</v>
+        <v>6886918</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19425,55 +19425,55 @@
         <v>45206.375</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J213" t="s">
         <v>52</v>
       </c>
       <c r="K213">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L213">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M213">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N213">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O213">
         <v>3.6</v>
       </c>
       <c r="P213">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q213">
         <v>0</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19482,19 +19482,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="AC213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6886918</v>
+        <v>6886921</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,40 +19514,40 @@
         <v>45206.375</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
         <v>0</v>
       </c>
-      <c r="I214">
+      <c r="J214" t="s">
+        <v>51</v>
+      </c>
+      <c r="K214">
+        <v>1.666</v>
+      </c>
+      <c r="L214">
+        <v>3.75</v>
+      </c>
+      <c r="M214">
         <v>4</v>
       </c>
-      <c r="J214" t="s">
-        <v>52</v>
-      </c>
-      <c r="K214">
-        <v>2.5</v>
-      </c>
-      <c r="L214">
-        <v>3.6</v>
-      </c>
-      <c r="M214">
-        <v>2.3</v>
-      </c>
       <c r="N214">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
         <v>1.975</v>
@@ -19556,34 +19556,34 @@
         <v>1.825</v>
       </c>
       <c r="T214">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA214">
+        <v>-0.5</v>
+      </c>
+      <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
         <v>0.825</v>
-      </c>
-      <c r="AB214">
-        <v>0.875</v>
-      </c>
-      <c r="AC214">
-        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19591,7 +19591,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6884529</v>
+        <v>6885368</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19603,73 +19603,73 @@
         <v>45206.375</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215" t="s">
+        <v>51</v>
+      </c>
+      <c r="K215">
+        <v>1.833</v>
+      </c>
+      <c r="L215">
+        <v>3.6</v>
+      </c>
+      <c r="M215">
+        <v>3.4</v>
+      </c>
+      <c r="N215">
+        <v>1.615</v>
+      </c>
+      <c r="O215">
         <v>4</v>
       </c>
-      <c r="J215" t="s">
-        <v>52</v>
-      </c>
-      <c r="K215">
-        <v>1.363</v>
-      </c>
-      <c r="L215">
-        <v>4.75</v>
-      </c>
-      <c r="M215">
-        <v>6</v>
-      </c>
-      <c r="N215">
-        <v>1.45</v>
-      </c>
-      <c r="O215">
+      <c r="P215">
         <v>4.2</v>
       </c>
-      <c r="P215">
-        <v>5</v>
-      </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
+        <v>3.25</v>
+      </c>
+      <c r="U215">
+        <v>2</v>
+      </c>
+      <c r="V215">
         <v>1.8</v>
       </c>
-      <c r="T215">
-        <v>3</v>
-      </c>
-      <c r="U215">
-        <v>1.875</v>
-      </c>
-      <c r="V215">
-        <v>1.925</v>
-      </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19680,7 +19680,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6886921</v>
+        <v>6884529</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19692,76 +19692,76 @@
         <v>45206.375</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K216">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M216">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N216">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="O216">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P216">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q216">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T216">
         <v>3</v>
       </c>
       <c r="U216">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W216">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z216">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC216">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -22261,7 +22261,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6882770</v>
+        <v>6886939</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22273,13 +22273,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F245" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G245" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>3</v>
@@ -22288,40 +22288,40 @@
         <v>52</v>
       </c>
       <c r="K245">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L245">
         <v>4.5</v>
       </c>
       <c r="M245">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N245">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O245">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P245">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q245">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T245">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V245">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
         <v>-1</v>
@@ -22330,16 +22330,16 @@
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB245">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC245">
         <v>-1</v>
@@ -22350,7 +22350,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6884532</v>
+        <v>6880538</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22362,58 +22362,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G246" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
         <v>51</v>
       </c>
       <c r="K246">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L246">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M246">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N246">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O246">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P246">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R246">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S246">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T246">
         <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22422,13 +22422,13 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.4625</v>
+        <v>0.5</v>
       </c>
       <c r="AC246">
         <v>-0.5</v>
@@ -22439,7 +22439,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6886935</v>
+        <v>6882770</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22451,13 +22451,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G247" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247">
         <v>3</v>
@@ -22466,40 +22466,40 @@
         <v>52</v>
       </c>
       <c r="K247">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="L247">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M247">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="N247">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O247">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P247">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q247">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R247">
+        <v>1.85</v>
+      </c>
+      <c r="S247">
         <v>1.95</v>
       </c>
-      <c r="S247">
-        <v>1.9</v>
-      </c>
       <c r="T247">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U247">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V247">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W247">
         <v>-1</v>
@@ -22508,16 +22508,16 @@
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB247">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22528,7 +22528,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6886936</v>
+        <v>6884532</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22540,76 +22540,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G248" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K248">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="L248">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M248">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N248">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O248">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q248">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R248">
+        <v>1.925</v>
+      </c>
+      <c r="S248">
         <v>1.875</v>
       </c>
-      <c r="S248">
-        <v>1.975</v>
-      </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X248">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA248">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22617,7 +22617,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6886937</v>
+        <v>6886935</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22629,76 +22629,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G249" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J249" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K249">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="L249">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M249">
+        <v>9</v>
+      </c>
+      <c r="N249">
+        <v>1.25</v>
+      </c>
+      <c r="O249">
         <v>6</v>
       </c>
-      <c r="N249">
-        <v>1.2</v>
-      </c>
-      <c r="O249">
+      <c r="P249">
         <v>6.5</v>
       </c>
-      <c r="P249">
-        <v>9</v>
-      </c>
       <c r="Q249">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S249">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T249">
         <v>3.5</v>
       </c>
       <c r="U249">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V249">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W249">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z249">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB249">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC249">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22706,7 +22706,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6886938</v>
+        <v>6886936</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22718,73 +22718,73 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F250" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G250" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250">
+        <v>2</v>
+      </c>
+      <c r="J250" t="s">
+        <v>53</v>
+      </c>
+      <c r="K250">
+        <v>1.6</v>
+      </c>
+      <c r="L250">
+        <v>4.2</v>
+      </c>
+      <c r="M250">
         <v>4</v>
       </c>
-      <c r="J250" t="s">
-        <v>52</v>
-      </c>
-      <c r="K250">
+      <c r="N250">
+        <v>1.65</v>
+      </c>
+      <c r="O250">
+        <v>3.75</v>
+      </c>
+      <c r="P250">
+        <v>4.2</v>
+      </c>
+      <c r="Q250">
+        <v>-0.75</v>
+      </c>
+      <c r="R250">
+        <v>1.875</v>
+      </c>
+      <c r="S250">
+        <v>1.975</v>
+      </c>
+      <c r="T250">
         <v>2.5</v>
       </c>
-      <c r="L250">
-        <v>3.75</v>
-      </c>
-      <c r="M250">
-        <v>2.25</v>
-      </c>
-      <c r="N250">
-        <v>2.1</v>
-      </c>
-      <c r="O250">
-        <v>3.6</v>
-      </c>
-      <c r="P250">
+      <c r="U250">
+        <v>1.9</v>
+      </c>
+      <c r="V250">
+        <v>1.95</v>
+      </c>
+      <c r="W250">
+        <v>-1</v>
+      </c>
+      <c r="X250">
         <v>2.75</v>
       </c>
-      <c r="Q250">
-        <v>-0.25</v>
-      </c>
-      <c r="R250">
-        <v>1.975</v>
-      </c>
-      <c r="S250">
-        <v>1.875</v>
-      </c>
-      <c r="T250">
-        <v>2.75</v>
-      </c>
-      <c r="U250">
-        <v>1.975</v>
-      </c>
-      <c r="V250">
-        <v>1.875</v>
-      </c>
-      <c r="W250">
-        <v>-1</v>
-      </c>
-      <c r="X250">
-        <v>-1</v>
-      </c>
       <c r="Y250">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB250">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC250">
         <v>-1</v>
@@ -22795,7 +22795,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6886939</v>
+        <v>6886937</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22807,76 +22807,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G251" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K251">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L251">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M251">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N251">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P251">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="Q251">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U251">
+        <v>1.925</v>
+      </c>
+      <c r="V251">
         <v>1.875</v>
       </c>
-      <c r="V251">
-        <v>1.975</v>
-      </c>
       <c r="W251">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA251">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
         <v>0.875</v>
-      </c>
-      <c r="AC251">
-        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6880538</v>
+        <v>6886938</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G252" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H252">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J252" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K252">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M252">
+        <v>2.25</v>
+      </c>
+      <c r="N252">
+        <v>2.1</v>
+      </c>
+      <c r="O252">
+        <v>3.6</v>
+      </c>
+      <c r="P252">
         <v>2.75</v>
       </c>
-      <c r="N252">
-        <v>2.5</v>
-      </c>
-      <c r="O252">
-        <v>3.8</v>
-      </c>
-      <c r="P252">
-        <v>2.25</v>
-      </c>
       <c r="Q252">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S252">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T252">
         <v>2.75</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W252">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z252">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB252">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6886941</v>
+        <v>6886940</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G253" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J253" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K253">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L253">
         <v>4</v>
       </c>
       <c r="M253">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="N253">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O253">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P253">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q253">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R253">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S253">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T253">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U253">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V253">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X253">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA253">
         <v>-0.5</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC253">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23062,7 +23062,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6886940</v>
+        <v>6886941</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23074,76 +23074,76 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F254" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G254" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H254">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K254">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L254">
         <v>4</v>
       </c>
       <c r="M254">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="N254">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O254">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P254">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q254">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R254">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S254">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T254">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U254">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V254">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W254">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X254">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AA254">
         <v>-0.5</v>
       </c>
       <c r="AB254">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC254">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -25732,7 +25732,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6880543</v>
+        <v>6886961</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25744,76 +25744,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G284" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J284" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K284">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L284">
         <v>3.75</v>
       </c>
       <c r="M284">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N284">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O284">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P284">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q284">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R284">
+        <v>2.05</v>
+      </c>
+      <c r="S284">
+        <v>1.8</v>
+      </c>
+      <c r="T284">
+        <v>2.75</v>
+      </c>
+      <c r="U284">
+        <v>1.875</v>
+      </c>
+      <c r="V284">
         <v>1.975</v>
       </c>
-      <c r="S284">
-        <v>1.875</v>
-      </c>
-      <c r="T284">
-        <v>2.5</v>
-      </c>
-      <c r="U284">
-        <v>1.925</v>
-      </c>
-      <c r="V284">
-        <v>1.925</v>
-      </c>
       <c r="W284">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z284">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC284">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25821,7 +25821,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6886961</v>
+        <v>6880543</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25833,76 +25833,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G285" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K285">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L285">
         <v>3.75</v>
       </c>
       <c r="M285">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N285">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O285">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P285">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q285">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R285">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S285">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T285">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U285">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V285">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA285">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26533,7 +26533,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6886963</v>
+        <v>6880544</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26545,76 +26545,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F293" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G293" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K293">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L293">
         <v>3.6</v>
       </c>
       <c r="M293">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N293">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P293">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q293">
         <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S293">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T293">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U293">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V293">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y293">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA293">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC293">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26622,7 +26622,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6886966</v>
+        <v>6886963</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26634,52 +26634,52 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F294" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G294" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
         <v>52</v>
       </c>
       <c r="K294">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L294">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M294">
         <v>2.875</v>
       </c>
       <c r="N294">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O294">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P294">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q294">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
+        <v>1.975</v>
+      </c>
+      <c r="S294">
         <v>1.825</v>
-      </c>
-      <c r="S294">
-        <v>2.025</v>
       </c>
       <c r="T294">
         <v>2.5</v>
       </c>
       <c r="U294">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V294">
         <v>1.95</v>
@@ -26691,19 +26691,19 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>1.625</v>
+        <v>1.875</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB294">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26711,7 +26711,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6880544</v>
+        <v>6886966</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26723,73 +26723,73 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H295">
         <v>2</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J295" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K295">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L295">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M295">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N295">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O295">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P295">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q295">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R295">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S295">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T295">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U295">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V295">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W295">
         <v>-1</v>
       </c>
       <c r="X295">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y295">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z295">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AB295">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -27156,7 +27156,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7691489</v>
+        <v>7764092</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27168,55 +27168,55 @@
         <v>45328.64583333334</v>
       </c>
       <c r="F300" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G300" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H300">
         <v>0</v>
       </c>
       <c r="I300">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J300" t="s">
         <v>52</v>
       </c>
       <c r="K300">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="L300">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M300">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N300">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O300">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P300">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R300">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S300">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T300">
         <v>2.75</v>
       </c>
       <c r="U300">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V300">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W300">
         <v>-1</v>
@@ -27225,19 +27225,19 @@
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="Z300">
         <v>-1</v>
       </c>
       <c r="AA300">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC300">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27245,7 +27245,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7764092</v>
+        <v>7691489</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27257,55 +27257,55 @@
         <v>45328.64583333334</v>
       </c>
       <c r="F301" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G301" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H301">
         <v>0</v>
       </c>
       <c r="I301">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J301" t="s">
         <v>52</v>
       </c>
       <c r="K301">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="L301">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M301">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N301">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O301">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P301">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q301">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S301">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T301">
         <v>2.75</v>
       </c>
       <c r="U301">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V301">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W301">
         <v>-1</v>
@@ -27314,19 +27314,19 @@
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="Z301">
         <v>-1</v>
       </c>
       <c r="AA301">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB301">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -28518,31 +28518,31 @@
         <v>2.1</v>
       </c>
       <c r="N315">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O315">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P315">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="Q315">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R315">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="S315">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T315">
         <v>3</v>
       </c>
       <c r="U315">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V315">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W315">
         <v>0</v>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC330"/>
+  <dimension ref="A1:AC325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5245629</v>
+        <v>5245627</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L22">
         <v>3.5</v>
       </c>
       <c r="M22">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O22">
+        <v>3.2</v>
+      </c>
+      <c r="P22">
         <v>3.4</v>
-      </c>
-      <c r="P22">
-        <v>2.9</v>
       </c>
       <c r="Q22">
         <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>2.2</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5245627</v>
+        <v>5245629</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L23">
         <v>3.5</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>2.2</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.7</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5245636</v>
+        <v>5245631</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,76 +3494,76 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L34">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="N34">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="O34">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P34">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q34">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T34">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5246914</v>
+        <v>5245636</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,76 +3583,76 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L35">
+        <v>4.333</v>
+      </c>
+      <c r="M35">
+        <v>5.75</v>
+      </c>
+      <c r="N35">
+        <v>1.285</v>
+      </c>
+      <c r="O35">
+        <v>5.25</v>
+      </c>
+      <c r="P35">
+        <v>6.5</v>
+      </c>
+      <c r="Q35">
+        <v>-1.5</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
         <v>3.25</v>
       </c>
-      <c r="M35">
-        <v>2.6</v>
-      </c>
-      <c r="N35">
-        <v>2.45</v>
-      </c>
-      <c r="O35">
-        <v>3.25</v>
-      </c>
-      <c r="P35">
-        <v>2.5</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>1.9</v>
-      </c>
-      <c r="S35">
-        <v>1.9</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X35">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5245637</v>
+        <v>5246914</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,76 +3672,76 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>53</v>
       </c>
       <c r="K36">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M36">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="N36">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="O36">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P36">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q36">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
+        <v>1.825</v>
+      </c>
+      <c r="V36">
         <v>1.975</v>
       </c>
-      <c r="V36">
-        <v>1.825</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3749,7 +3749,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5245632</v>
+        <v>5245637</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3761,28 +3761,28 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="N37">
         <v>5.75</v>
@@ -3797,40 +3797,40 @@
         <v>1.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T37">
         <v>3</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y37">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3838,7 +3838,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5245631</v>
+        <v>5245632</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3850,76 +3850,76 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>3.75</v>
+      </c>
+      <c r="M38">
+        <v>1.666</v>
+      </c>
+      <c r="N38">
+        <v>5.75</v>
+      </c>
+      <c r="O38">
+        <v>4.5</v>
+      </c>
+      <c r="P38">
+        <v>1.4</v>
+      </c>
+      <c r="Q38">
+        <v>1.25</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>1.9</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1.8</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z38">
+        <v>0.45</v>
+      </c>
+      <c r="AA38">
+        <v>-0.5</v>
+      </c>
+      <c r="AB38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38">
-        <v>2.1</v>
-      </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>2.875</v>
-      </c>
-      <c r="N38">
-        <v>2.8</v>
-      </c>
-      <c r="O38">
-        <v>3.3</v>
-      </c>
-      <c r="P38">
-        <v>2.2</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>2.2</v>
-      </c>
-      <c r="S38">
-        <v>1.7</v>
-      </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.975</v>
-      </c>
-      <c r="V38">
-        <v>1.875</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>2.3</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
+      <c r="AC38">
         <v>-0</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5245655</v>
+        <v>6410064</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>3</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L54">
         <v>3.4</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N54">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6410064</v>
+        <v>5245655</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L55">
         <v>3.4</v>
       </c>
       <c r="M55">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N55">
+        <v>3.25</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <v>2.1</v>
+      </c>
+      <c r="Q55">
+        <v>0.25</v>
+      </c>
+      <c r="R55">
+        <v>1.925</v>
+      </c>
+      <c r="S55">
+        <v>1.875</v>
+      </c>
+      <c r="T55">
         <v>2.25</v>
       </c>
-      <c r="O55">
-        <v>3.3</v>
-      </c>
-      <c r="P55">
-        <v>2.8</v>
-      </c>
-      <c r="Q55">
-        <v>-0.25</v>
-      </c>
-      <c r="R55">
-        <v>2.025</v>
-      </c>
-      <c r="S55">
-        <v>1.775</v>
-      </c>
-      <c r="T55">
-        <v>2.75</v>
-      </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA55">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5245657</v>
+        <v>5245656</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,76 +5630,76 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58">
+        <v>2.6</v>
+      </c>
+      <c r="L58">
+        <v>3.3</v>
+      </c>
+      <c r="M58">
+        <v>2.35</v>
+      </c>
+      <c r="N58">
         <v>3</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>51</v>
-      </c>
-      <c r="K58">
-        <v>1.4</v>
-      </c>
-      <c r="L58">
-        <v>4.3</v>
-      </c>
-      <c r="M58">
-        <v>6</v>
-      </c>
-      <c r="N58">
-        <v>1.4</v>
-      </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P58">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q58">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
+        <v>2.025</v>
+      </c>
+      <c r="S58">
         <v>1.825</v>
       </c>
-      <c r="S58">
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
         <v>1.975</v>
       </c>
-      <c r="T58">
-        <v>3.25</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
         <v>0.825</v>
       </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC58">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5245656</v>
+        <v>5245657</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,76 +5719,76 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K59">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L59">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="M59">
-        <v>2.35</v>
+        <v>6</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O59">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R59">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6508,7 +6508,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5245665</v>
+        <v>5245661</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6520,76 +6520,76 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="N68">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
+        <v>1.9</v>
+      </c>
+      <c r="S68">
+        <v>1.9</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
         <v>1.825</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>1.975</v>
       </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.775</v>
-      </c>
-      <c r="V68">
-        <v>2.025</v>
-      </c>
       <c r="W68">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5245661</v>
+        <v>5245665</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,76 +6698,76 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K70">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q70">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X70">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5245669</v>
+        <v>5245668</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,76 +7677,76 @@
         <v>45024.375</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K81">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L81">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N81">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O81">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q81">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7754,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5245670</v>
+        <v>5245669</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7766,58 +7766,58 @@
         <v>45024.375</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>51</v>
       </c>
       <c r="K82">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L82">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M82">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N82">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O82">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P82">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V82">
         <v>1.925</v>
       </c>
       <c r="W82">
-        <v>0.7270000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7826,16 +7826,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7843,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5245671</v>
+        <v>5245670</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7855,76 +7855,76 @@
         <v>45024.375</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K83">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L83">
         <v>3.8</v>
       </c>
       <c r="M83">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="N83">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="O83">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="Q83">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7932,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5245668</v>
+        <v>5245671</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7944,49 +7944,49 @@
         <v>45024.375</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K84">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="N84">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P84">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U84">
         <v>1.8</v>
@@ -7998,16 +7998,16 @@
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -9089,7 +9089,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5355261</v>
+        <v>5355259</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9101,76 +9101,76 @@
         <v>45038.375</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97" t="s">
+        <v>52</v>
+      </c>
+      <c r="K97">
+        <v>3.1</v>
+      </c>
+      <c r="L97">
+        <v>3.6</v>
+      </c>
+      <c r="M97">
+        <v>1.95</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97">
+        <v>3.75</v>
+      </c>
+      <c r="P97">
+        <v>2</v>
+      </c>
+      <c r="Q97">
+        <v>0.25</v>
+      </c>
+      <c r="R97">
+        <v>1.95</v>
+      </c>
+      <c r="S97">
+        <v>1.85</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
+        <v>1.8</v>
+      </c>
+      <c r="V97">
+        <v>2</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
         <v>1</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97" t="s">
-        <v>53</v>
-      </c>
-      <c r="K97">
-        <v>3.4</v>
-      </c>
-      <c r="L97">
-        <v>3.5</v>
-      </c>
-      <c r="M97">
-        <v>1.9</v>
-      </c>
-      <c r="N97">
-        <v>3.5</v>
-      </c>
-      <c r="O97">
-        <v>3.6</v>
-      </c>
-      <c r="P97">
-        <v>1.85</v>
-      </c>
-      <c r="Q97">
-        <v>0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.9</v>
-      </c>
-      <c r="S97">
-        <v>1.95</v>
-      </c>
-      <c r="T97">
-        <v>2.75</v>
-      </c>
-      <c r="U97">
-        <v>2.025</v>
-      </c>
-      <c r="V97">
-        <v>1.825</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>2.6</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
       <c r="Z97">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9178,7 +9178,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5355259</v>
+        <v>5245566</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9190,76 +9190,76 @@
         <v>45038.375</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K98">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M98">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O98">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P98">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q98">
         <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
+        <v>1.875</v>
+      </c>
+      <c r="V98">
+        <v>1.925</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
         <v>3</v>
       </c>
-      <c r="U98">
-        <v>1.8</v>
-      </c>
-      <c r="V98">
-        <v>2</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
       <c r="Y98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9267,7 +9267,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5245566</v>
+        <v>5355261</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9279,10 +9279,10 @@
         <v>45038.375</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9294,61 +9294,61 @@
         <v>53</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L99">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="N99">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6886877</v>
+        <v>6880527</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45136.375</v>
       </c>
       <c r="F135" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="L135">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N135">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>1.875</v>
+      </c>
+      <c r="V135">
+        <v>1.975</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
         <v>3</v>
       </c>
-      <c r="U135">
-        <v>1.9</v>
-      </c>
-      <c r="V135">
-        <v>1.9</v>
-      </c>
-      <c r="W135">
-        <v>1.6</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
       <c r="Z135">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6880527</v>
+        <v>6886877</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45136.375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
+        <v>2.05</v>
+      </c>
+      <c r="L136">
+        <v>3.7</v>
+      </c>
+      <c r="M136">
+        <v>2.9</v>
+      </c>
+      <c r="N136">
+        <v>2.6</v>
+      </c>
+      <c r="O136">
+        <v>3.6</v>
+      </c>
+      <c r="P136">
+        <v>2.25</v>
+      </c>
+      <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.775</v>
+      </c>
+      <c r="S136">
+        <v>2.025</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
         <v>1.9</v>
       </c>
-      <c r="L136">
-        <v>3.75</v>
-      </c>
-      <c r="M136">
-        <v>3.25</v>
-      </c>
-      <c r="N136">
-        <v>1.666</v>
-      </c>
-      <c r="O136">
-        <v>4</v>
-      </c>
-      <c r="P136">
-        <v>4</v>
-      </c>
-      <c r="Q136">
-        <v>-0.75</v>
-      </c>
-      <c r="R136">
-        <v>1.875</v>
-      </c>
-      <c r="S136">
-        <v>1.975</v>
-      </c>
-      <c r="T136">
-        <v>3.25</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6886882</v>
+        <v>6884521</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,73 +13017,73 @@
         <v>45143.375</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>51</v>
+      </c>
+      <c r="K141">
+        <v>1.75</v>
+      </c>
+      <c r="L141">
+        <v>3.6</v>
+      </c>
+      <c r="M141">
+        <v>3.8</v>
+      </c>
+      <c r="N141">
+        <v>1.5</v>
+      </c>
+      <c r="O141">
+        <v>4</v>
+      </c>
+      <c r="P141">
         <v>5</v>
       </c>
-      <c r="J141" t="s">
-        <v>52</v>
-      </c>
-      <c r="K141">
-        <v>2.3</v>
-      </c>
-      <c r="L141">
-        <v>3.8</v>
-      </c>
-      <c r="M141">
-        <v>2.4</v>
-      </c>
-      <c r="N141">
-        <v>2.2</v>
-      </c>
-      <c r="O141">
-        <v>3.8</v>
-      </c>
-      <c r="P141">
-        <v>2.45</v>
-      </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
         <v>3.25</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6884521</v>
+        <v>6886883</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,58 +13106,58 @@
         <v>45143.375</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>51</v>
       </c>
       <c r="K142">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N142">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
+        <v>1.975</v>
+      </c>
+      <c r="S142">
         <v>1.825</v>
       </c>
-      <c r="S142">
-        <v>1.975</v>
-      </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13166,16 +13166,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6886883</v>
+        <v>6886882</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13195,76 +13195,76 @@
         <v>45143.375</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G143" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>5</v>
+      </c>
+      <c r="J143" t="s">
+        <v>52</v>
+      </c>
+      <c r="K143">
+        <v>2.3</v>
+      </c>
+      <c r="L143">
+        <v>3.8</v>
+      </c>
+      <c r="M143">
+        <v>2.4</v>
+      </c>
+      <c r="N143">
+        <v>2.2</v>
+      </c>
+      <c r="O143">
+        <v>3.8</v>
+      </c>
+      <c r="P143">
+        <v>2.45</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1.775</v>
+      </c>
+      <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
+        <v>3.25</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>1.8</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>1.45</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>1.025</v>
+      </c>
+      <c r="AB143">
         <v>1</v>
       </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143" t="s">
-        <v>51</v>
-      </c>
-      <c r="K143">
-        <v>1.55</v>
-      </c>
-      <c r="L143">
-        <v>3.75</v>
-      </c>
-      <c r="M143">
-        <v>5</v>
-      </c>
-      <c r="N143">
-        <v>1.4</v>
-      </c>
-      <c r="O143">
-        <v>4.2</v>
-      </c>
-      <c r="P143">
-        <v>6.5</v>
-      </c>
-      <c r="Q143">
-        <v>-1.25</v>
-      </c>
-      <c r="R143">
-        <v>1.975</v>
-      </c>
-      <c r="S143">
-        <v>1.825</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.85</v>
-      </c>
-      <c r="V143">
-        <v>1.95</v>
-      </c>
-      <c r="W143">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
-      <c r="Z143">
-        <v>-0.5</v>
-      </c>
-      <c r="AA143">
-        <v>0.4125</v>
-      </c>
-      <c r="AB143">
-        <v>-1</v>
-      </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6886884</v>
+        <v>6886881</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,49 +13284,49 @@
         <v>45143.375</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K144">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="L144">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="N144">
         <v>2.25</v>
       </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q144">
         <v>0</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
         <v>1.9</v>
@@ -13338,22 +13338,22 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y144">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13361,7 +13361,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6886881</v>
+        <v>6886884</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13373,49 +13373,49 @@
         <v>45143.375</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K145">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M145">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="N145">
         <v>2.25</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q145">
         <v>0</v>
       </c>
       <c r="R145">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U145">
         <v>1.9</v>
@@ -13427,22 +13427,22 @@
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13717,7 +13717,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6886887</v>
+        <v>6886885</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13729,76 +13729,76 @@
         <v>45150.375</v>
       </c>
       <c r="F149" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>3.2</v>
+      </c>
+      <c r="N149">
+        <v>1.727</v>
+      </c>
+      <c r="O149">
         <v>3.6</v>
       </c>
-      <c r="M149">
-        <v>3</v>
-      </c>
-      <c r="N149">
-        <v>2.3</v>
-      </c>
-      <c r="O149">
-        <v>3.5</v>
-      </c>
       <c r="P149">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
         <v>3</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W149">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z149">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6886888</v>
+        <v>6886887</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,58 +13907,58 @@
         <v>45150.375</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H151">
         <v>2</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L151">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N151">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O151">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q151">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S151">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U151">
+        <v>1.975</v>
+      </c>
+      <c r="V151">
         <v>1.825</v>
       </c>
-      <c r="V151">
-        <v>1.975</v>
-      </c>
       <c r="W151">
-        <v>0.6659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13967,16 +13967,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6886885</v>
+        <v>6886888</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45150.375</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>51</v>
+      </c>
+      <c r="K152">
+        <v>1.666</v>
+      </c>
+      <c r="L152">
+        <v>3.8</v>
+      </c>
+      <c r="M152">
         <v>4</v>
       </c>
-      <c r="J152" t="s">
-        <v>52</v>
-      </c>
-      <c r="K152">
-        <v>1.95</v>
-      </c>
-      <c r="L152">
-        <v>3.5</v>
-      </c>
-      <c r="M152">
-        <v>3.2</v>
-      </c>
       <c r="N152">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q152">
         <v>-0.75</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA152">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6886892</v>
+        <v>6886893</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,55 +14441,55 @@
         <v>45157.375</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J157" t="s">
         <v>52</v>
       </c>
       <c r="K157">
+        <v>1.909</v>
+      </c>
+      <c r="L157">
+        <v>3.75</v>
+      </c>
+      <c r="M157">
+        <v>3.1</v>
+      </c>
+      <c r="N157">
         <v>2.2</v>
       </c>
-      <c r="L157">
-        <v>3.2</v>
-      </c>
-      <c r="M157">
-        <v>2.875</v>
-      </c>
-      <c r="N157">
-        <v>1.45</v>
-      </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S157">
         <v>2</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14498,7 +14498,7 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="Z157">
         <v>-1</v>
@@ -14507,10 +14507,10 @@
         <v>1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6886893</v>
+        <v>6886892</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,55 +14530,55 @@
         <v>45157.375</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>52</v>
       </c>
       <c r="K158">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L158">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P158">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
         <v>2</v>
       </c>
       <c r="T158">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14587,7 +14587,7 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="Z158">
         <v>-1</v>
@@ -14596,10 +14596,10 @@
         <v>1</v>
       </c>
       <c r="AB158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6885364</v>
+        <v>6884523</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,76 +14619,76 @@
         <v>45157.375</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K159">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L159">
         <v>3.25</v>
       </c>
       <c r="M159">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N159">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P159">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q159">
         <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X159">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA159">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
         <v>-1</v>
       </c>
       <c r="AC159">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6884523</v>
+        <v>6885364</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,76 +14797,76 @@
         <v>45157.375</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L161">
         <v>3.25</v>
       </c>
       <c r="M161">
+        <v>2.375</v>
+      </c>
+      <c r="N161">
+        <v>2.15</v>
+      </c>
+      <c r="O161">
+        <v>3.5</v>
+      </c>
+      <c r="P161">
         <v>2.75</v>
-      </c>
-      <c r="N161">
-        <v>2.2</v>
-      </c>
-      <c r="O161">
-        <v>3.25</v>
-      </c>
-      <c r="P161">
-        <v>2.8</v>
       </c>
       <c r="Q161">
         <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB161">
         <v>-1</v>
       </c>
       <c r="AC161">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6880531</v>
+        <v>6882778</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,76 +15954,76 @@
         <v>45171.375</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K174">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L174">
         <v>3.6</v>
       </c>
       <c r="M174">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N174">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O174">
         <v>3.6</v>
       </c>
       <c r="P174">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
+        <v>2.05</v>
+      </c>
+      <c r="S174">
         <v>1.8</v>
       </c>
-      <c r="S174">
-        <v>2</v>
-      </c>
       <c r="T174">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W174">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6882778</v>
+        <v>6880531</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45171.375</v>
       </c>
       <c r="F175" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L175">
         <v>3.6</v>
       </c>
       <c r="M175">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N175">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O175">
         <v>3.6</v>
       </c>
       <c r="P175">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q175">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X175">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.5249999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6886901</v>
+        <v>6885366</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,37 +16221,37 @@
         <v>45171.375</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H177">
         <v>3</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N177">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O177">
         <v>3.6</v>
       </c>
       <c r="P177">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -16266,13 +16266,13 @@
         <v>3</v>
       </c>
       <c r="U177">
+        <v>1.975</v>
+      </c>
+      <c r="V177">
         <v>1.825</v>
       </c>
-      <c r="V177">
-        <v>1.975</v>
-      </c>
       <c r="W177">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16287,10 +16287,10 @@
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6886899</v>
+        <v>6886901</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,46 +16310,46 @@
         <v>45171.375</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="L178">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N178">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
         <v>3</v>
@@ -16361,7 +16361,7 @@
         <v>1.975</v>
       </c>
       <c r="W178">
-        <v>0.444</v>
+        <v>1.3</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16370,16 +16370,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6886898</v>
+        <v>6886899</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16399,76 +16399,76 @@
         <v>45171.375</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>51</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L179">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M179">
+        <v>7.5</v>
+      </c>
+      <c r="N179">
+        <v>1.444</v>
+      </c>
+      <c r="O179">
+        <v>4</v>
+      </c>
+      <c r="P179">
+        <v>6</v>
+      </c>
+      <c r="Q179">
+        <v>-1.25</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>1.8</v>
+      </c>
+      <c r="T179">
         <v>3</v>
       </c>
-      <c r="N179">
-        <v>2</v>
-      </c>
-      <c r="O179">
-        <v>3.5</v>
-      </c>
-      <c r="P179">
-        <v>3</v>
-      </c>
-      <c r="Q179">
-        <v>-0.25</v>
-      </c>
-      <c r="R179">
-        <v>1.85</v>
-      </c>
-      <c r="S179">
-        <v>1.95</v>
-      </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
       <c r="U179">
+        <v>1.825</v>
+      </c>
+      <c r="V179">
         <v>1.975</v>
       </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
+        <v>0.444</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
         <v>1</v>
       </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
-      <c r="Z179">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6885366</v>
+        <v>6886898</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,40 +16488,40 @@
         <v>45171.375</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>51</v>
       </c>
       <c r="K180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L180">
         <v>3.6</v>
       </c>
       <c r="M180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N180">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P180">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
         <v>1.85</v>
@@ -16530,7 +16530,7 @@
         <v>1.95</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
         <v>1.975</v>
@@ -16539,7 +16539,7 @@
         <v>1.825</v>
       </c>
       <c r="W180">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16554,10 +16554,10 @@
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -18345,7 +18345,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6884528</v>
+        <v>6886914</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18357,37 +18357,37 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F201" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H201">
+        <v>4</v>
+      </c>
+      <c r="I201">
         <v>1</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>51</v>
       </c>
       <c r="K201">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L201">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N201">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O201">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="Q201">
         <v>1</v>
@@ -18399,16 +18399,16 @@
         <v>2.025</v>
       </c>
       <c r="T201">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W201">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18423,10 +18423,10 @@
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC201">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18434,7 +18434,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6886914</v>
+        <v>6884528</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18446,37 +18446,37 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G202" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H202">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
         <v>51</v>
       </c>
       <c r="K202">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M202">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N202">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P202">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -18488,16 +18488,16 @@
         <v>2.025</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U202">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V202">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W202">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18512,10 +18512,10 @@
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6882774</v>
+        <v>6886918</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19158,46 +19158,46 @@
         <v>45206.375</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G210" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J210" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K210">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L210">
         <v>3.6</v>
       </c>
       <c r="M210">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N210">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O210">
         <v>3.6</v>
       </c>
       <c r="P210">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T210">
         <v>2.75</v>
@@ -19206,28 +19206,28 @@
         <v>1.875</v>
       </c>
       <c r="V210">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W210">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC210">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19235,7 +19235,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6884529</v>
+        <v>6882774</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19247,76 +19247,76 @@
         <v>45206.375</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G211" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H211">
+        <v>2</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>51</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>3.6</v>
+      </c>
+      <c r="M211">
         <v>3</v>
       </c>
-      <c r="I211">
-        <v>4</v>
-      </c>
-      <c r="J211" t="s">
-        <v>52</v>
-      </c>
-      <c r="K211">
-        <v>1.363</v>
-      </c>
-      <c r="L211">
-        <v>4.75</v>
-      </c>
-      <c r="M211">
-        <v>6</v>
-      </c>
       <c r="N211">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O211">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P211">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q211">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R211">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S211">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T211">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
         <v>1.875</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19324,7 +19324,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6886920</v>
+        <v>6884529</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19336,76 +19336,76 @@
         <v>45206.375</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K212">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="L212">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M212">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N212">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P212">
+        <v>5</v>
+      </c>
+      <c r="Q212">
+        <v>-1.25</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
         <v>3</v>
       </c>
-      <c r="Q212">
-        <v>-0.25</v>
-      </c>
-      <c r="R212">
-        <v>1.8</v>
-      </c>
-      <c r="S212">
-        <v>2.05</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
         <v>1.925</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z212">
+        <v>-1</v>
+      </c>
+      <c r="AA212">
         <v>0.8</v>
       </c>
-      <c r="AA212">
-        <v>-1</v>
-      </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC212">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19413,7 +19413,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6886921</v>
+        <v>6886920</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19425,13 +19425,13 @@
         <v>45206.375</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19440,43 +19440,43 @@
         <v>51</v>
       </c>
       <c r="K213">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L213">
         <v>3.75</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N213">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O213">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W213">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19485,16 +19485,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6885368</v>
+        <v>6886921</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,58 +19514,58 @@
         <v>45206.375</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G214" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>51</v>
       </c>
       <c r="K214">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L214">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O214">
+        <v>3.75</v>
+      </c>
+      <c r="P214">
         <v>4</v>
-      </c>
-      <c r="P214">
-        <v>4.2</v>
       </c>
       <c r="Q214">
         <v>-0.75</v>
       </c>
       <c r="R214">
+        <v>1.975</v>
+      </c>
+      <c r="S214">
         <v>1.825</v>
       </c>
-      <c r="S214">
+      <c r="T214">
+        <v>3</v>
+      </c>
+      <c r="U214">
         <v>1.975</v>
       </c>
-      <c r="T214">
-        <v>3.25</v>
-      </c>
-      <c r="U214">
-        <v>2</v>
-      </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>0.615</v>
+        <v>0.7</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19574,16 +19574,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
+        <v>0.4875</v>
+      </c>
+      <c r="AA214">
+        <v>-0.5</v>
+      </c>
+      <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
         <v>0.825</v>
-      </c>
-      <c r="AA214">
-        <v>-1</v>
-      </c>
-      <c r="AB214">
-        <v>1</v>
-      </c>
-      <c r="AC214">
-        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19591,7 +19591,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6886917</v>
+        <v>6885368</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19603,76 +19603,76 @@
         <v>45206.375</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H215">
+        <v>4</v>
+      </c>
+      <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215" t="s">
+        <v>51</v>
+      </c>
+      <c r="K215">
+        <v>1.833</v>
+      </c>
+      <c r="L215">
+        <v>3.6</v>
+      </c>
+      <c r="M215">
+        <v>3.4</v>
+      </c>
+      <c r="N215">
+        <v>1.615</v>
+      </c>
+      <c r="O215">
+        <v>4</v>
+      </c>
+      <c r="P215">
+        <v>4.2</v>
+      </c>
+      <c r="Q215">
+        <v>-0.75</v>
+      </c>
+      <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
+        <v>3.25</v>
+      </c>
+      <c r="U215">
+        <v>2</v>
+      </c>
+      <c r="V215">
+        <v>1.8</v>
+      </c>
+      <c r="W215">
+        <v>0.615</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>0.825</v>
+      </c>
+      <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
         <v>1</v>
       </c>
-      <c r="I215">
-        <v>2</v>
-      </c>
-      <c r="J215" t="s">
-        <v>52</v>
-      </c>
-      <c r="K215">
-        <v>1.909</v>
-      </c>
-      <c r="L215">
-        <v>3.75</v>
-      </c>
-      <c r="M215">
-        <v>3.1</v>
-      </c>
-      <c r="N215">
-        <v>2.55</v>
-      </c>
-      <c r="O215">
-        <v>3.6</v>
-      </c>
-      <c r="P215">
-        <v>2.25</v>
-      </c>
-      <c r="Q215">
-        <v>0</v>
-      </c>
-      <c r="R215">
-        <v>2</v>
-      </c>
-      <c r="S215">
-        <v>1.8</v>
-      </c>
-      <c r="T215">
-        <v>2.75</v>
-      </c>
-      <c r="U215">
-        <v>1.775</v>
-      </c>
-      <c r="V215">
-        <v>2.025</v>
-      </c>
-      <c r="W215">
-        <v>-1</v>
-      </c>
-      <c r="X215">
-        <v>-1</v>
-      </c>
-      <c r="Y215">
-        <v>1.25</v>
-      </c>
-      <c r="Z215">
-        <v>-1</v>
-      </c>
-      <c r="AA215">
-        <v>0.8</v>
-      </c>
-      <c r="AB215">
-        <v>0.3875</v>
-      </c>
       <c r="AC215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19680,7 +19680,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6886918</v>
+        <v>6886917</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19692,55 +19692,55 @@
         <v>45206.375</v>
       </c>
       <c r="F216" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G216" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>52</v>
       </c>
       <c r="K216">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L216">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M216">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N216">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O216">
         <v>3.6</v>
       </c>
       <c r="P216">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q216">
         <v>0</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T216">
         <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V216">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19749,19 +19749,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB216">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6886928</v>
+        <v>6885370</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,58 +20760,58 @@
         <v>45220.375</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G228" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>51</v>
       </c>
       <c r="K228">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L228">
         <v>4</v>
       </c>
       <c r="M228">
+        <v>3.75</v>
+      </c>
+      <c r="N228">
+        <v>1.5</v>
+      </c>
+      <c r="O228">
+        <v>4.333</v>
+      </c>
+      <c r="P228">
         <v>5</v>
       </c>
-      <c r="N228">
-        <v>1.6</v>
-      </c>
-      <c r="O228">
-        <v>4</v>
-      </c>
-      <c r="P228">
-        <v>4.5</v>
-      </c>
       <c r="Q228">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R228">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S228">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T228">
         <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V228">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20820,16 +20820,16 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC228">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6886926</v>
+        <v>6886928</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,13 +20849,13 @@
         <v>45220.375</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -20864,34 +20864,34 @@
         <v>51</v>
       </c>
       <c r="K229">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="L229">
+        <v>4</v>
+      </c>
+      <c r="M229">
         <v>5</v>
       </c>
-      <c r="M229">
-        <v>7.5</v>
-      </c>
       <c r="N229">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O229">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P229">
         <v>4.5</v>
       </c>
       <c r="Q229">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S229">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
         <v>1.775</v>
@@ -20900,7 +20900,7 @@
         <v>2.025</v>
       </c>
       <c r="W229">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20909,16 +20909,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20926,7 +20926,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6885370</v>
+        <v>6886926</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20938,58 +20938,58 @@
         <v>45220.375</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H230">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
         <v>51</v>
       </c>
       <c r="K230">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M230">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N230">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O230">
         <v>4.333</v>
       </c>
       <c r="P230">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q230">
         <v>-1</v>
       </c>
       <c r="R230">
+        <v>1.925</v>
+      </c>
+      <c r="S230">
         <v>1.875</v>
       </c>
-      <c r="S230">
-        <v>1.975</v>
-      </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W230">
-        <v>0.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20998,13 +20998,13 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA230">
         <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -26177,7 +26177,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7691492</v>
+        <v>7572927</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26189,73 +26189,73 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G289" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I289">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J289" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K289">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L289">
+        <v>4</v>
+      </c>
+      <c r="M289">
         <v>3.75</v>
       </c>
-      <c r="M289">
-        <v>3.3</v>
-      </c>
       <c r="N289">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O289">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P289">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q289">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R289">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S289">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T289">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U289">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V289">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X289">
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA289">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB289">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC289">
         <v>-1</v>
@@ -26266,7 +26266,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7572927</v>
+        <v>7691492</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26278,73 +26278,73 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F290" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G290" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H290">
+        <v>1</v>
+      </c>
+      <c r="I290">
         <v>3</v>
       </c>
-      <c r="I290">
-        <v>2</v>
-      </c>
       <c r="J290" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K290">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L290">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M290">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N290">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O290">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P290">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q290">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S290">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T290">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U290">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V290">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W290">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X290">
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z290">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB290">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26533,7 +26533,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6882764</v>
+        <v>6884503</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26545,52 +26545,52 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F293" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G293" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J293" t="s">
         <v>52</v>
       </c>
       <c r="K293">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L293">
         <v>3.75</v>
       </c>
       <c r="M293">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N293">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="O293">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P293">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q293">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R293">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S293">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T293">
         <v>2.75</v>
       </c>
       <c r="U293">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V293">
         <v>2.025</v>
@@ -26602,19 +26602,19 @@
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>2.6</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB293">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC293">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26622,7 +26622,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6884503</v>
+        <v>6882764</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26634,52 +26634,52 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F294" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G294" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
         <v>52</v>
       </c>
       <c r="K294">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L294">
         <v>3.75</v>
       </c>
       <c r="M294">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N294">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="O294">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P294">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="Q294">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R294">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S294">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T294">
         <v>2.75</v>
       </c>
       <c r="U294">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V294">
         <v>2.025</v>
@@ -26691,19 +26691,19 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0.6659999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB294">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -27334,7 +27334,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6880545</v>
+        <v>6884504</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27346,40 +27346,40 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G302" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K302">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L302">
         <v>4</v>
       </c>
       <c r="M302">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="N302">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O302">
         <v>3.8</v>
       </c>
       <c r="P302">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q302">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
         <v>1.875</v>
@@ -27388,34 +27388,34 @@
         <v>1.975</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V302">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA302">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC302">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27423,7 +27423,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6886970</v>
+        <v>6880545</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27435,40 +27435,40 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G303" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J303" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K303">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L303">
+        <v>4</v>
+      </c>
+      <c r="M303">
+        <v>1.615</v>
+      </c>
+      <c r="N303">
         <v>3.8</v>
-      </c>
-      <c r="M303">
-        <v>3.25</v>
-      </c>
-      <c r="N303">
-        <v>1.95</v>
       </c>
       <c r="O303">
         <v>3.8</v>
       </c>
       <c r="P303">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R303">
         <v>1.875</v>
@@ -27477,34 +27477,34 @@
         <v>1.975</v>
       </c>
       <c r="T303">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V303">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W303">
+        <v>-1</v>
+      </c>
+      <c r="X303">
+        <v>-1</v>
+      </c>
+      <c r="Y303">
+        <v>0.7</v>
+      </c>
+      <c r="Z303">
+        <v>-1</v>
+      </c>
+      <c r="AA303">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB303">
+        <v>-1</v>
+      </c>
+      <c r="AC303">
         <v>0.95</v>
-      </c>
-      <c r="X303">
-        <v>-1</v>
-      </c>
-      <c r="Y303">
-        <v>-1</v>
-      </c>
-      <c r="Z303">
-        <v>0.875</v>
-      </c>
-      <c r="AA303">
-        <v>-1</v>
-      </c>
-      <c r="AB303">
-        <v>-1</v>
-      </c>
-      <c r="AC303">
-        <v>0.825</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27512,7 +27512,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6884504</v>
+        <v>6886970</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27524,37 +27524,37 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F304" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G304" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" t="s">
         <v>51</v>
       </c>
       <c r="K304">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L304">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M304">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N304">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O304">
         <v>3.8</v>
       </c>
       <c r="P304">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q304">
         <v>-0.25</v>
@@ -27566,16 +27566,16 @@
         <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U304">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V304">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W304">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="X304">
         <v>-1</v>
@@ -27590,10 +27590,10 @@
         <v>-1</v>
       </c>
       <c r="AB304">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -29292,7 +29292,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6884539</v>
+        <v>6886978</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29304,46 +29304,46 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F324" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G324" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K324">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="L324">
+        <v>3.5</v>
+      </c>
+      <c r="M324">
         <v>4</v>
       </c>
-      <c r="M324">
-        <v>1.571</v>
-      </c>
       <c r="N324">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="O324">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P324">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q324">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R324">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S324">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T324">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U324">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V324">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W324">
         <v>0</v>
@@ -29366,7 +29366,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6886976</v>
+        <v>6886977</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29375,49 +29375,49 @@
         <v>28</v>
       </c>
       <c r="E325" s="2">
-        <v>45346.41666666666</v>
+        <v>45347.41666666666</v>
       </c>
       <c r="F325" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G325" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K325">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L325">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M325">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N325">
+        <v>1.333</v>
+      </c>
+      <c r="O325">
         <v>5</v>
       </c>
-      <c r="O325">
-        <v>3.6</v>
-      </c>
       <c r="P325">
-        <v>1.571</v>
+        <v>5.75</v>
       </c>
       <c r="Q325">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S325">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T325">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U325">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V325">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29432,376 +29432,6 @@
         <v>0</v>
       </c>
       <c r="AA325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:29">
-      <c r="A326" s="1">
-        <v>324</v>
-      </c>
-      <c r="B326">
-        <v>6886978</v>
-      </c>
-      <c r="C326" t="s">
-        <v>28</v>
-      </c>
-      <c r="D326" t="s">
-        <v>28</v>
-      </c>
-      <c r="E326" s="2">
-        <v>45346.41666666666</v>
-      </c>
-      <c r="F326" t="s">
-        <v>43</v>
-      </c>
-      <c r="G326" t="s">
-        <v>36</v>
-      </c>
-      <c r="K326">
-        <v>1.727</v>
-      </c>
-      <c r="L326">
-        <v>3.5</v>
-      </c>
-      <c r="M326">
-        <v>4</v>
-      </c>
-      <c r="N326">
-        <v>1.85</v>
-      </c>
-      <c r="O326">
-        <v>3.4</v>
-      </c>
-      <c r="P326">
-        <v>3.5</v>
-      </c>
-      <c r="Q326">
-        <v>-0.5</v>
-      </c>
-      <c r="R326">
-        <v>1.95</v>
-      </c>
-      <c r="S326">
-        <v>1.9</v>
-      </c>
-      <c r="T326">
-        <v>2.75</v>
-      </c>
-      <c r="U326">
-        <v>1.85</v>
-      </c>
-      <c r="V326">
-        <v>2</v>
-      </c>
-      <c r="W326">
-        <v>0</v>
-      </c>
-      <c r="X326">
-        <v>0</v>
-      </c>
-      <c r="Y326">
-        <v>0</v>
-      </c>
-      <c r="Z326">
-        <v>0</v>
-      </c>
-      <c r="AA326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:29">
-      <c r="A327" s="1">
-        <v>325</v>
-      </c>
-      <c r="B327">
-        <v>6886979</v>
-      </c>
-      <c r="C327" t="s">
-        <v>28</v>
-      </c>
-      <c r="D327" t="s">
-        <v>28</v>
-      </c>
-      <c r="E327" s="2">
-        <v>45346.41666666666</v>
-      </c>
-      <c r="F327" t="s">
-        <v>40</v>
-      </c>
-      <c r="G327" t="s">
-        <v>44</v>
-      </c>
-      <c r="K327">
-        <v>1.909</v>
-      </c>
-      <c r="L327">
-        <v>3.6</v>
-      </c>
-      <c r="M327">
-        <v>3.2</v>
-      </c>
-      <c r="N327">
-        <v>2.05</v>
-      </c>
-      <c r="O327">
-        <v>3.6</v>
-      </c>
-      <c r="P327">
-        <v>2.9</v>
-      </c>
-      <c r="Q327">
-        <v>-0.25</v>
-      </c>
-      <c r="R327">
-        <v>1.85</v>
-      </c>
-      <c r="S327">
-        <v>2</v>
-      </c>
-      <c r="T327">
-        <v>3</v>
-      </c>
-      <c r="U327">
-        <v>1.9</v>
-      </c>
-      <c r="V327">
-        <v>1.95</v>
-      </c>
-      <c r="W327">
-        <v>0</v>
-      </c>
-      <c r="X327">
-        <v>0</v>
-      </c>
-      <c r="Y327">
-        <v>0</v>
-      </c>
-      <c r="Z327">
-        <v>0</v>
-      </c>
-      <c r="AA327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:29">
-      <c r="A328" s="1">
-        <v>326</v>
-      </c>
-      <c r="B328">
-        <v>6882760</v>
-      </c>
-      <c r="C328" t="s">
-        <v>28</v>
-      </c>
-      <c r="D328" t="s">
-        <v>28</v>
-      </c>
-      <c r="E328" s="2">
-        <v>45346.41666666666</v>
-      </c>
-      <c r="F328" t="s">
-        <v>29</v>
-      </c>
-      <c r="G328" t="s">
-        <v>50</v>
-      </c>
-      <c r="K328">
-        <v>1.4</v>
-      </c>
-      <c r="L328">
-        <v>4.5</v>
-      </c>
-      <c r="M328">
-        <v>5.5</v>
-      </c>
-      <c r="N328">
-        <v>1.333</v>
-      </c>
-      <c r="O328">
-        <v>4.75</v>
-      </c>
-      <c r="P328">
-        <v>7</v>
-      </c>
-      <c r="Q328">
-        <v>-1.5</v>
-      </c>
-      <c r="R328">
-        <v>1.95</v>
-      </c>
-      <c r="S328">
-        <v>1.9</v>
-      </c>
-      <c r="T328">
-        <v>3</v>
-      </c>
-      <c r="U328">
-        <v>1.8</v>
-      </c>
-      <c r="V328">
-        <v>2.05</v>
-      </c>
-      <c r="W328">
-        <v>0</v>
-      </c>
-      <c r="X328">
-        <v>0</v>
-      </c>
-      <c r="Y328">
-        <v>0</v>
-      </c>
-      <c r="Z328">
-        <v>0</v>
-      </c>
-      <c r="AA328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:29">
-      <c r="A329" s="1">
-        <v>327</v>
-      </c>
-      <c r="B329">
-        <v>6880546</v>
-      </c>
-      <c r="C329" t="s">
-        <v>28</v>
-      </c>
-      <c r="D329" t="s">
-        <v>28</v>
-      </c>
-      <c r="E329" s="2">
-        <v>45346.41666666666</v>
-      </c>
-      <c r="F329" t="s">
-        <v>39</v>
-      </c>
-      <c r="G329" t="s">
-        <v>30</v>
-      </c>
-      <c r="K329">
-        <v>2.5</v>
-      </c>
-      <c r="L329">
-        <v>3.6</v>
-      </c>
-      <c r="M329">
-        <v>2.3</v>
-      </c>
-      <c r="N329">
-        <v>2.6</v>
-      </c>
-      <c r="O329">
-        <v>3.5</v>
-      </c>
-      <c r="P329">
-        <v>2.3</v>
-      </c>
-      <c r="Q329">
-        <v>0</v>
-      </c>
-      <c r="R329">
-        <v>2.05</v>
-      </c>
-      <c r="S329">
-        <v>1.8</v>
-      </c>
-      <c r="T329">
-        <v>2.5</v>
-      </c>
-      <c r="U329">
-        <v>1.95</v>
-      </c>
-      <c r="V329">
-        <v>1.9</v>
-      </c>
-      <c r="W329">
-        <v>0</v>
-      </c>
-      <c r="X329">
-        <v>0</v>
-      </c>
-      <c r="Y329">
-        <v>0</v>
-      </c>
-      <c r="Z329">
-        <v>0</v>
-      </c>
-      <c r="AA329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:29">
-      <c r="A330" s="1">
-        <v>328</v>
-      </c>
-      <c r="B330">
-        <v>6886977</v>
-      </c>
-      <c r="C330" t="s">
-        <v>28</v>
-      </c>
-      <c r="D330" t="s">
-        <v>28</v>
-      </c>
-      <c r="E330" s="2">
-        <v>45347.41666666666</v>
-      </c>
-      <c r="F330" t="s">
-        <v>32</v>
-      </c>
-      <c r="G330" t="s">
-        <v>34</v>
-      </c>
-      <c r="K330">
-        <v>1.333</v>
-      </c>
-      <c r="L330">
-        <v>5</v>
-      </c>
-      <c r="M330">
-        <v>6</v>
-      </c>
-      <c r="N330">
-        <v>1.333</v>
-      </c>
-      <c r="O330">
-        <v>5</v>
-      </c>
-      <c r="P330">
-        <v>5.75</v>
-      </c>
-      <c r="Q330">
-        <v>-1.5</v>
-      </c>
-      <c r="R330">
-        <v>1.975</v>
-      </c>
-      <c r="S330">
-        <v>1.875</v>
-      </c>
-      <c r="T330">
-        <v>3.25</v>
-      </c>
-      <c r="U330">
-        <v>1.975</v>
-      </c>
-      <c r="V330">
-        <v>1.875</v>
-      </c>
-      <c r="W330">
-        <v>0</v>
-      </c>
-      <c r="X330">
-        <v>0</v>
-      </c>
-      <c r="Y330">
-        <v>0</v>
-      </c>
-      <c r="Z330">
-        <v>0</v>
-      </c>
-      <c r="AA330">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -25643,7 +25643,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6886961</v>
+        <v>6886962</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25655,76 +25655,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G283" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I283">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J283" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K283">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L283">
         <v>3.75</v>
       </c>
       <c r="M283">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N283">
+        <v>2.15</v>
+      </c>
+      <c r="O283">
+        <v>3.75</v>
+      </c>
+      <c r="P283">
         <v>2.6</v>
       </c>
-      <c r="O283">
-        <v>3.4</v>
-      </c>
-      <c r="P283">
-        <v>2.3</v>
-      </c>
       <c r="Q283">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S283">
         <v>1.8</v>
       </c>
       <c r="T283">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U283">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V283">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W283">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA283">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25732,7 +25732,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6886962</v>
+        <v>6884535</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25744,76 +25744,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G284" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H284">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J284" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K284">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L284">
         <v>3.75</v>
       </c>
       <c r="M284">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="N284">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O284">
         <v>3.75</v>
       </c>
       <c r="P284">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q284">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R284">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S284">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T284">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U284">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V284">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W284">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z284">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB284">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC284">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25821,7 +25821,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6880543</v>
+        <v>6886961</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25833,76 +25833,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G285" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J285" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K285">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L285">
         <v>3.75</v>
       </c>
       <c r="M285">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N285">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O285">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P285">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q285">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R285">
+        <v>2.05</v>
+      </c>
+      <c r="S285">
+        <v>1.8</v>
+      </c>
+      <c r="T285">
+        <v>2.75</v>
+      </c>
+      <c r="U285">
+        <v>1.875</v>
+      </c>
+      <c r="V285">
         <v>1.975</v>
       </c>
-      <c r="S285">
-        <v>1.875</v>
-      </c>
-      <c r="T285">
-        <v>2.5</v>
-      </c>
-      <c r="U285">
-        <v>1.925</v>
-      </c>
-      <c r="V285">
-        <v>1.925</v>
-      </c>
       <c r="W285">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z285">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB285">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC285">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25910,7 +25910,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6884502</v>
+        <v>6880543</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25922,58 +25922,58 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F286" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G286" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H286">
         <v>2</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>51</v>
       </c>
       <c r="K286">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="L286">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M286">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="N286">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O286">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P286">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q286">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R286">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S286">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T286">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U286">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V286">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W286">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25982,16 +25982,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA286">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25999,7 +25999,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6884535</v>
+        <v>6884502</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26011,76 +26011,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F287" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G287" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K287">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="L287">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M287">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="N287">
+        <v>1.333</v>
+      </c>
+      <c r="O287">
+        <v>4.333</v>
+      </c>
+      <c r="P287">
+        <v>8</v>
+      </c>
+      <c r="Q287">
+        <v>-1.25</v>
+      </c>
+      <c r="R287">
+        <v>1.825</v>
+      </c>
+      <c r="S287">
+        <v>1.975</v>
+      </c>
+      <c r="T287">
         <v>2.75</v>
       </c>
-      <c r="O287">
-        <v>3.75</v>
-      </c>
-      <c r="P287">
-        <v>2.05</v>
-      </c>
-      <c r="Q287">
-        <v>0.25</v>
-      </c>
-      <c r="R287">
-        <v>1.9</v>
-      </c>
-      <c r="S287">
-        <v>1.9</v>
-      </c>
-      <c r="T287">
-        <v>3.25</v>
-      </c>
       <c r="U287">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V287">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA287">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB287">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC287">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26711,7 +26711,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6884503</v>
+        <v>6886963</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26723,55 +26723,55 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G295" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
       <c r="I295">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
         <v>52</v>
       </c>
       <c r="K295">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L295">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M295">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N295">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="O295">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P295">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="Q295">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S295">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T295">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U295">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V295">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -26780,19 +26780,19 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>0.6659999999999999</v>
+        <v>1.875</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB295">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26800,7 +26800,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6886963</v>
+        <v>6884536</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26812,76 +26812,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F296" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G296" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I296">
         <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K296">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L296">
+        <v>3.75</v>
+      </c>
+      <c r="M296">
+        <v>4</v>
+      </c>
+      <c r="N296">
+        <v>1.85</v>
+      </c>
+      <c r="O296">
         <v>3.6</v>
       </c>
-      <c r="M296">
-        <v>2.875</v>
-      </c>
-      <c r="N296">
-        <v>2.15</v>
-      </c>
-      <c r="O296">
-        <v>3.5</v>
-      </c>
       <c r="P296">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q296">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R296">
+        <v>1.9</v>
+      </c>
+      <c r="S296">
+        <v>1.9</v>
+      </c>
+      <c r="T296">
+        <v>3</v>
+      </c>
+      <c r="U296">
         <v>1.975</v>
       </c>
-      <c r="S296">
+      <c r="V296">
         <v>1.825</v>
       </c>
-      <c r="T296">
-        <v>2.5</v>
-      </c>
-      <c r="U296">
-        <v>1.85</v>
-      </c>
-      <c r="V296">
-        <v>1.95</v>
-      </c>
       <c r="W296">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA296">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC296">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26889,7 +26889,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6884536</v>
+        <v>6880544</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26901,73 +26901,73 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F297" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G297" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H297">
+        <v>2</v>
+      </c>
+      <c r="I297">
+        <v>2</v>
+      </c>
+      <c r="J297" t="s">
+        <v>53</v>
+      </c>
+      <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
+        <v>3.6</v>
+      </c>
+      <c r="M297">
         <v>3</v>
       </c>
-      <c r="I297">
-        <v>1</v>
-      </c>
-      <c r="J297" t="s">
-        <v>51</v>
-      </c>
-      <c r="K297">
-        <v>1.666</v>
-      </c>
-      <c r="L297">
-        <v>3.75</v>
-      </c>
-      <c r="M297">
-        <v>4</v>
-      </c>
       <c r="N297">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O297">
         <v>3.6</v>
       </c>
       <c r="P297">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q297">
+        <v>-0.25</v>
+      </c>
+      <c r="R297">
+        <v>1.925</v>
+      </c>
+      <c r="S297">
+        <v>1.925</v>
+      </c>
+      <c r="T297">
+        <v>2.75</v>
+      </c>
+      <c r="U297">
+        <v>1.8</v>
+      </c>
+      <c r="V297">
+        <v>2.05</v>
+      </c>
+      <c r="W297">
+        <v>-1</v>
+      </c>
+      <c r="X297">
+        <v>2.6</v>
+      </c>
+      <c r="Y297">
+        <v>-1</v>
+      </c>
+      <c r="Z297">
         <v>-0.5</v>
       </c>
-      <c r="R297">
-        <v>1.9</v>
-      </c>
-      <c r="S297">
-        <v>1.9</v>
-      </c>
-      <c r="T297">
-        <v>3</v>
-      </c>
-      <c r="U297">
-        <v>1.975</v>
-      </c>
-      <c r="V297">
-        <v>1.825</v>
-      </c>
-      <c r="W297">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X297">
-        <v>-1</v>
-      </c>
-      <c r="Y297">
-        <v>-1</v>
-      </c>
-      <c r="Z297">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB297">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -26978,7 +26978,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6880544</v>
+        <v>6884503</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26990,73 +26990,73 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F298" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G298" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J298" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K298">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L298">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M298">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N298">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O298">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P298">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q298">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R298">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S298">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T298">
         <v>2.75</v>
       </c>
       <c r="U298">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V298">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB298">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC298">
         <v>-1</v>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -109,9 +109,6 @@
     <t>SSVg Velbert</t>
   </si>
   <si>
-    <t>SV Rodinghausen</t>
-  </si>
-  <si>
     <t>Schalke II</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>Borussia Mgladbach II</t>
+  </si>
+  <si>
+    <t>SV Rodinghausen</t>
   </si>
   <si>
     <t>SC Wiedenbruck</t>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6886879</v>
+        <v>6880527</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="L4">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N4">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O4">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
         <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6880527</v>
+        <v>6886877</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
+        <v>2.05</v>
+      </c>
+      <c r="L5">
+        <v>3.7</v>
+      </c>
+      <c r="M5">
+        <v>2.9</v>
+      </c>
+      <c r="N5">
+        <v>2.6</v>
+      </c>
+      <c r="O5">
+        <v>3.6</v>
+      </c>
+      <c r="P5">
+        <v>2.25</v>
+      </c>
+      <c r="Q5">
+        <v>0.25</v>
+      </c>
+      <c r="R5">
+        <v>1.775</v>
+      </c>
+      <c r="S5">
+        <v>2.025</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
         <v>1.9</v>
       </c>
-      <c r="L5">
-        <v>3.75</v>
-      </c>
-      <c r="M5">
-        <v>3.25</v>
-      </c>
-      <c r="N5">
-        <v>1.666</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="Q5">
-        <v>-0.75</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
-      <c r="U5">
-        <v>1.875</v>
-      </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6886877</v>
+        <v>6886880</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,73 +993,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="L6">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>2.15</v>
+      </c>
+      <c r="O6">
+        <v>3.4</v>
+      </c>
+      <c r="P6">
         <v>2.9</v>
       </c>
-      <c r="N6">
-        <v>2.6</v>
-      </c>
-      <c r="O6">
-        <v>3.6</v>
-      </c>
-      <c r="P6">
-        <v>2.25</v>
-      </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
+        <v>1.925</v>
+      </c>
+      <c r="V6">
+        <v>1.925</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
         <v>1.9</v>
       </c>
-      <c r="V6">
-        <v>1.9</v>
-      </c>
-      <c r="W6">
-        <v>1.6</v>
-      </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
       <c r="Z6">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6886880</v>
+        <v>6886879</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,73 +1082,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="L7">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N7">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P7">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1616,7 +1616,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -2061,7 +2061,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6884522</v>
+        <v>6884488</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,73 +2147,73 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L19">
         <v>3.6</v>
       </c>
       <c r="M19">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N19">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
         <v>3.6</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
+        <v>1.95</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>2.025</v>
+      </c>
+      <c r="V19">
         <v>1.825</v>
       </c>
-      <c r="T19">
-        <v>3.25</v>
-      </c>
-      <c r="U19">
-        <v>1.8</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6884488</v>
+        <v>6884522</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,73 +2236,73 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L20">
         <v>3.6</v>
       </c>
       <c r="M20">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O20">
         <v>3.6</v>
       </c>
       <c r="P20">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB20">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2503,7 +2503,7 @@
         <v>45150.375</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -2592,7 +2592,7 @@
         <v>45150.375</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6884489</v>
+        <v>7082424</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,13 +2859,13 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2874,43 +2874,43 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M27">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
         <v>3</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2919,16 +2919,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7082424</v>
+        <v>6884489</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,13 +2948,13 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2963,43 +2963,43 @@
         <v>48</v>
       </c>
       <c r="K28">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L28">
+        <v>3.5</v>
+      </c>
+      <c r="M28">
+        <v>3.25</v>
+      </c>
+      <c r="N28">
+        <v>1.85</v>
+      </c>
+      <c r="O28">
+        <v>3.6</v>
+      </c>
+      <c r="P28">
         <v>3.3</v>
       </c>
-      <c r="M28">
-        <v>3.1</v>
-      </c>
-      <c r="N28">
-        <v>1.75</v>
-      </c>
-      <c r="O28">
-        <v>3.4</v>
-      </c>
-      <c r="P28">
-        <v>4</v>
-      </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
         <v>3</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3008,16 +3008,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3126,10 +3126,10 @@
         <v>45157.375</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3396,7 +3396,7 @@
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3485,7 +3485,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3752,7 +3752,7 @@
         <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6885365</v>
+        <v>6886895</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,13 +3838,13 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -3853,31 +3853,31 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L38">
         <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O38">
         <v>3.5</v>
       </c>
       <c r="P38">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="Q38">
         <v>0.5</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
         <v>2.5</v>
@@ -3886,7 +3886,7 @@
         <v>1.85</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3895,13 +3895,13 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.833</v>
+        <v>0.95</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB38">
         <v>0.8500000000000001</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6886895</v>
+        <v>6885365</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,13 +3927,13 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -3942,31 +3942,31 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N39">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O39">
         <v>3.5</v>
       </c>
       <c r="P39">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="Q39">
         <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
         <v>2.5</v>
@@ -3975,7 +3975,7 @@
         <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3984,13 +3984,13 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.95</v>
+        <v>0.833</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB39">
         <v>0.8500000000000001</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6886897</v>
+        <v>6886896</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45164.375</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N40">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
         <v>3.6</v>
       </c>
       <c r="P40">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6886896</v>
+        <v>6886897</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,76 +4283,76 @@
         <v>45164.375</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M43">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O43">
         <v>3.6</v>
       </c>
       <c r="P43">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>3</v>
       </c>
       <c r="U43">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4550,10 +4550,10 @@
         <v>45171.375</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4820,7 +4820,7 @@
         <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>45172.375</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5529,10 +5529,10 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
         <v>33</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5710,7 +5710,7 @@
         <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5977,7 +5977,7 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6152,7 +6152,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
         <v>36</v>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6886908</v>
+        <v>6886910</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45192.375</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M66">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="N66">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O66">
         <v>4.5</v>
       </c>
       <c r="P66">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
+        <v>1.825</v>
+      </c>
+      <c r="S66">
         <v>1.975</v>
-      </c>
-      <c r="S66">
-        <v>1.825</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X66">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6886910</v>
+        <v>6886909</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,10 +6419,10 @@
         <v>45192.375</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6434,43 +6434,43 @@
         <v>48</v>
       </c>
       <c r="K67">
+        <v>2.05</v>
+      </c>
+      <c r="L67">
+        <v>3.75</v>
+      </c>
+      <c r="M67">
+        <v>2.8</v>
+      </c>
+      <c r="N67">
+        <v>2.15</v>
+      </c>
+      <c r="O67">
+        <v>3.75</v>
+      </c>
+      <c r="P67">
+        <v>2.55</v>
+      </c>
+      <c r="Q67">
+        <v>-0.25</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
         <v>1.85</v>
       </c>
-      <c r="L67">
-        <v>3.8</v>
-      </c>
-      <c r="M67">
-        <v>3.25</v>
-      </c>
-      <c r="N67">
-        <v>1.363</v>
-      </c>
-      <c r="O67">
-        <v>4.5</v>
-      </c>
-      <c r="P67">
-        <v>7</v>
-      </c>
-      <c r="Q67">
-        <v>-1.25</v>
-      </c>
-      <c r="R67">
-        <v>1.825</v>
-      </c>
-      <c r="S67">
-        <v>1.975</v>
-      </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>0.363</v>
+        <v>1.15</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6479,16 +6479,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6886909</v>
+        <v>6886908</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,67 +6508,67 @@
         <v>45192.375</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P68">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
@@ -6577,7 +6577,7 @@
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7042,10 +7042,10 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H74">
         <v>4</v>
@@ -7490,7 +7490,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7579,7 +7579,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6886920</v>
+        <v>6886921</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7757,10 +7757,10 @@
         <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -7769,43 +7769,43 @@
         <v>48</v>
       </c>
       <c r="K82">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L82">
         <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O82">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
+        <v>4</v>
+      </c>
+      <c r="Q82">
+        <v>-0.75</v>
+      </c>
+      <c r="R82">
+        <v>1.975</v>
+      </c>
+      <c r="S82">
+        <v>1.825</v>
+      </c>
+      <c r="T82">
         <v>3</v>
       </c>
-      <c r="Q82">
-        <v>-0.25</v>
-      </c>
-      <c r="R82">
-        <v>1.8</v>
-      </c>
-      <c r="S82">
-        <v>2.05</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
       <c r="U82">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7814,16 +7814,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6886918</v>
+        <v>6886920</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,76 +7843,76 @@
         <v>45206.375</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>4</v>
-      </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
+        <v>2.875</v>
+      </c>
+      <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
+        <v>3.8</v>
+      </c>
+      <c r="P83">
+        <v>3</v>
+      </c>
+      <c r="Q83">
+        <v>-0.25</v>
+      </c>
+      <c r="R83">
+        <v>1.8</v>
+      </c>
+      <c r="S83">
+        <v>2.05</v>
+      </c>
+      <c r="T83">
         <v>2.5</v>
       </c>
-      <c r="L83">
-        <v>3.6</v>
-      </c>
-      <c r="M83">
-        <v>2.3</v>
-      </c>
-      <c r="N83">
-        <v>2.5</v>
-      </c>
-      <c r="O83">
-        <v>3.6</v>
-      </c>
-      <c r="P83">
-        <v>2.3</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>1.975</v>
-      </c>
-      <c r="S83">
-        <v>1.825</v>
-      </c>
-      <c r="T83">
-        <v>2.75</v>
-      </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
         <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6886917</v>
+        <v>6886918</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,55 +7932,55 @@
         <v>45206.375</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N84">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O84">
         <v>3.6</v>
       </c>
       <c r="P84">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7989,19 +7989,19 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6884529</v>
+        <v>6886917</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,40 +8021,40 @@
         <v>45206.375</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L85">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N85">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O85">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
         <v>2</v>
@@ -8063,13 +8063,13 @@
         <v>1.8</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8078,7 +8078,7 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="Z85">
         <v>-1</v>
@@ -8087,10 +8087,10 @@
         <v>0.8</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6886921</v>
+        <v>6884529</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45206.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N86">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T86">
         <v>3</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z86">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>45206.375</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
@@ -8380,7 +8380,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8469,7 +8469,7 @@
         <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8825,7 +8825,7 @@
         <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8914,7 +8914,7 @@
         <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -9267,7 +9267,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>36</v>
@@ -9623,7 +9623,7 @@
         <v>45220.375</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9801,7 +9801,7 @@
         <v>45221.375</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>37</v>
@@ -9982,7 +9982,7 @@
         <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6884531</v>
+        <v>6886932</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K108">
+        <v>2.3</v>
+      </c>
+      <c r="L108">
         <v>3.75</v>
       </c>
-      <c r="L108">
-        <v>4</v>
-      </c>
       <c r="M108">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
+        <v>2.15</v>
+      </c>
+      <c r="O108">
         <v>3.6</v>
       </c>
-      <c r="O108">
-        <v>4</v>
-      </c>
       <c r="P108">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
         <v>1.875</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6886932</v>
+        <v>6884531</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K109">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="N109">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P109">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
         <v>1.875</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10427,7 +10427,7 @@
         <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10605,7 +10605,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10694,7 +10694,7 @@
         <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10780,7 +10780,7 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
         <v>30</v>
@@ -10958,7 +10958,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>38</v>
@@ -11403,7 +11403,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
         <v>39</v>
@@ -11492,7 +11492,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
         <v>44</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6886941</v>
+        <v>6885373</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,34 +11581,34 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
         <v>49</v>
       </c>
       <c r="K125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="N125">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
         <v>1.95</v>
@@ -11617,40 +11617,40 @@
         <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.4875</v>
+        <v>0.5</v>
       </c>
       <c r="AA125">
         <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6885373</v>
+        <v>6886940</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,73 +11759,73 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="N127">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U127">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X127">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AA127">
         <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6886940</v>
+        <v>6886941</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L128">
         <v>4</v>
       </c>
       <c r="M128">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="N128">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AA128">
         <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11940,7 +11940,7 @@
         <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12560,7 +12560,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
         <v>39</v>
@@ -12649,7 +12649,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>40</v>
@@ -12738,7 +12738,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
         <v>44</v>
@@ -12827,7 +12827,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
         <v>41</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6886950</v>
+        <v>6884534</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N145">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y145">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6884534</v>
+        <v>6882767</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K146">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L146">
         <v>3.75</v>
       </c>
       <c r="M146">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="N146">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
         <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X146">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6882767</v>
+        <v>6880541</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,13 +13539,13 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G147" t="s">
         <v>33</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13554,43 +13554,43 @@
         <v>48</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L147">
         <v>3.75</v>
       </c>
       <c r="M147">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N147">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O147">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W147">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13599,16 +13599,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6880541</v>
+        <v>6886950</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,7 +13628,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
         <v>34</v>
@@ -13637,67 +13637,67 @@
         <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K148">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="L148">
+        <v>4.75</v>
+      </c>
+      <c r="M148">
+        <v>6</v>
+      </c>
+      <c r="N148">
+        <v>1.75</v>
+      </c>
+      <c r="O148">
+        <v>3.6</v>
+      </c>
+      <c r="P148">
         <v>3.75</v>
-      </c>
-      <c r="M148">
-        <v>3.3</v>
-      </c>
-      <c r="N148">
-        <v>1.8</v>
-      </c>
-      <c r="O148">
-        <v>3.75</v>
-      </c>
-      <c r="P148">
-        <v>3.4</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC148">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6884501</v>
+        <v>6886954</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,73 +13895,73 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151" t="s">
+        <v>49</v>
+      </c>
+      <c r="K151">
+        <v>1.444</v>
+      </c>
+      <c r="L151">
+        <v>4.2</v>
+      </c>
+      <c r="M151">
+        <v>5.5</v>
+      </c>
+      <c r="N151">
+        <v>1.533</v>
+      </c>
+      <c r="O151">
+        <v>4</v>
+      </c>
+      <c r="P151">
+        <v>5</v>
+      </c>
+      <c r="Q151">
+        <v>-1</v>
+      </c>
+      <c r="R151">
+        <v>1.925</v>
+      </c>
+      <c r="S151">
+        <v>1.875</v>
+      </c>
+      <c r="T151">
         <v>3</v>
       </c>
-      <c r="I151">
-        <v>4</v>
-      </c>
-      <c r="J151" t="s">
-        <v>47</v>
-      </c>
-      <c r="K151">
-        <v>2.4</v>
-      </c>
-      <c r="L151">
-        <v>3.4</v>
-      </c>
-      <c r="M151">
-        <v>2.5</v>
-      </c>
-      <c r="N151">
-        <v>2.7</v>
-      </c>
-      <c r="O151">
-        <v>3.4</v>
-      </c>
-      <c r="P151">
-        <v>2.3</v>
-      </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-      <c r="R151">
-        <v>2</v>
-      </c>
-      <c r="S151">
-        <v>1.8</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y151">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6880542</v>
+        <v>6884501</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H152">
+        <v>3</v>
+      </c>
+      <c r="I152">
+        <v>4</v>
+      </c>
+      <c r="J152" t="s">
+        <v>47</v>
+      </c>
+      <c r="K152">
+        <v>2.4</v>
+      </c>
+      <c r="L152">
+        <v>3.4</v>
+      </c>
+      <c r="M152">
+        <v>2.5</v>
+      </c>
+      <c r="N152">
+        <v>2.7</v>
+      </c>
+      <c r="O152">
+        <v>3.4</v>
+      </c>
+      <c r="P152">
+        <v>2.3</v>
+      </c>
+      <c r="Q152">
         <v>0</v>
       </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152" t="s">
-        <v>49</v>
-      </c>
-      <c r="K152">
-        <v>1.95</v>
-      </c>
-      <c r="L152">
-        <v>3.75</v>
-      </c>
-      <c r="M152">
-        <v>3</v>
-      </c>
-      <c r="N152">
-        <v>2.1</v>
-      </c>
-      <c r="O152">
-        <v>3.6</v>
-      </c>
-      <c r="P152">
-        <v>2.75</v>
-      </c>
-      <c r="Q152">
-        <v>-0.25</v>
-      </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S152">
+        <v>1.8</v>
+      </c>
+      <c r="T152">
+        <v>2.5</v>
+      </c>
+      <c r="U152">
         <v>1.9</v>
       </c>
-      <c r="T152">
-        <v>3</v>
-      </c>
-      <c r="U152">
-        <v>2.025</v>
-      </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6886954</v>
+        <v>6880542</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,52 +14073,52 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>49</v>
       </c>
       <c r="K153">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L153">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N153">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
         <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V153">
         <v>1.825</v>
@@ -14127,22 +14127,22 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA153">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AB153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14165,7 +14165,7 @@
         <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14340,7 +14340,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
         <v>42</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6886961</v>
+        <v>6884535</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,55 +14429,55 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J157" t="s">
         <v>47</v>
       </c>
       <c r="K157">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L157">
         <v>3.75</v>
       </c>
       <c r="M157">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N157">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
         <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14486,13 +14486,13 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
         <v>0.875</v>
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6884535</v>
+        <v>6880543</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,73 +14521,73 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
         <v>0</v>
       </c>
-      <c r="I158">
-        <v>4</v>
-      </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K158">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="L158">
         <v>3.75</v>
       </c>
       <c r="M158">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N158">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O158">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
         <v>1.925</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6880543</v>
+        <v>6886961</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,76 +14607,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K159">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N159">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q159">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R159">
+        <v>2.05</v>
+      </c>
+      <c r="S159">
+        <v>1.8</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
+        <v>1.875</v>
+      </c>
+      <c r="V159">
         <v>1.975</v>
       </c>
-      <c r="S159">
-        <v>1.875</v>
-      </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>1.925</v>
-      </c>
-      <c r="V159">
-        <v>1.925</v>
-      </c>
       <c r="W159">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z159">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7691492</v>
+        <v>7572927</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,73 +14785,73 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K161">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L161">
+        <v>4</v>
+      </c>
+      <c r="M161">
         <v>3.75</v>
       </c>
-      <c r="M161">
-        <v>3.3</v>
-      </c>
       <c r="N161">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P161">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S161">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA161">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7572927</v>
+        <v>7691492</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,73 +14874,73 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
         <v>3</v>
       </c>
-      <c r="I162">
-        <v>2</v>
-      </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K162">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N162">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V162">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z162">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB162">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14963,7 +14963,7 @@
         <v>45318.5625</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
         <v>39</v>
@@ -15141,7 +15141,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
         <v>29</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6880544</v>
+        <v>6882764</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N166">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O166">
         <v>3.6</v>
       </c>
       <c r="P166">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
         <v>2.6</v>
       </c>
-      <c r="Y166">
-        <v>-1</v>
-      </c>
       <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB166">
+        <v>0.4125</v>
+      </c>
+      <c r="AC166">
         <v>-0.5</v>
-      </c>
-      <c r="AA166">
-        <v>0.4625</v>
-      </c>
-      <c r="AB166">
-        <v>0.8</v>
-      </c>
-      <c r="AC166">
-        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6882764</v>
+        <v>6886963</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
         <v>1</v>
-      </c>
-      <c r="I167">
-        <v>2</v>
       </c>
       <c r="J167" t="s">
         <v>47</v>
       </c>
       <c r="K167">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M167">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N167">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P167">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.825</v>
+      </c>
+      <c r="T167">
+        <v>2.5</v>
+      </c>
+      <c r="U167">
+        <v>1.85</v>
+      </c>
+      <c r="V167">
+        <v>1.95</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>-1</v>
+      </c>
+      <c r="Y167">
         <v>1.875</v>
       </c>
-      <c r="S167">
-        <v>1.975</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>1.825</v>
-      </c>
-      <c r="V167">
-        <v>2.025</v>
-      </c>
-      <c r="W167">
-        <v>-1</v>
-      </c>
-      <c r="X167">
-        <v>-1</v>
-      </c>
-      <c r="Y167">
-        <v>2.6</v>
-      </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB167">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6886963</v>
+        <v>6880544</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L168">
         <v>3.6</v>
       </c>
       <c r="M168">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N168">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O168">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q168">
         <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y168">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>42</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15589,7 +15589,7 @@
         <v>43</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>3</v>
@@ -15942,7 +15942,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
         <v>45</v>
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6885377</v>
+        <v>6884537</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,55 +16209,55 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J177" t="s">
         <v>47</v>
       </c>
       <c r="K177">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>2</v>
+        <v>1.159</v>
       </c>
       <c r="N177">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S177">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -16266,16 +16266,16 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.375</v>
+        <v>1.75</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB177">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6884537</v>
+        <v>6885377</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,55 +16298,55 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J178" t="s">
         <v>47</v>
       </c>
       <c r="K178">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L178">
+        <v>3.6</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>2.55</v>
+      </c>
+      <c r="O178">
         <v>3.4</v>
       </c>
-      <c r="M178">
-        <v>1.159</v>
-      </c>
-      <c r="N178">
-        <v>2.3</v>
-      </c>
-      <c r="O178">
-        <v>3.3</v>
-      </c>
       <c r="P178">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S178">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -16355,16 +16355,16 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB178">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16387,10 +16387,10 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6886968</v>
+        <v>6886969</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,73 +16476,73 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K180">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M180">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N180">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="O180">
         <v>3.75</v>
       </c>
       <c r="P180">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X180">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA180">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6886969</v>
+        <v>6886968</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,73 +16565,73 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K181">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="L181">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M181">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N181">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O181">
         <v>3.75</v>
       </c>
       <c r="P181">
+        <v>3.2</v>
+      </c>
+      <c r="Q181">
+        <v>-0.5</v>
+      </c>
+      <c r="R181">
+        <v>2.05</v>
+      </c>
+      <c r="S181">
         <v>1.8</v>
       </c>
-      <c r="Q181">
-        <v>0.5</v>
-      </c>
-      <c r="R181">
+      <c r="T181">
+        <v>3</v>
+      </c>
+      <c r="U181">
+        <v>1.875</v>
+      </c>
+      <c r="V181">
         <v>1.975</v>
       </c>
-      <c r="S181">
-        <v>1.875</v>
-      </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
-      <c r="U181">
-        <v>1.825</v>
-      </c>
-      <c r="V181">
-        <v>2.025</v>
-      </c>
       <c r="W181">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16746,7 +16746,7 @@
         <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -16832,7 +16832,7 @@
         <v>45336.64583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G184" t="s">
         <v>40</v>
@@ -17369,7 +17369,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>3</v>
@@ -17455,10 +17455,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F191" t="s">
+        <v>33</v>
+      </c>
+      <c r="G191" t="s">
         <v>34</v>
-      </c>
-      <c r="G191" t="s">
-        <v>31</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17633,7 +17633,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
         <v>29</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6886979</v>
+        <v>6882760</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,76 +17989,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M197">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N197">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O197">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P197">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
         <v>3</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V197">
         <v>1.925</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X197">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA197">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC197">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6886978</v>
+        <v>6886979</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,34 +18078,34 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
         <v>49</v>
       </c>
       <c r="K198">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L198">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M198">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N198">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O198">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P198">
         <v>2.9</v>
@@ -18114,25 +18114,25 @@
         <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18141,13 +18141,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.425</v>
+        <v>0.5</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6886976</v>
+        <v>6886978</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>49</v>
       </c>
       <c r="K199">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O199">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P199">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q199">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
         <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6884539</v>
+        <v>6886976</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,73 +18256,73 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K200">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M200">
+        <v>1.727</v>
+      </c>
+      <c r="N200">
+        <v>5.25</v>
+      </c>
+      <c r="O200">
+        <v>3.5</v>
+      </c>
+      <c r="P200">
         <v>1.571</v>
       </c>
-      <c r="N200">
-        <v>7</v>
-      </c>
-      <c r="O200">
-        <v>5</v>
-      </c>
-      <c r="P200">
-        <v>1.363</v>
-      </c>
       <c r="Q200">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
         <v>1.95</v>
       </c>
       <c r="T200">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W200">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA200">
         <v>-1</v>
       </c>
       <c r="AB200">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6882760</v>
+        <v>6884539</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,58 +18345,58 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G201" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>48</v>
       </c>
       <c r="K201">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L201">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M201">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="N201">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="O201">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P201">
-        <v>6.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q201">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T201">
         <v>3</v>
       </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>0.3999999999999999</v>
+        <v>6</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18405,13 +18405,13 @@
         <v>-1</v>
       </c>
       <c r="Z201">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA201">
+        <v>-1</v>
+      </c>
+      <c r="AB201">
         <v>0.825</v>
-      </c>
-      <c r="AA201">
-        <v>-1</v>
-      </c>
-      <c r="AB201">
-        <v>0.875</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6884506</v>
+        <v>6886981</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N205">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P205">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q205">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S205">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z205">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB205">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC205">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6886981</v>
+        <v>6886982</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,76 +18790,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206" t="s">
+        <v>48</v>
+      </c>
+      <c r="K206">
+        <v>1.727</v>
+      </c>
+      <c r="L206">
+        <v>3.75</v>
+      </c>
+      <c r="M206">
+        <v>3.75</v>
+      </c>
+      <c r="N206">
+        <v>1.55</v>
+      </c>
+      <c r="O206">
+        <v>4</v>
+      </c>
+      <c r="P206">
         <v>5</v>
       </c>
-      <c r="J206" t="s">
-        <v>47</v>
-      </c>
-      <c r="K206">
-        <v>1.444</v>
-      </c>
-      <c r="L206">
-        <v>4</v>
-      </c>
-      <c r="M206">
-        <v>6</v>
-      </c>
-      <c r="N206">
-        <v>1.909</v>
-      </c>
-      <c r="O206">
-        <v>3.2</v>
-      </c>
-      <c r="P206">
-        <v>3.8</v>
-      </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R206">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA206">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6886982</v>
+        <v>6884506</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19060,73 +19060,73 @@
         <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K209">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L209">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M209">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N209">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="O209">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q209">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R209">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S209">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T209">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W209">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC209">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
         <v>46</v>
@@ -19327,7 +19327,7 @@
         <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19416,7 +19416,7 @@
         <v>41</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19683,7 +19683,7 @@
         <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -19769,10 +19769,10 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H217">
         <v>5</v>
@@ -19861,7 +19861,7 @@
         <v>46</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20303,7 +20303,7 @@
         <v>45366.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
         <v>36</v>
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6886994</v>
+        <v>6886993</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,16 +20481,16 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
         <v>48</v>
@@ -20499,40 +20499,40 @@
         <v>1.727</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N225">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O225">
         <v>4</v>
       </c>
       <c r="P225">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q225">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R225">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S225">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U225">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W225">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20541,16 +20541,16 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC225">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6886992</v>
+        <v>6886994</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,58 +20570,58 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H226">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>48</v>
       </c>
       <c r="K226">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L226">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M226">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N226">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="O226">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P226">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q226">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S226">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T226">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V226">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W226">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20630,16 +20630,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6886993</v>
+        <v>6880549</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G227" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N227">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O227">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P227">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q227">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S227">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T227">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W227">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20736,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6880549</v>
+        <v>6882757</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20748,76 +20748,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G228" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>49</v>
       </c>
       <c r="K228">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L228">
+        <v>3.75</v>
+      </c>
+      <c r="M228">
+        <v>2.25</v>
+      </c>
+      <c r="N228">
+        <v>2.5</v>
+      </c>
+      <c r="O228">
         <v>3.6</v>
       </c>
-      <c r="M228">
-        <v>2.8</v>
-      </c>
-      <c r="N228">
-        <v>3</v>
-      </c>
-      <c r="O228">
-        <v>3.4</v>
-      </c>
       <c r="P228">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S228">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T228">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA228">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6884542</v>
+        <v>6886990</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,76 +20837,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229" t="s">
+        <v>47</v>
+      </c>
+      <c r="K229">
+        <v>2.05</v>
+      </c>
+      <c r="L229">
+        <v>3.75</v>
+      </c>
+      <c r="M229">
+        <v>2.8</v>
+      </c>
+      <c r="N229">
+        <v>2.4</v>
+      </c>
+      <c r="O229">
+        <v>3.4</v>
+      </c>
+      <c r="P229">
+        <v>2.5</v>
+      </c>
+      <c r="Q229">
         <v>0</v>
       </c>
-      <c r="J229" t="s">
-        <v>48</v>
-      </c>
-      <c r="K229">
-        <v>1.333</v>
-      </c>
-      <c r="L229">
-        <v>5</v>
-      </c>
-      <c r="M229">
-        <v>6</v>
-      </c>
-      <c r="N229">
-        <v>1.333</v>
-      </c>
-      <c r="O229">
-        <v>5.5</v>
-      </c>
-      <c r="P229">
-        <v>5.75</v>
-      </c>
-      <c r="Q229">
-        <v>-1.5</v>
-      </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S229">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T229">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z229">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB229">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6886990</v>
+        <v>6886992</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20929,73 +20929,73 @@
         <v>34</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H230">
+        <v>5</v>
+      </c>
+      <c r="I230">
         <v>1</v>
       </c>
-      <c r="I230">
-        <v>2</v>
-      </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L230">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M230">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N230">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O230">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R230">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA230">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6882757</v>
+        <v>6884542</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,76 +21015,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G231" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L231">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M231">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="N231">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P231">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V231">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X231">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA231">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC231">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21107,7 +21107,7 @@
         <v>41</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H232">
         <v>3</v>
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6882756</v>
+        <v>6886998</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,37 +21371,37 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G235" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K235">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="L235">
         <v>3.75</v>
       </c>
       <c r="M235">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N235">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="O235">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P235">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q235">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R235">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T235">
         <v>2.75</v>
@@ -21433,7 +21433,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6886998</v>
+        <v>6886995</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21445,40 +21445,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K236">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L236">
         <v>3.75</v>
       </c>
       <c r="M236">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N236">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O236">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P236">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S236">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U236">
         <v>1.875</v>
@@ -21507,7 +21507,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6886995</v>
+        <v>6885381</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21519,46 +21519,46 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G237" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K237">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L237">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="N237">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O237">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T237">
         <v>3</v>
       </c>
       <c r="U237">
+        <v>1.975</v>
+      </c>
+      <c r="V237">
         <v>1.875</v>
-      </c>
-      <c r="V237">
-        <v>1.975</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21581,7 +21581,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6885381</v>
+        <v>6884543</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21593,46 +21593,46 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K238">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L238">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
         <v>1.909</v>
       </c>
       <c r="N238">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O238">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P238">
+        <v>1.727</v>
+      </c>
+      <c r="Q238">
+        <v>0.75</v>
+      </c>
+      <c r="R238">
         <v>1.85</v>
       </c>
-      <c r="Q238">
-        <v>0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.925</v>
-      </c>
       <c r="S238">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T238">
         <v>3</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21655,7 +21655,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6884543</v>
+        <v>6884509</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21667,46 +21667,46 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G239" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K239">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L239">
         <v>3.75</v>
       </c>
       <c r="M239">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N239">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="O239">
         <v>4</v>
       </c>
       <c r="P239">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="Q239">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S239">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T239">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V239">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21729,7 +21729,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6884509</v>
+        <v>6882756</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21741,46 +21741,46 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G240" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L240">
         <v>3.75</v>
       </c>
       <c r="M240">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="N240">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O240">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P240">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q240">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R240">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S240">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T240">
         <v>2.75</v>
       </c>
       <c r="U240">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W240">
         <v>0</v>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC240"/>
+  <dimension ref="A1:AC236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6884488</v>
+        <v>6884522</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,73 +2147,73 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L19">
         <v>3.6</v>
       </c>
       <c r="M19">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N19">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O19">
         <v>3.6</v>
       </c>
       <c r="P19">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB19">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6884522</v>
+        <v>6884488</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,73 +2236,73 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
         <v>3.6</v>
       </c>
       <c r="M20">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N20">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O20">
         <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
+        <v>1.95</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="T20">
-        <v>3.25</v>
-      </c>
-      <c r="U20">
-        <v>1.8</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6886896</v>
+        <v>6882779</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45164.375</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L40">
         <v>4</v>
       </c>
       <c r="M40">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="N40">
+        <v>1.533</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <v>-1</v>
+      </c>
+      <c r="R40">
         <v>1.85</v>
       </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
-      <c r="P40">
-        <v>3.3</v>
-      </c>
-      <c r="Q40">
-        <v>-0.5</v>
-      </c>
-      <c r="R40">
+      <c r="S40">
         <v>1.95</v>
       </c>
-      <c r="S40">
-        <v>1.9</v>
-      </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6884524</v>
+        <v>6886896</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,73 +4105,73 @@
         <v>45164.375</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>3.5</v>
+      </c>
+      <c r="N41">
+        <v>1.85</v>
+      </c>
+      <c r="O41">
         <v>3.6</v>
       </c>
-      <c r="M41">
-        <v>2.1</v>
-      </c>
-      <c r="N41">
-        <v>3.5</v>
-      </c>
-      <c r="O41">
-        <v>3.5</v>
-      </c>
       <c r="P41">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6882779</v>
+        <v>6884524</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45164.375</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="N42">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6886921</v>
+        <v>6886920</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,13 +7754,13 @@
         <v>45206.375</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -7769,43 +7769,43 @@
         <v>48</v>
       </c>
       <c r="K82">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L82">
         <v>3.75</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O82">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T82">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7814,16 +7814,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6886920</v>
+        <v>6886918</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,76 +7843,76 @@
         <v>45206.375</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83">
+        <v>2.5</v>
+      </c>
+      <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
+        <v>2.3</v>
+      </c>
+      <c r="N83">
+        <v>2.5</v>
+      </c>
+      <c r="O83">
+        <v>3.6</v>
+      </c>
+      <c r="P83">
+        <v>2.3</v>
+      </c>
+      <c r="Q83">
         <v>0</v>
       </c>
-      <c r="J83" t="s">
-        <v>48</v>
-      </c>
-      <c r="K83">
-        <v>2.875</v>
-      </c>
-      <c r="L83">
-        <v>3.75</v>
-      </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>3.8</v>
-      </c>
-      <c r="P83">
-        <v>3</v>
-      </c>
-      <c r="Q83">
-        <v>-0.25</v>
-      </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
         <v>1.925</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6886918</v>
+        <v>6886917</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,55 +7932,55 @@
         <v>45206.375</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O84">
         <v>3.6</v>
       </c>
       <c r="P84">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T84">
         <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7989,19 +7989,19 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6886917</v>
+        <v>6884529</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,40 +8021,40 @@
         <v>45206.375</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M85">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N85">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
         <v>2</v>
@@ -8063,13 +8063,13 @@
         <v>1.8</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8078,7 +8078,7 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="Z85">
         <v>-1</v>
@@ -8087,10 +8087,10 @@
         <v>0.8</v>
       </c>
       <c r="AB85">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6884529</v>
+        <v>6886921</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45206.375</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>48</v>
+      </c>
+      <c r="K86">
+        <v>1.666</v>
+      </c>
+      <c r="L86">
+        <v>3.75</v>
+      </c>
+      <c r="M86">
         <v>4</v>
       </c>
-      <c r="J86" t="s">
-        <v>47</v>
-      </c>
-      <c r="K86">
-        <v>1.363</v>
-      </c>
-      <c r="L86">
-        <v>4.75</v>
-      </c>
-      <c r="M86">
-        <v>6</v>
-      </c>
       <c r="N86">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="O86">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
         <v>3</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6886932</v>
+        <v>6884531</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="N108">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
         <v>1.875</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6884531</v>
+        <v>6886932</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109">
+        <v>2.3</v>
+      </c>
+      <c r="L109">
         <v>3.75</v>
       </c>
-      <c r="L109">
-        <v>4</v>
-      </c>
       <c r="M109">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="N109">
+        <v>2.15</v>
+      </c>
+      <c r="O109">
         <v>3.6</v>
       </c>
-      <c r="O109">
-        <v>4</v>
-      </c>
       <c r="P109">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
         <v>1.875</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6885373</v>
+        <v>6884498</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N125">
-        <v>3.1</v>
+        <v>1.55</v>
       </c>
       <c r="O125">
         <v>3.6</v>
       </c>
       <c r="P125">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="T125">
         <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X125">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>0.325</v>
       </c>
       <c r="AB125">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6884498</v>
+        <v>6885373</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K126">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N126">
-        <v>1.55</v>
+        <v>3.1</v>
       </c>
       <c r="O126">
         <v>3.6</v>
       </c>
       <c r="P126">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
         <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W126">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
+        <v>0.5</v>
+      </c>
+      <c r="AA126">
         <v>-0.5</v>
       </c>
-      <c r="AA126">
-        <v>0.325</v>
-      </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6886941</v>
+        <v>6882769</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K128">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="N128">
         <v>2.9</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S128">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T128">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
+        <v>2</v>
+      </c>
+      <c r="V128">
+        <v>1.85</v>
+      </c>
+      <c r="W128">
         <v>1.9</v>
       </c>
-      <c r="V128">
-        <v>1.9</v>
-      </c>
-      <c r="W128">
-        <v>-1</v>
-      </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>0.5</v>
+      </c>
+      <c r="AC128">
         <v>-0.5</v>
-      </c>
-      <c r="AB128">
-        <v>-1</v>
-      </c>
-      <c r="AC128">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6882769</v>
+        <v>6886941</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M129">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="N129">
         <v>2.9</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6880542</v>
+        <v>6886958</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K153">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L153">
         <v>3.75</v>
       </c>
       <c r="M153">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N153">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
         <v>3</v>
       </c>
       <c r="U153">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X153">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6886958</v>
+        <v>6880542</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K154">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L154">
         <v>3.75</v>
       </c>
       <c r="M154">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N154">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O154">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
         <v>3</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
+        <v>-0.5</v>
+      </c>
+      <c r="AA154">
+        <v>0.45</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7572927</v>
+        <v>7691492</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,73 +14785,73 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
         <v>3</v>
       </c>
-      <c r="I161">
-        <v>2</v>
-      </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N161">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z161">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB161">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7691492</v>
+        <v>7572927</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,73 +14874,73 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K162">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L162">
+        <v>4</v>
+      </c>
+      <c r="M162">
         <v>3.75</v>
       </c>
-      <c r="M162">
-        <v>3.3</v>
-      </c>
       <c r="N162">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S162">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA162">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB162">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6882764</v>
+        <v>6880544</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K166">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N166">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O166">
         <v>3.6</v>
       </c>
       <c r="P166">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V166">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y166">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB166">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6880544</v>
+        <v>6882764</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L168">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N168">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O168">
         <v>3.6</v>
       </c>
       <c r="P168">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
         <v>2.6</v>
       </c>
-      <c r="Y168">
-        <v>-1</v>
-      </c>
       <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB168">
+        <v>0.4125</v>
+      </c>
+      <c r="AC168">
         <v>-0.5</v>
-      </c>
-      <c r="AA168">
-        <v>0.4625</v>
-      </c>
-      <c r="AB168">
-        <v>0.8</v>
-      </c>
-      <c r="AC168">
-        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6886981</v>
+        <v>6884506</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>49</v>
+      </c>
+      <c r="K205">
         <v>3</v>
       </c>
-      <c r="I205">
-        <v>5</v>
-      </c>
-      <c r="J205" t="s">
-        <v>47</v>
-      </c>
-      <c r="K205">
-        <v>1.444</v>
-      </c>
       <c r="L205">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M205">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N205">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="O205">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q205">
+        <v>0.25</v>
+      </c>
+      <c r="R205">
+        <v>1.775</v>
+      </c>
+      <c r="S205">
+        <v>2.1</v>
+      </c>
+      <c r="T205">
+        <v>2.25</v>
+      </c>
+      <c r="U205">
+        <v>1.825</v>
+      </c>
+      <c r="V205">
+        <v>2.025</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
+        <v>2.4</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.3875</v>
+      </c>
+      <c r="AA205">
         <v>-0.5</v>
       </c>
-      <c r="R205">
-        <v>1.975</v>
-      </c>
-      <c r="S205">
-        <v>1.825</v>
-      </c>
-      <c r="T205">
-        <v>2.5</v>
-      </c>
-      <c r="U205">
-        <v>1.925</v>
-      </c>
-      <c r="V205">
-        <v>1.875</v>
-      </c>
-      <c r="W205">
-        <v>-1</v>
-      </c>
-      <c r="X205">
-        <v>-1</v>
-      </c>
-      <c r="Y205">
-        <v>2.8</v>
-      </c>
-      <c r="Z205">
-        <v>-1</v>
-      </c>
-      <c r="AA205">
-        <v>0.825</v>
-      </c>
       <c r="AB205">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6884506</v>
+        <v>6886981</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,76 +19057,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K209">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L209">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M209">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N209">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P209">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z209">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB209">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC209">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6886989</v>
+        <v>6882758</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,40 +19680,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K216">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="L216">
         <v>4</v>
       </c>
       <c r="M216">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N216">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="O216">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P216">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R216">
         <v>2.025</v>
@@ -19725,31 +19725,31 @@
         <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y216">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6886988</v>
+        <v>6886989</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,73 +19769,73 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H217">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K217">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L217">
+        <v>4</v>
+      </c>
+      <c r="M217">
         <v>3.75</v>
       </c>
-      <c r="M217">
-        <v>2.05</v>
-      </c>
       <c r="N217">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O217">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P217">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q217">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
         <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W217">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z217">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB217">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC217">
         <v>-1</v>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6886987</v>
+        <v>6886988</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,73 +19858,73 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G218" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K218">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L218">
         <v>3.75</v>
       </c>
       <c r="M218">
+        <v>2.05</v>
+      </c>
+      <c r="N218">
+        <v>4</v>
+      </c>
+      <c r="O218">
+        <v>4.2</v>
+      </c>
+      <c r="P218">
+        <v>1.6</v>
+      </c>
+      <c r="Q218">
+        <v>1</v>
+      </c>
+      <c r="R218">
+        <v>1.775</v>
+      </c>
+      <c r="S218">
+        <v>2.025</v>
+      </c>
+      <c r="T218">
         <v>2.75</v>
       </c>
-      <c r="N218">
-        <v>2.9</v>
-      </c>
-      <c r="O218">
-        <v>3.75</v>
-      </c>
-      <c r="P218">
-        <v>2.05</v>
-      </c>
-      <c r="Q218">
-        <v>0.25</v>
-      </c>
-      <c r="R218">
-        <v>1.925</v>
-      </c>
-      <c r="S218">
-        <v>1.925</v>
-      </c>
-      <c r="T218">
-        <v>2.5</v>
-      </c>
       <c r="U218">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA218">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC218">
         <v>-1</v>
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6886986</v>
+        <v>6886987</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K219">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L219">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M219">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N219">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O219">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P219">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q219">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
         <v>1.925</v>
       </c>
       <c r="S219">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T219">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z219">
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6884541</v>
+        <v>6886986</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M220">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="N220">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O220">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P220">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB220">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6882758</v>
+        <v>6884541</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L221">
         <v>4</v>
       </c>
       <c r="M221">
+        <v>1.909</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221">
+        <v>3.75</v>
+      </c>
+      <c r="P221">
+        <v>1.95</v>
+      </c>
+      <c r="Q221">
+        <v>0.25</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
         <v>1.8</v>
-      </c>
-      <c r="N221">
-        <v>3.25</v>
-      </c>
-      <c r="O221">
-        <v>4</v>
-      </c>
-      <c r="P221">
-        <v>1.833</v>
-      </c>
-      <c r="Q221">
-        <v>0.5</v>
-      </c>
-      <c r="R221">
-        <v>2.025</v>
-      </c>
-      <c r="S221">
-        <v>1.825</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X221">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC221">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6886998</v>
+        <v>6886997</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21368,49 +21368,49 @@
         <v>28</v>
       </c>
       <c r="E235" s="2">
-        <v>45381.41666666666</v>
+        <v>45382.375</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K235">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="L235">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M235">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="N235">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O235">
         <v>3.6</v>
       </c>
       <c r="P235">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S235">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W235">
         <v>0</v>
@@ -21433,7 +21433,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6886995</v>
+        <v>6886996</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21442,49 +21442,49 @@
         <v>28</v>
       </c>
       <c r="E236" s="2">
-        <v>45381.41666666666</v>
+        <v>45382.375</v>
       </c>
       <c r="F236" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G236" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K236">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L236">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M236">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N236">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="O236">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P236">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R236">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S236">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T236">
         <v>3</v>
       </c>
       <c r="U236">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V236">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
         <v>0</v>
@@ -21499,302 +21499,6 @@
         <v>0</v>
       </c>
       <c r="AA236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:29">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237">
-        <v>6885381</v>
-      </c>
-      <c r="C237" t="s">
-        <v>28</v>
-      </c>
-      <c r="D237" t="s">
-        <v>28</v>
-      </c>
-      <c r="E237" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F237" t="s">
-        <v>30</v>
-      </c>
-      <c r="G237" t="s">
-        <v>33</v>
-      </c>
-      <c r="K237">
-        <v>3.2</v>
-      </c>
-      <c r="L237">
-        <v>3.6</v>
-      </c>
-      <c r="M237">
-        <v>1.909</v>
-      </c>
-      <c r="N237">
-        <v>3.3</v>
-      </c>
-      <c r="O237">
-        <v>3.6</v>
-      </c>
-      <c r="P237">
-        <v>1.85</v>
-      </c>
-      <c r="Q237">
-        <v>0.5</v>
-      </c>
-      <c r="R237">
-        <v>1.925</v>
-      </c>
-      <c r="S237">
-        <v>1.925</v>
-      </c>
-      <c r="T237">
-        <v>3</v>
-      </c>
-      <c r="U237">
-        <v>1.975</v>
-      </c>
-      <c r="V237">
-        <v>1.875</v>
-      </c>
-      <c r="W237">
-        <v>0</v>
-      </c>
-      <c r="X237">
-        <v>0</v>
-      </c>
-      <c r="Y237">
-        <v>0</v>
-      </c>
-      <c r="Z237">
-        <v>0</v>
-      </c>
-      <c r="AA237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:29">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238">
-        <v>6884543</v>
-      </c>
-      <c r="C238" t="s">
-        <v>28</v>
-      </c>
-      <c r="D238" t="s">
-        <v>28</v>
-      </c>
-      <c r="E238" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F238" t="s">
-        <v>37</v>
-      </c>
-      <c r="G238" t="s">
-        <v>43</v>
-      </c>
-      <c r="K238">
-        <v>3.1</v>
-      </c>
-      <c r="L238">
-        <v>3.75</v>
-      </c>
-      <c r="M238">
-        <v>1.909</v>
-      </c>
-      <c r="N238">
-        <v>3.6</v>
-      </c>
-      <c r="O238">
-        <v>4</v>
-      </c>
-      <c r="P238">
-        <v>1.727</v>
-      </c>
-      <c r="Q238">
-        <v>0.75</v>
-      </c>
-      <c r="R238">
-        <v>1.85</v>
-      </c>
-      <c r="S238">
-        <v>2</v>
-      </c>
-      <c r="T238">
-        <v>3</v>
-      </c>
-      <c r="U238">
-        <v>1.975</v>
-      </c>
-      <c r="V238">
-        <v>1.875</v>
-      </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-      <c r="X238">
-        <v>0</v>
-      </c>
-      <c r="Y238">
-        <v>0</v>
-      </c>
-      <c r="Z238">
-        <v>0</v>
-      </c>
-      <c r="AA238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:29">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239">
-        <v>6884509</v>
-      </c>
-      <c r="C239" t="s">
-        <v>28</v>
-      </c>
-      <c r="D239" t="s">
-        <v>28</v>
-      </c>
-      <c r="E239" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F239" t="s">
-        <v>29</v>
-      </c>
-      <c r="G239" t="s">
-        <v>40</v>
-      </c>
-      <c r="K239">
-        <v>1.833</v>
-      </c>
-      <c r="L239">
-        <v>3.75</v>
-      </c>
-      <c r="M239">
-        <v>3.3</v>
-      </c>
-      <c r="N239">
-        <v>1.7</v>
-      </c>
-      <c r="O239">
-        <v>4</v>
-      </c>
-      <c r="P239">
-        <v>3.8</v>
-      </c>
-      <c r="Q239">
-        <v>-0.75</v>
-      </c>
-      <c r="R239">
-        <v>1.975</v>
-      </c>
-      <c r="S239">
-        <v>1.875</v>
-      </c>
-      <c r="T239">
-        <v>2.75</v>
-      </c>
-      <c r="U239">
-        <v>1.85</v>
-      </c>
-      <c r="V239">
-        <v>2</v>
-      </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-      <c r="X239">
-        <v>0</v>
-      </c>
-      <c r="Y239">
-        <v>0</v>
-      </c>
-      <c r="Z239">
-        <v>0</v>
-      </c>
-      <c r="AA239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:29">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240">
-        <v>6882756</v>
-      </c>
-      <c r="C240" t="s">
-        <v>28</v>
-      </c>
-      <c r="D240" t="s">
-        <v>28</v>
-      </c>
-      <c r="E240" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F240" t="s">
-        <v>38</v>
-      </c>
-      <c r="G240" t="s">
-        <v>45</v>
-      </c>
-      <c r="K240">
-        <v>3.1</v>
-      </c>
-      <c r="L240">
-        <v>3.75</v>
-      </c>
-      <c r="M240">
-        <v>1.909</v>
-      </c>
-      <c r="N240">
-        <v>3.2</v>
-      </c>
-      <c r="O240">
-        <v>3.6</v>
-      </c>
-      <c r="P240">
-        <v>1.909</v>
-      </c>
-      <c r="Q240">
-        <v>0.5</v>
-      </c>
-      <c r="R240">
-        <v>1.85</v>
-      </c>
-      <c r="S240">
-        <v>2</v>
-      </c>
-      <c r="T240">
-        <v>2.75</v>
-      </c>
-      <c r="U240">
-        <v>1.925</v>
-      </c>
-      <c r="V240">
-        <v>1.925</v>
-      </c>
-      <c r="W240">
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <v>0</v>
-      </c>
-      <c r="Y240">
-        <v>0</v>
-      </c>
-      <c r="Z240">
-        <v>0</v>
-      </c>
-      <c r="AA240">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AC244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6886950</v>
+        <v>6886952</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,49 +13450,49 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H146">
+        <v>4</v>
+      </c>
+      <c r="I146">
         <v>1</v>
       </c>
-      <c r="I146">
-        <v>3</v>
-      </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K146">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L146">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N146">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P146">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
         <v>2</v>
@@ -13501,19 +13501,19 @@
         <v>1.8</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
         <v>1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6886952</v>
+        <v>6886950</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,49 +13717,49 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L149">
+        <v>4.75</v>
+      </c>
+      <c r="M149">
+        <v>6</v>
+      </c>
+      <c r="N149">
+        <v>1.75</v>
+      </c>
+      <c r="O149">
+        <v>3.6</v>
+      </c>
+      <c r="P149">
         <v>3.75</v>
       </c>
-      <c r="M149">
-        <v>2.875</v>
-      </c>
-      <c r="N149">
-        <v>1.615</v>
-      </c>
-      <c r="O149">
-        <v>4.2</v>
-      </c>
-      <c r="P149">
-        <v>4</v>
-      </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
         <v>2</v>
@@ -13768,19 +13768,19 @@
         <v>1.8</v>
       </c>
       <c r="W149">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z149">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB149">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6884536</v>
+        <v>6880544</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,73 +15319,73 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167" t="s">
+        <v>49</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>3.6</v>
+      </c>
+      <c r="M167">
         <v>3</v>
       </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
-      <c r="J167" t="s">
-        <v>48</v>
-      </c>
-      <c r="K167">
-        <v>1.666</v>
-      </c>
-      <c r="L167">
-        <v>3.75</v>
-      </c>
-      <c r="M167">
-        <v>4</v>
-      </c>
       <c r="N167">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O167">
         <v>3.6</v>
       </c>
       <c r="P167">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q167">
+        <v>-0.25</v>
+      </c>
+      <c r="R167">
+        <v>1.925</v>
+      </c>
+      <c r="S167">
+        <v>1.925</v>
+      </c>
+      <c r="T167">
+        <v>2.75</v>
+      </c>
+      <c r="U167">
+        <v>1.8</v>
+      </c>
+      <c r="V167">
+        <v>2.05</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>2.6</v>
+      </c>
+      <c r="Y167">
+        <v>-1</v>
+      </c>
+      <c r="Z167">
         <v>-0.5</v>
       </c>
-      <c r="R167">
-        <v>1.9</v>
-      </c>
-      <c r="S167">
-        <v>1.9</v>
-      </c>
-      <c r="T167">
-        <v>3</v>
-      </c>
-      <c r="U167">
-        <v>1.975</v>
-      </c>
-      <c r="V167">
-        <v>1.825</v>
-      </c>
-      <c r="W167">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X167">
-        <v>-1</v>
-      </c>
-      <c r="Y167">
-        <v>-1</v>
-      </c>
-      <c r="Z167">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB167">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6880544</v>
+        <v>6882764</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L168">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N168">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O168">
         <v>3.6</v>
       </c>
       <c r="P168">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
         <v>2.6</v>
       </c>
-      <c r="Y168">
-        <v>-1</v>
-      </c>
       <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB168">
+        <v>0.4125</v>
+      </c>
+      <c r="AC168">
         <v>-0.5</v>
-      </c>
-      <c r="AA168">
-        <v>0.4625</v>
-      </c>
-      <c r="AB168">
-        <v>0.8</v>
-      </c>
-      <c r="AC168">
-        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6882764</v>
+        <v>6884503</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,52 +15497,52 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J169" t="s">
         <v>47</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L169">
         <v>3.75</v>
       </c>
       <c r="M169">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N169">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P169">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R169">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T169">
         <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V169">
         <v>2.025</v>
@@ -15554,19 +15554,19 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>2.6</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB169">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6884503</v>
+        <v>6884536</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,40 +15586,40 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K170">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L170">
         <v>3.75</v>
       </c>
       <c r="M170">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="Q170">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
         <v>1.9</v>
@@ -15628,31 +15628,31 @@
         <v>1.9</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7691489</v>
+        <v>7764092</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,55 +15764,55 @@
         <v>45328.64583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="L172">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M172">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N172">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P172">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R172">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15821,19 +15821,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC172">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7764092</v>
+        <v>7691489</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,55 +15853,55 @@
         <v>45328.64583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M173">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N173">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P173">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q173">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S173">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15910,19 +15910,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB173">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6886968</v>
+        <v>6884537</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,73 +16120,73 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
-        <v>4</v>
+        <v>1.159</v>
       </c>
       <c r="N176">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O176">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB176">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6884537</v>
+        <v>6884504</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,34 +16209,34 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="s">
+        <v>48</v>
+      </c>
+      <c r="K177">
+        <v>1.727</v>
+      </c>
+      <c r="L177">
         <v>4</v>
       </c>
-      <c r="J177" t="s">
-        <v>47</v>
-      </c>
-      <c r="K177">
-        <v>2.2</v>
-      </c>
-      <c r="L177">
-        <v>3.4</v>
-      </c>
       <c r="M177">
-        <v>1.159</v>
+        <v>3.5</v>
       </c>
       <c r="N177">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P177">
         <v>2.75</v>
@@ -16245,37 +16245,37 @@
         <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA177">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6884504</v>
+        <v>6886968</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,73 +16298,73 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K178">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L178">
         <v>4</v>
       </c>
       <c r="M178">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N178">
+        <v>1.85</v>
+      </c>
+      <c r="O178">
+        <v>3.75</v>
+      </c>
+      <c r="P178">
+        <v>3.2</v>
+      </c>
+      <c r="Q178">
+        <v>-0.5</v>
+      </c>
+      <c r="R178">
         <v>2.05</v>
       </c>
-      <c r="O178">
-        <v>3.8</v>
-      </c>
-      <c r="P178">
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>3</v>
+      </c>
+      <c r="U178">
+        <v>1.875</v>
+      </c>
+      <c r="V178">
+        <v>1.975</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
         <v>2.75</v>
       </c>
-      <c r="Q178">
-        <v>-0.25</v>
-      </c>
-      <c r="R178">
-        <v>1.875</v>
-      </c>
-      <c r="S178">
-        <v>1.975</v>
-      </c>
-      <c r="T178">
-        <v>2.75</v>
-      </c>
-      <c r="U178">
-        <v>2</v>
-      </c>
-      <c r="V178">
-        <v>1.85</v>
-      </c>
-      <c r="W178">
-        <v>1.05</v>
-      </c>
-      <c r="X178">
-        <v>-1</v>
-      </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
+        <v>0.8</v>
+      </c>
+      <c r="AB178">
         <v>0.875</v>
-      </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
-      <c r="AB178">
-        <v>1</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6882762</v>
+        <v>6885378</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K190">
-        <v>1.615</v>
+        <v>1.222</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M190">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N190">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="O190">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P190">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC190">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6885378</v>
+        <v>6886972</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,76 +17455,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K191">
-        <v>1.222</v>
+        <v>2.55</v>
       </c>
       <c r="L191">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M191">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="N191">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O191">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P191">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q191">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V191">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6886972</v>
+        <v>6882762</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,10 +17544,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17559,41 +17559,41 @@
         <v>47</v>
       </c>
       <c r="K192">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L192">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M192">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N192">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O192">
         <v>3.6</v>
       </c>
       <c r="P192">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q192">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
+        <v>1.95</v>
+      </c>
+      <c r="S192">
+        <v>1.85</v>
+      </c>
+      <c r="T192">
+        <v>2.75</v>
+      </c>
+      <c r="U192">
+        <v>1.975</v>
+      </c>
+      <c r="V192">
         <v>1.825</v>
       </c>
-      <c r="S192">
-        <v>1.975</v>
-      </c>
-      <c r="T192">
-        <v>2.5</v>
-      </c>
-      <c r="U192">
-        <v>1.825</v>
-      </c>
-      <c r="V192">
-        <v>1.975</v>
-      </c>
       <c r="W192">
         <v>-1</v>
       </c>
@@ -17601,19 +17601,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6885379</v>
+        <v>6886980</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,46 +17722,46 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>48</v>
       </c>
       <c r="K194">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L194">
+        <v>3.6</v>
+      </c>
+      <c r="M194">
+        <v>3.2</v>
+      </c>
+      <c r="N194">
+        <v>2.375</v>
+      </c>
+      <c r="O194">
         <v>3.4</v>
       </c>
-      <c r="M194">
-        <v>2.75</v>
-      </c>
-      <c r="N194">
-        <v>2.875</v>
-      </c>
-      <c r="O194">
-        <v>3.25</v>
-      </c>
       <c r="P194">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q194">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R194">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S194">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T194">
         <v>2.75</v>
@@ -17770,10 +17770,10 @@
         <v>1.85</v>
       </c>
       <c r="V194">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>1.875</v>
+        <v>1.375</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17782,16 +17782,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6886980</v>
+        <v>6885379</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,46 +17811,46 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>48</v>
       </c>
       <c r="K195">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M195">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N195">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P195">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T195">
         <v>2.75</v>
@@ -17859,10 +17859,10 @@
         <v>1.85</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W195">
-        <v>1.375</v>
+        <v>1.875</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17871,16 +17871,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6882760</v>
+        <v>6880546</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,76 +17900,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H196">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L196">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N196">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O196">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P196">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R196">
+        <v>1.975</v>
+      </c>
+      <c r="S196">
         <v>1.825</v>
       </c>
-      <c r="S196">
-        <v>1.975</v>
-      </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6880546</v>
+        <v>6882760</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,76 +17989,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G197" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I197">
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M197">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N197">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P197">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R197">
+        <v>1.825</v>
+      </c>
+      <c r="S197">
         <v>1.975</v>
       </c>
-      <c r="S197">
-        <v>1.825</v>
-      </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U197">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X197">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA197">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC197">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6886976</v>
+        <v>6886978</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>49</v>
       </c>
       <c r="K198">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="N198">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O198">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P198">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q198">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB198">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6886978</v>
+        <v>6886976</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>49</v>
       </c>
       <c r="K199">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="N199">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O199">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P199">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
         <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA199">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6886985</v>
+        <v>6886982</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K204">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L204">
         <v>3.75</v>
       </c>
       <c r="M204">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N204">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="O204">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P204">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R204">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S204">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA204">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6886984</v>
+        <v>6886985</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,73 +18701,73 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M205">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N205">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O205">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P205">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S205">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W205">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z205">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB205">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AC205">
         <v>-0.5</v>
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6886982</v>
+        <v>6886984</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,58 +18790,58 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
         <v>48</v>
       </c>
       <c r="K206">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M206">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N206">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="O206">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
         <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V206">
         <v>2</v>
       </c>
       <c r="W206">
-        <v>0.55</v>
+        <v>1.1</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18850,16 +18850,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC206">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6885380</v>
+        <v>6884507</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19517,34 +19517,34 @@
         <v>48</v>
       </c>
       <c r="K214">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M214">
+        <v>6</v>
+      </c>
+      <c r="N214">
+        <v>1.571</v>
+      </c>
+      <c r="O214">
+        <v>3.8</v>
+      </c>
+      <c r="P214">
+        <v>4.5</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
         <v>1.8</v>
       </c>
-      <c r="N214">
-        <v>3</v>
-      </c>
-      <c r="O214">
-        <v>3.6</v>
-      </c>
-      <c r="P214">
-        <v>1.95</v>
-      </c>
-      <c r="Q214">
-        <v>0.25</v>
-      </c>
-      <c r="R214">
-        <v>2</v>
-      </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T214">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
         <v>1.9</v>
@@ -19553,7 +19553,7 @@
         <v>1.9</v>
       </c>
       <c r="W214">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19562,16 +19562,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC214">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6884507</v>
+        <v>6885380</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19606,34 +19606,34 @@
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="L215">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M215">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N215">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O215">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
         <v>1.8</v>
       </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U215">
         <v>1.9</v>
@@ -19642,7 +19642,7 @@
         <v>1.9</v>
       </c>
       <c r="W215">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC215">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6886994</v>
+        <v>6886993</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,16 +20570,16 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>48</v>
@@ -20588,40 +20588,40 @@
         <v>1.727</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M226">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N226">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O226">
         <v>4</v>
       </c>
       <c r="P226">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q226">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R226">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S226">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U226">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20630,16 +20630,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC226">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6880549</v>
+        <v>6884542</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M227">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N227">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="O227">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P227">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q227">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R227">
+        <v>1.925</v>
+      </c>
+      <c r="S227">
         <v>1.875</v>
       </c>
-      <c r="S227">
-        <v>1.975</v>
-      </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U227">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V227">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X227">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC227">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6884542</v>
+        <v>6886992</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,37 +20837,37 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H229">
         <v>5</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>48</v>
       </c>
       <c r="K229">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="L229">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M229">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N229">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O229">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P229">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q229">
         <v>-1.5</v>
@@ -20879,16 +20879,16 @@
         <v>1.875</v>
       </c>
       <c r="T229">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U229">
+        <v>1.95</v>
+      </c>
+      <c r="V229">
         <v>1.85</v>
       </c>
-      <c r="V229">
-        <v>1.95</v>
-      </c>
       <c r="W229">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20903,7 +20903,7 @@
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6886993</v>
+        <v>6886994</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,16 +20926,16 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G230" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H230">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
         <v>48</v>
@@ -20944,40 +20944,40 @@
         <v>1.727</v>
       </c>
       <c r="L230">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M230">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N230">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O230">
         <v>4</v>
       </c>
       <c r="P230">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q230">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T230">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20986,16 +20986,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA230">
         <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6886992</v>
+        <v>6880549</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,76 +21015,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H231">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K231">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="O231">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P231">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q231">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S231">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W231">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB231">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6884543</v>
+        <v>6884509</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,76 +21638,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G238" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
         <v>0</v>
       </c>
-      <c r="I238">
-        <v>1</v>
-      </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K238">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L238">
         <v>3.75</v>
       </c>
       <c r="M238">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N238">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O238">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P238">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q238">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
+        <v>1.925</v>
+      </c>
+      <c r="S238">
+        <v>1.875</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
         <v>1.825</v>
       </c>
-      <c r="S238">
-        <v>2.025</v>
-      </c>
-      <c r="T238">
-        <v>3</v>
-      </c>
-      <c r="U238">
-        <v>1.925</v>
-      </c>
       <c r="V238">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA238">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6884509</v>
+        <v>6882756</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,10 +21727,10 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G239" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21742,43 +21742,43 @@
         <v>48</v>
       </c>
       <c r="K239">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L239">
         <v>3.75</v>
       </c>
       <c r="M239">
+        <v>1.909</v>
+      </c>
+      <c r="N239">
+        <v>2.75</v>
+      </c>
+      <c r="O239">
         <v>3.3</v>
       </c>
-      <c r="N239">
-        <v>1.7</v>
-      </c>
-      <c r="O239">
-        <v>3.8</v>
-      </c>
       <c r="P239">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S239">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T239">
         <v>2.5</v>
       </c>
       <c r="U239">
+        <v>1.975</v>
+      </c>
+      <c r="V239">
         <v>1.825</v>
       </c>
-      <c r="V239">
-        <v>1.975</v>
-      </c>
       <c r="W239">
-        <v>0.7</v>
+        <v>1.75</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21787,16 +21787,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21804,7 +21804,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6882756</v>
+        <v>6884543</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21816,19 +21816,19 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G240" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
         <v>1</v>
       </c>
-      <c r="I240">
-        <v>0</v>
-      </c>
       <c r="J240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K240">
         <v>3.1</v>
@@ -21840,52 +21840,52 @@
         <v>1.909</v>
       </c>
       <c r="N240">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R240">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S240">
         <v>2.025</v>
       </c>
       <c r="T240">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W240">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z240">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6886997</v>
+        <v>6886996</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,76 +21905,76 @@
         <v>45382.375</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H241">
         <v>0</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K241">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L241">
         <v>3.6</v>
       </c>
       <c r="M241">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N241">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O241">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="Q241">
         <v>0.5</v>
       </c>
       <c r="R241">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S241">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U241">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z241">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB241">
         <v>-1</v>
       </c>
       <c r="AC241">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6886996</v>
+        <v>6886997</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,76 +21994,224 @@
         <v>45382.375</v>
       </c>
       <c r="F242" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G242" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H242">
         <v>0</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K242">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L242">
         <v>3.6</v>
       </c>
       <c r="M242">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N242">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O242">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P242">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="Q242">
         <v>0.5</v>
       </c>
       <c r="R242">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
+        <v>2.025</v>
+      </c>
+      <c r="T242">
+        <v>2.5</v>
+      </c>
+      <c r="U242">
+        <v>1.8</v>
+      </c>
+      <c r="V242">
+        <v>2</v>
+      </c>
+      <c r="W242">
+        <v>-1</v>
+      </c>
+      <c r="X242">
+        <v>2.5</v>
+      </c>
+      <c r="Y242">
+        <v>-1</v>
+      </c>
+      <c r="Z242">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA242">
+        <v>-1</v>
+      </c>
+      <c r="AB242">
+        <v>-1</v>
+      </c>
+      <c r="AC242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>6887000</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45387.60416666666</v>
+      </c>
+      <c r="F243" t="s">
+        <v>31</v>
+      </c>
+      <c r="G243" t="s">
+        <v>34</v>
+      </c>
+      <c r="K243">
+        <v>2.05</v>
+      </c>
+      <c r="L243">
+        <v>3.4</v>
+      </c>
+      <c r="M243">
+        <v>3</v>
+      </c>
+      <c r="N243">
+        <v>1.666</v>
+      </c>
+      <c r="O243">
+        <v>3.6</v>
+      </c>
+      <c r="P243">
+        <v>4.2</v>
+      </c>
+      <c r="Q243">
+        <v>-0.5</v>
+      </c>
+      <c r="R243">
+        <v>1.725</v>
+      </c>
+      <c r="S243">
+        <v>2.15</v>
+      </c>
+      <c r="T243">
+        <v>2.5</v>
+      </c>
+      <c r="U243">
+        <v>1.85</v>
+      </c>
+      <c r="V243">
+        <v>2</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>6887001</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45387.60416666666</v>
+      </c>
+      <c r="F244" t="s">
+        <v>46</v>
+      </c>
+      <c r="G244" t="s">
+        <v>36</v>
+      </c>
+      <c r="K244">
+        <v>1.95</v>
+      </c>
+      <c r="L244">
+        <v>3.5</v>
+      </c>
+      <c r="M244">
+        <v>3.2</v>
+      </c>
+      <c r="N244">
+        <v>1.909</v>
+      </c>
+      <c r="O244">
+        <v>3.5</v>
+      </c>
+      <c r="P244">
+        <v>3.4</v>
+      </c>
+      <c r="Q244">
+        <v>-0.5</v>
+      </c>
+      <c r="R244">
         <v>1.975</v>
       </c>
-      <c r="T242">
-        <v>3</v>
-      </c>
-      <c r="U242">
-        <v>1.95</v>
-      </c>
-      <c r="V242">
-        <v>1.85</v>
-      </c>
-      <c r="W242">
-        <v>-1</v>
-      </c>
-      <c r="X242">
-        <v>-1</v>
-      </c>
-      <c r="Y242">
-        <v>0.909</v>
-      </c>
-      <c r="Z242">
-        <v>-1</v>
-      </c>
-      <c r="AA242">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB242">
-        <v>-1</v>
-      </c>
-      <c r="AC242">
-        <v>0.8500000000000001</v>
+      <c r="S244">
+        <v>1.875</v>
+      </c>
+      <c r="T244">
+        <v>2.75</v>
+      </c>
+      <c r="U244">
+        <v>1.8</v>
+      </c>
+      <c r="V244">
+        <v>2.05</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6886952</v>
+        <v>6886950</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,49 +13450,49 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L146">
+        <v>4.75</v>
+      </c>
+      <c r="M146">
+        <v>6</v>
+      </c>
+      <c r="N146">
+        <v>1.75</v>
+      </c>
+      <c r="O146">
+        <v>3.6</v>
+      </c>
+      <c r="P146">
         <v>3.75</v>
       </c>
-      <c r="M146">
-        <v>2.875</v>
-      </c>
-      <c r="N146">
-        <v>1.615</v>
-      </c>
-      <c r="O146">
-        <v>4.2</v>
-      </c>
-      <c r="P146">
-        <v>4</v>
-      </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T146">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
         <v>2</v>
@@ -13501,19 +13501,19 @@
         <v>1.8</v>
       </c>
       <c r="W146">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z146">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB146">
         <v>1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6886950</v>
+        <v>6886952</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,49 +13717,49 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H149">
+        <v>4</v>
+      </c>
+      <c r="I149">
         <v>1</v>
       </c>
-      <c r="I149">
-        <v>3</v>
-      </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K149">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L149">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N149">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
         <v>2</v>
@@ -13768,19 +13768,19 @@
         <v>1.8</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6880544</v>
+        <v>6884536</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,73 +15319,73 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L167">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N167">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O167">
         <v>3.6</v>
       </c>
       <c r="P167">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA167">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6882764</v>
+        <v>6880544</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N168">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O168">
         <v>3.6</v>
       </c>
       <c r="P168">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y168">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB168">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6884503</v>
+        <v>6882764</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,52 +15497,52 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
         <v>47</v>
       </c>
       <c r="K169">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
         <v>3.75</v>
       </c>
       <c r="M169">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N169">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="Q169">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S169">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
         <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
         <v>2.025</v>
@@ -15554,19 +15554,19 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.6659999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB169">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6884536</v>
+        <v>6884503</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,40 +15586,40 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K170">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L170">
         <v>3.75</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N170">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P170">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R170">
         <v>1.9</v>
@@ -15628,31 +15628,31 @@
         <v>1.9</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7764092</v>
+        <v>7691489</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,55 +15764,55 @@
         <v>45328.64583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N172">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P172">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q172">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15821,19 +15821,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB172">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7691489</v>
+        <v>7764092</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,55 +15853,55 @@
         <v>45328.64583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="L173">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N173">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O173">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15910,19 +15910,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6884537</v>
+        <v>6886968</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,73 +16120,73 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176" t="s">
+        <v>49</v>
+      </c>
+      <c r="K176">
+        <v>1.615</v>
+      </c>
+      <c r="L176">
         <v>4</v>
       </c>
-      <c r="J176" t="s">
-        <v>47</v>
-      </c>
-      <c r="K176">
-        <v>2.2</v>
-      </c>
-      <c r="L176">
-        <v>3.4</v>
-      </c>
       <c r="M176">
-        <v>1.159</v>
+        <v>4</v>
       </c>
       <c r="N176">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P176">
+        <v>3.2</v>
+      </c>
+      <c r="Q176">
+        <v>-0.5</v>
+      </c>
+      <c r="R176">
+        <v>2.05</v>
+      </c>
+      <c r="S176">
+        <v>1.8</v>
+      </c>
+      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="U176">
+        <v>1.875</v>
+      </c>
+      <c r="V176">
+        <v>1.975</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>2.75</v>
       </c>
-      <c r="Q176">
-        <v>-0.25</v>
-      </c>
-      <c r="R176">
-        <v>2.1</v>
-      </c>
-      <c r="S176">
-        <v>1.775</v>
-      </c>
-      <c r="T176">
-        <v>2.75</v>
-      </c>
-      <c r="U176">
-        <v>2.025</v>
-      </c>
-      <c r="V176">
-        <v>1.825</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
       <c r="Y176">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB176">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6884504</v>
+        <v>6884537</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,34 +16209,34 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>3.5</v>
+        <v>1.159</v>
       </c>
       <c r="N177">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
         <v>2.75</v>
@@ -16245,37 +16245,37 @@
         <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6886968</v>
+        <v>6884504</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,73 +16298,73 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K178">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L178">
         <v>4</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N178">
+        <v>2.05</v>
+      </c>
+      <c r="O178">
+        <v>3.8</v>
+      </c>
+      <c r="P178">
+        <v>2.75</v>
+      </c>
+      <c r="Q178">
+        <v>-0.25</v>
+      </c>
+      <c r="R178">
+        <v>1.875</v>
+      </c>
+      <c r="S178">
+        <v>1.975</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
+        <v>2</v>
+      </c>
+      <c r="V178">
         <v>1.85</v>
       </c>
-      <c r="O178">
-        <v>3.75</v>
-      </c>
-      <c r="P178">
-        <v>3.2</v>
-      </c>
-      <c r="Q178">
-        <v>-0.5</v>
-      </c>
-      <c r="R178">
-        <v>2.05</v>
-      </c>
-      <c r="S178">
-        <v>1.8</v>
-      </c>
-      <c r="T178">
-        <v>3</v>
-      </c>
-      <c r="U178">
-        <v>1.875</v>
-      </c>
-      <c r="V178">
-        <v>1.975</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X178">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6885378</v>
+        <v>6882762</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>1.222</v>
+        <v>1.615</v>
       </c>
       <c r="L190">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N190">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="O190">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P190">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q190">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6886972</v>
+        <v>6885378</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,76 +17455,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K191">
-        <v>2.55</v>
+        <v>1.222</v>
       </c>
       <c r="L191">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M191">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="N191">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P191">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q191">
+        <v>-1.5</v>
+      </c>
+      <c r="R191">
+        <v>1.925</v>
+      </c>
+      <c r="S191">
+        <v>1.875</v>
+      </c>
+      <c r="T191">
+        <v>3</v>
+      </c>
+      <c r="U191">
+        <v>1.775</v>
+      </c>
+      <c r="V191">
+        <v>2.025</v>
+      </c>
+      <c r="W191">
+        <v>0.333</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>-1</v>
+      </c>
+      <c r="Z191">
+        <v>-1</v>
+      </c>
+      <c r="AA191">
+        <v>0.875</v>
+      </c>
+      <c r="AB191">
         <v>0</v>
       </c>
-      <c r="R191">
-        <v>1.825</v>
-      </c>
-      <c r="S191">
-        <v>1.975</v>
-      </c>
-      <c r="T191">
-        <v>2.5</v>
-      </c>
-      <c r="U191">
-        <v>1.825</v>
-      </c>
-      <c r="V191">
-        <v>1.975</v>
-      </c>
-      <c r="W191">
-        <v>-1</v>
-      </c>
-      <c r="X191">
-        <v>-1</v>
-      </c>
-      <c r="Y191">
-        <v>1.5</v>
-      </c>
-      <c r="Z191">
-        <v>-1</v>
-      </c>
-      <c r="AA191">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB191">
-        <v>-1</v>
-      </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6882762</v>
+        <v>6886972</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,10 +17544,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17559,41 +17559,41 @@
         <v>47</v>
       </c>
       <c r="K192">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N192">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O192">
         <v>3.6</v>
       </c>
       <c r="P192">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
+        <v>1.825</v>
+      </c>
+      <c r="V192">
         <v>1.975</v>
       </c>
-      <c r="V192">
-        <v>1.825</v>
-      </c>
       <c r="W192">
         <v>-1</v>
       </c>
@@ -17601,19 +17601,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6886980</v>
+        <v>6885379</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,46 +17722,46 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
         <v>48</v>
       </c>
       <c r="K194">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L194">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N194">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O194">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P194">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T194">
         <v>2.75</v>
@@ -17770,10 +17770,10 @@
         <v>1.85</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W194">
-        <v>1.375</v>
+        <v>1.875</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17782,16 +17782,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC194">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6885379</v>
+        <v>6886980</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,46 +17811,46 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>48</v>
       </c>
       <c r="K195">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L195">
+        <v>3.6</v>
+      </c>
+      <c r="M195">
+        <v>3.2</v>
+      </c>
+      <c r="N195">
+        <v>2.375</v>
+      </c>
+      <c r="O195">
         <v>3.4</v>
       </c>
-      <c r="M195">
-        <v>2.75</v>
-      </c>
-      <c r="N195">
-        <v>2.875</v>
-      </c>
-      <c r="O195">
-        <v>3.25</v>
-      </c>
       <c r="P195">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q195">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T195">
         <v>2.75</v>
@@ -17859,10 +17859,10 @@
         <v>1.85</v>
       </c>
       <c r="V195">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>1.875</v>
+        <v>1.375</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17871,16 +17871,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6880546</v>
+        <v>6882760</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,76 +17900,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G196" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M196">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N196">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O196">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P196">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
+        <v>1.825</v>
+      </c>
+      <c r="S196">
         <v>1.975</v>
       </c>
-      <c r="S196">
-        <v>1.825</v>
-      </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X196">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA196">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC196">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6882760</v>
+        <v>6880546</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,76 +17989,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I197">
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K197">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L197">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M197">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N197">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O197">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P197">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q197">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R197">
+        <v>1.975</v>
+      </c>
+      <c r="S197">
         <v>1.825</v>
       </c>
-      <c r="S197">
-        <v>1.975</v>
-      </c>
       <c r="T197">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W197">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6886978</v>
+        <v>6886976</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
         <v>49</v>
       </c>
       <c r="K198">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="N198">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O198">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P198">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA198">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6886976</v>
+        <v>6886978</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>49</v>
       </c>
       <c r="K199">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O199">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P199">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q199">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
         <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6886982</v>
+        <v>6886985</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L204">
         <v>3.75</v>
       </c>
       <c r="M204">
+        <v>3.3</v>
+      </c>
+      <c r="N204">
+        <v>1.909</v>
+      </c>
+      <c r="O204">
         <v>3.75</v>
       </c>
-      <c r="N204">
-        <v>1.55</v>
-      </c>
-      <c r="O204">
-        <v>4</v>
-      </c>
       <c r="P204">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q204">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W204">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z204">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC204">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6886985</v>
+        <v>6886984</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,73 +18701,73 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
         <v>1</v>
       </c>
-      <c r="I205">
-        <v>2</v>
-      </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K205">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M205">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N205">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P205">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S205">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA205">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AC205">
         <v>-0.5</v>
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6886984</v>
+        <v>6886982</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,58 +18790,58 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>48</v>
       </c>
       <c r="K206">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M206">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N206">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P206">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
         <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
         <v>2</v>
       </c>
       <c r="W206">
-        <v>1.1</v>
+        <v>0.55</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18850,16 +18850,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6884507</v>
+        <v>6885380</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19517,34 +19517,34 @@
         <v>48</v>
       </c>
       <c r="K214">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="L214">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N214">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O214">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
         <v>1.8</v>
       </c>
-      <c r="S214">
-        <v>2</v>
-      </c>
       <c r="T214">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U214">
         <v>1.9</v>
@@ -19553,7 +19553,7 @@
         <v>1.9</v>
       </c>
       <c r="W214">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19562,16 +19562,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6885380</v>
+        <v>6884507</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19606,34 +19606,34 @@
         <v>48</v>
       </c>
       <c r="K215">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M215">
+        <v>6</v>
+      </c>
+      <c r="N215">
+        <v>1.571</v>
+      </c>
+      <c r="O215">
+        <v>3.8</v>
+      </c>
+      <c r="P215">
+        <v>4.5</v>
+      </c>
+      <c r="Q215">
+        <v>-0.75</v>
+      </c>
+      <c r="R215">
         <v>1.8</v>
       </c>
-      <c r="N215">
-        <v>3</v>
-      </c>
-      <c r="O215">
-        <v>3.6</v>
-      </c>
-      <c r="P215">
-        <v>1.95</v>
-      </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>2</v>
-      </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
         <v>1.9</v>
@@ -19642,7 +19642,7 @@
         <v>1.9</v>
       </c>
       <c r="W215">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6886993</v>
+        <v>6886994</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,16 +20570,16 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G226" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>48</v>
@@ -20588,40 +20588,40 @@
         <v>1.727</v>
       </c>
       <c r="L226">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M226">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N226">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O226">
         <v>4</v>
       </c>
       <c r="P226">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q226">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S226">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T226">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W226">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20630,16 +20630,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6884542</v>
+        <v>6880549</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H227">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L227">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N227">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="O227">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P227">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q227">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S227">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T227">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W227">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6886992</v>
+        <v>6884542</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,37 +20837,37 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H229">
         <v>5</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>48</v>
       </c>
       <c r="K229">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="L229">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M229">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N229">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O229">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P229">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q229">
         <v>-1.5</v>
@@ -20879,16 +20879,16 @@
         <v>1.875</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U229">
+        <v>1.85</v>
+      </c>
+      <c r="V229">
         <v>1.95</v>
       </c>
-      <c r="V229">
-        <v>1.85</v>
-      </c>
       <c r="W229">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20903,7 +20903,7 @@
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6886994</v>
+        <v>6886993</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,16 +20926,16 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
         <v>48</v>
@@ -20944,40 +20944,40 @@
         <v>1.727</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M230">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N230">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O230">
         <v>4</v>
       </c>
       <c r="P230">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q230">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R230">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20986,16 +20986,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA230">
         <v>-1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC230">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6880549</v>
+        <v>6886992</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,76 +21015,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N231">
+        <v>1.3</v>
+      </c>
+      <c r="O231">
+        <v>4.75</v>
+      </c>
+      <c r="P231">
+        <v>7.5</v>
+      </c>
+      <c r="Q231">
+        <v>-1.5</v>
+      </c>
+      <c r="R231">
+        <v>1.925</v>
+      </c>
+      <c r="S231">
+        <v>1.875</v>
+      </c>
+      <c r="T231">
         <v>3</v>
       </c>
-      <c r="O231">
-        <v>3.4</v>
-      </c>
-      <c r="P231">
-        <v>2.2</v>
-      </c>
-      <c r="Q231">
-        <v>0.25</v>
-      </c>
-      <c r="R231">
-        <v>1.875</v>
-      </c>
-      <c r="S231">
-        <v>1.975</v>
-      </c>
-      <c r="T231">
-        <v>2.5</v>
-      </c>
       <c r="U231">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X231">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC231">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6884509</v>
+        <v>6884543</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,76 +21638,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
         <v>1</v>
       </c>
-      <c r="I238">
-        <v>0</v>
-      </c>
       <c r="J238" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L238">
         <v>3.75</v>
       </c>
       <c r="M238">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="N238">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O238">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P238">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R238">
+        <v>1.825</v>
+      </c>
+      <c r="S238">
+        <v>2.025</v>
+      </c>
+      <c r="T238">
+        <v>3</v>
+      </c>
+      <c r="U238">
         <v>1.925</v>
       </c>
-      <c r="S238">
-        <v>1.875</v>
-      </c>
-      <c r="T238">
-        <v>2.5</v>
-      </c>
-      <c r="U238">
-        <v>1.825</v>
-      </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W238">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z238">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6882756</v>
+        <v>6884509</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,10 +21727,10 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G239" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21742,43 +21742,43 @@
         <v>48</v>
       </c>
       <c r="K239">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L239">
         <v>3.75</v>
       </c>
       <c r="M239">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N239">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O239">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P239">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S239">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T239">
         <v>2.5</v>
       </c>
       <c r="U239">
+        <v>1.825</v>
+      </c>
+      <c r="V239">
         <v>1.975</v>
       </c>
-      <c r="V239">
-        <v>1.825</v>
-      </c>
       <c r="W239">
-        <v>1.75</v>
+        <v>0.7</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21787,16 +21787,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21804,7 +21804,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6884543</v>
+        <v>6882756</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21816,19 +21816,19 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
         <v>0</v>
       </c>
-      <c r="I240">
-        <v>1</v>
-      </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K240">
         <v>3.1</v>
@@ -21840,52 +21840,52 @@
         <v>1.909</v>
       </c>
       <c r="N240">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="Q240">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S240">
         <v>2.025</v>
       </c>
       <c r="T240">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA240">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6886996</v>
+        <v>6886997</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,76 +21905,76 @@
         <v>45382.375</v>
       </c>
       <c r="F241" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G241" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H241">
         <v>0</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K241">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L241">
         <v>3.6</v>
       </c>
       <c r="M241">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N241">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P241">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="Q241">
         <v>0.5</v>
       </c>
       <c r="R241">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S241">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T241">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V241">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y241">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA241">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
         <v>-1</v>
       </c>
       <c r="AC241">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6886997</v>
+        <v>6886996</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,76 +21994,76 @@
         <v>45382.375</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G242" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H242">
         <v>0</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K242">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L242">
         <v>3.6</v>
       </c>
       <c r="M242">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N242">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O242">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P242">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="Q242">
         <v>0.5</v>
       </c>
       <c r="R242">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S242">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U242">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V242">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z242">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB242">
         <v>-1</v>
       </c>
       <c r="AC242">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22098,31 +22098,31 @@
         <v>3</v>
       </c>
       <c r="N243">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O243">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P243">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q243">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R243">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S243">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="T243">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U243">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V243">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W243">
         <v>0</v>
@@ -22172,31 +22172,31 @@
         <v>3.2</v>
       </c>
       <c r="N244">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O244">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q244">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R244">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S244">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T244">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U244">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V244">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W244">
         <v>0</v>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>SV Rodinghausen</t>
   </si>
   <si>
-    <t>SSVg Velbert</t>
+    <t>FC WegbergBeeck</t>
   </si>
   <si>
-    <t>FC WegbergBeeck</t>
+    <t>SSVg Velbert</t>
   </si>
   <si>
     <t>Borussia Mgladbach II</t>
@@ -148,10 +148,10 @@
     <t>1 FC Bocholt</t>
   </si>
   <si>
-    <t>Wuppertaler</t>
+    <t>Duren</t>
   </si>
   <si>
-    <t>Duren</t>
+    <t>Wuppertaler</t>
   </si>
   <si>
     <t>Cologne II</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC251"/>
+  <dimension ref="A1:AC244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6885362</v>
+        <v>6886877</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,10 +815,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -827,43 +827,43 @@
         <v>48</v>
       </c>
       <c r="K4">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L4">
+        <v>3.7</v>
+      </c>
+      <c r="M4">
+        <v>2.9</v>
+      </c>
+      <c r="N4">
+        <v>2.6</v>
+      </c>
+      <c r="O4">
         <v>3.6</v>
       </c>
-      <c r="M4">
-        <v>2.8</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>3.75</v>
-      </c>
       <c r="P4">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -872,7 +872,7 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -881,7 +881,7 @@
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6886877</v>
+        <v>6885362</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,10 +904,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -916,43 +916,43 @@
         <v>48</v>
       </c>
       <c r="K5">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L5">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N5">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -961,7 +961,7 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -970,7 +970,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6884521</v>
+        <v>6886881</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1972,43 +1972,43 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="L17">
         <v>3.6</v>
       </c>
       <c r="M17">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
         <v>3.25</v>
@@ -2020,10 +2020,10 @@
         <v>1.9</v>
       </c>
       <c r="W17">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6886881</v>
+        <v>6884521</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,43 +2061,43 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="L18">
         <v>3.6</v>
       </c>
       <c r="M18">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N18">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
         <v>3.25</v>
@@ -2109,10 +2109,10 @@
         <v>1.9</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X18">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
@@ -2150,7 +2150,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6886889</v>
+        <v>6886888</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45150.375</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21">
+        <v>1.666</v>
+      </c>
+      <c r="L21">
+        <v>3.8</v>
+      </c>
+      <c r="M21">
         <v>4</v>
       </c>
-      <c r="J21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
+      <c r="N21">
+        <v>1.666</v>
+      </c>
+      <c r="O21">
         <v>3.75</v>
       </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>1.75</v>
-      </c>
-      <c r="N21">
-        <v>4.333</v>
-      </c>
-      <c r="O21">
-        <v>3.8</v>
-      </c>
       <c r="P21">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
+        <v>1.825</v>
+      </c>
+      <c r="V21">
         <v>1.975</v>
       </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6886888</v>
+        <v>6886889</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,76 +2414,76 @@
         <v>45150.375</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L22">
+        <v>3.6</v>
+      </c>
+      <c r="M22">
+        <v>1.75</v>
+      </c>
+      <c r="N22">
+        <v>4.333</v>
+      </c>
+      <c r="O22">
         <v>3.8</v>
       </c>
-      <c r="M22">
-        <v>4</v>
-      </c>
-      <c r="N22">
-        <v>1.666</v>
-      </c>
-      <c r="O22">
-        <v>3.75</v>
-      </c>
       <c r="P22">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U22">
+        <v>1.975</v>
+      </c>
+      <c r="V22">
         <v>1.825</v>
       </c>
-      <c r="V22">
-        <v>1.975</v>
-      </c>
       <c r="W22">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>45150.375</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -3037,7 +3037,7 @@
         <v>45157.375</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3129,7 +3129,7 @@
         <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3215,7 +3215,7 @@
         <v>45157.375</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -3574,7 +3574,7 @@
         <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3838,10 +3838,10 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>41</v>
@@ -4019,7 +4019,7 @@
         <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4817,7 +4817,7 @@
         <v>45171.375</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
@@ -4909,7 +4909,7 @@
         <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -4995,10 +4995,10 @@
         <v>45171.375</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5265,7 +5265,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5351,7 +5351,7 @@
         <v>45178.375</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>38</v>
@@ -5529,7 +5529,7 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6884491</v>
+        <v>6886903</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,76 +5618,76 @@
         <v>45185.375</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>1</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L58">
         <v>3.75</v>
       </c>
       <c r="M58">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="N58">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
         <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6886903</v>
+        <v>6886906</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45185.375</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K59">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L59">
         <v>3.75</v>
       </c>
       <c r="M59">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N59">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O59">
         <v>3.8</v>
       </c>
       <c r="P59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
         <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6886906</v>
+        <v>6886905</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,76 +5796,76 @@
         <v>45185.375</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K60">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L60">
         <v>3.75</v>
       </c>
       <c r="M60">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N60">
+        <v>2.05</v>
+      </c>
+      <c r="O60">
+        <v>3.5</v>
+      </c>
+      <c r="P60">
+        <v>2.875</v>
+      </c>
+      <c r="Q60">
+        <v>-0.25</v>
+      </c>
+      <c r="R60">
+        <v>1.85</v>
+      </c>
+      <c r="S60">
         <v>1.95</v>
       </c>
-      <c r="O60">
-        <v>3.8</v>
-      </c>
-      <c r="P60">
-        <v>3</v>
-      </c>
-      <c r="Q60">
+      <c r="T60">
+        <v>3.25</v>
+      </c>
+      <c r="U60">
+        <v>1.975</v>
+      </c>
+      <c r="V60">
+        <v>1.825</v>
+      </c>
+      <c r="W60">
+        <v>1.05</v>
+      </c>
+      <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
+        <v>-1</v>
+      </c>
+      <c r="Z60">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>-1</v>
+      </c>
+      <c r="AB60">
         <v>-0.5</v>
       </c>
-      <c r="R60">
-        <v>2.025</v>
-      </c>
-      <c r="S60">
-        <v>1.825</v>
-      </c>
-      <c r="T60">
-        <v>2.75</v>
-      </c>
-      <c r="U60">
-        <v>1.8</v>
-      </c>
-      <c r="V60">
-        <v>2.05</v>
-      </c>
-      <c r="W60">
-        <v>-1</v>
-      </c>
-      <c r="X60">
-        <v>2.8</v>
-      </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
-      <c r="Z60">
-        <v>-1</v>
-      </c>
-      <c r="AA60">
-        <v>0.825</v>
-      </c>
-      <c r="AB60">
-        <v>-1</v>
-      </c>
       <c r="AC60">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6886905</v>
+        <v>6882777</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,58 +5885,58 @@
         <v>45185.375</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>48</v>
       </c>
       <c r="K61">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
         <v>3.75</v>
       </c>
-      <c r="M61">
+      <c r="N61">
+        <v>1.909</v>
+      </c>
+      <c r="O61">
+        <v>3.75</v>
+      </c>
+      <c r="P61">
+        <v>3.1</v>
+      </c>
+      <c r="Q61">
+        <v>-0.5</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>1.85</v>
+      </c>
+      <c r="T61">
         <v>3</v>
       </c>
-      <c r="N61">
-        <v>2.05</v>
-      </c>
-      <c r="O61">
-        <v>3.5</v>
-      </c>
-      <c r="P61">
-        <v>2.875</v>
-      </c>
-      <c r="Q61">
-        <v>-0.25</v>
-      </c>
-      <c r="R61">
-        <v>1.85</v>
-      </c>
-      <c r="S61">
-        <v>1.95</v>
-      </c>
-      <c r="T61">
-        <v>3.25</v>
-      </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V61">
         <v>1.825</v>
       </c>
       <c r="W61">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5945,16 +5945,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6882777</v>
+        <v>6880532</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45185.375</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62">
+        <v>2.7</v>
+      </c>
+      <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>2.1</v>
+      </c>
+      <c r="N62">
+        <v>2.375</v>
+      </c>
+      <c r="O62">
+        <v>3.6</v>
+      </c>
+      <c r="P62">
+        <v>2.45</v>
+      </c>
+      <c r="Q62">
         <v>0</v>
       </c>
-      <c r="J62" t="s">
-        <v>48</v>
-      </c>
-      <c r="K62">
-        <v>1.666</v>
-      </c>
-      <c r="L62">
-        <v>4</v>
-      </c>
-      <c r="M62">
-        <v>3.75</v>
-      </c>
-      <c r="N62">
-        <v>1.909</v>
-      </c>
-      <c r="O62">
-        <v>3.75</v>
-      </c>
-      <c r="P62">
-        <v>3.1</v>
-      </c>
-      <c r="Q62">
-        <v>-0.5</v>
-      </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
         <v>3</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6880532</v>
+        <v>6884491</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45185.375</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L63">
         <v>3.75</v>
       </c>
       <c r="M63">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N63">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O63">
         <v>3.6</v>
       </c>
       <c r="P63">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6241,7 +6241,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6880533</v>
+        <v>6885367</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,13 +6330,13 @@
         <v>45192.375</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -6345,43 +6345,43 @@
         <v>48</v>
       </c>
       <c r="K66">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M66">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N66">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="O66">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P66">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q66">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
-        <v>0.6499999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6390,16 +6390,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6885367</v>
+        <v>6880533</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,13 +6508,13 @@
         <v>45192.375</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6523,43 +6523,43 @@
         <v>48</v>
       </c>
       <c r="K68">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
+        <v>3.6</v>
+      </c>
+      <c r="M68">
+        <v>3.6</v>
+      </c>
+      <c r="N68">
+        <v>1.65</v>
+      </c>
+      <c r="O68">
         <v>3.8</v>
       </c>
-      <c r="M68">
-        <v>4.5</v>
-      </c>
-      <c r="N68">
-        <v>1.533</v>
-      </c>
-      <c r="O68">
+      <c r="P68">
         <v>4.2</v>
       </c>
-      <c r="P68">
-        <v>4.75</v>
-      </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
+        <v>1.85</v>
+      </c>
+      <c r="S68">
         <v>1.95</v>
-      </c>
-      <c r="S68">
-        <v>1.9</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W68">
-        <v>0.5329999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6568,16 +6568,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6778,7 +6778,7 @@
         <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6953,10 +6953,10 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7042,7 +7042,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>30</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6884493</v>
+        <v>6886912</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,76 +7131,76 @@
         <v>45199.375</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
         <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O75">
         <v>3.6</v>
       </c>
       <c r="P75">
+        <v>2.25</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>2.025</v>
+      </c>
+      <c r="S75">
+        <v>1.775</v>
+      </c>
+      <c r="T75">
         <v>3</v>
       </c>
-      <c r="Q75">
-        <v>-0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.8</v>
-      </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6886915</v>
+        <v>6884493</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,10 +7309,10 @@
         <v>45199.375</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7324,31 +7324,31 @@
         <v>49</v>
       </c>
       <c r="K77">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
         <v>3.6</v>
       </c>
       <c r="M77">
+        <v>2.8</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77">
+        <v>3.6</v>
+      </c>
+      <c r="P77">
+        <v>3</v>
+      </c>
+      <c r="Q77">
+        <v>-0.25</v>
+      </c>
+      <c r="R77">
         <v>1.8</v>
       </c>
-      <c r="N77">
-        <v>4.75</v>
-      </c>
-      <c r="O77">
-        <v>4</v>
-      </c>
-      <c r="P77">
-        <v>1.533</v>
-      </c>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-      <c r="R77">
-        <v>1.825</v>
-      </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T77">
         <v>2.75</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6886916</v>
+        <v>6886915</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45199.375</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L78">
         <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="N78">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R78">
+        <v>1.825</v>
+      </c>
+      <c r="S78">
         <v>1.975</v>
-      </c>
-      <c r="S78">
-        <v>1.825</v>
       </c>
       <c r="T78">
         <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6886912</v>
+        <v>6886916</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,55 +7487,55 @@
         <v>45199.375</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>47</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="L79">
         <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N79">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P79">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7544,16 +7544,16 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB79">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7754,7 +7754,7 @@
         <v>45206.375</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -8113,7 +8113,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>4</v>
@@ -8199,7 +8199,7 @@
         <v>45206.375</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
         <v>39</v>
@@ -8380,7 +8380,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6886924</v>
+        <v>6886922</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,13 +8466,13 @@
         <v>45212.60416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -8481,43 +8481,43 @@
         <v>48</v>
       </c>
       <c r="K90">
-        <v>1.166</v>
+        <v>3.3</v>
       </c>
       <c r="L90">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="M90">
-        <v>10</v>
+        <v>1.833</v>
       </c>
       <c r="N90">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="O90">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q90">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R90">
+        <v>1.975</v>
+      </c>
+      <c r="S90">
+        <v>1.825</v>
+      </c>
+      <c r="T90">
+        <v>2.25</v>
+      </c>
+      <c r="U90">
+        <v>1.85</v>
+      </c>
+      <c r="V90">
         <v>1.95</v>
       </c>
-      <c r="S90">
-        <v>1.85</v>
-      </c>
-      <c r="T90">
-        <v>3.5</v>
-      </c>
-      <c r="U90">
-        <v>1.975</v>
-      </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
-        <v>0.3</v>
+        <v>2.75</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8526,16 +8526,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6886922</v>
+        <v>6886924</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,13 +8555,13 @@
         <v>45212.60416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8570,43 +8570,43 @@
         <v>48</v>
       </c>
       <c r="K91">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="L91">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M91">
-        <v>1.833</v>
+        <v>10</v>
       </c>
       <c r="N91">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P91">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Q91">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R91">
+        <v>1.95</v>
+      </c>
+      <c r="S91">
+        <v>1.85</v>
+      </c>
+      <c r="T91">
+        <v>3.5</v>
+      </c>
+      <c r="U91">
         <v>1.975</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.85</v>
-      </c>
-      <c r="V91">
-        <v>1.95</v>
-      </c>
       <c r="W91">
-        <v>2.75</v>
+        <v>0.3</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8615,16 +8615,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8736,7 +8736,7 @@
         <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8822,7 +8822,7 @@
         <v>45213.375</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -9003,7 +9003,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9092,7 +9092,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9178,7 +9178,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
         <v>36</v>
@@ -9270,7 +9270,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6886926</v>
+        <v>6885370</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,58 +9445,58 @@
         <v>45220.375</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>48</v>
       </c>
       <c r="K101">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
         <v>4.333</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q101">
         <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.5329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9505,13 +9505,13 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6884496</v>
+        <v>6886926</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,73 +9534,73 @@
         <v>45220.375</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>6</v>
+        <v>1.285</v>
       </c>
       <c r="L102">
         <v>5</v>
       </c>
       <c r="M102">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="N102">
-        <v>4.2</v>
+        <v>1.533</v>
       </c>
       <c r="O102">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P102">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S102">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
         <v>3</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6885370</v>
+        <v>6880536</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,13 +9623,13 @@
         <v>45220.375</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -9638,43 +9638,43 @@
         <v>48</v>
       </c>
       <c r="K103">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N103">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O103">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>0.5</v>
+        <v>1.875</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6880536</v>
+        <v>6884496</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,76 +9712,76 @@
         <v>45220.375</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
+        <v>4</v>
+      </c>
+      <c r="J104" t="s">
+        <v>47</v>
+      </c>
+      <c r="K104">
+        <v>6</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>1.333</v>
+      </c>
+      <c r="N104">
+        <v>4.2</v>
+      </c>
+      <c r="O104">
+        <v>4.2</v>
+      </c>
+      <c r="P104">
+        <v>1.55</v>
+      </c>
+      <c r="Q104">
         <v>1</v>
       </c>
-      <c r="J104" t="s">
-        <v>48</v>
-      </c>
-      <c r="K104">
-        <v>2.625</v>
-      </c>
-      <c r="L104">
-        <v>3.5</v>
-      </c>
-      <c r="M104">
-        <v>2.25</v>
-      </c>
-      <c r="N104">
-        <v>2.875</v>
-      </c>
-      <c r="O104">
-        <v>3.6</v>
-      </c>
-      <c r="P104">
-        <v>2.1</v>
-      </c>
-      <c r="Q104">
-        <v>0.25</v>
-      </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB104">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10071,7 +10071,7 @@
         <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10160,7 +10160,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10249,7 +10249,7 @@
         <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10335,7 +10335,7 @@
         <v>45227.375</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
         <v>46</v>
@@ -10780,10 +10780,10 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F116" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" t="s">
         <v>32</v>
-      </c>
-      <c r="G116" t="s">
-        <v>31</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6886939</v>
+        <v>6884532</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,76 +10869,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
         <v>1</v>
       </c>
-      <c r="I117">
-        <v>3</v>
-      </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N117">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>1.925</v>
+      </c>
+      <c r="S117">
+        <v>1.875</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
+        <v>1.925</v>
+      </c>
+      <c r="V117">
+        <v>1.875</v>
+      </c>
+      <c r="W117">
+        <v>1.4</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
+        <v>0.925</v>
+      </c>
+      <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>0.4625</v>
+      </c>
+      <c r="AC117">
         <v>-0.5</v>
-      </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>2.025</v>
-      </c>
-      <c r="T117">
-        <v>3.25</v>
-      </c>
-      <c r="U117">
-        <v>1.875</v>
-      </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>2.4</v>
-      </c>
-      <c r="Z117">
-        <v>-1</v>
-      </c>
-      <c r="AA117">
-        <v>1.025</v>
-      </c>
-      <c r="AB117">
-        <v>0.875</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6886938</v>
+        <v>6886939</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,56 +10958,56 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M118">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N118">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
+        <v>3.25</v>
+      </c>
+      <c r="U118">
+        <v>1.875</v>
+      </c>
+      <c r="V118">
         <v>1.975</v>
       </c>
-      <c r="S118">
-        <v>1.875</v>
-      </c>
-      <c r="T118">
-        <v>2.75</v>
-      </c>
-      <c r="U118">
-        <v>1.975</v>
-      </c>
-      <c r="V118">
-        <v>1.875</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
@@ -11015,16 +11015,16 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
+        <v>1.025</v>
+      </c>
+      <c r="AB118">
         <v>0.875</v>
-      </c>
-      <c r="AB118">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11225,7 +11225,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
         <v>40</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6884532</v>
+        <v>6882770</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L122">
+        <v>4.5</v>
+      </c>
+      <c r="M122">
+        <v>5.5</v>
+      </c>
+      <c r="N122">
+        <v>1.5</v>
+      </c>
+      <c r="O122">
+        <v>4.333</v>
+      </c>
+      <c r="P122">
+        <v>4.75</v>
+      </c>
+      <c r="Q122">
+        <v>-1</v>
+      </c>
+      <c r="R122">
+        <v>1.85</v>
+      </c>
+      <c r="S122">
+        <v>1.95</v>
+      </c>
+      <c r="T122">
+        <v>3</v>
+      </c>
+      <c r="U122">
+        <v>1.775</v>
+      </c>
+      <c r="V122">
+        <v>2.025</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
         <v>3.75</v>
       </c>
-      <c r="M122">
-        <v>2.55</v>
-      </c>
-      <c r="N122">
-        <v>2.4</v>
-      </c>
-      <c r="O122">
-        <v>3.6</v>
-      </c>
-      <c r="P122">
-        <v>2.375</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
-        <v>1.925</v>
-      </c>
-      <c r="S122">
-        <v>1.875</v>
-      </c>
-      <c r="T122">
-        <v>2.75</v>
-      </c>
-      <c r="U122">
-        <v>1.925</v>
-      </c>
-      <c r="V122">
-        <v>1.875</v>
-      </c>
-      <c r="W122">
-        <v>1.4</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>-1</v>
-      </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6882770</v>
+        <v>6880538</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K123">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N123">
+        <v>2.5</v>
+      </c>
+      <c r="O123">
+        <v>3.8</v>
+      </c>
+      <c r="P123">
+        <v>2.25</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.775</v>
+      </c>
+      <c r="S123">
+        <v>2.025</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>1.8</v>
+      </c>
+      <c r="W123">
         <v>1.5</v>
       </c>
-      <c r="O123">
-        <v>4.333</v>
-      </c>
-      <c r="P123">
-        <v>4.75</v>
-      </c>
-      <c r="Q123">
-        <v>-1</v>
-      </c>
-      <c r="R123">
-        <v>1.85</v>
-      </c>
-      <c r="S123">
-        <v>1.95</v>
-      </c>
-      <c r="T123">
-        <v>3</v>
-      </c>
-      <c r="U123">
-        <v>1.775</v>
-      </c>
-      <c r="V123">
-        <v>2.025</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6880538</v>
+        <v>6886938</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
+        <v>2.25</v>
+      </c>
+      <c r="N124">
+        <v>2.1</v>
+      </c>
+      <c r="O124">
+        <v>3.6</v>
+      </c>
+      <c r="P124">
         <v>2.75</v>
       </c>
-      <c r="N124">
-        <v>2.5</v>
-      </c>
-      <c r="O124">
-        <v>3.8</v>
-      </c>
-      <c r="P124">
-        <v>2.25</v>
-      </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11848,7 +11848,7 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
         <v>36</v>
@@ -12118,7 +12118,7 @@
         <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12207,7 +12207,7 @@
         <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12382,7 +12382,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G134" t="s">
         <v>43</v>
@@ -12474,7 +12474,7 @@
         <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12649,7 +12649,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>39</v>
@@ -12830,7 +12830,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13272,7 +13272,7 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6884534</v>
+        <v>6886950</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L147">
+        <v>4.75</v>
+      </c>
+      <c r="M147">
+        <v>6</v>
+      </c>
+      <c r="N147">
+        <v>1.75</v>
+      </c>
+      <c r="O147">
+        <v>3.6</v>
+      </c>
+      <c r="P147">
         <v>3.75</v>
       </c>
-      <c r="M147">
-        <v>2.55</v>
-      </c>
-      <c r="N147">
-        <v>2.375</v>
-      </c>
-      <c r="O147">
-        <v>3.75</v>
-      </c>
-      <c r="P147">
-        <v>2.4</v>
-      </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T147">
         <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
         <v>2.75</v>
       </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6882767</v>
+        <v>6884534</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
         <v>3.75</v>
       </c>
       <c r="M148">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N148">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P148">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6886950</v>
+        <v>6882767</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K149">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L149">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N149">
         <v>1.75</v>
       </c>
       <c r="O149">
+        <v>3.8</v>
+      </c>
+      <c r="P149">
         <v>3.6</v>
       </c>
-      <c r="P149">
-        <v>3.75</v>
-      </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
         <v>1.8</v>
-      </c>
-      <c r="S149">
-        <v>2</v>
       </c>
       <c r="T149">
         <v>2.75</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G153" t="s">
         <v>29</v>
@@ -14162,7 +14162,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
         <v>33</v>
@@ -14254,7 +14254,7 @@
         <v>33</v>
       </c>
       <c r="G155" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14343,7 +14343,7 @@
         <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7691492</v>
+        <v>7572927</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,73 +14785,73 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K161">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L161">
+        <v>4</v>
+      </c>
+      <c r="M161">
         <v>3.75</v>
       </c>
-      <c r="M161">
-        <v>3.3</v>
-      </c>
       <c r="N161">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P161">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S161">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA161">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7572927</v>
+        <v>7691492</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,73 +14874,73 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
         <v>3</v>
       </c>
-      <c r="I162">
-        <v>2</v>
-      </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K162">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N162">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V162">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z162">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB162">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6884503</v>
+        <v>6886963</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,55 +15141,55 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>47</v>
       </c>
       <c r="K165">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N165">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="Q165">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15198,19 +15198,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.6659999999999999</v>
+        <v>1.875</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB165">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6886963</v>
+        <v>6886966</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,52 +15230,52 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
         <v>47</v>
       </c>
       <c r="K166">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
         <v>2.875</v>
       </c>
       <c r="N166">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
         <v>1.95</v>
@@ -15287,19 +15287,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.875</v>
+        <v>1.625</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6886966</v>
+        <v>6884503</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,56 +15319,56 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J167" t="s">
         <v>47</v>
       </c>
       <c r="K167">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N167">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S167">
+        <v>1.9</v>
+      </c>
+      <c r="T167">
+        <v>2.75</v>
+      </c>
+      <c r="U167">
+        <v>1.775</v>
+      </c>
+      <c r="V167">
         <v>2.025</v>
       </c>
-      <c r="T167">
-        <v>2.5</v>
-      </c>
-      <c r="U167">
-        <v>1.9</v>
-      </c>
-      <c r="V167">
-        <v>1.95</v>
-      </c>
       <c r="W167">
         <v>-1</v>
       </c>
@@ -15376,16 +15376,16 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>1.625</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB167">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6882764</v>
+        <v>6884536</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,19 +15497,19 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H169">
+        <v>3</v>
+      </c>
+      <c r="I169">
         <v>1</v>
       </c>
-      <c r="I169">
-        <v>2</v>
-      </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>1.666</v>
@@ -15521,7 +15521,7 @@
         <v>4</v>
       </c>
       <c r="N169">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O169">
         <v>3.6</v>
@@ -15533,40 +15533,40 @@
         <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S169">
+        <v>1.9</v>
+      </c>
+      <c r="T169">
+        <v>3</v>
+      </c>
+      <c r="U169">
         <v>1.975</v>
       </c>
-      <c r="T169">
-        <v>2.75</v>
-      </c>
-      <c r="U169">
+      <c r="V169">
         <v>1.825</v>
       </c>
-      <c r="V169">
-        <v>2.025</v>
-      </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB169">
-        <v>0.4125</v>
-      </c>
       <c r="AC169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6884536</v>
+        <v>6882764</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,19 +15586,19 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K170">
         <v>1.666</v>
@@ -15610,7 +15610,7 @@
         <v>4</v>
       </c>
       <c r="N170">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O170">
         <v>3.6</v>
@@ -15622,40 +15622,40 @@
         <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7764092</v>
+        <v>7691489</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,55 +15764,55 @@
         <v>45328.64583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N172">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P172">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q172">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15821,19 +15821,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB172">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7691489</v>
+        <v>7764092</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,55 +15853,55 @@
         <v>45328.64583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="L173">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N173">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O173">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15910,19 +15910,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6880545</v>
+        <v>6882763</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,13 +15942,13 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>2</v>
@@ -15957,61 +15957,61 @@
         <v>47</v>
       </c>
       <c r="K174">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M174">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="N174">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="O174">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P174">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q174">
+        <v>-0.25</v>
+      </c>
+      <c r="R174">
+        <v>2.125</v>
+      </c>
+      <c r="S174">
+        <v>1.75</v>
+      </c>
+      <c r="T174">
+        <v>2.75</v>
+      </c>
+      <c r="U174">
+        <v>2.025</v>
+      </c>
+      <c r="V174">
+        <v>1.825</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>1.8</v>
+      </c>
+      <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
         <v>0.75</v>
       </c>
-      <c r="R174">
-        <v>1.875</v>
-      </c>
-      <c r="S174">
-        <v>1.975</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>1.9</v>
-      </c>
-      <c r="V174">
-        <v>1.95</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>0.7</v>
-      </c>
-      <c r="Z174">
-        <v>-1</v>
-      </c>
-      <c r="AA174">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC174">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6886968</v>
+        <v>6880545</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K175">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="L175">
         <v>4</v>
       </c>
       <c r="M175">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="N175">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="O175">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P175">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R175">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S175">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
         <v>42</v>
@@ -16212,7 +16212,7 @@
         <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6882763</v>
+        <v>6886968</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,76 +16387,76 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K179">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L179">
+        <v>4</v>
+      </c>
+      <c r="M179">
+        <v>4</v>
+      </c>
+      <c r="N179">
+        <v>1.85</v>
+      </c>
+      <c r="O179">
+        <v>3.75</v>
+      </c>
+      <c r="P179">
         <v>3.2</v>
       </c>
-      <c r="M179">
-        <v>2.625</v>
-      </c>
-      <c r="N179">
-        <v>2.3</v>
-      </c>
-      <c r="O179">
-        <v>3.1</v>
-      </c>
-      <c r="P179">
-        <v>2.8</v>
-      </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S179">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
+        <v>3</v>
+      </c>
+      <c r="U179">
+        <v>1.875</v>
+      </c>
+      <c r="V179">
+        <v>1.975</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
         <v>2.75</v>
       </c>
-      <c r="U179">
-        <v>2.025</v>
-      </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
       <c r="Y179">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB179">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
       <c r="AC179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>46</v>
       </c>
       <c r="G182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16832,7 +16832,7 @@
         <v>45336.64583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
         <v>41</v>
@@ -17010,7 +17010,7 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G186" t="s">
         <v>46</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6886975</v>
+        <v>6886972</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,49 +17099,49 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K187">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L187">
         <v>3.75</v>
       </c>
       <c r="M187">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="N187">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O187">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
         <v>1.825</v>
@@ -17150,25 +17150,25 @@
         <v>1.975</v>
       </c>
       <c r="W187">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB187">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6886974</v>
+        <v>6882762</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,10 +17188,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17203,40 +17203,40 @@
         <v>47</v>
       </c>
       <c r="K188">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L188">
         <v>4</v>
       </c>
       <c r="M188">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N188">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O188">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17245,19 +17245,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6886973</v>
+        <v>6885378</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,58 +17277,58 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
         <v>32</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L189">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M189">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="N189">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P189">
         <v>6.5</v>
       </c>
       <c r="Q189">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R189">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
         <v>3</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
-        <v>0.3999999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17337,10 +17337,10 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB189">
         <v>0</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6886972</v>
+        <v>6886973</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H190">
+        <v>3</v>
+      </c>
+      <c r="I190">
         <v>0</v>
       </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K190">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L190">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M190">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N190">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O190">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P190">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q190">
+        <v>-1.25</v>
+      </c>
+      <c r="R190">
+        <v>1.9</v>
+      </c>
+      <c r="S190">
+        <v>1.9</v>
+      </c>
+      <c r="T190">
+        <v>3</v>
+      </c>
+      <c r="U190">
+        <v>2</v>
+      </c>
+      <c r="V190">
+        <v>1.8</v>
+      </c>
+      <c r="W190">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
         <v>0</v>
       </c>
-      <c r="R190">
-        <v>1.825</v>
-      </c>
-      <c r="S190">
-        <v>1.975</v>
-      </c>
-      <c r="T190">
-        <v>2.5</v>
-      </c>
-      <c r="U190">
-        <v>1.825</v>
-      </c>
-      <c r="V190">
-        <v>1.975</v>
-      </c>
-      <c r="W190">
-        <v>-1</v>
-      </c>
-      <c r="X190">
-        <v>-1</v>
-      </c>
-      <c r="Y190">
-        <v>1.5</v>
-      </c>
-      <c r="Z190">
-        <v>-1</v>
-      </c>
-      <c r="AA190">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB190">
-        <v>-1</v>
-      </c>
       <c r="AC190">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6882762</v>
+        <v>6886974</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,10 +17455,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17470,40 +17470,40 @@
         <v>47</v>
       </c>
       <c r="K191">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L191">
         <v>4</v>
       </c>
       <c r="M191">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N191">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P191">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q191">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17512,19 +17512,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>2.25</v>
+        <v>1.15</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6885378</v>
+        <v>6886975</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,58 +17544,58 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>48</v>
       </c>
       <c r="K192">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="L192">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N192">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="O192">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P192">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q192">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S192">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T192">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V192">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>0.333</v>
+        <v>0.75</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17604,16 +17604,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC192">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17722,7 +17722,7 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>40</v>
@@ -17814,7 +17814,7 @@
         <v>36</v>
       </c>
       <c r="G195" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6886979</v>
+        <v>6886978</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,34 +17900,34 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>49</v>
       </c>
       <c r="K196">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M196">
+        <v>4</v>
+      </c>
+      <c r="N196">
+        <v>2.2</v>
+      </c>
+      <c r="O196">
         <v>3.2</v>
-      </c>
-      <c r="N196">
-        <v>2.05</v>
-      </c>
-      <c r="O196">
-        <v>3.6</v>
       </c>
       <c r="P196">
         <v>2.9</v>
@@ -17936,25 +17936,25 @@
         <v>-0.25</v>
       </c>
       <c r="R196">
+        <v>2</v>
+      </c>
+      <c r="S196">
         <v>1.85</v>
       </c>
-      <c r="S196">
-        <v>2</v>
-      </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17963,13 +17963,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>0.5</v>
+        <v>0.425</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6886978</v>
+        <v>6886979</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,34 +17989,34 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
         <v>49</v>
       </c>
       <c r="K197">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N197">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O197">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P197">
         <v>2.9</v>
@@ -18025,25 +18025,25 @@
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y197">
         <v>-1</v>
@@ -18052,13 +18052,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>0.425</v>
+        <v>0.5</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18167,10 +18167,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H199">
         <v>3</v>
@@ -18704,7 +18704,7 @@
         <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -18790,7 +18790,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G206" t="s">
         <v>35</v>
@@ -19060,7 +19060,7 @@
         <v>43</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H209">
         <v>4</v>
@@ -19235,7 +19235,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G211" t="s">
         <v>36</v>
@@ -19327,7 +19327,7 @@
         <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19591,10 +19591,10 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19861,7 +19861,7 @@
         <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H218">
         <v>3</v>
@@ -20036,7 +20036,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
         <v>34</v>
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6884542</v>
+        <v>6886990</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,76 +20481,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H225">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225" t="s">
+        <v>47</v>
+      </c>
+      <c r="K225">
+        <v>2.05</v>
+      </c>
+      <c r="L225">
+        <v>3.75</v>
+      </c>
+      <c r="M225">
+        <v>2.8</v>
+      </c>
+      <c r="N225">
+        <v>2.4</v>
+      </c>
+      <c r="O225">
+        <v>3.4</v>
+      </c>
+      <c r="P225">
+        <v>2.5</v>
+      </c>
+      <c r="Q225">
         <v>0</v>
       </c>
-      <c r="J225" t="s">
-        <v>48</v>
-      </c>
-      <c r="K225">
-        <v>1.333</v>
-      </c>
-      <c r="L225">
-        <v>5</v>
-      </c>
-      <c r="M225">
-        <v>6</v>
-      </c>
-      <c r="N225">
-        <v>1.333</v>
-      </c>
-      <c r="O225">
-        <v>5.5</v>
-      </c>
-      <c r="P225">
-        <v>5.75</v>
-      </c>
-      <c r="Q225">
-        <v>-1.5</v>
-      </c>
       <c r="R225">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T225">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V225">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W225">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z225">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB225">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6882757</v>
+        <v>6884542</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,76 +20570,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G226" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K226">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L226">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M226">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="N226">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P226">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R226">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S226">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X226">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA226">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC226">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6886990</v>
+        <v>6886992</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H227">
+        <v>5</v>
+      </c>
+      <c r="I227">
         <v>1</v>
       </c>
-      <c r="I227">
-        <v>2</v>
-      </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M227">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N227">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O227">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P227">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R227">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA227">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20736,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6886992</v>
+        <v>6886993</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20748,13 +20748,13 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G228" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H228">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I228">
         <v>1</v>
@@ -20763,25 +20763,25 @@
         <v>48</v>
       </c>
       <c r="K228">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L228">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M228">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="N228">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="O228">
+        <v>4</v>
+      </c>
+      <c r="P228">
         <v>4.75</v>
       </c>
-      <c r="P228">
-        <v>7.5</v>
-      </c>
       <c r="Q228">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R228">
         <v>1.925</v>
@@ -20793,13 +20793,13 @@
         <v>3</v>
       </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V228">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W228">
-        <v>0.3</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20814,7 +20814,7 @@
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6886993</v>
+        <v>6882757</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,76 +20837,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I229">
         <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K229">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L229">
         <v>3.75</v>
       </c>
       <c r="M229">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N229">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O229">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q229">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V229">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W229">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21015,7 +21015,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
         <v>37</v>
@@ -21107,7 +21107,7 @@
         <v>37</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H232">
         <v>2</v>
@@ -21196,7 +21196,7 @@
         <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H233">
         <v>3</v>
@@ -21285,7 +21285,7 @@
         <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21730,7 +21730,7 @@
         <v>37</v>
       </c>
       <c r="G239" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -21816,7 +21816,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G240" t="s">
         <v>33</v>
@@ -21994,7 +21994,7 @@
         <v>45382.375</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G242" t="s">
         <v>46</v>
@@ -22242,524 +22242,6 @@
       </c>
       <c r="AC244">
         <v>-0.5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:29">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245">
-        <v>6887003</v>
-      </c>
-      <c r="C245" t="s">
-        <v>28</v>
-      </c>
-      <c r="D245" t="s">
-        <v>28</v>
-      </c>
-      <c r="E245" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F245" t="s">
-        <v>33</v>
-      </c>
-      <c r="G245" t="s">
-        <v>37</v>
-      </c>
-      <c r="K245">
-        <v>2.25</v>
-      </c>
-      <c r="L245">
-        <v>3.25</v>
-      </c>
-      <c r="M245">
-        <v>2.75</v>
-      </c>
-      <c r="N245">
-        <v>1.8</v>
-      </c>
-      <c r="O245">
-        <v>3.5</v>
-      </c>
-      <c r="P245">
-        <v>3.6</v>
-      </c>
-      <c r="Q245">
-        <v>-0.5</v>
-      </c>
-      <c r="R245">
-        <v>1.925</v>
-      </c>
-      <c r="S245">
-        <v>1.925</v>
-      </c>
-      <c r="T245">
-        <v>2.75</v>
-      </c>
-      <c r="U245">
-        <v>1.825</v>
-      </c>
-      <c r="V245">
-        <v>2.025</v>
-      </c>
-      <c r="W245">
-        <v>0</v>
-      </c>
-      <c r="X245">
-        <v>0</v>
-      </c>
-      <c r="Y245">
-        <v>0</v>
-      </c>
-      <c r="Z245">
-        <v>0</v>
-      </c>
-      <c r="AA245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:29">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246">
-        <v>6887002</v>
-      </c>
-      <c r="C246" t="s">
-        <v>28</v>
-      </c>
-      <c r="D246" t="s">
-        <v>28</v>
-      </c>
-      <c r="E246" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F246" t="s">
-        <v>40</v>
-      </c>
-      <c r="G246" t="s">
-        <v>41</v>
-      </c>
-      <c r="K246">
-        <v>3.7</v>
-      </c>
-      <c r="L246">
-        <v>3.7</v>
-      </c>
-      <c r="M246">
-        <v>1.75</v>
-      </c>
-      <c r="N246">
-        <v>3.6</v>
-      </c>
-      <c r="O246">
-        <v>3.6</v>
-      </c>
-      <c r="P246">
-        <v>1.8</v>
-      </c>
-      <c r="Q246">
-        <v>0.5</v>
-      </c>
-      <c r="R246">
-        <v>2</v>
-      </c>
-      <c r="S246">
-        <v>1.85</v>
-      </c>
-      <c r="T246">
-        <v>3</v>
-      </c>
-      <c r="U246">
-        <v>2.05</v>
-      </c>
-      <c r="V246">
-        <v>1.8</v>
-      </c>
-      <c r="W246">
-        <v>0</v>
-      </c>
-      <c r="X246">
-        <v>0</v>
-      </c>
-      <c r="Y246">
-        <v>0</v>
-      </c>
-      <c r="Z246">
-        <v>0</v>
-      </c>
-      <c r="AA246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:29">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247">
-        <v>6882755</v>
-      </c>
-      <c r="C247" t="s">
-        <v>28</v>
-      </c>
-      <c r="D247" t="s">
-        <v>28</v>
-      </c>
-      <c r="E247" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F247" t="s">
-        <v>45</v>
-      </c>
-      <c r="G247" t="s">
-        <v>38</v>
-      </c>
-      <c r="K247">
-        <v>1.95</v>
-      </c>
-      <c r="L247">
-        <v>3.6</v>
-      </c>
-      <c r="M247">
-        <v>3.1</v>
-      </c>
-      <c r="N247">
-        <v>1.85</v>
-      </c>
-      <c r="O247">
-        <v>3.6</v>
-      </c>
-      <c r="P247">
-        <v>3.3</v>
-      </c>
-      <c r="Q247">
-        <v>-0.5</v>
-      </c>
-      <c r="R247">
-        <v>1.925</v>
-      </c>
-      <c r="S247">
-        <v>1.925</v>
-      </c>
-      <c r="T247">
-        <v>2.75</v>
-      </c>
-      <c r="U247">
-        <v>1.85</v>
-      </c>
-      <c r="V247">
-        <v>2</v>
-      </c>
-      <c r="W247">
-        <v>0</v>
-      </c>
-      <c r="X247">
-        <v>0</v>
-      </c>
-      <c r="Y247">
-        <v>0</v>
-      </c>
-      <c r="Z247">
-        <v>0</v>
-      </c>
-      <c r="AA247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:29">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248">
-        <v>6884510</v>
-      </c>
-      <c r="C248" t="s">
-        <v>28</v>
-      </c>
-      <c r="D248" t="s">
-        <v>28</v>
-      </c>
-      <c r="E248" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F248" t="s">
-        <v>32</v>
-      </c>
-      <c r="G248" t="s">
-        <v>29</v>
-      </c>
-      <c r="K248">
-        <v>4</v>
-      </c>
-      <c r="L248">
-        <v>4.2</v>
-      </c>
-      <c r="M248">
-        <v>1.6</v>
-      </c>
-      <c r="N248">
-        <v>6.5</v>
-      </c>
-      <c r="O248">
-        <v>4.5</v>
-      </c>
-      <c r="P248">
-        <v>1.333</v>
-      </c>
-      <c r="Q248">
-        <v>1.25</v>
-      </c>
-      <c r="R248">
-        <v>2.025</v>
-      </c>
-      <c r="S248">
-        <v>1.825</v>
-      </c>
-      <c r="T248">
-        <v>2.75</v>
-      </c>
-      <c r="U248">
-        <v>1.825</v>
-      </c>
-      <c r="V248">
-        <v>2.025</v>
-      </c>
-      <c r="W248">
-        <v>0</v>
-      </c>
-      <c r="X248">
-        <v>0</v>
-      </c>
-      <c r="Y248">
-        <v>0</v>
-      </c>
-      <c r="Z248">
-        <v>0</v>
-      </c>
-      <c r="AA248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:29">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249">
-        <v>6884544</v>
-      </c>
-      <c r="C249" t="s">
-        <v>28</v>
-      </c>
-      <c r="D249" t="s">
-        <v>28</v>
-      </c>
-      <c r="E249" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F249" t="s">
-        <v>44</v>
-      </c>
-      <c r="G249" t="s">
-        <v>39</v>
-      </c>
-      <c r="K249">
-        <v>2.2</v>
-      </c>
-      <c r="L249">
-        <v>3.25</v>
-      </c>
-      <c r="M249">
-        <v>2.875</v>
-      </c>
-      <c r="N249">
-        <v>2.15</v>
-      </c>
-      <c r="O249">
-        <v>3.3</v>
-      </c>
-      <c r="P249">
-        <v>2.9</v>
-      </c>
-      <c r="Q249">
-        <v>-0.25</v>
-      </c>
-      <c r="R249">
-        <v>1.925</v>
-      </c>
-      <c r="S249">
-        <v>1.925</v>
-      </c>
-      <c r="T249">
-        <v>3</v>
-      </c>
-      <c r="U249">
-        <v>2</v>
-      </c>
-      <c r="V249">
-        <v>1.85</v>
-      </c>
-      <c r="W249">
-        <v>0</v>
-      </c>
-      <c r="X249">
-        <v>0</v>
-      </c>
-      <c r="Y249">
-        <v>0</v>
-      </c>
-      <c r="Z249">
-        <v>0</v>
-      </c>
-      <c r="AA249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:29">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250">
-        <v>6885382</v>
-      </c>
-      <c r="C250" t="s">
-        <v>28</v>
-      </c>
-      <c r="D250" t="s">
-        <v>28</v>
-      </c>
-      <c r="E250" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F250" t="s">
-        <v>34</v>
-      </c>
-      <c r="G250" t="s">
-        <v>31</v>
-      </c>
-      <c r="K250">
-        <v>1.55</v>
-      </c>
-      <c r="L250">
-        <v>4</v>
-      </c>
-      <c r="M250">
-        <v>4.5</v>
-      </c>
-      <c r="N250">
-        <v>1.5</v>
-      </c>
-      <c r="O250">
-        <v>4.2</v>
-      </c>
-      <c r="P250">
-        <v>4.75</v>
-      </c>
-      <c r="Q250">
-        <v>-1</v>
-      </c>
-      <c r="R250">
-        <v>1.85</v>
-      </c>
-      <c r="S250">
-        <v>2</v>
-      </c>
-      <c r="T250">
-        <v>3.25</v>
-      </c>
-      <c r="U250">
-        <v>1.975</v>
-      </c>
-      <c r="V250">
-        <v>1.875</v>
-      </c>
-      <c r="W250">
-        <v>0</v>
-      </c>
-      <c r="X250">
-        <v>0</v>
-      </c>
-      <c r="Y250">
-        <v>0</v>
-      </c>
-      <c r="Z250">
-        <v>0</v>
-      </c>
-      <c r="AA250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:29">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251">
-        <v>6880550</v>
-      </c>
-      <c r="C251" t="s">
-        <v>28</v>
-      </c>
-      <c r="D251" t="s">
-        <v>28</v>
-      </c>
-      <c r="E251" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F251" t="s">
-        <v>43</v>
-      </c>
-      <c r="G251" t="s">
-        <v>42</v>
-      </c>
-      <c r="K251">
-        <v>2.05</v>
-      </c>
-      <c r="L251">
-        <v>3.6</v>
-      </c>
-      <c r="M251">
-        <v>2.9</v>
-      </c>
-      <c r="N251">
-        <v>2</v>
-      </c>
-      <c r="O251">
-        <v>3.6</v>
-      </c>
-      <c r="P251">
-        <v>2.9</v>
-      </c>
-      <c r="Q251">
-        <v>-0.25</v>
-      </c>
-      <c r="R251">
-        <v>1.85</v>
-      </c>
-      <c r="S251">
-        <v>2</v>
-      </c>
-      <c r="T251">
-        <v>2.75</v>
-      </c>
-      <c r="U251">
-        <v>1.95</v>
-      </c>
-      <c r="V251">
-        <v>1.9</v>
-      </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-      <c r="X251">
-        <v>0</v>
-      </c>
-      <c r="Y251">
-        <v>0</v>
-      </c>
-      <c r="Z251">
-        <v>0</v>
-      </c>
-      <c r="AA251">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6886912</v>
+        <v>6886915</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45199.375</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L78">
         <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N78">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
+        <v>2.75</v>
+      </c>
+      <c r="U78">
+        <v>1.9</v>
+      </c>
+      <c r="V78">
+        <v>1.9</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>3</v>
       </c>
-      <c r="U78">
-        <v>1.975</v>
-      </c>
-      <c r="V78">
-        <v>1.825</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6886915</v>
+        <v>6886912</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,76 +7487,76 @@
         <v>45199.375</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K79">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
         <v>3.6</v>
       </c>
       <c r="M79">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79">
+        <v>2.025</v>
+      </c>
+      <c r="S79">
+        <v>1.775</v>
+      </c>
+      <c r="T79">
+        <v>3</v>
+      </c>
+      <c r="U79">
+        <v>1.975</v>
+      </c>
+      <c r="V79">
         <v>1.825</v>
       </c>
-      <c r="S79">
-        <v>1.975</v>
-      </c>
-      <c r="T79">
-        <v>2.75</v>
-      </c>
-      <c r="U79">
-        <v>1.9</v>
-      </c>
-      <c r="V79">
-        <v>1.9</v>
-      </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z79">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6880535</v>
+        <v>6882773</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,16 +8644,16 @@
         <v>45213.375</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>47</v>
@@ -8668,31 +8668,31 @@
         <v>1.909</v>
       </c>
       <c r="N92">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8701,19 +8701,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6882773</v>
+        <v>6884495</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45213.375</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="I93">
         <v>1</v>
       </c>
-      <c r="I93">
-        <v>3</v>
-      </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N93">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
+        <v>1.875</v>
+      </c>
+      <c r="V93">
         <v>1.925</v>
       </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6884495</v>
+        <v>6884530</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45213.375</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L94">
         <v>3.75</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N94">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
         <v>1.85</v>
       </c>
-      <c r="S94">
-        <v>1.95</v>
-      </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W94">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
       <c r="AB94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6884530</v>
+        <v>6885369</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45213.375</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P95">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6885369</v>
+        <v>6880535</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,55 +9000,55 @@
         <v>45213.375</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>47</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N96">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9057,19 +9057,19 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6884500</v>
+        <v>6886951</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,40 +13183,40 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>3.8</v>
       </c>
       <c r="L143">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N143">
+        <v>4.75</v>
+      </c>
+      <c r="O143">
         <v>4.2</v>
       </c>
-      <c r="O143">
-        <v>3.75</v>
-      </c>
       <c r="P143">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q143">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R143">
         <v>1.9</v>
@@ -13225,7 +13225,7 @@
         <v>1.9</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
         <v>2</v>
@@ -13234,25 +13234,25 @@
         <v>1.8</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA143">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6886951</v>
+        <v>6884500</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,40 +13272,40 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K144">
         <v>3.8</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M144">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N144">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q144">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R144">
         <v>1.9</v>
@@ -13314,7 +13314,7 @@
         <v>1.9</v>
       </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
         <v>2</v>
@@ -13323,25 +13323,25 @@
         <v>1.8</v>
       </c>
       <c r="W144">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z144">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6886952</v>
+        <v>6886950</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,49 +13361,49 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L145">
+        <v>4.75</v>
+      </c>
+      <c r="M145">
+        <v>6</v>
+      </c>
+      <c r="N145">
+        <v>1.75</v>
+      </c>
+      <c r="O145">
+        <v>3.6</v>
+      </c>
+      <c r="P145">
         <v>3.75</v>
       </c>
-      <c r="M145">
-        <v>2.875</v>
-      </c>
-      <c r="N145">
-        <v>1.615</v>
-      </c>
-      <c r="O145">
-        <v>4.2</v>
-      </c>
-      <c r="P145">
-        <v>4</v>
-      </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
         <v>2</v>
@@ -13412,19 +13412,19 @@
         <v>1.8</v>
       </c>
       <c r="W145">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z145">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB145">
         <v>1</v>
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6880541</v>
+        <v>6886952</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,58 +13450,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H146">
+        <v>4</v>
+      </c>
+      <c r="I146">
         <v>1</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>48</v>
       </c>
       <c r="K146">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L146">
         <v>3.75</v>
       </c>
       <c r="M146">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N146">
+        <v>1.615</v>
+      </c>
+      <c r="O146">
+        <v>4.2</v>
+      </c>
+      <c r="P146">
+        <v>4</v>
+      </c>
+      <c r="Q146">
+        <v>-0.75</v>
+      </c>
+      <c r="R146">
+        <v>1.775</v>
+      </c>
+      <c r="S146">
+        <v>2.025</v>
+      </c>
+      <c r="T146">
+        <v>3.25</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
         <v>1.8</v>
       </c>
-      <c r="O146">
-        <v>3.75</v>
-      </c>
-      <c r="P146">
-        <v>3.4</v>
-      </c>
-      <c r="Q146">
-        <v>-0.5</v>
-      </c>
-      <c r="R146">
-        <v>1.9</v>
-      </c>
-      <c r="S146">
-        <v>1.95</v>
-      </c>
-      <c r="T146">
-        <v>3</v>
-      </c>
-      <c r="U146">
-        <v>1.925</v>
-      </c>
-      <c r="V146">
-        <v>1.925</v>
-      </c>
       <c r="W146">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13510,16 +13510,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC146">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6882767</v>
+        <v>6880541</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,13 +13539,13 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13554,43 +13554,43 @@
         <v>48</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L147">
         <v>3.75</v>
       </c>
       <c r="M147">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N147">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O147">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W147">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13599,16 +13599,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6884534</v>
+        <v>6882767</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L148">
         <v>3.75</v>
       </c>
       <c r="M148">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="N148">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O148">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P148">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X148">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6886950</v>
+        <v>6884534</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L149">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N149">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P149">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
         <v>2.75</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6884501</v>
+        <v>6880542</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>49</v>
+      </c>
+      <c r="K152">
+        <v>1.95</v>
+      </c>
+      <c r="L152">
+        <v>3.75</v>
+      </c>
+      <c r="M152">
         <v>3</v>
       </c>
-      <c r="I152">
-        <v>4</v>
-      </c>
-      <c r="J152" t="s">
-        <v>47</v>
-      </c>
-      <c r="K152">
-        <v>2.4</v>
-      </c>
-      <c r="L152">
-        <v>3.4</v>
-      </c>
-      <c r="M152">
-        <v>2.5</v>
-      </c>
       <c r="N152">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y152">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA152">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6880542</v>
+        <v>6884501</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
+        <v>4</v>
+      </c>
+      <c r="J154" t="s">
+        <v>47</v>
+      </c>
+      <c r="K154">
+        <v>2.4</v>
+      </c>
+      <c r="L154">
+        <v>3.4</v>
+      </c>
+      <c r="M154">
+        <v>2.5</v>
+      </c>
+      <c r="N154">
+        <v>2.7</v>
+      </c>
+      <c r="O154">
+        <v>3.4</v>
+      </c>
+      <c r="P154">
+        <v>2.3</v>
+      </c>
+      <c r="Q154">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154" t="s">
-        <v>49</v>
-      </c>
-      <c r="K154">
-        <v>1.95</v>
-      </c>
-      <c r="L154">
-        <v>3.75</v>
-      </c>
-      <c r="M154">
-        <v>3</v>
-      </c>
-      <c r="N154">
-        <v>2.1</v>
-      </c>
-      <c r="O154">
-        <v>3.6</v>
-      </c>
-      <c r="P154">
-        <v>2.75</v>
-      </c>
-      <c r="Q154">
-        <v>-0.25</v>
-      </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S154">
+        <v>1.8</v>
+      </c>
+      <c r="T154">
+        <v>2.5</v>
+      </c>
+      <c r="U154">
         <v>1.9</v>
       </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>2.025</v>
-      </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6886970</v>
+        <v>6885377</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,76 +16387,76 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
+        <v>5</v>
+      </c>
+      <c r="J179" t="s">
+        <v>47</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>3.6</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>2.55</v>
+      </c>
+      <c r="O179">
+        <v>3.4</v>
+      </c>
+      <c r="P179">
+        <v>2.375</v>
+      </c>
+      <c r="Q179">
         <v>0</v>
       </c>
-      <c r="J179" t="s">
-        <v>48</v>
-      </c>
-      <c r="K179">
-        <v>1.833</v>
-      </c>
-      <c r="L179">
-        <v>3.8</v>
-      </c>
-      <c r="M179">
-        <v>3.25</v>
-      </c>
-      <c r="N179">
+      <c r="R179">
         <v>1.95</v>
       </c>
-      <c r="O179">
-        <v>3.8</v>
-      </c>
-      <c r="P179">
-        <v>2.9</v>
-      </c>
-      <c r="Q179">
-        <v>-0.25</v>
-      </c>
-      <c r="R179">
-        <v>1.875</v>
-      </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6880545</v>
+        <v>6886970</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,40 +16476,40 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
         <v>0</v>
       </c>
-      <c r="I180">
-        <v>2</v>
-      </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K180">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M180">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="N180">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O180">
         <v>3.8</v>
       </c>
       <c r="P180">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q180">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
         <v>1.875</v>
@@ -16518,34 +16518,34 @@
         <v>1.975</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA180">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6885377</v>
+        <v>6880545</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,55 +16565,55 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
         <v>47</v>
       </c>
       <c r="K181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L181">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M181">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N181">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="O181">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
         <v>1.9</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16622,19 +16622,19 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.375</v>
+        <v>0.7</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6884538</v>
+        <v>7830688</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,76 +16921,76 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="L185">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M185">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N185">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W185">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7830688</v>
+        <v>6884538</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
         <v>0</v>
       </c>
-      <c r="I186">
-        <v>4</v>
-      </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K186">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M186">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N186">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P186">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q186">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U186">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6886986</v>
+        <v>6882758</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,10 +19769,10 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19784,61 +19784,61 @@
         <v>49</v>
       </c>
       <c r="K217">
-        <v>1.285</v>
+        <v>3.25</v>
       </c>
       <c r="L217">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M217">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="N217">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="O217">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P217">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q217">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R217">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U217">
         <v>1.9</v>
       </c>
       <c r="V217">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA217">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
         <v>-1</v>
       </c>
       <c r="AC217">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6882758</v>
+        <v>6884541</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K218">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L218">
         <v>4</v>
       </c>
       <c r="M218">
+        <v>1.909</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218">
+        <v>3.75</v>
+      </c>
+      <c r="P218">
+        <v>1.95</v>
+      </c>
+      <c r="Q218">
+        <v>0.25</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
         <v>1.8</v>
-      </c>
-      <c r="N218">
-        <v>3.25</v>
-      </c>
-      <c r="O218">
-        <v>4</v>
-      </c>
-      <c r="P218">
-        <v>1.833</v>
-      </c>
-      <c r="Q218">
-        <v>0.5</v>
-      </c>
-      <c r="R218">
-        <v>2.025</v>
-      </c>
-      <c r="S218">
-        <v>1.825</v>
       </c>
       <c r="T218">
         <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V218">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X218">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC218">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6884541</v>
+        <v>6886986</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G219" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K219">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M219">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="N219">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O219">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P219">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U219">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB219">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7796919</v>
+        <v>7796920</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,13 +21104,13 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -21119,43 +21119,43 @@
         <v>48</v>
       </c>
       <c r="K232">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L232">
+        <v>3.75</v>
+      </c>
+      <c r="M232">
+        <v>2.5</v>
+      </c>
+      <c r="N232">
+        <v>1.727</v>
+      </c>
+      <c r="O232">
         <v>4</v>
       </c>
-      <c r="M232">
-        <v>4</v>
-      </c>
-      <c r="N232">
+      <c r="P232">
+        <v>3.5</v>
+      </c>
+      <c r="Q232">
+        <v>-0.75</v>
+      </c>
+      <c r="R232">
+        <v>2</v>
+      </c>
+      <c r="S232">
         <v>1.8</v>
       </c>
-      <c r="O232">
-        <v>3.75</v>
-      </c>
-      <c r="P232">
-        <v>3.3</v>
-      </c>
-      <c r="Q232">
-        <v>-0.5</v>
-      </c>
-      <c r="R232">
-        <v>1.875</v>
-      </c>
-      <c r="S232">
-        <v>1.925</v>
-      </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U232">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21164,16 +21164,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7796920</v>
+        <v>7796919</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,13 +21193,13 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -21208,43 +21208,43 @@
         <v>48</v>
       </c>
       <c r="K233">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L233">
+        <v>4</v>
+      </c>
+      <c r="M233">
+        <v>4</v>
+      </c>
+      <c r="N233">
+        <v>1.8</v>
+      </c>
+      <c r="O233">
         <v>3.75</v>
       </c>
-      <c r="M233">
-        <v>2.5</v>
-      </c>
-      <c r="N233">
-        <v>1.727</v>
-      </c>
-      <c r="O233">
-        <v>4</v>
-      </c>
       <c r="P233">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q233">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W233">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21253,16 +21253,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6882756</v>
+        <v>6886995</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,58 +21727,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G239" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
         <v>48</v>
       </c>
       <c r="K239">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L239">
         <v>3.75</v>
       </c>
       <c r="M239">
+        <v>3.75</v>
+      </c>
+      <c r="N239">
         <v>1.909</v>
       </c>
-      <c r="N239">
-        <v>2.75</v>
-      </c>
       <c r="O239">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P239">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S239">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U239">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>1.75</v>
+        <v>0.909</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21787,16 +21787,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21804,7 +21804,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6886995</v>
+        <v>6882756</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21816,58 +21816,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G240" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
         <v>48</v>
       </c>
       <c r="K240">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L240">
         <v>3.75</v>
       </c>
       <c r="M240">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="N240">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O240">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
+        <v>1.775</v>
+      </c>
+      <c r="S240">
+        <v>2.025</v>
+      </c>
+      <c r="T240">
+        <v>2.5</v>
+      </c>
+      <c r="U240">
         <v>1.975</v>
       </c>
-      <c r="S240">
+      <c r="V240">
         <v>1.825</v>
       </c>
-      <c r="T240">
-        <v>3</v>
-      </c>
-      <c r="U240">
-        <v>1.9</v>
-      </c>
-      <c r="V240">
-        <v>1.9</v>
-      </c>
       <c r="W240">
-        <v>0.909</v>
+        <v>1.75</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21876,16 +21876,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6887001</v>
+        <v>6887000</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,76 +22083,76 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F243" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L243">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M243">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N243">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O243">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P243">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R243">
         <v>1.925</v>
       </c>
       <c r="S243">
+        <v>1.925</v>
+      </c>
+      <c r="T243">
+        <v>2.75</v>
+      </c>
+      <c r="U243">
+        <v>1.975</v>
+      </c>
+      <c r="V243">
         <v>1.875</v>
       </c>
-      <c r="T243">
-        <v>2.5</v>
-      </c>
-      <c r="U243">
-        <v>1.8</v>
-      </c>
-      <c r="V243">
-        <v>2</v>
-      </c>
       <c r="W243">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z243">
+        <v>-1</v>
+      </c>
+      <c r="AA243">
         <v>0.925</v>
       </c>
-      <c r="AA243">
-        <v>-1</v>
-      </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC243">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6887000</v>
+        <v>6887001</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,76 +22172,76 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F244" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
         <v>0</v>
       </c>
-      <c r="I244">
-        <v>3</v>
-      </c>
       <c r="J244" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K244">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L244">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M244">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N244">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O244">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P244">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q244">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R244">
         <v>1.925</v>
       </c>
       <c r="S244">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T244">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U244">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V244">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA244">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:29">

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC268"/>
+  <dimension ref="A1:AC262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6886888</v>
+        <v>6886889</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,76 +2414,76 @@
         <v>45150.375</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L22">
+        <v>3.6</v>
+      </c>
+      <c r="M22">
+        <v>1.75</v>
+      </c>
+      <c r="N22">
+        <v>4.333</v>
+      </c>
+      <c r="O22">
         <v>3.8</v>
       </c>
-      <c r="M22">
-        <v>4</v>
-      </c>
-      <c r="N22">
-        <v>1.666</v>
-      </c>
-      <c r="O22">
-        <v>3.75</v>
-      </c>
       <c r="P22">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U22">
+        <v>1.975</v>
+      </c>
+      <c r="V22">
         <v>1.825</v>
       </c>
-      <c r="V22">
-        <v>1.975</v>
-      </c>
       <c r="W22">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6886889</v>
+        <v>6886887</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,46 +2503,46 @@
         <v>45150.375</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>3.6</v>
       </c>
       <c r="M23">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
         <v>3</v>
@@ -2554,25 +2554,25 @@
         <v>1.825</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6886887</v>
+        <v>6886888</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,58 +2592,58 @@
         <v>45150.375</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
+        <v>1.875</v>
+      </c>
+      <c r="T24">
+        <v>2.75</v>
+      </c>
+      <c r="U24">
         <v>1.825</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.975</v>
       </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="U24">
-        <v>1.975</v>
-      </c>
-      <c r="V24">
-        <v>1.825</v>
-      </c>
       <c r="W24">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,16 +2652,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6886893</v>
+        <v>6886892</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,55 +3037,55 @@
         <v>45157.375</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N29">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P29">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
         <v>2</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3094,7 +3094,7 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="Z29">
         <v>-1</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6886891</v>
+        <v>6886893</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45157.375</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N30">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
         <v>3.5</v>
       </c>
       <c r="P30">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
         <v>2</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6886892</v>
+        <v>6884523</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45157.375</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
+        <v>2.25</v>
+      </c>
+      <c r="L31">
+        <v>3.25</v>
+      </c>
+      <c r="M31">
+        <v>2.75</v>
+      </c>
+      <c r="N31">
         <v>2.2</v>
       </c>
-      <c r="L31">
-        <v>3.2</v>
-      </c>
-      <c r="M31">
-        <v>2.875</v>
-      </c>
-      <c r="N31">
-        <v>1.45</v>
-      </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>2.05</v>
+      </c>
+      <c r="S31">
         <v>1.8</v>
-      </c>
-      <c r="S31">
-        <v>2</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6885364</v>
+        <v>6886891</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,10 +3482,10 @@
         <v>45157.375</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3497,40 +3497,40 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="L34">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O34">
         <v>3.5</v>
       </c>
       <c r="P34">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T34">
         <v>3</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3542,16 +3542,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6884523</v>
+        <v>6885364</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,76 +3571,76 @@
         <v>45157.375</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L35">
         <v>3.25</v>
       </c>
       <c r="M35">
+        <v>2.375</v>
+      </c>
+      <c r="N35">
+        <v>2.15</v>
+      </c>
+      <c r="O35">
+        <v>3.5</v>
+      </c>
+      <c r="P35">
         <v>2.75</v>
-      </c>
-      <c r="N35">
-        <v>2.2</v>
-      </c>
-      <c r="O35">
-        <v>3.25</v>
-      </c>
-      <c r="P35">
-        <v>2.8</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6882779</v>
+        <v>6884524</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45164.375</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="N42">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6884524</v>
+        <v>6882779</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,76 +4283,76 @@
         <v>45164.375</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="N43">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P43">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <v>-1</v>
+      </c>
+      <c r="R43">
         <v>1.85</v>
       </c>
-      <c r="Q43">
-        <v>0.5</v>
-      </c>
-      <c r="R43">
-        <v>1.925</v>
-      </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X43">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6882778</v>
+        <v>6880531</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45171.375</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L46">
         <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N46">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O46">
         <v>3.6</v>
       </c>
       <c r="P46">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.5249999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6880531</v>
+        <v>6882778</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45171.375</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O50">
         <v>3.6</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
+        <v>2.05</v>
+      </c>
+      <c r="S50">
         <v>1.8</v>
       </c>
-      <c r="S50">
-        <v>2</v>
-      </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6886905</v>
+        <v>6886903</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45185.375</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="L59">
         <v>3.75</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N59">
+        <v>3.1</v>
+      </c>
+      <c r="O59">
+        <v>3.8</v>
+      </c>
+      <c r="P59">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <v>0.25</v>
+      </c>
+      <c r="R59">
         <v>2.05</v>
       </c>
-      <c r="O59">
-        <v>3.5</v>
-      </c>
-      <c r="P59">
-        <v>2.875</v>
-      </c>
-      <c r="Q59">
-        <v>-0.25</v>
-      </c>
-      <c r="R59">
-        <v>1.85</v>
-      </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
+        <v>1.875</v>
+      </c>
+      <c r="V59">
         <v>1.975</v>
       </c>
-      <c r="V59">
-        <v>1.825</v>
-      </c>
       <c r="W59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6886903</v>
+        <v>6884491</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,76 +5796,76 @@
         <v>45185.375</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L60">
         <v>3.75</v>
       </c>
       <c r="M60">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N60">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
         <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6884491</v>
+        <v>6882777</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,10 +5885,10 @@
         <v>45185.375</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5900,43 +5900,43 @@
         <v>48</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
         <v>3.75</v>
       </c>
-      <c r="M61">
-        <v>2.875</v>
-      </c>
       <c r="N61">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P61">
+        <v>3.1</v>
+      </c>
+      <c r="Q61">
+        <v>-0.5</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>1.85</v>
+      </c>
+      <c r="T61">
         <v>3</v>
       </c>
-      <c r="Q61">
-        <v>-0.25</v>
-      </c>
-      <c r="R61">
+      <c r="U61">
+        <v>2.025</v>
+      </c>
+      <c r="V61">
         <v>1.825</v>
       </c>
-      <c r="S61">
-        <v>1.975</v>
-      </c>
-      <c r="T61">
-        <v>2.5</v>
-      </c>
-      <c r="U61">
-        <v>1.875</v>
-      </c>
-      <c r="V61">
-        <v>1.925</v>
-      </c>
       <c r="W61">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5945,16 +5945,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>-1</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.825</v>
-      </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
-      <c r="AB61">
-        <v>-1</v>
-      </c>
-      <c r="AC61">
-        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6882777</v>
+        <v>6880532</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45185.375</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62">
+        <v>2.7</v>
+      </c>
+      <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>2.1</v>
+      </c>
+      <c r="N62">
+        <v>2.375</v>
+      </c>
+      <c r="O62">
+        <v>3.6</v>
+      </c>
+      <c r="P62">
+        <v>2.45</v>
+      </c>
+      <c r="Q62">
         <v>0</v>
       </c>
-      <c r="J62" t="s">
-        <v>48</v>
-      </c>
-      <c r="K62">
-        <v>1.666</v>
-      </c>
-      <c r="L62">
-        <v>4</v>
-      </c>
-      <c r="M62">
-        <v>3.75</v>
-      </c>
-      <c r="N62">
-        <v>1.909</v>
-      </c>
-      <c r="O62">
-        <v>3.75</v>
-      </c>
-      <c r="P62">
-        <v>3.1</v>
-      </c>
-      <c r="Q62">
-        <v>-0.5</v>
-      </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
         <v>3</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6880532</v>
+        <v>6886905</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,40 +6063,40 @@
         <v>45185.375</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="L63">
         <v>3.75</v>
       </c>
       <c r="M63">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
         <v>1.85</v>
@@ -6105,34 +6105,34 @@
         <v>1.95</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6885367</v>
+        <v>6886910</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,58 +6597,58 @@
         <v>45192.375</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>48</v>
       </c>
       <c r="K69">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
         <v>3.8</v>
       </c>
       <c r="M69">
+        <v>3.25</v>
+      </c>
+      <c r="N69">
+        <v>1.363</v>
+      </c>
+      <c r="O69">
         <v>4.5</v>
       </c>
-      <c r="N69">
-        <v>1.533</v>
-      </c>
-      <c r="O69">
-        <v>4.2</v>
-      </c>
       <c r="P69">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>0.5329999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6657,16 +6657,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6886910</v>
+        <v>6885367</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,58 +6686,58 @@
         <v>45192.375</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>48</v>
       </c>
       <c r="K70">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="L70">
         <v>3.8</v>
       </c>
       <c r="M70">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N70">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="O70">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T70">
         <v>3</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>0.363</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6746,16 +6746,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC70">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6884528</v>
+        <v>6886914</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,37 +6953,37 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
         <v>1</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>48</v>
       </c>
       <c r="K73">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -6995,16 +6995,16 @@
         <v>2.025</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7019,10 +7019,10 @@
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6886914</v>
+        <v>6884528</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,37 +7042,37 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>48</v>
       </c>
       <c r="K74">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N74">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -7084,16 +7084,16 @@
         <v>2.025</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7108,10 +7108,10 @@
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6886920</v>
+        <v>6886917</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,76 +7754,76 @@
         <v>45206.375</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L82">
         <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O82">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
         <v>1.8</v>
       </c>
-      <c r="S82">
-        <v>2.05</v>
-      </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
         <v>0.8</v>
       </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC82">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6882774</v>
+        <v>6884529</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,76 +7843,76 @@
         <v>45206.375</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M83">
+        <v>6</v>
+      </c>
+      <c r="N83">
+        <v>1.45</v>
+      </c>
+      <c r="O83">
+        <v>4.2</v>
+      </c>
+      <c r="P83">
+        <v>5</v>
+      </c>
+      <c r="Q83">
+        <v>-1.25</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.8</v>
+      </c>
+      <c r="T83">
         <v>3</v>
-      </c>
-      <c r="N83">
-        <v>1.909</v>
-      </c>
-      <c r="O83">
-        <v>3.6</v>
-      </c>
-      <c r="P83">
-        <v>3.3</v>
-      </c>
-      <c r="Q83">
-        <v>-0.5</v>
-      </c>
-      <c r="R83">
-        <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>1.9</v>
-      </c>
-      <c r="T83">
-        <v>2.75</v>
       </c>
       <c r="U83">
         <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6885368</v>
+        <v>6886921</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,58 +7932,58 @@
         <v>45206.375</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
       </c>
       <c r="K84">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O84">
+        <v>3.75</v>
+      </c>
+      <c r="P84">
         <v>4</v>
-      </c>
-      <c r="P84">
-        <v>4.2</v>
       </c>
       <c r="Q84">
         <v>-0.75</v>
       </c>
       <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
         <v>1.825</v>
       </c>
-      <c r="S84">
+      <c r="T84">
+        <v>3</v>
+      </c>
+      <c r="U84">
         <v>1.975</v>
       </c>
-      <c r="T84">
-        <v>3.25</v>
-      </c>
-      <c r="U84">
-        <v>2</v>
-      </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
-        <v>0.615</v>
+        <v>0.7</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7992,16 +7992,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
+        <v>0.4875</v>
+      </c>
+      <c r="AA84">
+        <v>-0.5</v>
+      </c>
+      <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>0.825</v>
-      </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
-      <c r="AB84">
-        <v>1</v>
-      </c>
-      <c r="AC84">
-        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6886921</v>
+        <v>6886920</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,13 +8021,13 @@
         <v>45206.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8036,43 +8036,43 @@
         <v>48</v>
       </c>
       <c r="K85">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L85">
         <v>3.75</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6886917</v>
+        <v>6885368</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45206.375</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" t="s">
+        <v>48</v>
+      </c>
+      <c r="K87">
+        <v>1.833</v>
+      </c>
+      <c r="L87">
+        <v>3.6</v>
+      </c>
+      <c r="M87">
+        <v>3.4</v>
+      </c>
+      <c r="N87">
+        <v>1.615</v>
+      </c>
+      <c r="O87">
+        <v>4</v>
+      </c>
+      <c r="P87">
+        <v>4.2</v>
+      </c>
+      <c r="Q87">
+        <v>-0.75</v>
+      </c>
+      <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
+        <v>1.975</v>
+      </c>
+      <c r="T87">
+        <v>3.25</v>
+      </c>
+      <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
+        <v>1.8</v>
+      </c>
+      <c r="W87">
+        <v>0.615</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>0.825</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87" t="s">
-        <v>47</v>
-      </c>
-      <c r="K87">
-        <v>1.909</v>
-      </c>
-      <c r="L87">
-        <v>3.75</v>
-      </c>
-      <c r="M87">
-        <v>3.1</v>
-      </c>
-      <c r="N87">
-        <v>2.55</v>
-      </c>
-      <c r="O87">
-        <v>3.6</v>
-      </c>
-      <c r="P87">
-        <v>2.25</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>2</v>
-      </c>
-      <c r="S87">
-        <v>1.8</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.775</v>
-      </c>
-      <c r="V87">
-        <v>2.025</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>1.25</v>
-      </c>
-      <c r="Z87">
-        <v>-1</v>
-      </c>
-      <c r="AA87">
-        <v>0.8</v>
-      </c>
-      <c r="AB87">
-        <v>0.3875</v>
-      </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6884529</v>
+        <v>6882774</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45206.375</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>48</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3.6</v>
+      </c>
+      <c r="M88">
         <v>3</v>
       </c>
-      <c r="I88">
-        <v>4</v>
-      </c>
-      <c r="J88" t="s">
-        <v>47</v>
-      </c>
-      <c r="K88">
-        <v>1.363</v>
-      </c>
-      <c r="L88">
-        <v>4.75</v>
-      </c>
-      <c r="M88">
-        <v>6</v>
-      </c>
       <c r="N88">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
         <v>1.875</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6885369</v>
+        <v>6886925</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,46 +8644,46 @@
         <v>45213.375</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L92">
         <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N92">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O92">
         <v>4</v>
       </c>
       <c r="P92">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.975</v>
+        <v>2.15</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T92">
         <v>3.25</v>
@@ -8692,28 +8692,28 @@
         <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>0.825</v>
+        <v>0.3625</v>
       </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6886925</v>
+        <v>6885369</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,46 +8733,46 @@
         <v>45213.375</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L93">
         <v>3.6</v>
       </c>
       <c r="M93">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O93">
         <v>4</v>
       </c>
       <c r="P93">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>2.15</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
         <v>3.25</v>
@@ -8781,28 +8781,28 @@
         <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.3625</v>
+        <v>0.825</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6882773</v>
+        <v>6884495</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,73 +8911,73 @@
         <v>45213.375</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>3</v>
-      </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P95">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
+        <v>1.875</v>
+      </c>
+      <c r="V95">
         <v>1.925</v>
       </c>
-      <c r="V95">
-        <v>1.875</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6884495</v>
+        <v>6882773</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,73 +9089,73 @@
         <v>45213.375</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L97">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N97">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q97">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
+        <v>1.925</v>
+      </c>
+      <c r="V97">
         <v>1.875</v>
       </c>
-      <c r="V97">
-        <v>1.925</v>
-      </c>
       <c r="W97">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB97">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6886928</v>
+        <v>6885370</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,58 +9534,58 @@
         <v>45220.375</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L102">
         <v>4</v>
       </c>
       <c r="M102">
+        <v>3.75</v>
+      </c>
+      <c r="N102">
+        <v>1.5</v>
+      </c>
+      <c r="O102">
+        <v>4.333</v>
+      </c>
+      <c r="P102">
         <v>5</v>
       </c>
-      <c r="N102">
-        <v>1.6</v>
-      </c>
-      <c r="O102">
-        <v>4</v>
-      </c>
-      <c r="P102">
-        <v>4.5</v>
-      </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9594,16 +9594,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6885370</v>
+        <v>6886926</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,58 +9623,58 @@
         <v>45220.375</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N103">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
         <v>4.333</v>
       </c>
       <c r="P103">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q103">
         <v>-1</v>
       </c>
       <c r="R103">
+        <v>1.925</v>
+      </c>
+      <c r="S103">
         <v>1.875</v>
       </c>
-      <c r="S103">
-        <v>1.975</v>
-      </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
-        <v>0.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,13 +9683,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6886926</v>
+        <v>6886928</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,13 +9712,13 @@
         <v>45220.375</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9727,34 +9727,34 @@
         <v>48</v>
       </c>
       <c r="K104">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="L104">
+        <v>4</v>
+      </c>
+      <c r="M104">
         <v>5</v>
       </c>
-      <c r="M104">
-        <v>7.5</v>
-      </c>
       <c r="N104">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O104">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P104">
         <v>4.5</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
         <v>1.775</v>
@@ -9763,7 +9763,7 @@
         <v>2.025</v>
       </c>
       <c r="W104">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9772,16 +9772,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6884533</v>
+        <v>6880539</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="N130">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="O130">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="Q130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R130">
         <v>1.8</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
         <v>1.925</v>
       </c>
       <c r="W130">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6880539</v>
+        <v>6884533</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="N131">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R131">
         <v>1.8</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
         <v>1.925</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6882768</v>
+        <v>6886948</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,73 +12293,73 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H133">
         <v>3</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L133">
         <v>4</v>
       </c>
       <c r="M133">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N133">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="O133">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q133">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
+        <v>1.925</v>
+      </c>
+      <c r="S133">
         <v>1.875</v>
-      </c>
-      <c r="S133">
-        <v>1.925</v>
       </c>
       <c r="T133">
         <v>3.25</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X133">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6884499</v>
+        <v>6886947</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N134">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB134">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6885374</v>
+        <v>6886946</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,58 +12471,58 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
         <v>48</v>
       </c>
       <c r="K135">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N135">
+        <v>1.666</v>
+      </c>
+      <c r="O135">
+        <v>4</v>
+      </c>
+      <c r="P135">
+        <v>3.8</v>
+      </c>
+      <c r="Q135">
+        <v>-0.75</v>
+      </c>
+      <c r="R135">
         <v>1.95</v>
       </c>
-      <c r="O135">
-        <v>3.6</v>
-      </c>
-      <c r="P135">
-        <v>3.1</v>
-      </c>
-      <c r="Q135">
-        <v>-0.5</v>
-      </c>
-      <c r="R135">
-        <v>2.025</v>
-      </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
         <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
-        <v>0.95</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12531,16 +12531,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>0.475</v>
+      </c>
+      <c r="AA135">
+        <v>-0.5</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>1.025</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>0.4375</v>
-      </c>
-      <c r="AC135">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6886947</v>
+        <v>6885374</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
         <v>3.75</v>
       </c>
       <c r="M137">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N137">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S137">
+        <v>1.825</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
         <v>1.875</v>
       </c>
-      <c r="T137">
-        <v>3</v>
-      </c>
-      <c r="U137">
-        <v>2</v>
-      </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA137">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC137">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6880540</v>
+        <v>6884499</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,46 +12738,46 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
         <v>1</v>
       </c>
-      <c r="I138">
-        <v>2</v>
-      </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K138">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O138">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q138">
         <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T138">
         <v>2.75</v>
@@ -12789,19 +12789,19 @@
         <v>1.875</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA138">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>0.4625</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6886948</v>
+        <v>6882768</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,73 +12827,73 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H139">
         <v>3</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L139">
         <v>4</v>
       </c>
       <c r="M139">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N139">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P139">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R139">
+        <v>1.875</v>
+      </c>
+      <c r="S139">
         <v>1.925</v>
-      </c>
-      <c r="S139">
-        <v>1.875</v>
       </c>
       <c r="T139">
         <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
         <v>0.925</v>
       </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
       <c r="AB139">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6886946</v>
+        <v>6880540</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M140">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N140">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z140">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
+        <v>0.875</v>
+      </c>
+      <c r="AB140">
+        <v>0.4625</v>
+      </c>
+      <c r="AC140">
         <v>-0.5</v>
-      </c>
-      <c r="AB140">
-        <v>-1</v>
-      </c>
-      <c r="AC140">
-        <v>1.025</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6884501</v>
+        <v>6886954</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,73 +13984,73 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152" t="s">
+        <v>49</v>
+      </c>
+      <c r="K152">
+        <v>1.444</v>
+      </c>
+      <c r="L152">
+        <v>4.2</v>
+      </c>
+      <c r="M152">
+        <v>5.5</v>
+      </c>
+      <c r="N152">
+        <v>1.533</v>
+      </c>
+      <c r="O152">
+        <v>4</v>
+      </c>
+      <c r="P152">
+        <v>5</v>
+      </c>
+      <c r="Q152">
+        <v>-1</v>
+      </c>
+      <c r="R152">
+        <v>1.925</v>
+      </c>
+      <c r="S152">
+        <v>1.875</v>
+      </c>
+      <c r="T152">
         <v>3</v>
       </c>
-      <c r="I152">
-        <v>4</v>
-      </c>
-      <c r="J152" t="s">
-        <v>47</v>
-      </c>
-      <c r="K152">
-        <v>2.4</v>
-      </c>
-      <c r="L152">
-        <v>3.4</v>
-      </c>
-      <c r="M152">
-        <v>2.5</v>
-      </c>
-      <c r="N152">
-        <v>2.7</v>
-      </c>
-      <c r="O152">
-        <v>3.4</v>
-      </c>
-      <c r="P152">
-        <v>2.3</v>
-      </c>
-      <c r="Q152">
-        <v>0</v>
-      </c>
-      <c r="R152">
-        <v>2</v>
-      </c>
-      <c r="S152">
-        <v>1.8</v>
-      </c>
-      <c r="T152">
-        <v>2.5</v>
-      </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y152">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6880542</v>
+        <v>6884501</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H153">
+        <v>3</v>
+      </c>
+      <c r="I153">
+        <v>4</v>
+      </c>
+      <c r="J153" t="s">
+        <v>47</v>
+      </c>
+      <c r="K153">
+        <v>2.4</v>
+      </c>
+      <c r="L153">
+        <v>3.4</v>
+      </c>
+      <c r="M153">
+        <v>2.5</v>
+      </c>
+      <c r="N153">
+        <v>2.7</v>
+      </c>
+      <c r="O153">
+        <v>3.4</v>
+      </c>
+      <c r="P153">
+        <v>2.3</v>
+      </c>
+      <c r="Q153">
         <v>0</v>
       </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153" t="s">
-        <v>49</v>
-      </c>
-      <c r="K153">
-        <v>1.95</v>
-      </c>
-      <c r="L153">
-        <v>3.75</v>
-      </c>
-      <c r="M153">
-        <v>3</v>
-      </c>
-      <c r="N153">
-        <v>2.1</v>
-      </c>
-      <c r="O153">
-        <v>3.6</v>
-      </c>
-      <c r="P153">
-        <v>2.75</v>
-      </c>
-      <c r="Q153">
-        <v>-0.25</v>
-      </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S153">
+        <v>1.8</v>
+      </c>
+      <c r="T153">
+        <v>2.5</v>
+      </c>
+      <c r="U153">
         <v>1.9</v>
       </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>2.025</v>
-      </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6886954</v>
+        <v>6880542</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,52 +14162,52 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>49</v>
       </c>
       <c r="K154">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L154">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M154">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N154">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q154">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
         <v>3</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V154">
         <v>1.825</v>
@@ -14216,22 +14216,22 @@
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA154">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AB154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6884502</v>
+        <v>6886962</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,58 +14251,58 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
         <v>48</v>
       </c>
       <c r="K155">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L155">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M155">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="N155">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O155">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P155">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="Q155">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U155">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14311,16 +14311,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA155">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC155">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6886962</v>
+        <v>6886961</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
         <v>3</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L156">
         <v>3.75</v>
       </c>
       <c r="M156">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N156">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O156">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S156">
         <v>1.8</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6886961</v>
+        <v>6884535</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,55 +14429,55 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J157" t="s">
         <v>47</v>
       </c>
       <c r="K157">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L157">
         <v>3.75</v>
       </c>
       <c r="M157">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N157">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
         <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14486,13 +14486,13 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
         <v>0.875</v>
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6884535</v>
+        <v>6884502</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K158">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="L158">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M158">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="N158">
+        <v>1.333</v>
+      </c>
+      <c r="O158">
+        <v>4.333</v>
+      </c>
+      <c r="P158">
+        <v>8</v>
+      </c>
+      <c r="Q158">
+        <v>-1.25</v>
+      </c>
+      <c r="R158">
+        <v>1.825</v>
+      </c>
+      <c r="S158">
+        <v>1.975</v>
+      </c>
+      <c r="T158">
         <v>2.75</v>
       </c>
-      <c r="O158">
-        <v>3.75</v>
-      </c>
-      <c r="P158">
-        <v>2.05</v>
-      </c>
-      <c r="Q158">
-        <v>0.25</v>
-      </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>1.9</v>
-      </c>
-      <c r="T158">
-        <v>3.25</v>
-      </c>
       <c r="U158">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB158">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7764092</v>
+        <v>7691489</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,55 +15764,55 @@
         <v>45328.64583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N172">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P172">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q172">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15821,19 +15821,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB172">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7691489</v>
+        <v>7764092</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,55 +15853,55 @@
         <v>45328.64583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="L173">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N173">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O173">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15910,19 +15910,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6884537</v>
+        <v>6884504</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,34 +16298,34 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>48</v>
+      </c>
+      <c r="K178">
+        <v>1.727</v>
+      </c>
+      <c r="L178">
         <v>4</v>
       </c>
-      <c r="J178" t="s">
-        <v>47</v>
-      </c>
-      <c r="K178">
-        <v>2.2</v>
-      </c>
-      <c r="L178">
-        <v>3.4</v>
-      </c>
       <c r="M178">
-        <v>1.159</v>
+        <v>3.5</v>
       </c>
       <c r="N178">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O178">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
         <v>2.75</v>
@@ -16334,37 +16334,37 @@
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6884504</v>
+        <v>6884537</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,34 +16565,34 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>1.159</v>
       </c>
       <c r="N181">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P181">
         <v>2.75</v>
@@ -16601,37 +16601,37 @@
         <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T181">
         <v>2.75</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB181">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6884539</v>
+        <v>6886978</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K198">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="L198">
+        <v>3.5</v>
+      </c>
+      <c r="M198">
         <v>4</v>
       </c>
-      <c r="M198">
-        <v>1.571</v>
-      </c>
       <c r="N198">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="O198">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P198">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="Q198">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
         <v>1.85</v>
       </c>
-      <c r="S198">
-        <v>1.95</v>
-      </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB198">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6886978</v>
+        <v>6884539</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K199">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="L199">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M199">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="N199">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O199">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P199">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U199">
+        <v>1.825</v>
+      </c>
+      <c r="V199">
         <v>1.975</v>
       </c>
-      <c r="V199">
-        <v>1.875</v>
-      </c>
       <c r="W199">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X199">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA199">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6884541</v>
+        <v>6886988</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L216">
+        <v>3.75</v>
+      </c>
+      <c r="M216">
+        <v>2.05</v>
+      </c>
+      <c r="N216">
         <v>4</v>
       </c>
-      <c r="M216">
-        <v>1.909</v>
-      </c>
-      <c r="N216">
-        <v>3</v>
-      </c>
       <c r="O216">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P216">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S216">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T216">
         <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V216">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6886988</v>
+        <v>6886987</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,73 +19769,73 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H217">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K217">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L217">
         <v>3.75</v>
       </c>
       <c r="M217">
+        <v>2.75</v>
+      </c>
+      <c r="N217">
+        <v>2.9</v>
+      </c>
+      <c r="O217">
+        <v>3.75</v>
+      </c>
+      <c r="P217">
         <v>2.05</v>
       </c>
-      <c r="N217">
-        <v>4</v>
-      </c>
-      <c r="O217">
-        <v>4.2</v>
-      </c>
-      <c r="P217">
-        <v>1.6</v>
-      </c>
       <c r="Q217">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S217">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T217">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W217">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z217">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB217">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC217">
         <v>-1</v>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6886987</v>
+        <v>6884541</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G218" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H218">
+        <v>3</v>
+      </c>
+      <c r="I218">
         <v>0</v>
       </c>
-      <c r="I218">
+      <c r="J218" t="s">
+        <v>48</v>
+      </c>
+      <c r="K218">
         <v>3</v>
       </c>
-      <c r="J218" t="s">
-        <v>47</v>
-      </c>
-      <c r="K218">
-        <v>2.1</v>
-      </c>
       <c r="L218">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M218">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N218">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O218">
         <v>3.75</v>
       </c>
       <c r="P218">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Q218">
         <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S218">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA218">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6880550</v>
+        <v>6885382</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,76 +22261,76 @@
         <v>45388.375</v>
       </c>
       <c r="F245" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H245">
+        <v>2</v>
+      </c>
+      <c r="I245">
         <v>0</v>
       </c>
-      <c r="I245">
-        <v>2</v>
-      </c>
       <c r="J245" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K245">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="L245">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M245">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="N245">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O245">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P245">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q245">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R245">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V245">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA245">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6885382</v>
+        <v>6880550</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,76 +22350,76 @@
         <v>45388.375</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G246" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K246">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M246">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N246">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O246">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P246">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q246">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S246">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T246">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W246">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z246">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22694,7 +22694,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6887003</v>
+        <v>6887002</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22706,43 +22706,43 @@
         <v>45388.375</v>
       </c>
       <c r="F250" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G250" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H250">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K250">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="L250">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="M250">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="N250">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O250">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P250">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q250">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R250">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S250">
         <v>1.8</v>
@@ -22751,31 +22751,31 @@
         <v>3</v>
       </c>
       <c r="U250">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V250">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W250">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z250">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB250">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6887002</v>
+        <v>6887003</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,43 +22795,43 @@
         <v>45388.375</v>
       </c>
       <c r="F251" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G251" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H251">
+        <v>4</v>
+      </c>
+      <c r="I251">
         <v>0</v>
       </c>
-      <c r="I251">
-        <v>2</v>
-      </c>
       <c r="J251" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K251">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="L251">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="M251">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="N251">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O251">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P251">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q251">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R251">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S251">
         <v>1.8</v>
@@ -22840,31 +22840,31 @@
         <v>3</v>
       </c>
       <c r="U251">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V251">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22961,7 +22961,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6887006</v>
+        <v>6884511</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22973,58 +22973,58 @@
         <v>45395.375</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G253" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H253">
         <v>3</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
         <v>48</v>
       </c>
       <c r="K253">
-        <v>2.6</v>
+        <v>1.181</v>
       </c>
       <c r="L253">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M253">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="N253">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="O253">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P253">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q253">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R253">
+        <v>1.95</v>
+      </c>
+      <c r="S253">
         <v>1.85</v>
       </c>
-      <c r="S253">
-        <v>1.95</v>
-      </c>
       <c r="T253">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U253">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V253">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>0.222</v>
       </c>
       <c r="X253">
         <v>-1</v>
@@ -23033,16 +23033,16 @@
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA253">
         <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23050,7 +23050,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6884511</v>
+        <v>6887006</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23062,58 +23062,58 @@
         <v>45395.375</v>
       </c>
       <c r="F254" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G254" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H254">
         <v>3</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="s">
         <v>48</v>
       </c>
       <c r="K254">
-        <v>1.181</v>
+        <v>2.6</v>
       </c>
       <c r="L254">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M254">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="N254">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="O254">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P254">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q254">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
+        <v>1.85</v>
+      </c>
+      <c r="S254">
         <v>1.95</v>
       </c>
-      <c r="S254">
+      <c r="T254">
+        <v>2.75</v>
+      </c>
+      <c r="U254">
+        <v>1.95</v>
+      </c>
+      <c r="V254">
         <v>1.85</v>
       </c>
-      <c r="T254">
-        <v>3</v>
-      </c>
-      <c r="U254">
-        <v>2</v>
-      </c>
-      <c r="V254">
-        <v>1.8</v>
-      </c>
       <c r="W254">
-        <v>0.222</v>
+        <v>1</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23122,16 +23122,16 @@
         <v>-1</v>
       </c>
       <c r="Z254">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA254">
+        <v>-1</v>
+      </c>
+      <c r="AB254">
         <v>0.95</v>
       </c>
-      <c r="AA254">
-        <v>-1</v>
-      </c>
-      <c r="AB254">
-        <v>0</v>
-      </c>
       <c r="AC254">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23406,7 +23406,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6887004</v>
+        <v>6887017</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23418,76 +23418,76 @@
         <v>45395.375</v>
       </c>
       <c r="F258" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G258" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H258">
         <v>0</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K258">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L258">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M258">
-        <v>4.1</v>
+        <v>4.333</v>
       </c>
       <c r="N258">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O258">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P258">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q258">
         <v>-0.5</v>
       </c>
       <c r="R258">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S258">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T258">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U258">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V258">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W258">
         <v>-1</v>
       </c>
       <c r="X258">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y258">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB258">
         <v>-1</v>
       </c>
       <c r="AC258">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23495,7 +23495,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6887017</v>
+        <v>6887004</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23507,76 +23507,76 @@
         <v>45395.375</v>
       </c>
       <c r="F259" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G259" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H259">
         <v>0</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K259">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L259">
+        <v>3.4</v>
+      </c>
+      <c r="M259">
+        <v>4.1</v>
+      </c>
+      <c r="N259">
+        <v>1.833</v>
+      </c>
+      <c r="O259">
+        <v>3.4</v>
+      </c>
+      <c r="P259">
         <v>3.8</v>
-      </c>
-      <c r="M259">
-        <v>4.333</v>
-      </c>
-      <c r="N259">
-        <v>1.8</v>
-      </c>
-      <c r="O259">
-        <v>3.6</v>
-      </c>
-      <c r="P259">
-        <v>3.5</v>
       </c>
       <c r="Q259">
         <v>-0.5</v>
       </c>
       <c r="R259">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T259">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V259">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W259">
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23844,450 +23844,6 @@
       </c>
       <c r="AC262">
         <v>0.8500000000000001</v>
-      </c>
-    </row>
-    <row r="263" spans="1:29">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="B263">
-        <v>6887010</v>
-      </c>
-      <c r="C263" t="s">
-        <v>28</v>
-      </c>
-      <c r="D263" t="s">
-        <v>28</v>
-      </c>
-      <c r="E263" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F263" t="s">
-        <v>36</v>
-      </c>
-      <c r="G263" t="s">
-        <v>29</v>
-      </c>
-      <c r="K263">
-        <v>5</v>
-      </c>
-      <c r="L263">
-        <v>4</v>
-      </c>
-      <c r="M263">
-        <v>1.5</v>
-      </c>
-      <c r="N263">
-        <v>3.6</v>
-      </c>
-      <c r="O263">
-        <v>3.6</v>
-      </c>
-      <c r="P263">
-        <v>1.8</v>
-      </c>
-      <c r="Q263">
-        <v>0.5</v>
-      </c>
-      <c r="R263">
-        <v>2</v>
-      </c>
-      <c r="S263">
-        <v>1.85</v>
-      </c>
-      <c r="T263">
-        <v>2.75</v>
-      </c>
-      <c r="U263">
-        <v>2</v>
-      </c>
-      <c r="V263">
-        <v>1.85</v>
-      </c>
-      <c r="W263">
-        <v>0</v>
-      </c>
-      <c r="X263">
-        <v>0</v>
-      </c>
-      <c r="Y263">
-        <v>0</v>
-      </c>
-      <c r="Z263">
-        <v>0</v>
-      </c>
-      <c r="AA263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:29">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="B264">
-        <v>6887011</v>
-      </c>
-      <c r="C264" t="s">
-        <v>28</v>
-      </c>
-      <c r="D264" t="s">
-        <v>28</v>
-      </c>
-      <c r="E264" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F264" t="s">
-        <v>44</v>
-      </c>
-      <c r="G264" t="s">
-        <v>41</v>
-      </c>
-      <c r="K264">
-        <v>1.666</v>
-      </c>
-      <c r="L264">
-        <v>4</v>
-      </c>
-      <c r="M264">
-        <v>3.75</v>
-      </c>
-      <c r="N264">
-        <v>1.615</v>
-      </c>
-      <c r="O264">
-        <v>4</v>
-      </c>
-      <c r="P264">
-        <v>4</v>
-      </c>
-      <c r="Q264">
-        <v>-0.75</v>
-      </c>
-      <c r="R264">
-        <v>1.85</v>
-      </c>
-      <c r="S264">
-        <v>2</v>
-      </c>
-      <c r="T264">
-        <v>3</v>
-      </c>
-      <c r="U264">
-        <v>1.95</v>
-      </c>
-      <c r="V264">
-        <v>1.9</v>
-      </c>
-      <c r="W264">
-        <v>0</v>
-      </c>
-      <c r="X264">
-        <v>0</v>
-      </c>
-      <c r="Y264">
-        <v>0</v>
-      </c>
-      <c r="Z264">
-        <v>0</v>
-      </c>
-      <c r="AA264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:29">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265">
-        <v>6887012</v>
-      </c>
-      <c r="C265" t="s">
-        <v>28</v>
-      </c>
-      <c r="D265" t="s">
-        <v>28</v>
-      </c>
-      <c r="E265" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F265" t="s">
-        <v>45</v>
-      </c>
-      <c r="G265" t="s">
-        <v>42</v>
-      </c>
-      <c r="K265">
-        <v>2.3</v>
-      </c>
-      <c r="L265">
-        <v>3.75</v>
-      </c>
-      <c r="M265">
-        <v>2.4</v>
-      </c>
-      <c r="N265">
-        <v>2.75</v>
-      </c>
-      <c r="O265">
-        <v>3.5</v>
-      </c>
-      <c r="P265">
-        <v>2.3</v>
-      </c>
-      <c r="Q265">
-        <v>0.25</v>
-      </c>
-      <c r="R265">
-        <v>1.8</v>
-      </c>
-      <c r="S265">
-        <v>2.05</v>
-      </c>
-      <c r="T265">
-        <v>2.75</v>
-      </c>
-      <c r="U265">
-        <v>1.8</v>
-      </c>
-      <c r="V265">
-        <v>2.05</v>
-      </c>
-      <c r="W265">
-        <v>0</v>
-      </c>
-      <c r="X265">
-        <v>0</v>
-      </c>
-      <c r="Y265">
-        <v>0</v>
-      </c>
-      <c r="Z265">
-        <v>0</v>
-      </c>
-      <c r="AA265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:29">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266">
-        <v>6887013</v>
-      </c>
-      <c r="C266" t="s">
-        <v>28</v>
-      </c>
-      <c r="D266" t="s">
-        <v>28</v>
-      </c>
-      <c r="E266" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F266" t="s">
-        <v>40</v>
-      </c>
-      <c r="G266" t="s">
-        <v>43</v>
-      </c>
-      <c r="K266">
-        <v>1.666</v>
-      </c>
-      <c r="L266">
-        <v>4</v>
-      </c>
-      <c r="M266">
-        <v>3.75</v>
-      </c>
-      <c r="N266">
-        <v>1.55</v>
-      </c>
-      <c r="O266">
-        <v>4.333</v>
-      </c>
-      <c r="P266">
-        <v>4.2</v>
-      </c>
-      <c r="Q266">
-        <v>-1</v>
-      </c>
-      <c r="R266">
-        <v>1.975</v>
-      </c>
-      <c r="S266">
-        <v>1.875</v>
-      </c>
-      <c r="T266">
-        <v>3</v>
-      </c>
-      <c r="U266">
-        <v>1.85</v>
-      </c>
-      <c r="V266">
-        <v>2</v>
-      </c>
-      <c r="W266">
-        <v>0</v>
-      </c>
-      <c r="X266">
-        <v>0</v>
-      </c>
-      <c r="Y266">
-        <v>0</v>
-      </c>
-      <c r="Z266">
-        <v>0</v>
-      </c>
-      <c r="AA266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:29">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267">
-        <v>6887015</v>
-      </c>
-      <c r="C267" t="s">
-        <v>28</v>
-      </c>
-      <c r="D267" t="s">
-        <v>28</v>
-      </c>
-      <c r="E267" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F267" t="s">
-        <v>46</v>
-      </c>
-      <c r="G267" t="s">
-        <v>31</v>
-      </c>
-      <c r="K267">
-        <v>1.533</v>
-      </c>
-      <c r="L267">
-        <v>4</v>
-      </c>
-      <c r="M267">
-        <v>4.75</v>
-      </c>
-      <c r="N267">
-        <v>1.55</v>
-      </c>
-      <c r="O267">
-        <v>4</v>
-      </c>
-      <c r="P267">
-        <v>4.75</v>
-      </c>
-      <c r="Q267">
-        <v>-1</v>
-      </c>
-      <c r="R267">
-        <v>2</v>
-      </c>
-      <c r="S267">
-        <v>1.85</v>
-      </c>
-      <c r="T267">
-        <v>3</v>
-      </c>
-      <c r="U267">
-        <v>2</v>
-      </c>
-      <c r="V267">
-        <v>1.85</v>
-      </c>
-      <c r="W267">
-        <v>0</v>
-      </c>
-      <c r="X267">
-        <v>0</v>
-      </c>
-      <c r="Y267">
-        <v>0</v>
-      </c>
-      <c r="Z267">
-        <v>0</v>
-      </c>
-      <c r="AA267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:29">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268">
-        <v>6957316</v>
-      </c>
-      <c r="C268" t="s">
-        <v>28</v>
-      </c>
-      <c r="D268" t="s">
-        <v>28</v>
-      </c>
-      <c r="E268" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F268" t="s">
-        <v>30</v>
-      </c>
-      <c r="G268" t="s">
-        <v>39</v>
-      </c>
-      <c r="K268">
-        <v>1.85</v>
-      </c>
-      <c r="L268">
-        <v>3.75</v>
-      </c>
-      <c r="M268">
-        <v>3.25</v>
-      </c>
-      <c r="N268">
-        <v>1.727</v>
-      </c>
-      <c r="O268">
-        <v>3.8</v>
-      </c>
-      <c r="P268">
-        <v>3.6</v>
-      </c>
-      <c r="Q268">
-        <v>-0.75</v>
-      </c>
-      <c r="R268">
-        <v>2.025</v>
-      </c>
-      <c r="S268">
-        <v>1.825</v>
-      </c>
-      <c r="T268">
-        <v>3</v>
-      </c>
-      <c r="U268">
-        <v>2</v>
-      </c>
-      <c r="V268">
-        <v>1.85</v>
-      </c>
-      <c r="W268">
-        <v>0</v>
-      </c>
-      <c r="X268">
-        <v>0</v>
-      </c>
-      <c r="Y268">
-        <v>0</v>
-      </c>
-      <c r="Z268">
-        <v>0</v>
-      </c>
-      <c r="AA268">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -97,6 +97,9 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7023708</t>
+  </si>
+  <si>
     <t>Germany Regionalliga West</t>
   </si>
   <si>
@@ -127,10 +130,10 @@
     <t>SV Lippstadt 08</t>
   </si>
   <si>
-    <t>Gutersloh 2000</t>
+    <t>RotWeiss Oberhausen</t>
   </si>
   <si>
-    <t>RotWeiss Oberhausen</t>
+    <t>Gutersloh 2000</t>
   </si>
   <si>
     <t>Wuppertaler</t>
@@ -522,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB275"/>
+  <dimension ref="A1:AB276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,16 +622,16 @@
         <v>6884486</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45135.60416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -637,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -705,16 +708,16 @@
         <v>6885362</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45136.375</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -723,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>2.15</v>
@@ -791,13 +794,13 @@
         <v>6886876</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45136.375</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -809,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -877,16 +880,16 @@
         <v>6880527</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45136.375</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -895,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>1.9</v>
@@ -963,16 +966,16 @@
         <v>6886879</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45136.375</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -981,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>1.45</v>
@@ -1049,16 +1052,16 @@
         <v>6886877</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45136.375</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1067,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1135,16 +1138,16 @@
         <v>6886880</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45136.375</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1153,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>1.55</v>
@@ -1221,16 +1224,16 @@
         <v>6882784</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45137.375</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1239,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>2.25</v>
@@ -1307,16 +1310,16 @@
         <v>6884487</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45142.58333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1325,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>3.1</v>
@@ -1390,16 +1393,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6882783</v>
+        <v>6885363</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45142.60416666666</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
@@ -1411,61 +1414,61 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="K11">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L11">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="N11">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O11">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="P11">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q11">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R11">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
         <v>-1</v>
       </c>
       <c r="W11">
-        <v>2.5</v>
+        <v>3.333</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
         <v>-1</v>
@@ -1476,19 +1479,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6885363</v>
+        <v>6882783</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45142.60416666666</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1497,61 +1500,61 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="K12">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="M12">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="N12">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O12">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q12">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T12">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V12">
         <v>-1</v>
       </c>
       <c r="W12">
-        <v>3.333</v>
+        <v>2.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z12">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1565,16 +1568,16 @@
         <v>6884521</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45143.375</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1583,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>1.75</v>
@@ -1651,16 +1654,16 @@
         <v>6886881</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45143.375</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1669,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>2.35</v>
@@ -1737,16 +1740,16 @@
         <v>6880528</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45143.375</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1755,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -1823,16 +1826,16 @@
         <v>6886882</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45143.375</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1841,7 +1844,7 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -1909,16 +1912,16 @@
         <v>6886884</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45143.375</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1927,7 +1930,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1995,16 +1998,16 @@
         <v>6886883</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45143.375</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2013,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>1.55</v>
@@ -2081,16 +2084,16 @@
         <v>6884488</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2099,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J19">
         <v>2.4</v>
@@ -2167,16 +2170,16 @@
         <v>6884522</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2185,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J20">
         <v>2.6</v>
@@ -2253,16 +2256,16 @@
         <v>6886888</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45150.375</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2271,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>1.666</v>
@@ -2339,16 +2342,16 @@
         <v>6886887</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45150.375</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2357,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2425,16 +2428,16 @@
         <v>6886885</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45150.375</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2443,7 +2446,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23">
         <v>1.95</v>
@@ -2511,13 +2514,13 @@
         <v>6886889</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45150.375</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -2529,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J24">
         <v>3.75</v>
@@ -2597,16 +2600,16 @@
         <v>7046712</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2615,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J25">
         <v>1.85</v>
@@ -2683,16 +2686,16 @@
         <v>6886886</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45151.375</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2701,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26">
         <v>3.25</v>
@@ -2769,16 +2772,16 @@
         <v>7082424</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
         <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2787,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>2.05</v>
@@ -2855,7 +2858,7 @@
         <v>6884489</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45156.60416666666</v>
@@ -2864,7 +2867,7 @@
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -2873,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <v>1.909</v>
@@ -2941,16 +2944,16 @@
         <v>6886893</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45157.375</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2959,7 +2962,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J29">
         <v>1.909</v>
@@ -3027,16 +3030,16 @@
         <v>6880530</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45157.375</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3045,7 +3048,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>2.375</v>
@@ -3113,16 +3116,16 @@
         <v>6886890</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45157.375</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3131,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3199,16 +3202,16 @@
         <v>6886891</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45157.375</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3217,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J32">
         <v>2.9</v>
@@ -3285,16 +3288,16 @@
         <v>6886892</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45157.375</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3303,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J33">
         <v>2.2</v>
@@ -3371,16 +3374,16 @@
         <v>6885364</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45157.375</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3389,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J34">
         <v>2.6</v>
@@ -3457,16 +3460,16 @@
         <v>6884523</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45157.375</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3475,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J35">
         <v>2.25</v>
@@ -3543,16 +3546,16 @@
         <v>6886894</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45163.58333333334</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3561,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J36">
         <v>1.727</v>
@@ -3626,85 +3629,85 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6884490</v>
+        <v>6886895</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="K37">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L37">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N37">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P37">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q37">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T37">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
         <v>-1</v>
       </c>
       <c r="W37">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3712,85 +3715,85 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6886895</v>
+        <v>6884490</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>3.8</v>
+      </c>
+      <c r="L38">
+        <v>2.875</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>3.75</v>
+      </c>
+      <c r="O38">
         <v>3</v>
       </c>
-      <c r="I38" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38">
-        <v>2.375</v>
-      </c>
-      <c r="K38">
-        <v>3.4</v>
-      </c>
-      <c r="L38">
-        <v>2.5</v>
-      </c>
-      <c r="M38">
-        <v>3.2</v>
-      </c>
-      <c r="N38">
-        <v>3.5</v>
-      </c>
-      <c r="O38">
-        <v>1.95</v>
-      </c>
       <c r="P38">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q38">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
         <v>-1</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3801,16 +3804,16 @@
         <v>6885365</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3819,7 +3822,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3887,7 +3890,7 @@
         <v>6882779</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45164.375</v>
@@ -3896,7 +3899,7 @@
         <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3905,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J40">
         <v>1.444</v>
@@ -3973,16 +3976,16 @@
         <v>6886897</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45164.375</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3991,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>2.5</v>
@@ -4059,16 +4062,16 @@
         <v>6886896</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45164.375</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4077,7 +4080,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>1.727</v>
@@ -4145,16 +4148,16 @@
         <v>6884524</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45164.375</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4163,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J43">
         <v>2.75</v>
@@ -4231,16 +4234,16 @@
         <v>6882780</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45166.60416666666</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -4249,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J44">
         <v>2.4</v>
@@ -4317,13 +4320,13 @@
         <v>6886900</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
@@ -4335,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4403,16 +4406,16 @@
         <v>6886899</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45171.375</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -4421,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>1.285</v>
@@ -4489,16 +4492,16 @@
         <v>6886901</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45171.375</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4507,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J47">
         <v>2.4</v>
@@ -4575,16 +4578,16 @@
         <v>6880531</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45171.375</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4593,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J48">
         <v>2.15</v>
@@ -4661,16 +4664,16 @@
         <v>6882778</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45171.375</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4679,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4747,16 +4750,16 @@
         <v>6884525</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45171.375</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4765,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <v>1.25</v>
@@ -4830,49 +4833,49 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6886898</v>
+        <v>6885366</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45171.375</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51">
         <v>3.6</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N51">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="P51">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>1.85</v>
@@ -4881,7 +4884,7 @@
         <v>1.95</v>
       </c>
       <c r="S51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T51">
         <v>1.975</v>
@@ -4890,7 +4893,7 @@
         <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4905,10 +4908,10 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4916,49 +4919,49 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6885366</v>
+        <v>6886898</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45171.375</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K52">
         <v>3.6</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M52">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O52">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q52">
         <v>1.85</v>
@@ -4967,7 +4970,7 @@
         <v>1.95</v>
       </c>
       <c r="S52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T52">
         <v>1.975</v>
@@ -4976,7 +4979,7 @@
         <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -4991,10 +4994,10 @@
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5005,16 +5008,16 @@
         <v>6886902</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45172.375</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5023,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -5091,16 +5094,16 @@
         <v>6884526</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45178.375</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5109,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <v>3.75</v>
@@ -5177,16 +5180,16 @@
         <v>6882782</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45178.375</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5195,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J55">
         <v>2.15</v>
@@ -5263,16 +5266,16 @@
         <v>6886907</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45184.58333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -5281,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5349,16 +5352,16 @@
         <v>6886904</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5367,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J57">
         <v>2.2</v>
@@ -5435,16 +5438,16 @@
         <v>6880532</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45185.375</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5453,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J58">
         <v>2.7</v>
@@ -5521,16 +5524,16 @@
         <v>6882777</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45185.375</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5539,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>1.666</v>
@@ -5604,85 +5607,85 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6884491</v>
+        <v>6886903</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45185.375</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>1</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
       </c>
       <c r="I60" t="s">
         <v>47</v>
       </c>
       <c r="J60">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="K60">
         <v>3.75</v>
       </c>
       <c r="L60">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="M60">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N60">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P60">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q60">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T60">
         <v>1.875</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5690,67 +5693,67 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6886905</v>
+        <v>6884491</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45185.375</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K61">
         <v>3.75</v>
       </c>
       <c r="L61">
+        <v>2.875</v>
+      </c>
+      <c r="M61">
+        <v>1.95</v>
+      </c>
+      <c r="N61">
+        <v>3.6</v>
+      </c>
+      <c r="O61">
         <v>3</v>
-      </c>
-      <c r="M61">
-        <v>2.05</v>
-      </c>
-      <c r="N61">
-        <v>3.5</v>
-      </c>
-      <c r="O61">
-        <v>2.875</v>
       </c>
       <c r="P61">
         <v>-0.25</v>
       </c>
       <c r="Q61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T61">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5759,16 +5762,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5776,85 +5779,85 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6886906</v>
+        <v>6886905</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45185.375</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
         <v>48</v>
       </c>
       <c r="J62">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="K62">
         <v>3.75</v>
       </c>
       <c r="L62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M62">
+        <v>2.05</v>
+      </c>
+      <c r="N62">
+        <v>3.5</v>
+      </c>
+      <c r="O62">
+        <v>2.875</v>
+      </c>
+      <c r="P62">
+        <v>-0.25</v>
+      </c>
+      <c r="Q62">
+        <v>1.85</v>
+      </c>
+      <c r="R62">
         <v>1.95</v>
       </c>
-      <c r="N62">
-        <v>3.8</v>
-      </c>
-      <c r="O62">
-        <v>3</v>
-      </c>
-      <c r="P62">
+      <c r="S62">
+        <v>3.25</v>
+      </c>
+      <c r="T62">
+        <v>1.975</v>
+      </c>
+      <c r="U62">
+        <v>1.825</v>
+      </c>
+      <c r="V62">
+        <v>1.05</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
         <v>-0.5</v>
       </c>
-      <c r="Q62">
-        <v>2.025</v>
-      </c>
-      <c r="R62">
-        <v>1.825</v>
-      </c>
-      <c r="S62">
-        <v>2.75</v>
-      </c>
-      <c r="T62">
-        <v>1.8</v>
-      </c>
-      <c r="U62">
-        <v>2.05</v>
-      </c>
-      <c r="V62">
-        <v>-1</v>
-      </c>
-      <c r="W62">
-        <v>2.8</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
-      <c r="Z62">
-        <v>0.825</v>
-      </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
       <c r="AB62">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5862,85 +5865,85 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6886903</v>
+        <v>6886906</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45185.375</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J63">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="K63">
         <v>3.75</v>
       </c>
       <c r="L63">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M63">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N63">
         <v>3.8</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P63">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q63">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
         <v>2.75</v>
       </c>
       <c r="T63">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V63">
         <v>-1</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5948,85 +5951,85 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6886911</v>
+        <v>6884527</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J64">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="K64">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L64">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="M64">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N64">
         <v>4.2</v>
       </c>
       <c r="O64">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="P64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R64">
+        <v>1.925</v>
+      </c>
+      <c r="S64">
+        <v>3</v>
+      </c>
+      <c r="T64">
+        <v>2</v>
+      </c>
+      <c r="U64">
         <v>1.8</v>
       </c>
-      <c r="S64">
-        <v>2.75</v>
-      </c>
-      <c r="T64">
-        <v>1.925</v>
-      </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
       <c r="V64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6034,22 +6037,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6884527</v>
+        <v>6886911</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6058,61 +6061,61 @@
         <v>48</v>
       </c>
       <c r="J65">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="K65">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="M65">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N65">
         <v>4.2</v>
       </c>
       <c r="O65">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="P65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q65">
+        <v>2</v>
+      </c>
+      <c r="R65">
+        <v>1.8</v>
+      </c>
+      <c r="S65">
+        <v>2.75</v>
+      </c>
+      <c r="T65">
+        <v>1.925</v>
+      </c>
+      <c r="U65">
         <v>1.875</v>
       </c>
-      <c r="R65">
-        <v>1.925</v>
-      </c>
-      <c r="S65">
-        <v>3</v>
-      </c>
-      <c r="T65">
-        <v>2</v>
-      </c>
-      <c r="U65">
-        <v>1.8</v>
-      </c>
       <c r="V65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W65">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB65">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6123,16 +6126,16 @@
         <v>6886910</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45192.375</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6141,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J66">
         <v>1.85</v>
@@ -6209,16 +6212,16 @@
         <v>6880533</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45192.375</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6227,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6295,16 +6298,16 @@
         <v>6886909</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45192.375</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6313,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>2.05</v>
@@ -6381,13 +6384,13 @@
         <v>6886908</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45192.375</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
         <v>38</v>
@@ -6399,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>3.6</v>
@@ -6467,16 +6470,16 @@
         <v>6885367</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45192.375</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6485,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J70">
         <v>1.6</v>
@@ -6553,16 +6556,16 @@
         <v>6882776</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45192.375</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6571,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <v>1.5</v>
@@ -6639,16 +6642,16 @@
         <v>6884492</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45193.375</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6657,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J72">
         <v>2.75</v>
@@ -6725,16 +6728,16 @@
         <v>6884528</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6743,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <v>3.75</v>
@@ -6811,16 +6814,16 @@
         <v>6886914</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" t="s">
         <v>33</v>
-      </c>
-      <c r="F74" t="s">
-        <v>32</v>
       </c>
       <c r="G74">
         <v>4</v>
@@ -6829,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <v>3.1</v>
@@ -6897,16 +6900,16 @@
         <v>6886915</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45199.375</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6915,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J75">
         <v>3.6</v>
@@ -6983,16 +6986,16 @@
         <v>6886912</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45199.375</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7001,7 +7004,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J76">
         <v>2.3</v>
@@ -7069,16 +7072,16 @@
         <v>6884493</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45199.375</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7087,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J77">
         <v>2.1</v>
@@ -7155,16 +7158,16 @@
         <v>6886916</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45199.375</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7173,7 +7176,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J78">
         <v>2.8</v>
@@ -7241,7 +7244,7 @@
         <v>6880534</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45199.375</v>
@@ -7250,7 +7253,7 @@
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7259,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J79">
         <v>1.727</v>
@@ -7327,16 +7330,16 @@
         <v>6886913</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45201.375</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7345,7 +7348,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J80">
         <v>2.05</v>
@@ -7413,16 +7416,16 @@
         <v>6884494</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45205.60416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7431,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J81">
         <v>1.6</v>
@@ -7499,16 +7502,16 @@
         <v>6886918</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45206.375</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7517,7 +7520,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J82">
         <v>2.5</v>
@@ -7585,16 +7588,16 @@
         <v>6886921</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" t="s">
         <v>31</v>
-      </c>
-      <c r="F83" t="s">
-        <v>30</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7603,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J83">
         <v>1.666</v>
@@ -7671,16 +7674,16 @@
         <v>6886920</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45206.375</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7689,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J84">
         <v>2.875</v>
@@ -7757,13 +7760,13 @@
         <v>6886917</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45206.375</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
         <v>38</v>
@@ -7775,7 +7778,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -7843,16 +7846,16 @@
         <v>6882774</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45206.375</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7861,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -7929,16 +7932,16 @@
         <v>6884529</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45206.375</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7947,7 +7950,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J87">
         <v>1.363</v>
@@ -8015,16 +8018,16 @@
         <v>6885368</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45206.375</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8033,7 +8036,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8101,16 +8104,16 @@
         <v>6886919</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8119,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J89">
         <v>1.727</v>
@@ -8187,16 +8190,16 @@
         <v>6886922</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45212.60416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8205,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>3.3</v>
@@ -8273,16 +8276,16 @@
         <v>6886924</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45212.60416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8291,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J91">
         <v>1.166</v>
@@ -8359,16 +8362,16 @@
         <v>6884495</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45213.375</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8377,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J92">
         <v>1.666</v>
@@ -8445,16 +8448,16 @@
         <v>6880535</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45213.375</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8463,7 +8466,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J93">
         <v>3.2</v>
@@ -8531,16 +8534,16 @@
         <v>6882773</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45213.375</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8549,7 +8552,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>3.2</v>
@@ -8617,16 +8620,16 @@
         <v>6885369</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45213.375</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8635,7 +8638,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8703,7 +8706,7 @@
         <v>6884530</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45213.375</v>
@@ -8712,7 +8715,7 @@
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8721,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8789,16 +8792,16 @@
         <v>6886925</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45213.375</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8807,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J97">
         <v>2.7</v>
@@ -8875,16 +8878,16 @@
         <v>6882772</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8893,7 +8896,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J98">
         <v>2.5</v>
@@ -8961,16 +8964,16 @@
         <v>6886927</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8979,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -9047,16 +9050,16 @@
         <v>6884496</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45220.375</v>
       </c>
       <c r="E100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9065,7 +9068,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J100">
         <v>6</v>
@@ -9133,16 +9136,16 @@
         <v>6886926</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45220.375</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G101">
         <v>5</v>
@@ -9151,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J101">
         <v>1.285</v>
@@ -9219,16 +9222,16 @@
         <v>6885370</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45220.375</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102">
         <v>4</v>
@@ -9237,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J102">
         <v>1.666</v>
@@ -9305,16 +9308,16 @@
         <v>6886928</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45220.375</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9323,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J103">
         <v>1.5</v>
@@ -9391,16 +9394,16 @@
         <v>6880536</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45220.375</v>
       </c>
       <c r="E104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9409,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J104">
         <v>2.625</v>
@@ -9477,16 +9480,16 @@
         <v>6886929</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45221.375</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9495,7 +9498,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J105">
         <v>1.444</v>
@@ -9563,16 +9566,16 @@
         <v>7343038</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45224.4375</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9581,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J106">
         <v>2.25</v>
@@ -9649,16 +9652,16 @@
         <v>6886934</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45226.58333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9667,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J107">
         <v>2.75</v>
@@ -9735,16 +9738,16 @@
         <v>6884531</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9753,7 +9756,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J108">
         <v>3.75</v>
@@ -9821,16 +9824,16 @@
         <v>6886932</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9839,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>2.3</v>
@@ -9907,16 +9910,16 @@
         <v>6886931</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45227.375</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9925,7 +9928,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9993,16 +9996,16 @@
         <v>6885371</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45227.375</v>
       </c>
       <c r="E111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10011,7 +10014,7 @@
         <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>5</v>
@@ -10079,16 +10082,16 @@
         <v>6882771</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45227.375</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10097,7 +10100,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J112">
         <v>3.1</v>
@@ -10165,16 +10168,16 @@
         <v>6884497</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45227.375</v>
       </c>
       <c r="E113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10183,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J113">
         <v>1.615</v>
@@ -10251,16 +10254,16 @@
         <v>6880537</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45227.375</v>
       </c>
       <c r="E114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" t="s">
         <v>42</v>
-      </c>
-      <c r="F114" t="s">
-        <v>41</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10269,7 +10272,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J114">
         <v>9</v>
@@ -10337,7 +10340,7 @@
         <v>6886933</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45228.41666666666</v>
@@ -10346,7 +10349,7 @@
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10355,7 +10358,7 @@
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J115">
         <v>2.1</v>
@@ -10423,16 +10426,16 @@
         <v>6885372</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45233.64583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10441,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <v>1.6</v>
@@ -10509,16 +10512,16 @@
         <v>6880538</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10527,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -10595,16 +10598,16 @@
         <v>6882770</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10613,7 +10616,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J118">
         <v>1.4</v>
@@ -10681,16 +10684,16 @@
         <v>6886935</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10699,7 +10702,7 @@
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J119">
         <v>1.166</v>
@@ -10767,16 +10770,16 @@
         <v>6886939</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10785,7 +10788,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J120">
         <v>1.444</v>
@@ -10853,16 +10856,16 @@
         <v>6884532</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10871,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J121">
         <v>2.2</v>
@@ -10939,13 +10942,13 @@
         <v>6886938</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
         <v>38</v>
@@ -10957,7 +10960,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J122">
         <v>2.5</v>
@@ -11025,16 +11028,16 @@
         <v>6886937</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11043,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J123">
         <v>1.363</v>
@@ -11111,16 +11114,16 @@
         <v>6886936</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11129,7 +11132,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J124">
         <v>1.6</v>
@@ -11197,16 +11200,16 @@
         <v>6886941</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11215,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J125">
         <v>3.5</v>
@@ -11283,16 +11286,16 @@
         <v>6885373</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11301,7 +11304,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J126">
         <v>3.3</v>
@@ -11369,16 +11372,16 @@
         <v>6884498</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11387,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J127">
         <v>1.571</v>
@@ -11455,16 +11458,16 @@
         <v>6882769</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11473,7 +11476,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J128">
         <v>2.1</v>
@@ -11541,16 +11544,16 @@
         <v>6886940</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G129">
         <v>4</v>
@@ -11559,7 +11562,7 @@
         <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J129">
         <v>1.615</v>
@@ -11627,16 +11630,16 @@
         <v>6880539</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E130" t="s">
+        <v>42</v>
+      </c>
+      <c r="F130" t="s">
         <v>41</v>
-      </c>
-      <c r="F130" t="s">
-        <v>40</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11645,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J130">
         <v>1.909</v>
@@ -11713,16 +11716,16 @@
         <v>6884533</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11731,7 +11734,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J131">
         <v>7.5</v>
@@ -11799,7 +11802,7 @@
         <v>6886942</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45241.41666666666</v>
@@ -11808,7 +11811,7 @@
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11817,7 +11820,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J132">
         <v>2.1</v>
@@ -11885,13 +11888,13 @@
         <v>6886945</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
         <v>38</v>
@@ -11903,7 +11906,7 @@
         <v>5</v>
       </c>
       <c r="I133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>2.75</v>
@@ -11971,16 +11974,16 @@
         <v>6880540</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11989,7 +11992,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J134">
         <v>2.2</v>
@@ -12057,16 +12060,16 @@
         <v>6885374</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E135" t="s">
+        <v>31</v>
+      </c>
+      <c r="F135" t="s">
         <v>30</v>
-      </c>
-      <c r="F135" t="s">
-        <v>29</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12075,7 +12078,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J135">
         <v>1.909</v>
@@ -12143,16 +12146,16 @@
         <v>6886946</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12161,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J136">
         <v>2.1</v>
@@ -12229,16 +12232,16 @@
         <v>6886947</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12247,7 +12250,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J137">
         <v>2.25</v>
@@ -12315,16 +12318,16 @@
         <v>6886948</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12333,7 +12336,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J138">
         <v>1.571</v>
@@ -12401,16 +12404,16 @@
         <v>6882768</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12419,7 +12422,7 @@
         <v>3</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>1.5</v>
@@ -12487,16 +12490,16 @@
         <v>6884499</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12505,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12573,16 +12576,16 @@
         <v>6886944</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45250.625</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12591,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J141">
         <v>1.444</v>
@@ -12659,16 +12662,16 @@
         <v>6886953</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45254.625</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12677,7 +12680,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J142">
         <v>2.05</v>
@@ -12745,16 +12748,16 @@
         <v>6886951</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -12763,7 +12766,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J143">
         <v>3.8</v>
@@ -12831,16 +12834,16 @@
         <v>6884500</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E144" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" t="s">
         <v>29</v>
-      </c>
-      <c r="F144" t="s">
-        <v>28</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12849,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J144">
         <v>3.8</v>
@@ -12917,7 +12920,7 @@
         <v>6886952</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45255.41666666666</v>
@@ -12926,7 +12929,7 @@
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>4</v>
@@ -12935,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13003,16 +13006,16 @@
         <v>6886950</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13021,7 +13024,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J146">
         <v>1.363</v>
@@ -13089,16 +13092,16 @@
         <v>6884534</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E147" t="s">
+        <v>41</v>
+      </c>
+      <c r="F147" t="s">
         <v>40</v>
-      </c>
-      <c r="F147" t="s">
-        <v>39</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13107,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13175,16 +13178,16 @@
         <v>6882767</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13193,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13261,16 +13264,16 @@
         <v>6880541</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13279,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J149">
         <v>1.833</v>
@@ -13347,16 +13350,16 @@
         <v>6886956</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45261.64583333334</v>
       </c>
       <c r="E150" t="s">
+        <v>46</v>
+      </c>
+      <c r="F150" t="s">
         <v>45</v>
-      </c>
-      <c r="F150" t="s">
-        <v>44</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13365,7 +13368,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J150">
         <v>2.05</v>
@@ -13433,16 +13436,16 @@
         <v>6886958</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>3</v>
@@ -13451,7 +13454,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J151">
         <v>1.8</v>
@@ -13519,16 +13522,16 @@
         <v>6884501</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13537,7 +13540,7 @@
         <v>4</v>
       </c>
       <c r="I152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J152">
         <v>2.4</v>
@@ -13605,16 +13608,16 @@
         <v>6880542</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13623,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J153">
         <v>1.95</v>
@@ -13691,7 +13694,7 @@
         <v>6886954</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45262.41666666666</v>
@@ -13700,7 +13703,7 @@
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13709,7 +13712,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J154">
         <v>1.444</v>
@@ -13777,16 +13780,16 @@
         <v>6886962</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -13795,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J155">
         <v>2.15</v>
@@ -13863,16 +13866,16 @@
         <v>6886961</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13881,7 +13884,7 @@
         <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J156">
         <v>1.8</v>
@@ -13949,16 +13952,16 @@
         <v>6884535</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13967,7 +13970,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J157">
         <v>2.55</v>
@@ -14035,16 +14038,16 @@
         <v>6880543</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14053,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J158">
         <v>3.6</v>
@@ -14121,16 +14124,16 @@
         <v>6884502</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14139,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J159">
         <v>1.25</v>
@@ -14207,16 +14210,16 @@
         <v>6886959</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45270.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14225,7 +14228,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J160">
         <v>1.222</v>
@@ -14293,16 +14296,16 @@
         <v>7572927</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45318.41666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -14311,7 +14314,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J161">
         <v>1.666</v>
@@ -14379,16 +14382,16 @@
         <v>7691492</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45318.41666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14397,7 +14400,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J162">
         <v>1.833</v>
@@ -14465,13 +14468,13 @@
         <v>7691491</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45318.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F163" t="s">
         <v>38</v>
@@ -14483,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J163">
         <v>3.75</v>
@@ -14551,7 +14554,7 @@
         <v>6886967</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45324.64583333334</v>
@@ -14560,7 +14563,7 @@
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14569,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J164">
         <v>1.333</v>
@@ -14637,16 +14640,16 @@
         <v>6880544</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14655,7 +14658,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J165">
         <v>2</v>
@@ -14723,16 +14726,16 @@
         <v>6884503</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14741,7 +14744,7 @@
         <v>4</v>
       </c>
       <c r="I166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J166">
         <v>3.1</v>
@@ -14809,16 +14812,16 @@
         <v>6882764</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14827,7 +14830,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J167">
         <v>1.666</v>
@@ -14895,16 +14898,16 @@
         <v>6886963</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14913,7 +14916,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J168">
         <v>2.05</v>
@@ -14981,16 +14984,16 @@
         <v>6886966</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -14999,7 +15002,7 @@
         <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J169">
         <v>2.1</v>
@@ -15067,16 +15070,16 @@
         <v>6884536</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15085,7 +15088,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J170">
         <v>1.666</v>
@@ -15153,16 +15156,16 @@
         <v>6886964</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45326.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15171,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J171">
         <v>1.5</v>
@@ -15239,16 +15242,16 @@
         <v>7691489</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45328.64583333334</v>
       </c>
       <c r="E172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -15257,7 +15260,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J172">
         <v>2.15</v>
@@ -15325,13 +15328,13 @@
         <v>7764092</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45328.64583333334</v>
       </c>
       <c r="E173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F173" t="s">
         <v>38</v>
@@ -15343,7 +15346,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J173">
         <v>4.75</v>
@@ -15411,16 +15414,16 @@
         <v>6886970</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15429,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J174">
         <v>1.833</v>
@@ -15497,16 +15500,16 @@
         <v>6880545</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -15515,7 +15518,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J175">
         <v>4</v>
@@ -15583,16 +15586,16 @@
         <v>6886969</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -15601,7 +15604,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J176">
         <v>3.25</v>
@@ -15669,16 +15672,16 @@
         <v>6882763</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15687,7 +15690,7 @@
         <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J177">
         <v>2.375</v>
@@ -15755,13 +15758,13 @@
         <v>6884504</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D178" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F178" t="s">
         <v>38</v>
@@ -15773,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>1.727</v>
@@ -15841,16 +15844,16 @@
         <v>6884537</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D179" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15859,7 +15862,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J179">
         <v>2.2</v>
@@ -15927,16 +15930,16 @@
         <v>6885377</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D180" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15945,7 +15948,7 @@
         <v>5</v>
       </c>
       <c r="I180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J180">
         <v>3</v>
@@ -16013,16 +16016,16 @@
         <v>6886968</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16031,7 +16034,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>1.615</v>
@@ -16099,16 +16102,16 @@
         <v>6886971</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D182" s="2">
         <v>45333.41666666666</v>
       </c>
       <c r="E182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16117,7 +16120,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J182">
         <v>2</v>
@@ -16185,16 +16188,16 @@
         <v>7747336</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D183" s="2">
         <v>45335.64583333334</v>
       </c>
       <c r="E183" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16203,7 +16206,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J183">
         <v>3.2</v>
@@ -16271,16 +16274,16 @@
         <v>7691488</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D184" s="2">
         <v>45336.64583333334</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16289,7 +16292,7 @@
         <v>5</v>
       </c>
       <c r="I184" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J184">
         <v>3.8</v>
@@ -16357,16 +16360,16 @@
         <v>6884538</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D185" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G185">
         <v>2</v>
@@ -16375,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J185">
         <v>1.6</v>
@@ -16443,13 +16446,13 @@
         <v>7830688</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D186" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F186" t="s">
         <v>38</v>
@@ -16461,7 +16464,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J186">
         <v>2.6</v>
@@ -16529,16 +16532,16 @@
         <v>6886973</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D187" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -16547,7 +16550,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J187">
         <v>1.4</v>
@@ -16615,16 +16618,16 @@
         <v>6886972</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D188" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16633,7 +16636,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J188">
         <v>2.55</v>
@@ -16701,16 +16704,16 @@
         <v>6885378</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D189" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16719,7 +16722,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J189">
         <v>1.222</v>
@@ -16787,16 +16790,16 @@
         <v>6886974</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D190" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16805,7 +16808,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J190">
         <v>2.6</v>
@@ -16873,16 +16876,16 @@
         <v>6882762</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D191" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16891,7 +16894,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J191">
         <v>1.615</v>
@@ -16959,16 +16962,16 @@
         <v>6886975</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D192" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G192">
         <v>3</v>
@@ -16977,7 +16980,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J192">
         <v>1.6</v>
@@ -17045,16 +17048,16 @@
         <v>6884505</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D193" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F193" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17063,7 +17066,7 @@
         <v>3</v>
       </c>
       <c r="I193" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J193">
         <v>2.7</v>
@@ -17131,16 +17134,16 @@
         <v>6885379</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D194" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G194">
         <v>3</v>
@@ -17149,7 +17152,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J194">
         <v>2.2</v>
@@ -17217,16 +17220,16 @@
         <v>6886980</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D195" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17235,7 +17238,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J195">
         <v>1.909</v>
@@ -17303,16 +17306,16 @@
         <v>6884539</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D196" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17321,7 +17324,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J196">
         <v>4.333</v>
@@ -17389,16 +17392,16 @@
         <v>6882760</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D197" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -17407,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J197">
         <v>1.4</v>
@@ -17475,16 +17478,16 @@
         <v>6880546</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D198" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17493,7 +17496,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J198">
         <v>2.5</v>
@@ -17561,16 +17564,16 @@
         <v>6886978</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D199" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E199" t="s">
+        <v>33</v>
+      </c>
+      <c r="F199" t="s">
         <v>32</v>
-      </c>
-      <c r="F199" t="s">
-        <v>31</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17579,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J199">
         <v>1.727</v>
@@ -17647,16 +17650,16 @@
         <v>6886979</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D200" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E200" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17665,7 +17668,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J200">
         <v>1.909</v>
@@ -17733,16 +17736,16 @@
         <v>6886976</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D201" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17751,7 +17754,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J201">
         <v>4</v>
@@ -17819,7 +17822,7 @@
         <v>6886977</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D202" s="2">
         <v>45347.41666666666</v>
@@ -17828,7 +17831,7 @@
         <v>38</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17837,7 +17840,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J202">
         <v>1.333</v>
@@ -17905,16 +17908,16 @@
         <v>6884506</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D203" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F203" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -17923,7 +17926,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J203">
         <v>3</v>
@@ -17991,16 +17994,16 @@
         <v>6882759</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18009,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J204">
         <v>1.909</v>
@@ -18077,16 +18080,16 @@
         <v>6886981</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D205" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18095,7 +18098,7 @@
         <v>5</v>
       </c>
       <c r="I205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J205">
         <v>1.444</v>
@@ -18163,16 +18166,16 @@
         <v>6886982</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D206" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E206" t="s">
+        <v>35</v>
+      </c>
+      <c r="F206" t="s">
         <v>34</v>
-      </c>
-      <c r="F206" t="s">
-        <v>33</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18181,7 +18184,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J206">
         <v>1.727</v>
@@ -18249,13 +18252,13 @@
         <v>6886984</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D207" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F207" t="s">
         <v>38</v>
@@ -18267,7 +18270,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J207">
         <v>2.1</v>
@@ -18335,16 +18338,16 @@
         <v>6886985</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D208" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -18353,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J208">
         <v>1.85</v>
@@ -18421,16 +18424,16 @@
         <v>6880547</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D209" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E209" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G209">
         <v>4</v>
@@ -18439,7 +18442,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J209">
         <v>1.4</v>
@@ -18507,16 +18510,16 @@
         <v>6884540</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D210" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G210">
         <v>3</v>
@@ -18525,7 +18528,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J210">
         <v>1.8</v>
@@ -18593,16 +18596,16 @@
         <v>6886983</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D211" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18611,7 +18614,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J211">
         <v>2</v>
@@ -18679,16 +18682,16 @@
         <v>7884287</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D212" s="2">
         <v>45357.625</v>
       </c>
       <c r="E212" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18697,7 +18700,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J212">
         <v>1.727</v>
@@ -18765,16 +18768,16 @@
         <v>7919532</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D213" s="2">
         <v>45357.64583333334</v>
       </c>
       <c r="E213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18783,7 +18786,7 @@
         <v>5</v>
       </c>
       <c r="I213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J213">
         <v>3.6</v>
@@ -18851,16 +18854,16 @@
         <v>6885380</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D214" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E214" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18869,7 +18872,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J214">
         <v>3.25</v>
@@ -18937,16 +18940,16 @@
         <v>6884507</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D215" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E215" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18955,7 +18958,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J215">
         <v>1.363</v>
@@ -19023,16 +19026,16 @@
         <v>6882758</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D216" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -19041,7 +19044,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J216">
         <v>3.25</v>
@@ -19109,16 +19112,16 @@
         <v>6886988</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D217" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G217">
         <v>5</v>
@@ -19127,7 +19130,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J217">
         <v>2.8</v>
@@ -19195,16 +19198,16 @@
         <v>6884541</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D218" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F218" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G218">
         <v>3</v>
@@ -19213,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J218">
         <v>3</v>
@@ -19281,7 +19284,7 @@
         <v>6886986</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D219" s="2">
         <v>45360.41666666666</v>
@@ -19290,7 +19293,7 @@
         <v>38</v>
       </c>
       <c r="F219" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19299,7 +19302,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J219">
         <v>1.285</v>
@@ -19367,16 +19370,16 @@
         <v>6886987</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D220" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19385,7 +19388,7 @@
         <v>3</v>
       </c>
       <c r="I220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J220">
         <v>2.1</v>
@@ -19453,16 +19456,16 @@
         <v>6886989</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D221" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E221" t="s">
+        <v>36</v>
+      </c>
+      <c r="F221" t="s">
         <v>35</v>
-      </c>
-      <c r="F221" t="s">
-        <v>34</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19471,7 +19474,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J221">
         <v>1.666</v>
@@ -19539,16 +19542,16 @@
         <v>6880548</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D222" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19557,7 +19560,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J222">
         <v>3</v>
@@ -19625,16 +19628,16 @@
         <v>6886991</v>
       </c>
       <c r="C223" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D223" s="2">
         <v>45366.5625</v>
       </c>
       <c r="E223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -19643,7 +19646,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J223">
         <v>2.15</v>
@@ -19711,16 +19714,16 @@
         <v>6884508</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D224" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E224" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F224" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -19729,7 +19732,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J224">
         <v>3.1</v>
@@ -19797,16 +19800,16 @@
         <v>6886994</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D225" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19815,7 +19818,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J225">
         <v>1.727</v>
@@ -19883,13 +19886,13 @@
         <v>6880549</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D226" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F226" t="s">
         <v>38</v>
@@ -19901,7 +19904,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J226">
         <v>2.1</v>
@@ -19969,16 +19972,16 @@
         <v>6886993</v>
       </c>
       <c r="C227" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D227" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E227" t="s">
+        <v>45</v>
+      </c>
+      <c r="F227" t="s">
         <v>44</v>
-      </c>
-      <c r="F227" t="s">
-        <v>43</v>
       </c>
       <c r="G227">
         <v>4</v>
@@ -19987,7 +19990,7 @@
         <v>1</v>
       </c>
       <c r="I227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J227">
         <v>1.727</v>
@@ -20055,16 +20058,16 @@
         <v>6886992</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D228" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E228" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G228">
         <v>5</v>
@@ -20073,7 +20076,7 @@
         <v>1</v>
       </c>
       <c r="I228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J228">
         <v>1.444</v>
@@ -20141,16 +20144,16 @@
         <v>6886990</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D229" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20159,7 +20162,7 @@
         <v>2</v>
       </c>
       <c r="I229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J229">
         <v>2.05</v>
@@ -20227,16 +20230,16 @@
         <v>6884542</v>
       </c>
       <c r="C230" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D230" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F230" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G230">
         <v>5</v>
@@ -20245,7 +20248,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J230">
         <v>1.333</v>
@@ -20313,16 +20316,16 @@
         <v>6882757</v>
       </c>
       <c r="C231" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D231" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20331,7 +20334,7 @@
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J231">
         <v>2.5</v>
@@ -20399,16 +20402,16 @@
         <v>7796920</v>
       </c>
       <c r="C232" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D232" s="2">
         <v>45374.41666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F232" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20417,7 +20420,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J232">
         <v>2.25</v>
@@ -20485,16 +20488,16 @@
         <v>7796919</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D233" s="2">
         <v>45374.41666666666</v>
       </c>
       <c r="E233" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -20503,7 +20506,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J233">
         <v>1.615</v>
@@ -20571,7 +20574,7 @@
         <v>6886999</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D234" s="2">
         <v>45379.64583333334</v>
@@ -20580,7 +20583,7 @@
         <v>38</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -20589,7 +20592,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J234">
         <v>1.8</v>
@@ -20657,16 +20660,16 @@
         <v>6886998</v>
       </c>
       <c r="C235" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D235" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20675,7 +20678,7 @@
         <v>3</v>
       </c>
       <c r="I235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J235">
         <v>1.85</v>
@@ -20743,16 +20746,16 @@
         <v>6885381</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D236" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E236" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -20761,7 +20764,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J236">
         <v>3.2</v>
@@ -20829,16 +20832,16 @@
         <v>6884543</v>
       </c>
       <c r="C237" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D237" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20847,7 +20850,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J237">
         <v>3.1</v>
@@ -20915,16 +20918,16 @@
         <v>6884509</v>
       </c>
       <c r="C238" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D238" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E238" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -20933,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J238">
         <v>1.833</v>
@@ -21001,16 +21004,16 @@
         <v>6882756</v>
       </c>
       <c r="C239" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D239" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E239" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21019,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J239">
         <v>3.1</v>
@@ -21087,16 +21090,16 @@
         <v>6886995</v>
       </c>
       <c r="C240" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D240" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E240" t="s">
+        <v>44</v>
+      </c>
+      <c r="F240" t="s">
         <v>43</v>
-      </c>
-      <c r="F240" t="s">
-        <v>42</v>
       </c>
       <c r="G240">
         <v>4</v>
@@ -21105,7 +21108,7 @@
         <v>2</v>
       </c>
       <c r="I240" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J240">
         <v>1.727</v>
@@ -21173,16 +21176,16 @@
         <v>6886997</v>
       </c>
       <c r="C241" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D241" s="2">
         <v>45382.375</v>
       </c>
       <c r="E241" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -21191,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J241">
         <v>2.7</v>
@@ -21259,16 +21262,16 @@
         <v>6886996</v>
       </c>
       <c r="C242" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D242" s="2">
         <v>45382.375</v>
       </c>
       <c r="E242" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F242" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -21277,7 +21280,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J242">
         <v>3</v>
@@ -21342,85 +21345,85 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6887001</v>
+        <v>6887000</v>
       </c>
       <c r="C243" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D243" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E243" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I243" t="s">
         <v>47</v>
       </c>
       <c r="J243">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K243">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L243">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M243">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="N243">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O243">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="P243">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q243">
         <v>1.925</v>
       </c>
       <c r="R243">
+        <v>1.925</v>
+      </c>
+      <c r="S243">
+        <v>2.75</v>
+      </c>
+      <c r="T243">
+        <v>1.975</v>
+      </c>
+      <c r="U243">
         <v>1.875</v>
       </c>
-      <c r="S243">
-        <v>2.5</v>
-      </c>
-      <c r="T243">
-        <v>1.8</v>
-      </c>
-      <c r="U243">
-        <v>2</v>
-      </c>
       <c r="V243">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
         <v>0.925</v>
       </c>
-      <c r="Z243">
-        <v>-1</v>
-      </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB243">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="244" spans="1:28">
@@ -21428,85 +21431,85 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6887000</v>
+        <v>6887001</v>
       </c>
       <c r="C244" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D244" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E244" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F244" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
         <v>0</v>
       </c>
-      <c r="H244">
-        <v>3</v>
-      </c>
       <c r="I244" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J244">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K244">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L244">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M244">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="N244">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O244">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="P244">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q244">
         <v>1.925</v>
       </c>
       <c r="R244">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S244">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T244">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U244">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z244">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:28">
@@ -21517,16 +21520,16 @@
         <v>6885382</v>
       </c>
       <c r="C245" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D245" s="2">
         <v>45388.375</v>
       </c>
       <c r="E245" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -21535,7 +21538,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J245">
         <v>1.55</v>
@@ -21603,16 +21606,16 @@
         <v>6887002</v>
       </c>
       <c r="C246" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D246" s="2">
         <v>45388.375</v>
       </c>
       <c r="E246" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F246" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21621,7 +21624,7 @@
         <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J246">
         <v>3.7</v>
@@ -21689,13 +21692,13 @@
         <v>6884544</v>
       </c>
       <c r="C247" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D247" s="2">
         <v>45388.375</v>
       </c>
       <c r="E247" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F247" t="s">
         <v>38</v>
@@ -21707,7 +21710,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J247">
         <v>2.2</v>
@@ -21775,16 +21778,16 @@
         <v>6884510</v>
       </c>
       <c r="C248" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D248" s="2">
         <v>45388.375</v>
       </c>
       <c r="E248" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F248" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21793,7 +21796,7 @@
         <v>2</v>
       </c>
       <c r="I248" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J248">
         <v>4</v>
@@ -21861,16 +21864,16 @@
         <v>6882755</v>
       </c>
       <c r="C249" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D249" s="2">
         <v>45388.375</v>
       </c>
       <c r="E249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F249" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -21879,7 +21882,7 @@
         <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J249">
         <v>1.95</v>
@@ -21947,16 +21950,16 @@
         <v>6887003</v>
       </c>
       <c r="C250" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D250" s="2">
         <v>45388.375</v>
       </c>
       <c r="E250" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G250">
         <v>4</v>
@@ -21965,7 +21968,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J250">
         <v>2.25</v>
@@ -22033,16 +22036,16 @@
         <v>6880550</v>
       </c>
       <c r="C251" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D251" s="2">
         <v>45388.375</v>
       </c>
       <c r="E251" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -22051,7 +22054,7 @@
         <v>2</v>
       </c>
       <c r="I251" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J251">
         <v>2.05</v>
@@ -22119,16 +22122,16 @@
         <v>6885383</v>
       </c>
       <c r="C252" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D252" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E252" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -22137,7 +22140,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J252">
         <v>3.7</v>
@@ -22205,7 +22208,7 @@
         <v>6887017</v>
       </c>
       <c r="C253" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D253" s="2">
         <v>45395.375</v>
@@ -22214,7 +22217,7 @@
         <v>38</v>
       </c>
       <c r="F253" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -22223,7 +22226,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J253">
         <v>1.615</v>
@@ -22291,16 +22294,16 @@
         <v>6887009</v>
       </c>
       <c r="C254" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D254" s="2">
         <v>45395.375</v>
       </c>
       <c r="E254" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F254" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22309,7 +22312,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J254">
         <v>2.55</v>
@@ -22377,16 +22380,16 @@
         <v>6887006</v>
       </c>
       <c r="C255" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D255" s="2">
         <v>45395.375</v>
       </c>
       <c r="E255" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F255" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G255">
         <v>3</v>
@@ -22395,7 +22398,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J255">
         <v>2.6</v>
@@ -22463,16 +22466,16 @@
         <v>6887004</v>
       </c>
       <c r="C256" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D256" s="2">
         <v>45395.375</v>
       </c>
       <c r="E256" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F256" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -22481,7 +22484,7 @@
         <v>1</v>
       </c>
       <c r="I256" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J256">
         <v>1.75</v>
@@ -22549,16 +22552,16 @@
         <v>6887007</v>
       </c>
       <c r="C257" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D257" s="2">
         <v>45395.375</v>
       </c>
       <c r="E257" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F257" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22567,7 +22570,7 @@
         <v>5</v>
       </c>
       <c r="I257" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J257">
         <v>2.6</v>
@@ -22635,16 +22638,16 @@
         <v>6887008</v>
       </c>
       <c r="C258" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D258" s="2">
         <v>45395.375</v>
       </c>
       <c r="E258" t="s">
+        <v>40</v>
+      </c>
+      <c r="F258" t="s">
         <v>39</v>
-      </c>
-      <c r="F258" t="s">
-        <v>37</v>
       </c>
       <c r="G258">
         <v>3</v>
@@ -22653,7 +22656,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J258">
         <v>1.285</v>
@@ -22721,16 +22724,16 @@
         <v>6884511</v>
       </c>
       <c r="C259" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D259" s="2">
         <v>45395.375</v>
       </c>
       <c r="E259" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F259" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G259">
         <v>3</v>
@@ -22739,7 +22742,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J259">
         <v>1.181</v>
@@ -22807,16 +22810,16 @@
         <v>6887005</v>
       </c>
       <c r="C260" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D260" s="2">
         <v>45397.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F260" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G260">
         <v>4</v>
@@ -22825,7 +22828,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J260">
         <v>1.6</v>
@@ -22893,16 +22896,16 @@
         <v>6887014</v>
       </c>
       <c r="C261" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D261" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E261" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F261" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G261">
         <v>2</v>
@@ -22911,7 +22914,7 @@
         <v>3</v>
       </c>
       <c r="I261" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J261">
         <v>1.833</v>
@@ -22979,13 +22982,13 @@
         <v>6957351</v>
       </c>
       <c r="C262" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D262" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F262" t="s">
         <v>38</v>
@@ -22997,7 +23000,7 @@
         <v>1</v>
       </c>
       <c r="I262" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J262">
         <v>1.8</v>
@@ -23065,16 +23068,16 @@
         <v>6887010</v>
       </c>
       <c r="C263" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D263" s="2">
         <v>45402.375</v>
       </c>
       <c r="E263" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F263" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -23083,7 +23086,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J263">
         <v>5</v>
@@ -23151,16 +23154,16 @@
         <v>6887011</v>
       </c>
       <c r="C264" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D264" s="2">
         <v>45402.375</v>
       </c>
       <c r="E264" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F264" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G264">
         <v>5</v>
@@ -23169,7 +23172,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J264">
         <v>1.666</v>
@@ -23237,16 +23240,16 @@
         <v>6887012</v>
       </c>
       <c r="C265" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D265" s="2">
         <v>45402.375</v>
       </c>
       <c r="E265" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F265" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -23255,7 +23258,7 @@
         <v>2</v>
       </c>
       <c r="I265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J265">
         <v>2.3</v>
@@ -23323,16 +23326,16 @@
         <v>6957316</v>
       </c>
       <c r="C266" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D266" s="2">
         <v>45402.375</v>
       </c>
       <c r="E266" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F266" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -23341,7 +23344,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J266">
         <v>1.85</v>
@@ -23409,16 +23412,16 @@
         <v>6887015</v>
       </c>
       <c r="C267" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D267" s="2">
         <v>45402.375</v>
       </c>
       <c r="E267" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F267" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -23427,7 +23430,7 @@
         <v>3</v>
       </c>
       <c r="I267" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J267">
         <v>1.533</v>
@@ -23495,16 +23498,16 @@
         <v>6990143</v>
       </c>
       <c r="C268" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D268" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F268" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G268">
         <v>2</v>
@@ -23513,7 +23516,7 @@
         <v>1</v>
       </c>
       <c r="I268" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J268">
         <v>2.25</v>
@@ -23581,16 +23584,16 @@
         <v>6960502</v>
       </c>
       <c r="C269" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D269" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E269" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G269">
         <v>2</v>
@@ -23599,7 +23602,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J269">
         <v>1.85</v>
@@ -23667,16 +23670,16 @@
         <v>6993877</v>
       </c>
       <c r="C270" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D270" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E270" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F270" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23685,7 +23688,7 @@
         <v>3</v>
       </c>
       <c r="I270" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J270">
         <v>2.6</v>
@@ -23753,16 +23756,16 @@
         <v>6990142</v>
       </c>
       <c r="C271" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D271" s="2">
         <v>45409.375</v>
       </c>
       <c r="E271" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F271" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -23771,7 +23774,7 @@
         <v>2</v>
       </c>
       <c r="I271" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J271">
         <v>1.363</v>
@@ -23839,16 +23842,16 @@
         <v>6993875</v>
       </c>
       <c r="C272" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D272" s="2">
         <v>45409.375</v>
       </c>
       <c r="E272" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F272" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -23857,7 +23860,7 @@
         <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J272">
         <v>1.533</v>
@@ -23925,16 +23928,16 @@
         <v>6993874</v>
       </c>
       <c r="C273" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D273" s="2">
         <v>45409.375</v>
       </c>
       <c r="E273" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F273" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -23943,7 +23946,7 @@
         <v>2</v>
       </c>
       <c r="I273" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J273">
         <v>3.4</v>
@@ -24011,7 +24014,7 @@
         <v>6993873</v>
       </c>
       <c r="C274" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D274" s="2">
         <v>45409.375</v>
@@ -24020,7 +24023,7 @@
         <v>38</v>
       </c>
       <c r="F274" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -24029,7 +24032,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J274">
         <v>2</v>
@@ -24097,16 +24100,16 @@
         <v>6993878</v>
       </c>
       <c r="C275" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D275" s="2">
         <v>45410.375</v>
       </c>
       <c r="E275" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F275" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -24115,7 +24118,7 @@
         <v>3</v>
       </c>
       <c r="I275" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J275">
         <v>2.1</v>
@@ -24172,6 +24175,71 @@
         <v>0</v>
       </c>
       <c r="AB275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:28">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" s="2">
+        <v>45415.60416666666</v>
+      </c>
+      <c r="E276" t="s">
+        <v>33</v>
+      </c>
+      <c r="F276" t="s">
+        <v>39</v>
+      </c>
+      <c r="J276">
+        <v>2</v>
+      </c>
+      <c r="K276">
+        <v>4</v>
+      </c>
+      <c r="L276">
+        <v>2.75</v>
+      </c>
+      <c r="M276">
+        <v>1.571</v>
+      </c>
+      <c r="N276">
+        <v>4.2</v>
+      </c>
+      <c r="O276">
+        <v>4.2</v>
+      </c>
+      <c r="P276">
+        <v>-1</v>
+      </c>
+      <c r="Q276">
+        <v>2.025</v>
+      </c>
+      <c r="R276">
+        <v>1.825</v>
+      </c>
+      <c r="S276">
+        <v>2.75</v>
+      </c>
+      <c r="T276">
+        <v>1.9</v>
+      </c>
+      <c r="U276">
+        <v>1.95</v>
+      </c>
+      <c r="V276">
+        <v>0</v>
+      </c>
+      <c r="W276">
+        <v>0</v>
+      </c>
+      <c r="X276">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,25 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7023708</t>
+    <t>7020763</t>
+  </si>
+  <si>
+    <t>7020764</t>
+  </si>
+  <si>
+    <t>7020766</t>
+  </si>
+  <si>
+    <t>7023706</t>
+  </si>
+  <si>
+    <t>7023707</t>
+  </si>
+  <si>
+    <t>7023709</t>
+  </si>
+  <si>
+    <t>7023710</t>
   </si>
   <si>
     <t>Germany Regionalliga West</t>
@@ -130,10 +148,10 @@
     <t>SV Lippstadt 08</t>
   </si>
   <si>
-    <t>RotWeiss Oberhausen</t>
+    <t>Gutersloh 2000</t>
   </si>
   <si>
-    <t>Gutersloh 2000</t>
+    <t>RotWeiss Oberhausen</t>
   </si>
   <si>
     <t>Wuppertaler</t>
@@ -525,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB276"/>
+  <dimension ref="A1:AB282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +640,16 @@
         <v>6884486</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45135.60416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -640,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -708,16 +726,16 @@
         <v>6885362</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45136.375</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -726,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J3">
         <v>2.15</v>
@@ -794,16 +812,16 @@
         <v>6886876</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45136.375</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -812,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -880,16 +898,16 @@
         <v>6880527</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45136.375</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -898,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>1.9</v>
@@ -966,16 +984,16 @@
         <v>6886879</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45136.375</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -984,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>1.45</v>
@@ -1052,16 +1070,16 @@
         <v>6886877</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45136.375</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1070,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1138,16 +1156,16 @@
         <v>6886880</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45136.375</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1156,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>1.55</v>
@@ -1224,16 +1242,16 @@
         <v>6882784</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45137.375</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1242,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J9">
         <v>2.25</v>
@@ -1310,16 +1328,16 @@
         <v>6884487</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45142.58333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1328,7 +1346,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J10">
         <v>3.1</v>
@@ -1393,19 +1411,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6885363</v>
+        <v>6882783</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45142.60416666666</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1414,61 +1432,61 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J11">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="K11">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="M11">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="N11">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q11">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T11">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V11">
         <v>-1</v>
       </c>
       <c r="W11">
-        <v>3.333</v>
+        <v>2.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z11">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB11">
         <v>-1</v>
@@ -1479,19 +1497,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6882783</v>
+        <v>6885363</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45142.60416666666</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1500,61 +1518,61 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J12">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="K12">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L12">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O12">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="P12">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q12">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
         <v>-1</v>
       </c>
       <c r="W12">
-        <v>2.5</v>
+        <v>3.333</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1568,16 +1586,16 @@
         <v>6884521</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45143.375</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1586,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J13">
         <v>1.75</v>
@@ -1654,16 +1672,16 @@
         <v>6886881</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45143.375</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1672,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>2.35</v>
@@ -1740,16 +1758,16 @@
         <v>6880528</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45143.375</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1758,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -1826,16 +1844,16 @@
         <v>6886882</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45143.375</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1844,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -1912,16 +1930,16 @@
         <v>6886884</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45143.375</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1930,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1998,16 +2016,16 @@
         <v>6886883</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45143.375</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2016,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J18">
         <v>1.55</v>
@@ -2084,16 +2102,16 @@
         <v>6884488</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2102,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J19">
         <v>2.4</v>
@@ -2170,16 +2188,16 @@
         <v>6884522</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2188,7 +2206,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>2.6</v>
@@ -2256,16 +2274,16 @@
         <v>6886888</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45150.375</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2274,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J21">
         <v>1.666</v>
@@ -2342,16 +2360,16 @@
         <v>6886887</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45150.375</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2360,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2428,16 +2446,16 @@
         <v>6886885</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45150.375</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2446,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J23">
         <v>1.95</v>
@@ -2514,16 +2532,16 @@
         <v>6886889</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45150.375</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2532,7 +2550,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>3.75</v>
@@ -2600,16 +2618,16 @@
         <v>7046712</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2618,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J25">
         <v>1.85</v>
@@ -2686,16 +2704,16 @@
         <v>6886886</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45151.375</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2704,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <v>3.25</v>
@@ -2772,16 +2790,16 @@
         <v>7082424</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2790,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J27">
         <v>2.05</v>
@@ -2858,16 +2876,16 @@
         <v>6884489</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -2876,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J28">
         <v>1.909</v>
@@ -2944,16 +2962,16 @@
         <v>6886893</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45157.375</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2962,7 +2980,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J29">
         <v>1.909</v>
@@ -3030,16 +3048,16 @@
         <v>6880530</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45157.375</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3048,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J30">
         <v>2.375</v>
@@ -3116,16 +3134,16 @@
         <v>6886890</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45157.375</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3134,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3202,16 +3220,16 @@
         <v>6886891</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45157.375</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3220,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J32">
         <v>2.9</v>
@@ -3288,16 +3306,16 @@
         <v>6886892</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45157.375</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3306,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J33">
         <v>2.2</v>
@@ -3374,16 +3392,16 @@
         <v>6885364</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45157.375</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3392,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J34">
         <v>2.6</v>
@@ -3460,16 +3478,16 @@
         <v>6884523</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45157.375</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3478,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J35">
         <v>2.25</v>
@@ -3546,16 +3564,16 @@
         <v>6886894</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45163.58333333334</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3564,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J36">
         <v>1.727</v>
@@ -3629,85 +3647,85 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6886895</v>
+        <v>6884490</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>3.8</v>
+      </c>
+      <c r="L37">
+        <v>2.875</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3.75</v>
+      </c>
+      <c r="O37">
         <v>3</v>
       </c>
-      <c r="I37" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37">
-        <v>2.375</v>
-      </c>
-      <c r="K37">
-        <v>3.4</v>
-      </c>
-      <c r="L37">
-        <v>2.5</v>
-      </c>
-      <c r="M37">
-        <v>3.2</v>
-      </c>
-      <c r="N37">
-        <v>3.5</v>
-      </c>
-      <c r="O37">
-        <v>1.95</v>
-      </c>
       <c r="P37">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q37">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
         <v>-1</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3715,85 +3733,85 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6884490</v>
+        <v>6886895</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="K38">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L38">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P38">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q38">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
         <v>-1</v>
       </c>
       <c r="W38">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3804,16 +3822,16 @@
         <v>6885365</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3822,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3890,16 +3908,16 @@
         <v>6882779</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45164.375</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3908,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J40">
         <v>1.444</v>
@@ -3976,16 +3994,16 @@
         <v>6886897</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45164.375</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3994,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J41">
         <v>2.5</v>
@@ -4062,16 +4080,16 @@
         <v>6886896</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45164.375</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4080,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J42">
         <v>1.727</v>
@@ -4148,17 +4166,17 @@
         <v>6884524</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45164.375</v>
       </c>
       <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
         <v>46</v>
       </c>
-      <c r="F43" t="s">
-        <v>40</v>
-      </c>
       <c r="G43">
         <v>2</v>
       </c>
@@ -4166,7 +4184,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J43">
         <v>2.75</v>
@@ -4234,16 +4252,16 @@
         <v>6882780</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45166.60416666666</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -4252,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J44">
         <v>2.4</v>
@@ -4320,16 +4338,16 @@
         <v>6886900</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4338,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4406,16 +4424,16 @@
         <v>6886899</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45171.375</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -4424,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J46">
         <v>1.285</v>
@@ -4492,16 +4510,16 @@
         <v>6886901</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45171.375</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4510,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J47">
         <v>2.4</v>
@@ -4578,16 +4596,16 @@
         <v>6880531</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45171.375</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4596,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J48">
         <v>2.15</v>
@@ -4664,16 +4682,16 @@
         <v>6882778</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45171.375</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4682,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4750,17 +4768,17 @@
         <v>6884525</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45171.375</v>
       </c>
       <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
         <v>40</v>
       </c>
-      <c r="F50" t="s">
-        <v>34</v>
-      </c>
       <c r="G50">
         <v>2</v>
       </c>
@@ -4768,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J50">
         <v>1.25</v>
@@ -4833,49 +4851,49 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6885366</v>
+        <v>6886898</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45171.375</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51">
         <v>3.6</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q51">
         <v>1.85</v>
@@ -4884,7 +4902,7 @@
         <v>1.95</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T51">
         <v>1.975</v>
@@ -4893,7 +4911,7 @@
         <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4908,10 +4926,10 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4919,49 +4937,49 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6886898</v>
+        <v>6885366</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45171.375</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
         <v>36</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K52">
         <v>3.6</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="P52">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>1.85</v>
@@ -4970,7 +4988,7 @@
         <v>1.95</v>
       </c>
       <c r="S52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T52">
         <v>1.975</v>
@@ -4979,7 +4997,7 @@
         <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -4994,10 +5012,10 @@
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5008,16 +5026,16 @@
         <v>6886902</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45172.375</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5026,7 +5044,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -5094,16 +5112,16 @@
         <v>6884526</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45178.375</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5112,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J54">
         <v>3.75</v>
@@ -5180,16 +5198,16 @@
         <v>6882782</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45178.375</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5198,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J55">
         <v>2.15</v>
@@ -5266,16 +5284,16 @@
         <v>6886907</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45184.58333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -5284,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5352,16 +5370,16 @@
         <v>6886904</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5370,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J57">
         <v>2.2</v>
@@ -5438,16 +5456,16 @@
         <v>6880532</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45185.375</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5456,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J58">
         <v>2.7</v>
@@ -5524,16 +5542,16 @@
         <v>6882777</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45185.375</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5542,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J59">
         <v>1.666</v>
@@ -5607,85 +5625,85 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6886903</v>
+        <v>6884491</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45185.375</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J60">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="K60">
         <v>3.75</v>
       </c>
       <c r="L60">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="M60">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N60">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q60">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T60">
         <v>1.875</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5693,67 +5711,67 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6884491</v>
+        <v>6886905</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45185.375</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
         <v>1</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J61">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K61">
         <v>3.75</v>
       </c>
       <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>2.05</v>
+      </c>
+      <c r="N61">
+        <v>3.5</v>
+      </c>
+      <c r="O61">
         <v>2.875</v>
-      </c>
-      <c r="M61">
-        <v>1.95</v>
-      </c>
-      <c r="N61">
-        <v>3.6</v>
-      </c>
-      <c r="O61">
-        <v>3</v>
       </c>
       <c r="P61">
         <v>-0.25</v>
       </c>
       <c r="Q61">
+        <v>1.85</v>
+      </c>
+      <c r="R61">
+        <v>1.95</v>
+      </c>
+      <c r="S61">
+        <v>3.25</v>
+      </c>
+      <c r="T61">
+        <v>1.975</v>
+      </c>
+      <c r="U61">
         <v>1.825</v>
       </c>
-      <c r="R61">
-        <v>1.975</v>
-      </c>
-      <c r="S61">
-        <v>2.5</v>
-      </c>
-      <c r="T61">
-        <v>1.875</v>
-      </c>
-      <c r="U61">
-        <v>1.925</v>
-      </c>
       <c r="V61">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5762,16 +5780,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5779,85 +5797,85 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6886905</v>
+        <v>6886906</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45185.375</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J62">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="K62">
         <v>3.75</v>
       </c>
       <c r="L62">
+        <v>2.5</v>
+      </c>
+      <c r="M62">
+        <v>1.95</v>
+      </c>
+      <c r="N62">
+        <v>3.8</v>
+      </c>
+      <c r="O62">
         <v>3</v>
       </c>
-      <c r="M62">
+      <c r="P62">
+        <v>-0.5</v>
+      </c>
+      <c r="Q62">
+        <v>2.025</v>
+      </c>
+      <c r="R62">
+        <v>1.825</v>
+      </c>
+      <c r="S62">
+        <v>2.75</v>
+      </c>
+      <c r="T62">
+        <v>1.8</v>
+      </c>
+      <c r="U62">
         <v>2.05</v>
       </c>
-      <c r="N62">
-        <v>3.5</v>
-      </c>
-      <c r="O62">
-        <v>2.875</v>
-      </c>
-      <c r="P62">
-        <v>-0.25</v>
-      </c>
-      <c r="Q62">
-        <v>1.85</v>
-      </c>
-      <c r="R62">
-        <v>1.95</v>
-      </c>
-      <c r="S62">
-        <v>3.25</v>
-      </c>
-      <c r="T62">
-        <v>1.975</v>
-      </c>
-      <c r="U62">
-        <v>1.825</v>
-      </c>
       <c r="V62">
+        <v>-1</v>
+      </c>
+      <c r="W62">
+        <v>2.8</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
+        <v>-1</v>
+      </c>
+      <c r="Z62">
+        <v>0.825</v>
+      </c>
+      <c r="AA62">
+        <v>-1</v>
+      </c>
+      <c r="AB62">
         <v>1.05</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z62">
-        <v>-1</v>
-      </c>
-      <c r="AA62">
-        <v>-0.5</v>
-      </c>
-      <c r="AB62">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5865,85 +5883,85 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6886906</v>
+        <v>6886903</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45185.375</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J63">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="K63">
         <v>3.75</v>
       </c>
       <c r="L63">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M63">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N63">
         <v>3.8</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P63">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q63">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
         <v>2.75</v>
       </c>
       <c r="T63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U63">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
         <v>-1</v>
       </c>
       <c r="W63">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5951,85 +5969,85 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6884527</v>
+        <v>6886911</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J64">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="K64">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="M64">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N64">
         <v>4.2</v>
       </c>
       <c r="O64">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="P64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2.75</v>
+      </c>
+      <c r="T64">
+        <v>1.925</v>
+      </c>
+      <c r="U64">
         <v>1.875</v>
       </c>
-      <c r="R64">
-        <v>1.925</v>
-      </c>
-      <c r="S64">
-        <v>3</v>
-      </c>
-      <c r="T64">
-        <v>2</v>
-      </c>
-      <c r="U64">
-        <v>1.8</v>
-      </c>
       <c r="V64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W64">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB64">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6037,85 +6055,85 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6886911</v>
+        <v>6884527</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J65">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="K65">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L65">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="M65">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N65">
         <v>4.2</v>
       </c>
       <c r="O65">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="P65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R65">
+        <v>1.925</v>
+      </c>
+      <c r="S65">
+        <v>3</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
         <v>1.8</v>
       </c>
-      <c r="S65">
-        <v>2.75</v>
-      </c>
-      <c r="T65">
-        <v>1.925</v>
-      </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
       <c r="V65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6126,16 +6144,16 @@
         <v>6886910</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45192.375</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6144,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J66">
         <v>1.85</v>
@@ -6212,16 +6230,16 @@
         <v>6880533</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45192.375</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6230,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6298,16 +6316,16 @@
         <v>6886909</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45192.375</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6316,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J68">
         <v>2.05</v>
@@ -6384,16 +6402,16 @@
         <v>6886908</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45192.375</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6402,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J69">
         <v>3.6</v>
@@ -6470,16 +6488,16 @@
         <v>6885367</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45192.375</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6488,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J70">
         <v>1.6</v>
@@ -6556,16 +6574,16 @@
         <v>6882776</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45192.375</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6574,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J71">
         <v>1.5</v>
@@ -6642,16 +6660,16 @@
         <v>6884492</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45193.375</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6660,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J72">
         <v>2.75</v>
@@ -6728,16 +6746,16 @@
         <v>6884528</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6746,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J73">
         <v>3.75</v>
@@ -6814,16 +6832,16 @@
         <v>6886914</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>4</v>
@@ -6832,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J74">
         <v>3.1</v>
@@ -6900,16 +6918,16 @@
         <v>6886915</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45199.375</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6918,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J75">
         <v>3.6</v>
@@ -6986,16 +7004,16 @@
         <v>6886912</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45199.375</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7004,7 +7022,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>2.3</v>
@@ -7072,16 +7090,16 @@
         <v>6884493</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45199.375</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J77">
         <v>2.1</v>
@@ -7158,16 +7176,16 @@
         <v>6886916</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45199.375</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7176,7 +7194,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J78">
         <v>2.8</v>
@@ -7244,16 +7262,16 @@
         <v>6880534</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45199.375</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7262,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J79">
         <v>1.727</v>
@@ -7330,16 +7348,16 @@
         <v>6886913</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45201.375</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7348,7 +7366,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J80">
         <v>2.05</v>
@@ -7416,16 +7434,16 @@
         <v>6884494</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45205.60416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7434,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J81">
         <v>1.6</v>
@@ -7502,16 +7520,16 @@
         <v>6886918</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45206.375</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7520,7 +7538,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J82">
         <v>2.5</v>
@@ -7588,16 +7606,16 @@
         <v>6886921</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7606,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J83">
         <v>1.666</v>
@@ -7674,16 +7692,16 @@
         <v>6886920</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45206.375</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7692,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J84">
         <v>2.875</v>
@@ -7760,16 +7778,16 @@
         <v>6886917</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45206.375</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7778,7 +7796,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -7846,16 +7864,16 @@
         <v>6882774</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45206.375</v>
       </c>
       <c r="E86" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7864,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -7932,16 +7950,16 @@
         <v>6884529</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45206.375</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7950,7 +7968,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>1.363</v>
@@ -8018,16 +8036,16 @@
         <v>6885368</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45206.375</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8036,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8104,16 +8122,16 @@
         <v>6886919</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8122,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J89">
         <v>1.727</v>
@@ -8190,16 +8208,16 @@
         <v>6886922</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45212.60416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8208,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J90">
         <v>3.3</v>
@@ -8276,16 +8294,16 @@
         <v>6886924</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45212.60416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8294,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J91">
         <v>1.166</v>
@@ -8362,16 +8380,16 @@
         <v>6884495</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45213.375</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8380,7 +8398,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J92">
         <v>1.666</v>
@@ -8448,16 +8466,16 @@
         <v>6880535</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45213.375</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8466,7 +8484,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>3.2</v>
@@ -8534,16 +8552,16 @@
         <v>6882773</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45213.375</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8552,7 +8570,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J94">
         <v>3.2</v>
@@ -8620,16 +8638,16 @@
         <v>6885369</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45213.375</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8638,7 +8656,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8706,16 +8724,16 @@
         <v>6884530</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45213.375</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8724,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8792,16 +8810,16 @@
         <v>6886925</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45213.375</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8810,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J97">
         <v>2.7</v>
@@ -8878,16 +8896,16 @@
         <v>6882772</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8896,7 +8914,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J98">
         <v>2.5</v>
@@ -8964,16 +8982,16 @@
         <v>6886927</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8982,7 +9000,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -9050,16 +9068,16 @@
         <v>6884496</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45220.375</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9068,7 +9086,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J100">
         <v>6</v>
@@ -9136,16 +9154,16 @@
         <v>6886926</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45220.375</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G101">
         <v>5</v>
@@ -9154,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J101">
         <v>1.285</v>
@@ -9222,16 +9240,16 @@
         <v>6885370</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45220.375</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>4</v>
@@ -9240,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J102">
         <v>1.666</v>
@@ -9308,16 +9326,16 @@
         <v>6886928</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45220.375</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9326,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J103">
         <v>1.5</v>
@@ -9394,16 +9412,16 @@
         <v>6880536</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45220.375</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9412,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J104">
         <v>2.625</v>
@@ -9480,16 +9498,16 @@
         <v>6886929</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45221.375</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9498,7 +9516,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J105">
         <v>1.444</v>
@@ -9566,16 +9584,16 @@
         <v>7343038</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45224.4375</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9584,7 +9602,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J106">
         <v>2.25</v>
@@ -9652,16 +9670,16 @@
         <v>6886934</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45226.58333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9670,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J107">
         <v>2.75</v>
@@ -9738,16 +9756,16 @@
         <v>6884531</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9756,7 +9774,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J108">
         <v>3.75</v>
@@ -9824,16 +9842,16 @@
         <v>6886932</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9842,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J109">
         <v>2.3</v>
@@ -9910,16 +9928,16 @@
         <v>6886931</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45227.375</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9928,7 +9946,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9996,16 +10014,16 @@
         <v>6885371</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45227.375</v>
       </c>
       <c r="E111" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10014,7 +10032,7 @@
         <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J111">
         <v>5</v>
@@ -10082,16 +10100,16 @@
         <v>6882771</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45227.375</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10100,7 +10118,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J112">
         <v>3.1</v>
@@ -10168,16 +10186,16 @@
         <v>6884497</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45227.375</v>
       </c>
       <c r="E113" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10186,7 +10204,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J113">
         <v>1.615</v>
@@ -10254,16 +10272,16 @@
         <v>6880537</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45227.375</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10272,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J114">
         <v>9</v>
@@ -10340,16 +10358,16 @@
         <v>6886933</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E115" t="s">
+        <v>45</v>
+      </c>
+      <c r="F115" t="s">
         <v>38</v>
-      </c>
-      <c r="F115" t="s">
-        <v>32</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10358,7 +10376,7 @@
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J115">
         <v>2.1</v>
@@ -10426,16 +10444,16 @@
         <v>6885372</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45233.64583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10444,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J116">
         <v>1.6</v>
@@ -10512,16 +10530,16 @@
         <v>6880538</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10530,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -10598,16 +10616,16 @@
         <v>6882770</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10616,7 +10634,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J118">
         <v>1.4</v>
@@ -10684,16 +10702,16 @@
         <v>6886935</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10702,7 +10720,7 @@
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>1.166</v>
@@ -10770,16 +10788,16 @@
         <v>6886939</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10788,7 +10806,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J120">
         <v>1.444</v>
@@ -10856,16 +10874,16 @@
         <v>6884532</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10874,7 +10892,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J121">
         <v>2.2</v>
@@ -10942,16 +10960,16 @@
         <v>6886938</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10960,7 +10978,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J122">
         <v>2.5</v>
@@ -11028,16 +11046,16 @@
         <v>6886937</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11046,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J123">
         <v>1.363</v>
@@ -11114,16 +11132,16 @@
         <v>6886936</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11132,7 +11150,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J124">
         <v>1.6</v>
@@ -11200,16 +11218,16 @@
         <v>6886941</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11218,7 +11236,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J125">
         <v>3.5</v>
@@ -11286,16 +11304,16 @@
         <v>6885373</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11304,7 +11322,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J126">
         <v>3.3</v>
@@ -11372,16 +11390,16 @@
         <v>6884498</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11390,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J127">
         <v>1.571</v>
@@ -11458,16 +11476,16 @@
         <v>6882769</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E128" t="s">
+        <v>44</v>
+      </c>
+      <c r="F128" t="s">
         <v>39</v>
-      </c>
-      <c r="F128" t="s">
-        <v>33</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11476,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J128">
         <v>2.1</v>
@@ -11544,16 +11562,16 @@
         <v>6886940</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G129">
         <v>4</v>
@@ -11562,7 +11580,7 @@
         <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J129">
         <v>1.615</v>
@@ -11630,16 +11648,16 @@
         <v>6880539</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11648,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J130">
         <v>1.909</v>
@@ -11716,16 +11734,16 @@
         <v>6884533</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11734,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J131">
         <v>7.5</v>
@@ -11802,16 +11820,16 @@
         <v>6886942</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11820,7 +11838,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J132">
         <v>2.1</v>
@@ -11888,16 +11906,16 @@
         <v>6886945</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11906,7 +11924,7 @@
         <v>5</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J133">
         <v>2.75</v>
@@ -11974,16 +11992,16 @@
         <v>6880540</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11992,7 +12010,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J134">
         <v>2.2</v>
@@ -12060,16 +12078,16 @@
         <v>6885374</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12078,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J135">
         <v>1.909</v>
@@ -12146,16 +12164,16 @@
         <v>6886946</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12164,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J136">
         <v>2.1</v>
@@ -12232,16 +12250,16 @@
         <v>6886947</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12250,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J137">
         <v>2.25</v>
@@ -12318,16 +12336,16 @@
         <v>6886948</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12336,7 +12354,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J138">
         <v>1.571</v>
@@ -12404,16 +12422,16 @@
         <v>6882768</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12422,7 +12440,7 @@
         <v>3</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J139">
         <v>1.5</v>
@@ -12490,16 +12508,16 @@
         <v>6884499</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12508,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12576,16 +12594,16 @@
         <v>6886944</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45250.625</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J141">
         <v>1.444</v>
@@ -12662,16 +12680,16 @@
         <v>6886953</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45254.625</v>
       </c>
       <c r="E142" t="s">
+        <v>43</v>
+      </c>
+      <c r="F142" t="s">
         <v>37</v>
-      </c>
-      <c r="F142" t="s">
-        <v>31</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12680,7 +12698,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J142">
         <v>2.05</v>
@@ -12748,16 +12766,16 @@
         <v>6886951</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -12766,7 +12784,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J143">
         <v>3.8</v>
@@ -12834,16 +12852,16 @@
         <v>6884500</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12852,7 +12870,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J144">
         <v>3.8</v>
@@ -12920,16 +12938,16 @@
         <v>6886952</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G145">
         <v>4</v>
@@ -12938,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13006,16 +13024,16 @@
         <v>6886950</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13024,7 +13042,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J146">
         <v>1.363</v>
@@ -13092,16 +13110,16 @@
         <v>6884534</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13110,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13178,16 +13196,16 @@
         <v>6882767</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13196,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13264,16 +13282,16 @@
         <v>6880541</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13282,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J149">
         <v>1.833</v>
@@ -13350,16 +13368,16 @@
         <v>6886956</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45261.64583333334</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13368,7 +13386,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J150">
         <v>2.05</v>
@@ -13436,16 +13454,16 @@
         <v>6886958</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E151" t="s">
+        <v>47</v>
+      </c>
+      <c r="F151" t="s">
         <v>41</v>
-      </c>
-      <c r="F151" t="s">
-        <v>35</v>
       </c>
       <c r="G151">
         <v>3</v>
@@ -13454,7 +13472,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J151">
         <v>1.8</v>
@@ -13522,16 +13540,16 @@
         <v>6884501</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13540,7 +13558,7 @@
         <v>4</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J152">
         <v>2.4</v>
@@ -13608,16 +13626,16 @@
         <v>6880542</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13626,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J153">
         <v>1.95</v>
@@ -13694,16 +13712,16 @@
         <v>6886954</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13712,7 +13730,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J154">
         <v>1.444</v>
@@ -13780,16 +13798,16 @@
         <v>6886962</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -13798,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J155">
         <v>2.15</v>
@@ -13866,16 +13884,16 @@
         <v>6886961</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F156" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13884,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J156">
         <v>1.8</v>
@@ -13952,16 +13970,16 @@
         <v>6884535</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13970,7 +13988,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J157">
         <v>2.55</v>
@@ -14038,16 +14056,16 @@
         <v>6880543</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14056,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J158">
         <v>3.6</v>
@@ -14124,16 +14142,16 @@
         <v>6884502</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14142,7 +14160,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J159">
         <v>1.25</v>
@@ -14210,16 +14228,16 @@
         <v>6886959</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45270.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14228,7 +14246,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J160">
         <v>1.222</v>
@@ -14296,16 +14314,16 @@
         <v>7572927</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45318.41666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -14314,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J161">
         <v>1.666</v>
@@ -14382,16 +14400,16 @@
         <v>7691492</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45318.41666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14400,7 +14418,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J162">
         <v>1.833</v>
@@ -14468,16 +14486,16 @@
         <v>7691491</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45318.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14486,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J163">
         <v>3.75</v>
@@ -14554,16 +14572,16 @@
         <v>6886967</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45324.64583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14572,7 +14590,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J164">
         <v>1.333</v>
@@ -14640,16 +14658,16 @@
         <v>6880544</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14658,7 +14676,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J165">
         <v>2</v>
@@ -14726,16 +14744,16 @@
         <v>6884503</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E166" t="s">
+        <v>41</v>
+      </c>
+      <c r="F166" t="s">
         <v>35</v>
-      </c>
-      <c r="F166" t="s">
-        <v>29</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14744,7 +14762,7 @@
         <v>4</v>
       </c>
       <c r="I166" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J166">
         <v>3.1</v>
@@ -14812,16 +14830,16 @@
         <v>6882764</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14830,7 +14848,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J167">
         <v>1.666</v>
@@ -14898,16 +14916,16 @@
         <v>6886963</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14916,7 +14934,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J168">
         <v>2.05</v>
@@ -14984,16 +15002,16 @@
         <v>6886966</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15002,7 +15020,7 @@
         <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J169">
         <v>2.1</v>
@@ -15070,16 +15088,16 @@
         <v>6884536</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15088,7 +15106,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J170">
         <v>1.666</v>
@@ -15156,16 +15174,16 @@
         <v>6886964</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45326.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15174,7 +15192,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J171">
         <v>1.5</v>
@@ -15242,16 +15260,16 @@
         <v>7691489</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45328.64583333334</v>
       </c>
       <c r="E172" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -15260,7 +15278,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J172">
         <v>2.15</v>
@@ -15328,16 +15346,16 @@
         <v>7764092</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45328.64583333334</v>
       </c>
       <c r="E173" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15346,7 +15364,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J173">
         <v>4.75</v>
@@ -15414,16 +15432,16 @@
         <v>6886970</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15432,7 +15450,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J174">
         <v>1.833</v>
@@ -15500,16 +15518,16 @@
         <v>6880545</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -15518,7 +15536,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J175">
         <v>4</v>
@@ -15586,16 +15604,16 @@
         <v>6886969</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -15604,7 +15622,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J176">
         <v>3.25</v>
@@ -15672,16 +15690,16 @@
         <v>6882763</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15690,7 +15708,7 @@
         <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J177">
         <v>2.375</v>
@@ -15758,16 +15776,16 @@
         <v>6884504</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G178">
         <v>3</v>
@@ -15776,7 +15794,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J178">
         <v>1.727</v>
@@ -15844,16 +15862,16 @@
         <v>6884537</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15862,7 +15880,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J179">
         <v>2.2</v>
@@ -15930,16 +15948,16 @@
         <v>6885377</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15948,7 +15966,7 @@
         <v>5</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J180">
         <v>3</v>
@@ -16016,16 +16034,16 @@
         <v>6886968</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16034,7 +16052,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J181">
         <v>1.615</v>
@@ -16102,16 +16120,16 @@
         <v>6886971</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45333.41666666666</v>
       </c>
       <c r="E182" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16120,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J182">
         <v>2</v>
@@ -16188,16 +16206,16 @@
         <v>7747336</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45335.64583333334</v>
       </c>
       <c r="E183" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16206,7 +16224,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J183">
         <v>3.2</v>
@@ -16274,16 +16292,16 @@
         <v>7691488</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45336.64583333334</v>
       </c>
       <c r="E184" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F184" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16292,7 +16310,7 @@
         <v>5</v>
       </c>
       <c r="I184" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J184">
         <v>3.8</v>
@@ -16360,16 +16378,16 @@
         <v>6884538</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E185" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G185">
         <v>2</v>
@@ -16378,7 +16396,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J185">
         <v>1.6</v>
@@ -16446,16 +16464,16 @@
         <v>7830688</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16464,7 +16482,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J186">
         <v>2.6</v>
@@ -16532,16 +16550,16 @@
         <v>6886973</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -16550,7 +16568,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J187">
         <v>1.4</v>
@@ -16618,16 +16636,16 @@
         <v>6886972</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16636,7 +16654,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J188">
         <v>2.55</v>
@@ -16704,16 +16722,16 @@
         <v>6885378</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16722,7 +16740,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J189">
         <v>1.222</v>
@@ -16790,16 +16808,16 @@
         <v>6886974</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16808,7 +16826,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J190">
         <v>2.6</v>
@@ -16876,16 +16894,16 @@
         <v>6882762</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E191" t="s">
+        <v>48</v>
+      </c>
+      <c r="F191" t="s">
         <v>42</v>
-      </c>
-      <c r="F191" t="s">
-        <v>36</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16894,7 +16912,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J191">
         <v>1.615</v>
@@ -16962,16 +16980,16 @@
         <v>6886975</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G192">
         <v>3</v>
@@ -16980,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J192">
         <v>1.6</v>
@@ -17048,16 +17066,16 @@
         <v>6884505</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17066,7 +17084,7 @@
         <v>3</v>
       </c>
       <c r="I193" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J193">
         <v>2.7</v>
@@ -17134,16 +17152,16 @@
         <v>6885379</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F194" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G194">
         <v>3</v>
@@ -17152,7 +17170,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J194">
         <v>2.2</v>
@@ -17220,16 +17238,16 @@
         <v>6886980</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17238,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J195">
         <v>1.909</v>
@@ -17306,16 +17324,16 @@
         <v>6884539</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17324,7 +17342,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J196">
         <v>4.333</v>
@@ -17392,16 +17410,16 @@
         <v>6882760</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -17410,7 +17428,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J197">
         <v>1.4</v>
@@ -17478,16 +17496,16 @@
         <v>6880546</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17496,7 +17514,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J198">
         <v>2.5</v>
@@ -17564,16 +17582,16 @@
         <v>6886978</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17582,7 +17600,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J199">
         <v>1.727</v>
@@ -17650,16 +17668,16 @@
         <v>6886979</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E200" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17668,7 +17686,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J200">
         <v>1.909</v>
@@ -17736,16 +17754,16 @@
         <v>6886976</v>
       </c>
       <c r="C201" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D201" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17754,7 +17772,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J201">
         <v>4</v>
@@ -17822,16 +17840,16 @@
         <v>6886977</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D202" s="2">
         <v>45347.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F202" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17840,7 +17858,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J202">
         <v>1.333</v>
@@ -17908,16 +17926,16 @@
         <v>6884506</v>
       </c>
       <c r="C203" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -17926,7 +17944,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J203">
         <v>3</v>
@@ -17994,17 +18012,17 @@
         <v>6882759</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D204" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E204" t="s">
+        <v>50</v>
+      </c>
+      <c r="F204" t="s">
         <v>44</v>
       </c>
-      <c r="F204" t="s">
-        <v>39</v>
-      </c>
       <c r="G204">
         <v>2</v>
       </c>
@@ -18012,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J204">
         <v>1.909</v>
@@ -18080,16 +18098,16 @@
         <v>6886981</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D205" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18098,7 +18116,7 @@
         <v>5</v>
       </c>
       <c r="I205" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J205">
         <v>1.444</v>
@@ -18166,16 +18184,16 @@
         <v>6886982</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18184,7 +18202,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J206">
         <v>1.727</v>
@@ -18252,16 +18270,16 @@
         <v>6886984</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D207" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E207" t="s">
+        <v>51</v>
+      </c>
+      <c r="F207" t="s">
         <v>45</v>
-      </c>
-      <c r="F207" t="s">
-        <v>38</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18270,7 +18288,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J207">
         <v>2.1</v>
@@ -18338,16 +18356,16 @@
         <v>6886985</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D208" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E208" t="s">
+        <v>49</v>
+      </c>
+      <c r="F208" t="s">
         <v>43</v>
-      </c>
-      <c r="F208" t="s">
-        <v>37</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -18356,7 +18374,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J208">
         <v>1.85</v>
@@ -18424,16 +18442,16 @@
         <v>6880547</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D209" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G209">
         <v>4</v>
@@ -18442,7 +18460,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J209">
         <v>1.4</v>
@@ -18510,16 +18528,16 @@
         <v>6884540</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D210" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G210">
         <v>3</v>
@@ -18528,7 +18546,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J210">
         <v>1.8</v>
@@ -18596,16 +18614,16 @@
         <v>6886983</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D211" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F211" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18614,7 +18632,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J211">
         <v>2</v>
@@ -18682,16 +18700,16 @@
         <v>7884287</v>
       </c>
       <c r="C212" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D212" s="2">
         <v>45357.625</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18700,7 +18718,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J212">
         <v>1.727</v>
@@ -18768,16 +18786,16 @@
         <v>7919532</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D213" s="2">
         <v>45357.64583333334</v>
       </c>
       <c r="E213" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18786,7 +18804,7 @@
         <v>5</v>
       </c>
       <c r="I213" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J213">
         <v>3.6</v>
@@ -18854,16 +18872,16 @@
         <v>6885380</v>
       </c>
       <c r="C214" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D214" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E214" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18872,7 +18890,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J214">
         <v>3.25</v>
@@ -18940,16 +18958,16 @@
         <v>6884507</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D215" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E215" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18958,7 +18976,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J215">
         <v>1.363</v>
@@ -19026,16 +19044,16 @@
         <v>6882758</v>
       </c>
       <c r="C216" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D216" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F216" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -19044,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J216">
         <v>3.25</v>
@@ -19112,16 +19130,16 @@
         <v>6886988</v>
       </c>
       <c r="C217" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D217" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G217">
         <v>5</v>
@@ -19130,7 +19148,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J217">
         <v>2.8</v>
@@ -19198,16 +19216,16 @@
         <v>6884541</v>
       </c>
       <c r="C218" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D218" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G218">
         <v>3</v>
@@ -19216,7 +19234,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J218">
         <v>3</v>
@@ -19284,16 +19302,16 @@
         <v>6886986</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D219" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F219" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19302,7 +19320,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J219">
         <v>1.285</v>
@@ -19370,16 +19388,16 @@
         <v>6886987</v>
       </c>
       <c r="C220" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D220" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19388,7 +19406,7 @@
         <v>3</v>
       </c>
       <c r="I220" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J220">
         <v>2.1</v>
@@ -19456,16 +19474,16 @@
         <v>6886989</v>
       </c>
       <c r="C221" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D221" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19474,7 +19492,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J221">
         <v>1.666</v>
@@ -19542,16 +19560,16 @@
         <v>6880548</v>
       </c>
       <c r="C222" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D222" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F222" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19560,7 +19578,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J222">
         <v>3</v>
@@ -19628,16 +19646,16 @@
         <v>6886991</v>
       </c>
       <c r="C223" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D223" s="2">
         <v>45366.5625</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -19646,7 +19664,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J223">
         <v>2.15</v>
@@ -19714,16 +19732,16 @@
         <v>6884508</v>
       </c>
       <c r="C224" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D224" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E224" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -19732,7 +19750,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J224">
         <v>3.1</v>
@@ -19800,16 +19818,16 @@
         <v>6886994</v>
       </c>
       <c r="C225" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D225" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19818,7 +19836,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J225">
         <v>1.727</v>
@@ -19886,16 +19904,16 @@
         <v>6880549</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D226" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F226" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -19904,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J226">
         <v>2.1</v>
@@ -19972,16 +19990,16 @@
         <v>6886993</v>
       </c>
       <c r="C227" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D227" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G227">
         <v>4</v>
@@ -19990,7 +20008,7 @@
         <v>1</v>
       </c>
       <c r="I227" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J227">
         <v>1.727</v>
@@ -20058,16 +20076,16 @@
         <v>6886992</v>
       </c>
       <c r="C228" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D228" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E228" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G228">
         <v>5</v>
@@ -20076,7 +20094,7 @@
         <v>1</v>
       </c>
       <c r="I228" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J228">
         <v>1.444</v>
@@ -20144,16 +20162,16 @@
         <v>6886990</v>
       </c>
       <c r="C229" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D229" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20162,7 +20180,7 @@
         <v>2</v>
       </c>
       <c r="I229" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J229">
         <v>2.05</v>
@@ -20230,16 +20248,16 @@
         <v>6884542</v>
       </c>
       <c r="C230" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D230" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G230">
         <v>5</v>
@@ -20248,7 +20266,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J230">
         <v>1.333</v>
@@ -20316,16 +20334,16 @@
         <v>6882757</v>
       </c>
       <c r="C231" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D231" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20334,7 +20352,7 @@
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J231">
         <v>2.5</v>
@@ -20402,16 +20420,16 @@
         <v>7796920</v>
       </c>
       <c r="C232" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D232" s="2">
         <v>45374.41666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20420,7 +20438,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J232">
         <v>2.25</v>
@@ -20488,16 +20506,16 @@
         <v>7796919</v>
       </c>
       <c r="C233" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D233" s="2">
         <v>45374.41666666666</v>
       </c>
       <c r="E233" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F233" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -20506,7 +20524,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J233">
         <v>1.615</v>
@@ -20574,16 +20592,16 @@
         <v>6886999</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D234" s="2">
         <v>45379.64583333334</v>
       </c>
       <c r="E234" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -20592,7 +20610,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J234">
         <v>1.8</v>
@@ -20660,16 +20678,16 @@
         <v>6886998</v>
       </c>
       <c r="C235" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D235" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F235" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20678,7 +20696,7 @@
         <v>3</v>
       </c>
       <c r="I235" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J235">
         <v>1.85</v>
@@ -20746,16 +20764,16 @@
         <v>6885381</v>
       </c>
       <c r="C236" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D236" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E236" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -20764,7 +20782,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J236">
         <v>3.2</v>
@@ -20832,16 +20850,16 @@
         <v>6884543</v>
       </c>
       <c r="C237" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D237" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20850,7 +20868,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J237">
         <v>3.1</v>
@@ -20918,16 +20936,16 @@
         <v>6884509</v>
       </c>
       <c r="C238" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D238" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E238" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F238" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -20936,7 +20954,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J238">
         <v>1.833</v>
@@ -21004,16 +21022,16 @@
         <v>6882756</v>
       </c>
       <c r="C239" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D239" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E239" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F239" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21022,7 +21040,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J239">
         <v>3.1</v>
@@ -21090,16 +21108,16 @@
         <v>6886995</v>
       </c>
       <c r="C240" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D240" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E240" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G240">
         <v>4</v>
@@ -21108,7 +21126,7 @@
         <v>2</v>
       </c>
       <c r="I240" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J240">
         <v>1.727</v>
@@ -21176,16 +21194,16 @@
         <v>6886997</v>
       </c>
       <c r="C241" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D241" s="2">
         <v>45382.375</v>
       </c>
       <c r="E241" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -21194,7 +21212,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J241">
         <v>2.7</v>
@@ -21262,16 +21280,16 @@
         <v>6886996</v>
       </c>
       <c r="C242" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D242" s="2">
         <v>45382.375</v>
       </c>
       <c r="E242" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F242" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -21280,7 +21298,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J242">
         <v>3</v>
@@ -21348,16 +21366,16 @@
         <v>6887000</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D243" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E243" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F243" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -21366,7 +21384,7 @@
         <v>3</v>
       </c>
       <c r="I243" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J243">
         <v>2.05</v>
@@ -21434,16 +21452,16 @@
         <v>6887001</v>
       </c>
       <c r="C244" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D244" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E244" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F244" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21452,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J244">
         <v>1.95</v>
@@ -21520,16 +21538,16 @@
         <v>6885382</v>
       </c>
       <c r="C245" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D245" s="2">
         <v>45388.375</v>
       </c>
       <c r="E245" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -21538,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J245">
         <v>1.55</v>
@@ -21606,16 +21624,16 @@
         <v>6887002</v>
       </c>
       <c r="C246" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D246" s="2">
         <v>45388.375</v>
       </c>
       <c r="E246" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F246" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21624,7 +21642,7 @@
         <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J246">
         <v>3.7</v>
@@ -21692,16 +21710,16 @@
         <v>6884544</v>
       </c>
       <c r="C247" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D247" s="2">
         <v>45388.375</v>
       </c>
       <c r="E247" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21710,7 +21728,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J247">
         <v>2.2</v>
@@ -21778,16 +21796,16 @@
         <v>6884510</v>
       </c>
       <c r="C248" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D248" s="2">
         <v>45388.375</v>
       </c>
       <c r="E248" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F248" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21796,7 +21814,7 @@
         <v>2</v>
       </c>
       <c r="I248" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J248">
         <v>4</v>
@@ -21864,16 +21882,16 @@
         <v>6882755</v>
       </c>
       <c r="C249" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D249" s="2">
         <v>45388.375</v>
       </c>
       <c r="E249" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F249" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -21882,7 +21900,7 @@
         <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J249">
         <v>1.95</v>
@@ -21950,16 +21968,16 @@
         <v>6887003</v>
       </c>
       <c r="C250" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D250" s="2">
         <v>45388.375</v>
       </c>
       <c r="E250" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F250" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G250">
         <v>4</v>
@@ -21968,7 +21986,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J250">
         <v>2.25</v>
@@ -22036,16 +22054,16 @@
         <v>6880550</v>
       </c>
       <c r="C251" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D251" s="2">
         <v>45388.375</v>
       </c>
       <c r="E251" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F251" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -22054,7 +22072,7 @@
         <v>2</v>
       </c>
       <c r="I251" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J251">
         <v>2.05</v>
@@ -22122,16 +22140,16 @@
         <v>6885383</v>
       </c>
       <c r="C252" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D252" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E252" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -22140,7 +22158,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J252">
         <v>3.7</v>
@@ -22208,16 +22226,16 @@
         <v>6887017</v>
       </c>
       <c r="C253" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D253" s="2">
         <v>45395.375</v>
       </c>
       <c r="E253" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F253" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -22226,7 +22244,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J253">
         <v>1.615</v>
@@ -22294,16 +22312,16 @@
         <v>6887009</v>
       </c>
       <c r="C254" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D254" s="2">
         <v>45395.375</v>
       </c>
       <c r="E254" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F254" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22312,7 +22330,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J254">
         <v>2.55</v>
@@ -22380,16 +22398,16 @@
         <v>6887006</v>
       </c>
       <c r="C255" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D255" s="2">
         <v>45395.375</v>
       </c>
       <c r="E255" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F255" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G255">
         <v>3</v>
@@ -22398,7 +22416,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J255">
         <v>2.6</v>
@@ -22466,16 +22484,16 @@
         <v>6887004</v>
       </c>
       <c r="C256" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D256" s="2">
         <v>45395.375</v>
       </c>
       <c r="E256" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F256" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -22484,7 +22502,7 @@
         <v>1</v>
       </c>
       <c r="I256" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J256">
         <v>1.75</v>
@@ -22552,16 +22570,16 @@
         <v>6887007</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D257" s="2">
         <v>45395.375</v>
       </c>
       <c r="E257" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F257" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22570,7 +22588,7 @@
         <v>5</v>
       </c>
       <c r="I257" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J257">
         <v>2.6</v>
@@ -22638,16 +22656,16 @@
         <v>6887008</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D258" s="2">
         <v>45395.375</v>
       </c>
       <c r="E258" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F258" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G258">
         <v>3</v>
@@ -22656,7 +22674,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J258">
         <v>1.285</v>
@@ -22724,16 +22742,16 @@
         <v>6884511</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D259" s="2">
         <v>45395.375</v>
       </c>
       <c r="E259" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F259" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G259">
         <v>3</v>
@@ -22742,7 +22760,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J259">
         <v>1.181</v>
@@ -22810,16 +22828,16 @@
         <v>6887005</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D260" s="2">
         <v>45397.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G260">
         <v>4</v>
@@ -22828,7 +22846,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J260">
         <v>1.6</v>
@@ -22896,16 +22914,16 @@
         <v>6887014</v>
       </c>
       <c r="C261" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D261" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E261" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G261">
         <v>2</v>
@@ -22914,7 +22932,7 @@
         <v>3</v>
       </c>
       <c r="I261" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J261">
         <v>1.833</v>
@@ -22982,16 +23000,16 @@
         <v>6957351</v>
       </c>
       <c r="C262" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D262" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F262" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -23000,7 +23018,7 @@
         <v>1</v>
       </c>
       <c r="I262" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J262">
         <v>1.8</v>
@@ -23068,16 +23086,16 @@
         <v>6887010</v>
       </c>
       <c r="C263" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D263" s="2">
         <v>45402.375</v>
       </c>
       <c r="E263" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F263" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -23086,7 +23104,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J263">
         <v>5</v>
@@ -23154,16 +23172,16 @@
         <v>6887011</v>
       </c>
       <c r="C264" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D264" s="2">
         <v>45402.375</v>
       </c>
       <c r="E264" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F264" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G264">
         <v>5</v>
@@ -23172,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J264">
         <v>1.666</v>
@@ -23240,16 +23258,16 @@
         <v>6887012</v>
       </c>
       <c r="C265" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D265" s="2">
         <v>45402.375</v>
       </c>
       <c r="E265" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -23258,7 +23276,7 @@
         <v>2</v>
       </c>
       <c r="I265" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J265">
         <v>2.3</v>
@@ -23326,16 +23344,16 @@
         <v>6957316</v>
       </c>
       <c r="C266" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D266" s="2">
         <v>45402.375</v>
       </c>
       <c r="E266" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F266" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -23344,7 +23362,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J266">
         <v>1.85</v>
@@ -23412,16 +23430,16 @@
         <v>6887015</v>
       </c>
       <c r="C267" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D267" s="2">
         <v>45402.375</v>
       </c>
       <c r="E267" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F267" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -23430,7 +23448,7 @@
         <v>3</v>
       </c>
       <c r="I267" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J267">
         <v>1.533</v>
@@ -23495,16 +23513,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6990143</v>
+        <v>6960502</v>
       </c>
       <c r="C268" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D268" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F268" t="s">
         <v>40</v>
@@ -23516,46 +23534,46 @@
         <v>1</v>
       </c>
       <c r="I268" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J268">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="K268">
         <v>3.6</v>
       </c>
       <c r="L268">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M268">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="N268">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O268">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="P268">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q268">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R268">
         <v>1.825</v>
       </c>
       <c r="S268">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T268">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U268">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V268">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -23564,16 +23582,16 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA268">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AB268">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:28">
@@ -23581,19 +23599,19 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6960502</v>
+        <v>6990143</v>
       </c>
       <c r="C269" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D269" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E269" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G269">
         <v>2</v>
@@ -23602,46 +23620,46 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J269">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="K269">
         <v>3.6</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M269">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="N269">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O269">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="P269">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q269">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R269">
         <v>1.825</v>
       </c>
       <c r="S269">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T269">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U269">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V269">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="W269">
         <v>-1</v>
@@ -23650,16 +23668,16 @@
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z269">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB269">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="270" spans="1:28">
@@ -23670,16 +23688,16 @@
         <v>6993877</v>
       </c>
       <c r="C270" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D270" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E270" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F270" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23688,7 +23706,7 @@
         <v>3</v>
       </c>
       <c r="I270" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J270">
         <v>2.6</v>
@@ -23756,16 +23774,16 @@
         <v>6990142</v>
       </c>
       <c r="C271" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D271" s="2">
         <v>45409.375</v>
       </c>
       <c r="E271" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F271" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -23774,7 +23792,7 @@
         <v>2</v>
       </c>
       <c r="I271" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J271">
         <v>1.363</v>
@@ -23842,16 +23860,16 @@
         <v>6993875</v>
       </c>
       <c r="C272" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D272" s="2">
         <v>45409.375</v>
       </c>
       <c r="E272" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -23860,7 +23878,7 @@
         <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J272">
         <v>1.533</v>
@@ -23928,16 +23946,16 @@
         <v>6993874</v>
       </c>
       <c r="C273" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D273" s="2">
         <v>45409.375</v>
       </c>
       <c r="E273" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F273" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -23946,7 +23964,7 @@
         <v>2</v>
       </c>
       <c r="I273" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J273">
         <v>3.4</v>
@@ -24014,16 +24032,16 @@
         <v>6993873</v>
       </c>
       <c r="C274" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D274" s="2">
         <v>45409.375</v>
       </c>
       <c r="E274" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F274" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -24032,7 +24050,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J274">
         <v>2</v>
@@ -24100,16 +24118,16 @@
         <v>6993878</v>
       </c>
       <c r="C275" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D275" s="2">
         <v>45410.375</v>
       </c>
       <c r="E275" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F275" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -24118,7 +24136,7 @@
         <v>3</v>
       </c>
       <c r="I275" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J275">
         <v>2.1</v>
@@ -24186,60 +24204,450 @@
         <v>27</v>
       </c>
       <c r="C276" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D276" s="2">
-        <v>45415.60416666666</v>
+        <v>45416.375</v>
       </c>
       <c r="E276" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J276">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="K276">
         <v>4</v>
       </c>
       <c r="L276">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M276">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N276">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O276">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="P276">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q276">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R276">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
         <v>2.75</v>
       </c>
       <c r="T276">
+        <v>1.8</v>
+      </c>
+      <c r="U276">
+        <v>2.05</v>
+      </c>
+      <c r="V276">
+        <v>0</v>
+      </c>
+      <c r="W276">
+        <v>0</v>
+      </c>
+      <c r="X276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:28">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>28</v>
+      </c>
+      <c r="C277" t="s">
+        <v>34</v>
+      </c>
+      <c r="D277" s="2">
+        <v>45416.375</v>
+      </c>
+      <c r="E277" t="s">
+        <v>40</v>
+      </c>
+      <c r="F277" t="s">
+        <v>43</v>
+      </c>
+      <c r="J277">
+        <v>2.3</v>
+      </c>
+      <c r="K277">
+        <v>4</v>
+      </c>
+      <c r="L277">
+        <v>2.3</v>
+      </c>
+      <c r="M277">
+        <v>2.6</v>
+      </c>
+      <c r="N277">
+        <v>4.2</v>
+      </c>
+      <c r="O277">
+        <v>2.05</v>
+      </c>
+      <c r="P277">
+        <v>0.25</v>
+      </c>
+      <c r="Q277">
         <v>1.9</v>
       </c>
-      <c r="U276">
+      <c r="R277">
         <v>1.95</v>
       </c>
-      <c r="V276">
-        <v>0</v>
-      </c>
-      <c r="W276">
-        <v>0</v>
-      </c>
-      <c r="X276">
+      <c r="S277">
+        <v>2.75</v>
+      </c>
+      <c r="T277">
+        <v>1.8</v>
+      </c>
+      <c r="U277">
+        <v>2.05</v>
+      </c>
+      <c r="V277">
+        <v>0</v>
+      </c>
+      <c r="W277">
+        <v>0</v>
+      </c>
+      <c r="X277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:28">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>29</v>
+      </c>
+      <c r="C278" t="s">
+        <v>34</v>
+      </c>
+      <c r="D278" s="2">
+        <v>45416.375</v>
+      </c>
+      <c r="E278" t="s">
+        <v>37</v>
+      </c>
+      <c r="F278" t="s">
+        <v>35</v>
+      </c>
+      <c r="J278">
+        <v>2.5</v>
+      </c>
+      <c r="K278">
+        <v>4</v>
+      </c>
+      <c r="L278">
+        <v>2.15</v>
+      </c>
+      <c r="M278">
+        <v>2.7</v>
+      </c>
+      <c r="N278">
+        <v>4</v>
+      </c>
+      <c r="O278">
+        <v>2.05</v>
+      </c>
+      <c r="P278">
+        <v>0.25</v>
+      </c>
+      <c r="Q278">
+        <v>1.9</v>
+      </c>
+      <c r="R278">
+        <v>1.95</v>
+      </c>
+      <c r="S278">
+        <v>2.75</v>
+      </c>
+      <c r="T278">
+        <v>1.85</v>
+      </c>
+      <c r="U278">
+        <v>2</v>
+      </c>
+      <c r="V278">
+        <v>0</v>
+      </c>
+      <c r="W278">
+        <v>0</v>
+      </c>
+      <c r="X278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:28">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>30</v>
+      </c>
+      <c r="C279" t="s">
+        <v>34</v>
+      </c>
+      <c r="D279" s="2">
+        <v>45416.375</v>
+      </c>
+      <c r="E279" t="s">
+        <v>41</v>
+      </c>
+      <c r="F279" t="s">
+        <v>51</v>
+      </c>
+      <c r="J279">
+        <v>2.25</v>
+      </c>
+      <c r="K279">
+        <v>3.75</v>
+      </c>
+      <c r="L279">
+        <v>2.5</v>
+      </c>
+      <c r="M279">
+        <v>2.45</v>
+      </c>
+      <c r="N279">
+        <v>3.6</v>
+      </c>
+      <c r="O279">
+        <v>2.375</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+      <c r="Q279">
+        <v>1.975</v>
+      </c>
+      <c r="R279">
+        <v>1.875</v>
+      </c>
+      <c r="S279">
+        <v>3</v>
+      </c>
+      <c r="T279">
+        <v>2.025</v>
+      </c>
+      <c r="U279">
+        <v>1.825</v>
+      </c>
+      <c r="V279">
+        <v>0</v>
+      </c>
+      <c r="W279">
+        <v>0</v>
+      </c>
+      <c r="X279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:28">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>31</v>
+      </c>
+      <c r="C280" t="s">
+        <v>34</v>
+      </c>
+      <c r="D280" s="2">
+        <v>45416.375</v>
+      </c>
+      <c r="E280" t="s">
+        <v>38</v>
+      </c>
+      <c r="F280" t="s">
+        <v>50</v>
+      </c>
+      <c r="J280">
+        <v>1.615</v>
+      </c>
+      <c r="K280">
+        <v>4</v>
+      </c>
+      <c r="L280">
+        <v>4</v>
+      </c>
+      <c r="M280">
+        <v>1.6</v>
+      </c>
+      <c r="N280">
+        <v>4</v>
+      </c>
+      <c r="O280">
+        <v>4</v>
+      </c>
+      <c r="P280">
+        <v>-0.75</v>
+      </c>
+      <c r="Q280">
+        <v>1.825</v>
+      </c>
+      <c r="R280">
+        <v>2.025</v>
+      </c>
+      <c r="S280">
+        <v>3</v>
+      </c>
+      <c r="T280">
+        <v>1.85</v>
+      </c>
+      <c r="U280">
+        <v>2</v>
+      </c>
+      <c r="V280">
+        <v>0</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:28">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>32</v>
+      </c>
+      <c r="C281" t="s">
+        <v>34</v>
+      </c>
+      <c r="D281" s="2">
+        <v>45416.375</v>
+      </c>
+      <c r="E281" t="s">
+        <v>47</v>
+      </c>
+      <c r="F281" t="s">
+        <v>48</v>
+      </c>
+      <c r="J281">
+        <v>2.7</v>
+      </c>
+      <c r="K281">
+        <v>3.75</v>
+      </c>
+      <c r="L281">
+        <v>2.1</v>
+      </c>
+      <c r="M281">
+        <v>2.2</v>
+      </c>
+      <c r="N281">
+        <v>3.6</v>
+      </c>
+      <c r="O281">
+        <v>2.55</v>
+      </c>
+      <c r="P281">
+        <v>-0.25</v>
+      </c>
+      <c r="Q281">
+        <v>2.05</v>
+      </c>
+      <c r="R281">
+        <v>1.8</v>
+      </c>
+      <c r="S281">
+        <v>3</v>
+      </c>
+      <c r="T281">
+        <v>2.05</v>
+      </c>
+      <c r="U281">
+        <v>1.8</v>
+      </c>
+      <c r="V281">
+        <v>0</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:28">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>33</v>
+      </c>
+      <c r="C282" t="s">
+        <v>34</v>
+      </c>
+      <c r="D282" s="2">
+        <v>45416.375</v>
+      </c>
+      <c r="E282" t="s">
+        <v>46</v>
+      </c>
+      <c r="F282" t="s">
+        <v>49</v>
+      </c>
+      <c r="J282">
+        <v>1.444</v>
+      </c>
+      <c r="K282">
+        <v>4.5</v>
+      </c>
+      <c r="L282">
+        <v>5</v>
+      </c>
+      <c r="M282">
+        <v>1.3</v>
+      </c>
+      <c r="N282">
+        <v>5.25</v>
+      </c>
+      <c r="O282">
+        <v>6.5</v>
+      </c>
+      <c r="P282">
+        <v>-1.5</v>
+      </c>
+      <c r="Q282">
+        <v>1.85</v>
+      </c>
+      <c r="R282">
+        <v>2</v>
+      </c>
+      <c r="S282">
+        <v>3.5</v>
+      </c>
+      <c r="T282">
+        <v>1.875</v>
+      </c>
+      <c r="U282">
+        <v>1.975</v>
+      </c>
+      <c r="V282">
+        <v>0</v>
+      </c>
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8139739</t>
   </si>
   <si>
     <t>Germany Regionalliga West</t>
@@ -525,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB285"/>
+  <dimension ref="A1:AB284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +619,16 @@
         <v>6884486</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45135.60416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -640,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -708,16 +705,16 @@
         <v>6880527</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45136.375</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -726,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3">
         <v>1.9</v>
@@ -794,16 +791,16 @@
         <v>6886876</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45136.375</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -812,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -880,16 +877,16 @@
         <v>6886877</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45136.375</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -898,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>2.05</v>
@@ -966,16 +963,16 @@
         <v>6886879</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45136.375</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -984,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <v>1.45</v>
@@ -1052,16 +1049,16 @@
         <v>6886880</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45136.375</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1070,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>1.55</v>
@@ -1138,16 +1135,16 @@
         <v>6885362</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45136.375</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1156,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>2.15</v>
@@ -1224,16 +1221,16 @@
         <v>6882784</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45137.375</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1242,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>2.25</v>
@@ -1310,16 +1307,16 @@
         <v>6884487</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45142.58333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1328,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>3.1</v>
@@ -1396,16 +1393,16 @@
         <v>6885363</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45142.60416666666</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1414,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>1.7</v>
@@ -1482,16 +1479,16 @@
         <v>6882783</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45142.60416666666</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1500,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>2.4</v>
@@ -1568,16 +1565,16 @@
         <v>6880528</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45143.375</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1586,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -1654,16 +1651,16 @@
         <v>6886884</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45143.375</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1672,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1740,16 +1737,16 @@
         <v>6884521</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45143.375</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1758,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15">
         <v>1.75</v>
@@ -1826,16 +1823,16 @@
         <v>6886881</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45143.375</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1844,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>2.35</v>
@@ -1912,16 +1909,16 @@
         <v>6886883</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45143.375</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1930,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17">
         <v>1.55</v>
@@ -1998,16 +1995,16 @@
         <v>6886882</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45143.375</v>
       </c>
       <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
         <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>46</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2016,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18">
         <v>2.3</v>
@@ -2084,16 +2081,16 @@
         <v>6884522</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2102,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19">
         <v>2.6</v>
@@ -2170,16 +2167,16 @@
         <v>6884488</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2188,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>2.4</v>
@@ -2256,16 +2253,16 @@
         <v>6886885</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45150.375</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2274,7 +2271,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J21">
         <v>1.95</v>
@@ -2342,16 +2339,16 @@
         <v>6886887</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45150.375</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2360,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2428,16 +2425,16 @@
         <v>6886888</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45150.375</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2446,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J23">
         <v>1.666</v>
@@ -2514,16 +2511,16 @@
         <v>6886889</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45150.375</v>
       </c>
       <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
         <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>38</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2532,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24">
         <v>3.75</v>
@@ -2600,16 +2597,16 @@
         <v>7046712</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2618,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25">
         <v>1.85</v>
@@ -2686,16 +2683,16 @@
         <v>6886886</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45151.375</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2704,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26">
         <v>3.25</v>
@@ -2772,16 +2769,16 @@
         <v>6884489</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -2790,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J27">
         <v>1.909</v>
@@ -2858,16 +2855,16 @@
         <v>7082424</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2876,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J28">
         <v>2.05</v>
@@ -2944,16 +2941,16 @@
         <v>6886893</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45157.375</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2962,7 +2959,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J29">
         <v>1.909</v>
@@ -3030,16 +3027,16 @@
         <v>6886892</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45157.375</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3048,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J30">
         <v>2.2</v>
@@ -3116,16 +3113,16 @@
         <v>6886891</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45157.375</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3134,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3202,16 +3199,16 @@
         <v>6886890</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45157.375</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3220,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>2.1</v>
@@ -3288,16 +3285,16 @@
         <v>6885364</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45157.375</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3306,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J33">
         <v>2.6</v>
@@ -3374,16 +3371,16 @@
         <v>6884523</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45157.375</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3392,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34">
         <v>2.25</v>
@@ -3460,16 +3457,16 @@
         <v>6880530</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45157.375</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3478,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J35">
         <v>2.375</v>
@@ -3546,16 +3543,16 @@
         <v>6886894</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45163.58333333334</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3564,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>1.727</v>
@@ -3632,16 +3629,16 @@
         <v>6885365</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3650,7 +3647,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J37">
         <v>2.5</v>
@@ -3718,16 +3715,16 @@
         <v>6884490</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
         <v>29</v>
-      </c>
-      <c r="F38" t="s">
-        <v>30</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3736,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3804,16 +3801,16 @@
         <v>6886895</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3822,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>2.375</v>
@@ -3890,16 +3887,16 @@
         <v>6886896</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45164.375</v>
       </c>
       <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
         <v>33</v>
-      </c>
-      <c r="F40" t="s">
-        <v>34</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3908,7 +3905,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3976,16 +3973,16 @@
         <v>6884524</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45164.375</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3994,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>2.75</v>
@@ -4062,16 +4059,16 @@
         <v>6882779</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45164.375</v>
       </c>
       <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s">
         <v>38</v>
-      </c>
-      <c r="F42" t="s">
-        <v>39</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4080,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>1.444</v>
@@ -4148,16 +4145,16 @@
         <v>6886897</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45164.375</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4166,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>2.5</v>
@@ -4234,16 +4231,16 @@
         <v>6882780</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45166.60416666666</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -4252,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>2.4</v>
@@ -4320,16 +4317,16 @@
         <v>6886900</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4338,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4406,16 +4403,16 @@
         <v>6882778</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45171.375</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4424,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>2.25</v>
@@ -4492,16 +4489,16 @@
         <v>6884525</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45171.375</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4510,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>1.25</v>
@@ -4578,16 +4575,16 @@
         <v>6885366</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45171.375</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4596,7 +4593,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J48">
         <v>3</v>
@@ -4664,16 +4661,16 @@
         <v>6886898</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45171.375</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4682,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4750,16 +4747,16 @@
         <v>6880531</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45171.375</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4768,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J50">
         <v>2.15</v>
@@ -4836,16 +4833,16 @@
         <v>6886899</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45171.375</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -4854,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J51">
         <v>1.285</v>
@@ -4922,16 +4919,16 @@
         <v>6886901</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45171.375</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4940,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J52">
         <v>2.4</v>
@@ -5008,16 +5005,16 @@
         <v>6886902</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45172.375</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5026,7 +5023,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -5094,16 +5091,16 @@
         <v>6882782</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45178.375</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5112,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J54">
         <v>2.15</v>
@@ -5180,16 +5177,16 @@
         <v>6884526</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45178.375</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -5198,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J55">
         <v>3.75</v>
@@ -5266,16 +5263,16 @@
         <v>6886907</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45184.58333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -5284,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5352,16 +5349,16 @@
         <v>6886904</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5370,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J57">
         <v>2.2</v>
@@ -5438,16 +5435,16 @@
         <v>6886906</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45185.375</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5456,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>2.25</v>
@@ -5524,16 +5521,16 @@
         <v>6886903</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45185.375</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5542,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J59">
         <v>2.7</v>
@@ -5610,16 +5607,16 @@
         <v>6880532</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45185.375</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5628,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J60">
         <v>2.7</v>
@@ -5696,16 +5693,16 @@
         <v>6882777</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45185.375</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5714,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J61">
         <v>1.666</v>
@@ -5782,16 +5779,16 @@
         <v>6886905</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45185.375</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5800,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J62">
         <v>1.95</v>
@@ -5868,16 +5865,16 @@
         <v>6884491</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45185.375</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5886,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -5954,16 +5951,16 @@
         <v>6886911</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5972,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64">
         <v>2.25</v>
@@ -6040,16 +6037,16 @@
         <v>6884527</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6058,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J65">
         <v>1.45</v>
@@ -6126,16 +6123,16 @@
         <v>6880533</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45192.375</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6144,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J66">
         <v>1.8</v>
@@ -6212,16 +6209,16 @@
         <v>6882776</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45192.375</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6230,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J67">
         <v>1.5</v>
@@ -6298,16 +6295,16 @@
         <v>6886908</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45192.375</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6316,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>3.6</v>
@@ -6384,16 +6381,16 @@
         <v>6885367</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45192.375</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>4</v>
@@ -6402,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J69">
         <v>1.6</v>
@@ -6470,16 +6467,16 @@
         <v>6886909</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45192.375</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6488,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6556,16 +6553,16 @@
         <v>6886910</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45192.375</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6574,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>1.85</v>
@@ -6642,16 +6639,16 @@
         <v>6884492</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45193.375</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6660,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J72">
         <v>2.75</v>
@@ -6728,16 +6725,16 @@
         <v>6886914</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E73" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" t="s">
         <v>32</v>
-      </c>
-      <c r="F73" t="s">
-        <v>33</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -6746,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J73">
         <v>3.1</v>
@@ -6814,16 +6811,16 @@
         <v>6884528</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6832,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J74">
         <v>3.75</v>
@@ -6900,16 +6897,16 @@
         <v>6884493</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45199.375</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6918,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J75">
         <v>2.1</v>
@@ -6986,16 +6983,16 @@
         <v>6886916</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45199.375</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7004,7 +7001,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J76">
         <v>2.8</v>
@@ -7072,16 +7069,16 @@
         <v>6886915</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45199.375</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J77">
         <v>3.6</v>
@@ -7158,16 +7155,16 @@
         <v>6886912</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45199.375</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7176,7 +7173,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J78">
         <v>2.3</v>
@@ -7244,16 +7241,16 @@
         <v>6880534</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45199.375</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7262,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J79">
         <v>1.727</v>
@@ -7330,16 +7327,16 @@
         <v>6886913</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45201.375</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7348,7 +7345,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J80">
         <v>2.05</v>
@@ -7416,16 +7413,16 @@
         <v>6884494</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45205.60416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7434,7 +7431,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J81">
         <v>1.6</v>
@@ -7502,16 +7499,16 @@
         <v>6885368</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45206.375</v>
       </c>
       <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" t="s">
         <v>34</v>
-      </c>
-      <c r="F82" t="s">
-        <v>35</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7520,7 +7517,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J82">
         <v>1.833</v>
@@ -7588,16 +7585,16 @@
         <v>6886917</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7606,7 +7603,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J83">
         <v>1.909</v>
@@ -7674,16 +7671,16 @@
         <v>6882774</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45206.375</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7692,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -7760,16 +7757,16 @@
         <v>6886918</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45206.375</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7778,7 +7775,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J85">
         <v>2.5</v>
@@ -7846,16 +7843,16 @@
         <v>6884529</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45206.375</v>
       </c>
       <c r="E86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7864,7 +7861,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J86">
         <v>1.363</v>
@@ -7932,16 +7929,16 @@
         <v>6886921</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45206.375</v>
       </c>
       <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" t="s">
         <v>30</v>
-      </c>
-      <c r="F87" t="s">
-        <v>31</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7950,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J87">
         <v>1.666</v>
@@ -8018,16 +8015,16 @@
         <v>6886920</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45206.375</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8036,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J88">
         <v>2.875</v>
@@ -8104,16 +8101,16 @@
         <v>6886919</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8122,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J89">
         <v>1.727</v>
@@ -8190,16 +8187,16 @@
         <v>6886922</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45212.60416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8208,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J90">
         <v>3.3</v>
@@ -8276,16 +8273,16 @@
         <v>6886924</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45212.60416666666</v>
       </c>
       <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
         <v>44</v>
-      </c>
-      <c r="F91" t="s">
-        <v>45</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8294,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J91">
         <v>1.166</v>
@@ -8362,16 +8359,16 @@
         <v>6884530</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45213.375</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8380,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J92">
         <v>1.833</v>
@@ -8448,16 +8445,16 @@
         <v>6885369</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45213.375</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8466,7 +8463,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J93">
         <v>3</v>
@@ -8534,16 +8531,16 @@
         <v>6884495</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45213.375</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8552,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>1.666</v>
@@ -8620,16 +8617,16 @@
         <v>6882773</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45213.375</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8638,7 +8635,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J95">
         <v>3.2</v>
@@ -8706,16 +8703,16 @@
         <v>6880535</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45213.375</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8724,7 +8721,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J96">
         <v>3.2</v>
@@ -8792,16 +8789,16 @@
         <v>6886925</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45213.375</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8810,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J97">
         <v>2.7</v>
@@ -8878,16 +8875,16 @@
         <v>6886927</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>3</v>
@@ -8896,7 +8893,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J98">
         <v>3</v>
@@ -8964,16 +8961,16 @@
         <v>6882772</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8982,7 +8979,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J99">
         <v>2.5</v>
@@ -9050,16 +9047,16 @@
         <v>6884496</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45220.375</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9068,7 +9065,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J100">
         <v>6</v>
@@ -9136,16 +9133,16 @@
         <v>6880536</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45220.375</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9154,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J101">
         <v>2.625</v>
@@ -9222,16 +9219,16 @@
         <v>6886928</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45220.375</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9240,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J102">
         <v>1.5</v>
@@ -9308,16 +9305,16 @@
         <v>6886926</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45220.375</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103">
         <v>5</v>
@@ -9326,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J103">
         <v>1.285</v>
@@ -9394,16 +9391,16 @@
         <v>6885370</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45220.375</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>4</v>
@@ -9412,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J104">
         <v>1.666</v>
@@ -9480,16 +9477,16 @@
         <v>6886929</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45221.375</v>
       </c>
       <c r="E105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9498,7 +9495,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J105">
         <v>1.444</v>
@@ -9566,16 +9563,16 @@
         <v>7343038</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45224.4375</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9584,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J106">
         <v>2.25</v>
@@ -9652,16 +9649,16 @@
         <v>6886934</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45226.58333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9670,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J107">
         <v>2.75</v>
@@ -9738,16 +9735,16 @@
         <v>6884531</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E108" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108" t="s">
         <v>41</v>
-      </c>
-      <c r="F108" t="s">
-        <v>42</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9756,7 +9753,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J108">
         <v>3.75</v>
@@ -9824,16 +9821,16 @@
         <v>6886932</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9842,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J109">
         <v>2.3</v>
@@ -9910,16 +9907,16 @@
         <v>6884497</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45227.375</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9928,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J110">
         <v>1.615</v>
@@ -9996,16 +9993,16 @@
         <v>6885371</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45227.375</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10014,7 +10011,7 @@
         <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J111">
         <v>5</v>
@@ -10082,16 +10079,16 @@
         <v>6882771</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45227.375</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10100,7 +10097,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>3.1</v>
@@ -10168,16 +10165,16 @@
         <v>6880537</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45227.375</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10186,7 +10183,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J113">
         <v>9</v>
@@ -10254,16 +10251,16 @@
         <v>6886931</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45227.375</v>
       </c>
       <c r="E114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" t="s">
         <v>31</v>
-      </c>
-      <c r="F114" t="s">
-        <v>32</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10272,7 +10269,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J114">
         <v>2.1</v>
@@ -10340,16 +10337,16 @@
         <v>6886933</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10358,7 +10355,7 @@
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J115">
         <v>2.1</v>
@@ -10426,16 +10423,16 @@
         <v>6885372</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45233.64583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10444,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J116">
         <v>1.6</v>
@@ -10512,16 +10509,16 @@
         <v>6880538</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10530,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -10598,16 +10595,16 @@
         <v>6886936</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10616,7 +10613,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J118">
         <v>1.6</v>
@@ -10684,16 +10681,16 @@
         <v>6886937</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10702,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J119">
         <v>1.363</v>
@@ -10770,16 +10767,16 @@
         <v>6886938</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10788,7 +10785,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J120">
         <v>2.5</v>
@@ -10856,16 +10853,16 @@
         <v>6886935</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10874,7 +10871,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J121">
         <v>1.166</v>
@@ -10942,16 +10939,16 @@
         <v>6882770</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10960,7 +10957,7 @@
         <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J122">
         <v>1.4</v>
@@ -11028,16 +11025,16 @@
         <v>6884532</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11046,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J123">
         <v>2.2</v>
@@ -11114,16 +11111,16 @@
         <v>6886939</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45234.41666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11132,7 +11129,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <v>1.444</v>
@@ -11200,16 +11197,16 @@
         <v>6882769</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11218,7 +11215,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J125">
         <v>2.1</v>
@@ -11286,17 +11283,17 @@
         <v>6885373</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E126" t="s">
+        <v>34</v>
+      </c>
+      <c r="F126" t="s">
         <v>35</v>
       </c>
-      <c r="F126" t="s">
-        <v>36</v>
-      </c>
       <c r="G126">
         <v>2</v>
       </c>
@@ -11304,7 +11301,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J126">
         <v>3.3</v>
@@ -11372,16 +11369,16 @@
         <v>6884498</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11390,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J127">
         <v>1.571</v>
@@ -11458,16 +11455,16 @@
         <v>6886941</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11476,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J128">
         <v>3.5</v>
@@ -11544,16 +11541,16 @@
         <v>6886940</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>4</v>
@@ -11562,7 +11559,7 @@
         <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J129">
         <v>1.615</v>
@@ -11630,16 +11627,16 @@
         <v>6886942</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11648,7 +11645,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J130">
         <v>2.1</v>
@@ -11716,16 +11713,16 @@
         <v>6884533</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11734,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J131">
         <v>7.5</v>
@@ -11802,16 +11799,16 @@
         <v>6880539</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11820,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J132">
         <v>1.909</v>
@@ -11888,16 +11885,16 @@
         <v>6886948</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11906,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>1.571</v>
@@ -11974,16 +11971,16 @@
         <v>6886947</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11992,7 +11989,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J134">
         <v>2.25</v>
@@ -12060,16 +12057,16 @@
         <v>6886945</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12078,7 +12075,7 @@
         <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J135">
         <v>2.75</v>
@@ -12146,16 +12143,16 @@
         <v>6884499</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12164,7 +12161,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J136">
         <v>2.1</v>
@@ -12232,16 +12229,16 @@
         <v>6882768</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -12250,7 +12247,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J137">
         <v>1.5</v>
@@ -12318,16 +12315,16 @@
         <v>6886946</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12336,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J138">
         <v>2.1</v>
@@ -12404,16 +12401,16 @@
         <v>6880540</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12422,7 +12419,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J139">
         <v>2.2</v>
@@ -12490,16 +12487,16 @@
         <v>6885374</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45248.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12508,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J140">
         <v>1.909</v>
@@ -12576,16 +12573,16 @@
         <v>6886944</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45250.625</v>
       </c>
       <c r="E141" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" t="s">
         <v>36</v>
-      </c>
-      <c r="F141" t="s">
-        <v>37</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12591,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J141">
         <v>1.444</v>
@@ -12662,16 +12659,16 @@
         <v>6886953</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45254.625</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12680,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J142">
         <v>2.05</v>
@@ -12748,16 +12745,16 @@
         <v>6886951</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -12766,7 +12763,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J143">
         <v>3.8</v>
@@ -12834,16 +12831,16 @@
         <v>6884500</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12852,7 +12849,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J144">
         <v>3.8</v>
@@ -12920,16 +12917,16 @@
         <v>6886952</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>4</v>
@@ -12938,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13006,16 +13003,16 @@
         <v>6886950</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13024,7 +13021,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J146">
         <v>1.363</v>
@@ -13092,16 +13089,16 @@
         <v>6884534</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13110,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13178,16 +13175,16 @@
         <v>6882767</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13196,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13264,16 +13261,16 @@
         <v>6880541</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13282,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J149">
         <v>1.833</v>
@@ -13350,16 +13347,16 @@
         <v>6886956</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45261.64583333334</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13368,7 +13365,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J150">
         <v>2.05</v>
@@ -13436,16 +13433,16 @@
         <v>6886958</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>3</v>
@@ -13454,7 +13451,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J151">
         <v>1.8</v>
@@ -13522,16 +13519,16 @@
         <v>6880542</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13540,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J152">
         <v>1.95</v>
@@ -13608,16 +13605,16 @@
         <v>6884501</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13626,7 +13623,7 @@
         <v>4</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J153">
         <v>2.4</v>
@@ -13694,16 +13691,16 @@
         <v>6886954</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13712,7 +13709,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J154">
         <v>1.444</v>
@@ -13780,16 +13777,16 @@
         <v>6886962</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -13798,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J155">
         <v>2.15</v>
@@ -13866,16 +13863,16 @@
         <v>6886961</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13884,7 +13881,7 @@
         <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J156">
         <v>1.8</v>
@@ -13952,16 +13949,16 @@
         <v>6880543</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13970,7 +13967,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J157">
         <v>3.6</v>
@@ -14038,16 +14035,16 @@
         <v>6884535</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14056,7 +14053,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J158">
         <v>2.55</v>
@@ -14124,16 +14121,16 @@
         <v>6884502</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14142,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J159">
         <v>1.25</v>
@@ -14210,16 +14207,16 @@
         <v>6886959</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45270.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14228,7 +14225,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J160">
         <v>1.222</v>
@@ -14296,16 +14293,16 @@
         <v>7572927</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45318.41666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -14314,7 +14311,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J161">
         <v>1.666</v>
@@ -14382,16 +14379,16 @@
         <v>7691492</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45318.41666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14400,7 +14397,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J162">
         <v>1.833</v>
@@ -14468,16 +14465,16 @@
         <v>7691491</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45318.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14486,7 +14483,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J163">
         <v>3.75</v>
@@ -14554,16 +14551,16 @@
         <v>6886967</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45324.64583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14572,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J164">
         <v>1.333</v>
@@ -14640,16 +14637,16 @@
         <v>6882764</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14658,7 +14655,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J165">
         <v>1.666</v>
@@ -14726,16 +14723,16 @@
         <v>6880544</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14744,7 +14741,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J166">
         <v>2</v>
@@ -14812,16 +14809,16 @@
         <v>6886966</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14830,7 +14827,7 @@
         <v>3</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J167">
         <v>2.1</v>
@@ -14898,16 +14895,16 @@
         <v>6884503</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14916,7 +14913,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J168">
         <v>3.1</v>
@@ -14984,16 +14981,16 @@
         <v>6884536</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G169">
         <v>3</v>
@@ -15002,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J169">
         <v>1.666</v>
@@ -15070,16 +15067,16 @@
         <v>6886963</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45325.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -15088,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J170">
         <v>2.05</v>
@@ -15156,16 +15153,16 @@
         <v>6886964</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45326.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15174,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J171">
         <v>1.5</v>
@@ -15242,16 +15239,16 @@
         <v>7691489</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45328.64583333334</v>
       </c>
       <c r="E172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -15260,7 +15257,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J172">
         <v>2.15</v>
@@ -15328,16 +15325,16 @@
         <v>7764092</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45328.64583333334</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15346,7 +15343,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J173">
         <v>4.75</v>
@@ -15414,16 +15411,16 @@
         <v>6885377</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -15432,7 +15429,7 @@
         <v>5</v>
       </c>
       <c r="I174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J174">
         <v>3</v>
@@ -15500,16 +15497,16 @@
         <v>6880545</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -15518,7 +15515,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J175">
         <v>4</v>
@@ -15586,16 +15583,16 @@
         <v>6886969</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -15604,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J176">
         <v>3.25</v>
@@ -15672,16 +15669,16 @@
         <v>6886970</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15690,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J177">
         <v>1.833</v>
@@ -15758,16 +15755,16 @@
         <v>6886968</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15776,7 +15773,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>1.615</v>
@@ -15844,16 +15841,16 @@
         <v>6882763</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15862,7 +15859,7 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J179">
         <v>2.375</v>
@@ -15930,16 +15927,16 @@
         <v>6884537</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15948,7 +15945,7 @@
         <v>4</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J180">
         <v>2.2</v>
@@ -16016,16 +16013,16 @@
         <v>6884504</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G181">
         <v>3</v>
@@ -16034,7 +16031,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J181">
         <v>1.727</v>
@@ -16102,16 +16099,16 @@
         <v>6886971</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45333.41666666666</v>
       </c>
       <c r="E182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16120,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J182">
         <v>2</v>
@@ -16188,16 +16185,16 @@
         <v>7747336</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45335.64583333334</v>
       </c>
       <c r="E183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16206,7 +16203,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J183">
         <v>3.2</v>
@@ -16274,16 +16271,16 @@
         <v>7691488</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45336.64583333334</v>
       </c>
       <c r="E184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16292,7 +16289,7 @@
         <v>5</v>
       </c>
       <c r="I184" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J184">
         <v>3.8</v>
@@ -16360,16 +16357,16 @@
         <v>6884538</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G185">
         <v>2</v>
@@ -16378,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J185">
         <v>1.6</v>
@@ -16446,16 +16443,16 @@
         <v>7830688</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16464,7 +16461,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J186">
         <v>2.6</v>
@@ -16532,16 +16529,16 @@
         <v>6885378</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16550,7 +16547,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J187">
         <v>1.222</v>
@@ -16618,16 +16615,16 @@
         <v>6882762</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16636,7 +16633,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J188">
         <v>1.615</v>
@@ -16704,16 +16701,16 @@
         <v>6886975</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G189">
         <v>3</v>
@@ -16722,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J189">
         <v>1.6</v>
@@ -16790,16 +16787,16 @@
         <v>6886974</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16808,7 +16805,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J190">
         <v>2.6</v>
@@ -16876,16 +16873,16 @@
         <v>6886973</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -16894,7 +16891,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J191">
         <v>1.4</v>
@@ -16962,16 +16959,16 @@
         <v>6886972</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -16980,7 +16977,7 @@
         <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J192">
         <v>2.55</v>
@@ -17048,16 +17045,16 @@
         <v>6884505</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17066,7 +17063,7 @@
         <v>3</v>
       </c>
       <c r="I193" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J193">
         <v>2.7</v>
@@ -17134,16 +17131,16 @@
         <v>6886980</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17152,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J194">
         <v>1.909</v>
@@ -17220,16 +17217,16 @@
         <v>6885379</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F195" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G195">
         <v>3</v>
@@ -17238,7 +17235,7 @@
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J195">
         <v>2.2</v>
@@ -17306,16 +17303,16 @@
         <v>6884539</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D196" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17324,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J196">
         <v>4.333</v>
@@ -17392,16 +17389,16 @@
         <v>6882760</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D197" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -17410,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J197">
         <v>1.4</v>
@@ -17478,16 +17475,16 @@
         <v>6886979</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17496,7 +17493,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J198">
         <v>1.909</v>
@@ -17564,16 +17561,16 @@
         <v>6880546</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17582,7 +17579,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J199">
         <v>2.5</v>
@@ -17650,16 +17647,16 @@
         <v>6886978</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17668,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J200">
         <v>1.727</v>
@@ -17736,16 +17733,16 @@
         <v>6886976</v>
       </c>
       <c r="C201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17754,7 +17751,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J201">
         <v>4</v>
@@ -17822,16 +17819,16 @@
         <v>6886977</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D202" s="2">
         <v>45347.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17840,7 +17837,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J202">
         <v>1.333</v>
@@ -17908,16 +17905,16 @@
         <v>6886981</v>
       </c>
       <c r="C203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17926,7 +17923,7 @@
         <v>5</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J203">
         <v>1.444</v>
@@ -17994,16 +17991,16 @@
         <v>6886984</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18012,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J204">
         <v>2.1</v>
@@ -18080,16 +18077,16 @@
         <v>6886982</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D205" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18098,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J205">
         <v>1.727</v>
@@ -18166,16 +18163,16 @@
         <v>6884506</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D206" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18184,7 +18181,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J206">
         <v>3</v>
@@ -18252,16 +18249,16 @@
         <v>6882759</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D207" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18270,7 +18267,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J207">
         <v>1.909</v>
@@ -18338,16 +18335,16 @@
         <v>6880547</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D208" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E208" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G208">
         <v>4</v>
@@ -18356,7 +18353,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J208">
         <v>1.4</v>
@@ -18424,16 +18421,16 @@
         <v>6886985</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D209" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E209" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -18442,7 +18439,7 @@
         <v>2</v>
       </c>
       <c r="I209" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J209">
         <v>1.85</v>
@@ -18510,16 +18507,16 @@
         <v>6884540</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D210" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G210">
         <v>3</v>
@@ -18528,7 +18525,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J210">
         <v>1.8</v>
@@ -18596,16 +18593,16 @@
         <v>6886983</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F211" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18614,7 +18611,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J211">
         <v>2</v>
@@ -18682,16 +18679,16 @@
         <v>7884287</v>
       </c>
       <c r="C212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D212" s="2">
         <v>45357.625</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18700,7 +18697,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J212">
         <v>1.727</v>
@@ -18768,16 +18765,16 @@
         <v>7919532</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D213" s="2">
         <v>45357.64583333334</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18786,7 +18783,7 @@
         <v>5</v>
       </c>
       <c r="I213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J213">
         <v>3.6</v>
@@ -18854,16 +18851,16 @@
         <v>6884507</v>
       </c>
       <c r="C214" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D214" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E214" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18872,7 +18869,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J214">
         <v>1.363</v>
@@ -18940,16 +18937,16 @@
         <v>6885380</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D215" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18958,7 +18955,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J215">
         <v>3.25</v>
@@ -19026,16 +19023,16 @@
         <v>6886989</v>
       </c>
       <c r="C216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D216" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G216">
         <v>2</v>
@@ -19044,7 +19041,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J216">
         <v>1.666</v>
@@ -19112,16 +19109,16 @@
         <v>6880548</v>
       </c>
       <c r="C217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D217" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -19130,7 +19127,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J217">
         <v>3</v>
@@ -19198,16 +19195,16 @@
         <v>6882758</v>
       </c>
       <c r="C218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D218" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F218" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19216,7 +19213,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J218">
         <v>3.25</v>
@@ -19284,16 +19281,16 @@
         <v>6886986</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D219" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F219" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19302,7 +19299,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J219">
         <v>1.285</v>
@@ -19370,16 +19367,16 @@
         <v>6886988</v>
       </c>
       <c r="C220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D220" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G220">
         <v>5</v>
@@ -19388,7 +19385,7 @@
         <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J220">
         <v>2.8</v>
@@ -19456,16 +19453,16 @@
         <v>6884541</v>
       </c>
       <c r="C221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D221" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G221">
         <v>3</v>
@@ -19474,7 +19471,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J221">
         <v>3</v>
@@ -19542,16 +19539,16 @@
         <v>6886987</v>
       </c>
       <c r="C222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D222" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19560,7 +19557,7 @@
         <v>3</v>
       </c>
       <c r="I222" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J222">
         <v>2.1</v>
@@ -19628,16 +19625,16 @@
         <v>6886991</v>
       </c>
       <c r="C223" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D223" s="2">
         <v>45366.5625</v>
       </c>
       <c r="E223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -19646,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J223">
         <v>2.15</v>
@@ -19714,16 +19711,16 @@
         <v>6884508</v>
       </c>
       <c r="C224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D224" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E224" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -19732,7 +19729,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J224">
         <v>3.1</v>
@@ -19800,16 +19797,16 @@
         <v>6886993</v>
       </c>
       <c r="C225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D225" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G225">
         <v>4</v>
@@ -19818,7 +19815,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J225">
         <v>1.727</v>
@@ -19886,16 +19883,16 @@
         <v>6886994</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D226" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -19904,7 +19901,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J226">
         <v>1.727</v>
@@ -19972,16 +19969,16 @@
         <v>6886992</v>
       </c>
       <c r="C227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D227" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G227">
         <v>5</v>
@@ -19990,7 +19987,7 @@
         <v>1</v>
       </c>
       <c r="I227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J227">
         <v>1.444</v>
@@ -20058,16 +20055,16 @@
         <v>6886990</v>
       </c>
       <c r="C228" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D228" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -20076,7 +20073,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J228">
         <v>2.05</v>
@@ -20144,16 +20141,16 @@
         <v>6884542</v>
       </c>
       <c r="C229" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D229" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G229">
         <v>5</v>
@@ -20162,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J229">
         <v>1.333</v>
@@ -20230,16 +20227,16 @@
         <v>6882757</v>
       </c>
       <c r="C230" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D230" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20248,7 +20245,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J230">
         <v>2.5</v>
@@ -20316,16 +20313,16 @@
         <v>6880549</v>
       </c>
       <c r="C231" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D231" s="2">
         <v>45367.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20334,7 +20331,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J231">
         <v>2.1</v>
@@ -20402,16 +20399,16 @@
         <v>7796920</v>
       </c>
       <c r="C232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D232" s="2">
         <v>45374.41666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20420,7 +20417,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J232">
         <v>2.25</v>
@@ -20488,16 +20485,16 @@
         <v>7796919</v>
       </c>
       <c r="C233" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D233" s="2">
         <v>45374.41666666666</v>
       </c>
       <c r="E233" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -20506,7 +20503,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J233">
         <v>1.615</v>
@@ -20574,16 +20571,16 @@
         <v>6886999</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D234" s="2">
         <v>45379.64583333334</v>
       </c>
       <c r="E234" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F234" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -20592,7 +20589,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J234">
         <v>1.8</v>
@@ -20660,16 +20657,16 @@
         <v>6886995</v>
       </c>
       <c r="C235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D235" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F235" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G235">
         <v>4</v>
@@ -20678,7 +20675,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J235">
         <v>1.727</v>
@@ -20746,16 +20743,16 @@
         <v>6886998</v>
       </c>
       <c r="C236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D236" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E236" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -20764,7 +20761,7 @@
         <v>3</v>
       </c>
       <c r="I236" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J236">
         <v>1.85</v>
@@ -20832,16 +20829,16 @@
         <v>6882756</v>
       </c>
       <c r="C237" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D237" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E237" t="s">
+        <v>38</v>
+      </c>
+      <c r="F237" t="s">
         <v>39</v>
-      </c>
-      <c r="F237" t="s">
-        <v>40</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -20850,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J237">
         <v>3.1</v>
@@ -20918,16 +20915,16 @@
         <v>6884509</v>
       </c>
       <c r="C238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D238" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E238" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -20936,7 +20933,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J238">
         <v>1.833</v>
@@ -21004,16 +21001,16 @@
         <v>6884543</v>
       </c>
       <c r="C239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D239" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E239" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F239" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -21022,7 +21019,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J239">
         <v>3.1</v>
@@ -21090,16 +21087,16 @@
         <v>6885381</v>
       </c>
       <c r="C240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D240" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -21108,7 +21105,7 @@
         <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J240">
         <v>3.2</v>
@@ -21176,16 +21173,16 @@
         <v>6886997</v>
       </c>
       <c r="C241" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D241" s="2">
         <v>45382.375</v>
       </c>
       <c r="E241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -21194,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J241">
         <v>2.7</v>
@@ -21262,16 +21259,16 @@
         <v>6886996</v>
       </c>
       <c r="C242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D242" s="2">
         <v>45382.375</v>
       </c>
       <c r="E242" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F242" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -21280,7 +21277,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J242">
         <v>3</v>
@@ -21348,16 +21345,16 @@
         <v>6887001</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D243" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E243" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -21366,7 +21363,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J243">
         <v>1.95</v>
@@ -21434,16 +21431,16 @@
         <v>6887000</v>
       </c>
       <c r="C244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D244" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E244" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -21452,7 +21449,7 @@
         <v>3</v>
       </c>
       <c r="I244" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J244">
         <v>2.05</v>
@@ -21520,16 +21517,16 @@
         <v>6885382</v>
       </c>
       <c r="C245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D245" s="2">
         <v>45388.375</v>
       </c>
       <c r="E245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F245" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -21538,7 +21535,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J245">
         <v>1.55</v>
@@ -21606,16 +21603,16 @@
         <v>6887002</v>
       </c>
       <c r="C246" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D246" s="2">
         <v>45388.375</v>
       </c>
       <c r="E246" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F246" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21624,7 +21621,7 @@
         <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J246">
         <v>3.7</v>
@@ -21692,16 +21689,16 @@
         <v>6884510</v>
       </c>
       <c r="C247" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D247" s="2">
         <v>45388.375</v>
       </c>
       <c r="E247" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -21710,7 +21707,7 @@
         <v>2</v>
       </c>
       <c r="I247" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J247">
         <v>4</v>
@@ -21778,16 +21775,16 @@
         <v>6884544</v>
       </c>
       <c r="C248" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D248" s="2">
         <v>45388.375</v>
       </c>
       <c r="E248" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G248">
         <v>3</v>
@@ -21796,7 +21793,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J248">
         <v>2.2</v>
@@ -21864,16 +21861,16 @@
         <v>6882755</v>
       </c>
       <c r="C249" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D249" s="2">
         <v>45388.375</v>
       </c>
       <c r="E249" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F249" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -21882,7 +21879,7 @@
         <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J249">
         <v>1.95</v>
@@ -21950,16 +21947,16 @@
         <v>6887003</v>
       </c>
       <c r="C250" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D250" s="2">
         <v>45388.375</v>
       </c>
       <c r="E250" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F250" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G250">
         <v>4</v>
@@ -21968,7 +21965,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J250">
         <v>2.25</v>
@@ -22036,16 +22033,16 @@
         <v>6880550</v>
       </c>
       <c r="C251" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D251" s="2">
         <v>45388.375</v>
       </c>
       <c r="E251" t="s">
+        <v>39</v>
+      </c>
+      <c r="F251" t="s">
         <v>40</v>
-      </c>
-      <c r="F251" t="s">
-        <v>41</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -22054,7 +22051,7 @@
         <v>2</v>
       </c>
       <c r="I251" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J251">
         <v>2.05</v>
@@ -22122,16 +22119,16 @@
         <v>6885383</v>
       </c>
       <c r="C252" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D252" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E252" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -22140,7 +22137,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J252">
         <v>3.7</v>
@@ -22208,16 +22205,16 @@
         <v>6884511</v>
       </c>
       <c r="C253" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D253" s="2">
         <v>45395.375</v>
       </c>
       <c r="E253" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F253" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G253">
         <v>3</v>
@@ -22226,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J253">
         <v>1.181</v>
@@ -22294,16 +22291,16 @@
         <v>6887006</v>
       </c>
       <c r="C254" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D254" s="2">
         <v>45395.375</v>
       </c>
       <c r="E254" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F254" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G254">
         <v>3</v>
@@ -22312,7 +22309,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J254">
         <v>2.6</v>
@@ -22380,16 +22377,16 @@
         <v>6887009</v>
       </c>
       <c r="C255" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D255" s="2">
         <v>45395.375</v>
       </c>
       <c r="E255" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F255" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -22398,7 +22395,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J255">
         <v>2.55</v>
@@ -22466,16 +22463,16 @@
         <v>6887008</v>
       </c>
       <c r="C256" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D256" s="2">
         <v>45395.375</v>
       </c>
       <c r="E256" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G256">
         <v>3</v>
@@ -22484,7 +22481,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J256">
         <v>1.285</v>
@@ -22552,16 +22549,16 @@
         <v>6887007</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D257" s="2">
         <v>45395.375</v>
       </c>
       <c r="E257" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22570,7 +22567,7 @@
         <v>5</v>
       </c>
       <c r="I257" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J257">
         <v>2.6</v>
@@ -22638,16 +22635,16 @@
         <v>6887017</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D258" s="2">
         <v>45395.375</v>
       </c>
       <c r="E258" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F258" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -22656,7 +22653,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J258">
         <v>1.615</v>
@@ -22724,16 +22721,16 @@
         <v>6887004</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D259" s="2">
         <v>45395.375</v>
       </c>
       <c r="E259" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F259" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -22742,7 +22739,7 @@
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J259">
         <v>1.75</v>
@@ -22810,16 +22807,16 @@
         <v>6887005</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D260" s="2">
         <v>45397.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F260" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G260">
         <v>4</v>
@@ -22828,7 +22825,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J260">
         <v>1.6</v>
@@ -22896,16 +22893,16 @@
         <v>6957351</v>
       </c>
       <c r="C261" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D261" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E261" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F261" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -22914,7 +22911,7 @@
         <v>1</v>
       </c>
       <c r="I261" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J261">
         <v>1.8</v>
@@ -22982,16 +22979,16 @@
         <v>6887014</v>
       </c>
       <c r="C262" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D262" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G262">
         <v>2</v>
@@ -23000,7 +22997,7 @@
         <v>3</v>
       </c>
       <c r="I262" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J262">
         <v>1.833</v>
@@ -23068,16 +23065,16 @@
         <v>6887015</v>
       </c>
       <c r="C263" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D263" s="2">
         <v>45402.375</v>
       </c>
       <c r="E263" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F263" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -23086,7 +23083,7 @@
         <v>3</v>
       </c>
       <c r="I263" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J263">
         <v>1.533</v>
@@ -23154,17 +23151,17 @@
         <v>6887012</v>
       </c>
       <c r="C264" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D264" s="2">
         <v>45402.375</v>
       </c>
       <c r="E264" t="s">
+        <v>42</v>
+      </c>
+      <c r="F264" t="s">
         <v>43</v>
       </c>
-      <c r="F264" t="s">
-        <v>44</v>
-      </c>
       <c r="G264">
         <v>2</v>
       </c>
@@ -23172,7 +23169,7 @@
         <v>2</v>
       </c>
       <c r="I264" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J264">
         <v>2.3</v>
@@ -23240,16 +23237,16 @@
         <v>6887011</v>
       </c>
       <c r="C265" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D265" s="2">
         <v>45402.375</v>
       </c>
       <c r="E265" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G265">
         <v>5</v>
@@ -23258,7 +23255,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J265">
         <v>1.666</v>
@@ -23326,16 +23323,16 @@
         <v>6887010</v>
       </c>
       <c r="C266" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D266" s="2">
         <v>45402.375</v>
       </c>
       <c r="E266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F266" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -23344,7 +23341,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J266">
         <v>5</v>
@@ -23412,16 +23409,16 @@
         <v>6957316</v>
       </c>
       <c r="C267" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D267" s="2">
         <v>45402.375</v>
       </c>
       <c r="E267" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F267" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -23430,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J267">
         <v>1.85</v>
@@ -23498,16 +23495,16 @@
         <v>6993877</v>
       </c>
       <c r="C268" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D268" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F268" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23516,7 +23513,7 @@
         <v>3</v>
       </c>
       <c r="I268" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J268">
         <v>2.6</v>
@@ -23584,16 +23581,16 @@
         <v>6990143</v>
       </c>
       <c r="C269" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D269" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E269" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G269">
         <v>2</v>
@@ -23602,7 +23599,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J269">
         <v>2.25</v>
@@ -23670,16 +23667,16 @@
         <v>6960502</v>
       </c>
       <c r="C270" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D270" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E270" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F270" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G270">
         <v>2</v>
@@ -23688,7 +23685,7 @@
         <v>1</v>
       </c>
       <c r="I270" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J270">
         <v>1.85</v>
@@ -23756,16 +23753,16 @@
         <v>6990142</v>
       </c>
       <c r="C271" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D271" s="2">
         <v>45409.375</v>
       </c>
       <c r="E271" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F271" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -23774,7 +23771,7 @@
         <v>2</v>
       </c>
       <c r="I271" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J271">
         <v>1.363</v>
@@ -23842,16 +23839,16 @@
         <v>6993873</v>
       </c>
       <c r="C272" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D272" s="2">
         <v>45409.375</v>
       </c>
       <c r="E272" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F272" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -23860,7 +23857,7 @@
         <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J272">
         <v>2</v>
@@ -23928,16 +23925,16 @@
         <v>6993874</v>
       </c>
       <c r="C273" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D273" s="2">
         <v>45409.375</v>
       </c>
       <c r="E273" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F273" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -23946,7 +23943,7 @@
         <v>2</v>
       </c>
       <c r="I273" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J273">
         <v>3.4</v>
@@ -24014,16 +24011,16 @@
         <v>6993875</v>
       </c>
       <c r="C274" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D274" s="2">
         <v>45409.375</v>
       </c>
       <c r="E274" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F274" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -24032,7 +24029,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J274">
         <v>1.533</v>
@@ -24100,16 +24097,16 @@
         <v>6993878</v>
       </c>
       <c r="C275" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D275" s="2">
         <v>45410.375</v>
       </c>
       <c r="E275" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F275" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -24118,7 +24115,7 @@
         <v>3</v>
       </c>
       <c r="I275" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J275">
         <v>2.1</v>
@@ -24186,16 +24183,16 @@
         <v>7023708</v>
       </c>
       <c r="C276" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D276" s="2">
         <v>45415.60416666666</v>
       </c>
       <c r="E276" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G276">
         <v>2</v>
@@ -24204,7 +24201,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J276">
         <v>2</v>
@@ -24272,16 +24269,16 @@
         <v>7020764</v>
       </c>
       <c r="C277" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D277" s="2">
         <v>45416.375</v>
       </c>
       <c r="E277" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F277" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -24290,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J277">
         <v>2.3</v>
@@ -24358,16 +24355,16 @@
         <v>7020763</v>
       </c>
       <c r="C278" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D278" s="2">
         <v>45416.375</v>
       </c>
       <c r="E278" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F278" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -24376,7 +24373,7 @@
         <v>2</v>
       </c>
       <c r="I278" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J278">
         <v>1.727</v>
@@ -24444,16 +24441,16 @@
         <v>7023709</v>
       </c>
       <c r="C279" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D279" s="2">
         <v>45416.375</v>
       </c>
       <c r="E279" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F279" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -24462,7 +24459,7 @@
         <v>1</v>
       </c>
       <c r="I279" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J279">
         <v>2.7</v>
@@ -24530,16 +24527,16 @@
         <v>7020766</v>
       </c>
       <c r="C280" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D280" s="2">
         <v>45416.375</v>
       </c>
       <c r="E280" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F280" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -24548,7 +24545,7 @@
         <v>4</v>
       </c>
       <c r="I280" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J280">
         <v>2.5</v>
@@ -24616,16 +24613,16 @@
         <v>7023710</v>
       </c>
       <c r="C281" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D281" s="2">
         <v>45416.375</v>
       </c>
       <c r="E281" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F281" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G281">
         <v>2</v>
@@ -24634,7 +24631,7 @@
         <v>1</v>
       </c>
       <c r="I281" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J281">
         <v>1.444</v>
@@ -24702,16 +24699,16 @@
         <v>7023707</v>
       </c>
       <c r="C282" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D282" s="2">
         <v>45416.375</v>
       </c>
       <c r="E282" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G282">
         <v>2</v>
@@ -24720,7 +24717,7 @@
         <v>2</v>
       </c>
       <c r="I282" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J282">
         <v>1.615</v>
@@ -24788,16 +24785,16 @@
         <v>7023706</v>
       </c>
       <c r="C283" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D283" s="2">
         <v>45416.375</v>
       </c>
       <c r="E283" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F283" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G283">
         <v>2</v>
@@ -24806,7 +24803,7 @@
         <v>1</v>
       </c>
       <c r="I283" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J283">
         <v>2.25</v>
@@ -24874,16 +24871,16 @@
         <v>7020765</v>
       </c>
       <c r="C284" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D284" s="2">
         <v>45417.375</v>
       </c>
       <c r="E284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F284" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -24892,7 +24889,7 @@
         <v>1</v>
       </c>
       <c r="I284" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J284">
         <v>1.833</v>
@@ -24950,71 +24947,6 @@
       </c>
       <c r="AB284">
         <v>0.825</v>
-      </c>
-    </row>
-    <row r="285" spans="1:28">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285" t="s">
-        <v>27</v>
-      </c>
-      <c r="C285" t="s">
-        <v>28</v>
-      </c>
-      <c r="D285" s="2">
-        <v>45419.58333333334</v>
-      </c>
-      <c r="E285" t="s">
-        <v>42</v>
-      </c>
-      <c r="F285" t="s">
-        <v>41</v>
-      </c>
-      <c r="J285">
-        <v>1.5</v>
-      </c>
-      <c r="K285">
-        <v>4.2</v>
-      </c>
-      <c r="L285">
-        <v>5</v>
-      </c>
-      <c r="M285">
-        <v>1.363</v>
-      </c>
-      <c r="N285">
-        <v>4.75</v>
-      </c>
-      <c r="O285">
-        <v>6</v>
-      </c>
-      <c r="P285">
-        <v>-1.5</v>
-      </c>
-      <c r="Q285">
-        <v>2</v>
-      </c>
-      <c r="R285">
-        <v>1.85</v>
-      </c>
-      <c r="S285">
-        <v>3.5</v>
-      </c>
-      <c r="T285">
-        <v>1.925</v>
-      </c>
-      <c r="U285">
-        <v>1.925</v>
-      </c>
-      <c r="V285">
-        <v>0</v>
-      </c>
-      <c r="W285">
-        <v>0</v>
-      </c>
-      <c r="X285">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -97,6 +97,9 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7091976</t>
+  </si>
+  <si>
     <t>8227675</t>
   </si>
   <si>
@@ -106,7 +109,7 @@
     <t>7091978</t>
   </si>
   <si>
-    <t>7091976</t>
+    <t>7091975</t>
   </si>
   <si>
     <t>7088569</t>
@@ -116,9 +119,6 @@
   </si>
   <si>
     <t>7088567</t>
-  </si>
-  <si>
-    <t>7091975</t>
   </si>
   <si>
     <t>Germany Regionalliga West</t>
@@ -151,10 +151,10 @@
     <t>SV Lippstadt 08</t>
   </si>
   <si>
-    <t>RotWeiss Oberhausen</t>
+    <t>Gutersloh 2000</t>
   </si>
   <si>
-    <t>Gutersloh 2000</t>
+    <t>RotWeiss Oberhausen</t>
   </si>
   <si>
     <t>Rot Weiss Ahlen</t>
@@ -996,7 +996,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6885363</v>
+        <v>6882783</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -1426,7 +1426,7 @@
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1438,58 +1438,58 @@
         <v>56</v>
       </c>
       <c r="J11">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="K11">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="M11">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="N11">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q11">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T11">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V11">
         <v>-1</v>
       </c>
       <c r="W11">
-        <v>3.333</v>
+        <v>2.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z11">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB11">
         <v>-1</v>
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6882783</v>
+        <v>6885363</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -1512,7 +1512,7 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1524,58 +1524,58 @@
         <v>56</v>
       </c>
       <c r="J12">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="K12">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L12">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O12">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="P12">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q12">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
         <v>-1</v>
       </c>
       <c r="W12">
-        <v>2.5</v>
+        <v>3.333</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -2286,7 +2286,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2799,7 +2799,7 @@
         <v>45156.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>
@@ -2885,7 +2885,7 @@
         <v>45156.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
         <v>44</v>
@@ -3048,7 +3048,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6884523</v>
+        <v>6885364</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
@@ -3057,76 +3057,76 @@
         <v>45157.375</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J30">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K30">
         <v>3.25</v>
       </c>
       <c r="L30">
+        <v>2.375</v>
+      </c>
+      <c r="M30">
+        <v>2.15</v>
+      </c>
+      <c r="N30">
+        <v>3.5</v>
+      </c>
+      <c r="O30">
         <v>2.75</v>
-      </c>
-      <c r="M30">
-        <v>2.2</v>
-      </c>
-      <c r="N30">
-        <v>3.25</v>
-      </c>
-      <c r="O30">
-        <v>2.8</v>
       </c>
       <c r="P30">
         <v>-0.25</v>
       </c>
       <c r="Q30">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U30">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3134,7 +3134,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6886890</v>
+        <v>6884523</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -3143,34 +3143,34 @@
         <v>45157.375</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J31">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L31">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M31">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N31">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O31">
         <v>2.8</v>
@@ -3179,40 +3179,40 @@
         <v>-0.25</v>
       </c>
       <c r="Q31">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T31">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W31">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z31">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3220,7 +3220,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6886891</v>
+        <v>6886890</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -3229,10 +3229,10 @@
         <v>45157.375</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3244,61 +3244,61 @@
         <v>56</v>
       </c>
       <c r="J32">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="K32">
         <v>3.4</v>
       </c>
       <c r="L32">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="N32">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O32">
+        <v>2.8</v>
+      </c>
+      <c r="P32">
+        <v>-0.25</v>
+      </c>
+      <c r="Q32">
         <v>1.95</v>
       </c>
-      <c r="P32">
-        <v>0.5</v>
-      </c>
-      <c r="Q32">
-        <v>1.8</v>
-      </c>
       <c r="R32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
         <v>3</v>
       </c>
       <c r="T32">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
         <v>-1</v>
       </c>
       <c r="W32">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3306,7 +3306,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6886893</v>
+        <v>6886891</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -3315,76 +3315,76 @@
         <v>45157.375</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J33">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="K33">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L33">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="M33">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N33">
         <v>3.5</v>
       </c>
       <c r="O33">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R33">
         <v>2</v>
       </c>
       <c r="S33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
         <v>-1</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X33">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3392,7 +3392,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6886892</v>
+        <v>6886893</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -3401,55 +3401,55 @@
         <v>45157.375</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I34" t="s">
         <v>54</v>
       </c>
       <c r="J34">
+        <v>1.909</v>
+      </c>
+      <c r="K34">
+        <v>3.75</v>
+      </c>
+      <c r="L34">
+        <v>3.1</v>
+      </c>
+      <c r="M34">
         <v>2.2</v>
       </c>
-      <c r="K34">
-        <v>3.2</v>
-      </c>
-      <c r="L34">
-        <v>2.875</v>
-      </c>
-      <c r="M34">
-        <v>1.45</v>
-      </c>
       <c r="N34">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="P34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R34">
         <v>2</v>
       </c>
       <c r="S34">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T34">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U34">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
         <v>-1</v>
@@ -3458,7 +3458,7 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3467,10 +3467,10 @@
         <v>1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB34">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3478,7 +3478,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6885364</v>
+        <v>6886892</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -3487,76 +3487,76 @@
         <v>45157.375</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J35">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K35">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L35">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="M35">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="N35">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <v>-1</v>
+      </c>
+      <c r="Q35">
+        <v>1.8</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
         <v>2.75</v>
       </c>
-      <c r="P35">
-        <v>-0.25</v>
-      </c>
-      <c r="Q35">
-        <v>1.975</v>
-      </c>
-      <c r="R35">
-        <v>1.875</v>
-      </c>
-      <c r="S35">
-        <v>3</v>
-      </c>
       <c r="T35">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V35">
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3917,10 +3917,10 @@
         <v>45164.375</v>
       </c>
       <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
         <v>45</v>
-      </c>
-      <c r="F40" t="s">
-        <v>46</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4350,7 +4350,7 @@
         <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>45171.375</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
         <v>36</v>
@@ -4682,7 +4682,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6885366</v>
+        <v>6886898</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
@@ -4691,40 +4691,40 @@
         <v>45171.375</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
         <v>55</v>
       </c>
       <c r="J49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K49">
         <v>3.6</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M49">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N49">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O49">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q49">
         <v>1.85</v>
@@ -4733,7 +4733,7 @@
         <v>1.95</v>
       </c>
       <c r="S49">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T49">
         <v>1.975</v>
@@ -4742,7 +4742,7 @@
         <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4757,10 +4757,10 @@
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4768,7 +4768,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6884525</v>
+        <v>6885366</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
@@ -4777,58 +4777,58 @@
         <v>45171.375</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="s">
         <v>55</v>
       </c>
       <c r="J50">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="K50">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L50">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>1.222</v>
+        <v>2.375</v>
       </c>
       <c r="N50">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="O50">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="P50">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>0.222</v>
+        <v>1.375</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4837,16 +4837,16 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4854,7 +4854,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6880531</v>
+        <v>6884525</v>
       </c>
       <c r="C51" t="s">
         <v>35</v>
@@ -4863,13 +4863,13 @@
         <v>45171.375</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4878,43 +4878,43 @@
         <v>55</v>
       </c>
       <c r="J51">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="K51">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L51">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="N51">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P51">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>0.222</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4923,16 +4923,16 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4940,7 +4940,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6886898</v>
+        <v>6880531</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
@@ -4949,13 +4949,13 @@
         <v>45171.375</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -4964,19 +4964,19 @@
         <v>55</v>
       </c>
       <c r="J52">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="K52">
         <v>3.6</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M52">
         <v>2</v>
       </c>
       <c r="N52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O52">
         <v>3</v>
@@ -4985,13 +4985,13 @@
         <v>-0.25</v>
       </c>
       <c r="Q52">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T52">
         <v>1.975</v>
@@ -5009,7 +5009,7 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z52">
         <v>-1</v>
@@ -5112,7 +5112,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6884526</v>
+        <v>6882782</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
@@ -5121,76 +5121,76 @@
         <v>45178.375</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J54">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="K54">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L54">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="M54">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="N54">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O54">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="P54">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5198,7 +5198,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6882782</v>
+        <v>6884526</v>
       </c>
       <c r="C55" t="s">
         <v>35</v>
@@ -5207,76 +5207,76 @@
         <v>45178.375</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J55">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="K55">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L55">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="M55">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N55">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O55">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="P55">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q55">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V55">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5456,7 +5456,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6882777</v>
+        <v>6880532</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
@@ -5465,76 +5465,76 @@
         <v>45185.375</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J58">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="K58">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="M58">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N58">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O58">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="P58">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
         <v>3</v>
       </c>
       <c r="T58">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5542,7 +5542,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6880532</v>
+        <v>6882777</v>
       </c>
       <c r="C59" t="s">
         <v>35</v>
@@ -5551,76 +5551,76 @@
         <v>45185.375</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J59">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
         <v>3.75</v>
       </c>
-      <c r="L59">
-        <v>2.1</v>
-      </c>
       <c r="M59">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O59">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q59">
+        <v>2</v>
+      </c>
+      <c r="R59">
         <v>1.85</v>
-      </c>
-      <c r="R59">
-        <v>1.95</v>
       </c>
       <c r="S59">
         <v>3</v>
       </c>
       <c r="T59">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W59">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5723,7 +5723,7 @@
         <v>45185.375</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
         <v>48</v>
@@ -5972,7 +5972,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6884527</v>
+        <v>6886911</v>
       </c>
       <c r="C64" t="s">
         <v>35</v>
@@ -5981,76 +5981,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J64">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="K64">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="M64">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N64">
         <v>4.2</v>
       </c>
       <c r="O64">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="P64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2.75</v>
+      </c>
+      <c r="T64">
+        <v>1.925</v>
+      </c>
+      <c r="U64">
         <v>1.875</v>
       </c>
-      <c r="R64">
-        <v>1.925</v>
-      </c>
-      <c r="S64">
-        <v>3</v>
-      </c>
-      <c r="T64">
-        <v>2</v>
-      </c>
-      <c r="U64">
-        <v>1.8</v>
-      </c>
       <c r="V64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W64">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB64">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6058,7 +6058,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6886911</v>
+        <v>6884527</v>
       </c>
       <c r="C65" t="s">
         <v>35</v>
@@ -6067,76 +6067,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J65">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="K65">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L65">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="M65">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N65">
         <v>4.2</v>
       </c>
       <c r="O65">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="P65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R65">
+        <v>1.925</v>
+      </c>
+      <c r="S65">
+        <v>3</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
         <v>1.8</v>
       </c>
-      <c r="S65">
-        <v>2.75</v>
-      </c>
-      <c r="T65">
-        <v>1.925</v>
-      </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
       <c r="V65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6156,7 +6156,7 @@
         <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6328,7 +6328,7 @@
         <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -7004,7 +7004,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6886912</v>
+        <v>6884493</v>
       </c>
       <c r="C76" t="s">
         <v>35</v>
@@ -7013,76 +7013,76 @@
         <v>45199.375</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J76">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K76">
         <v>3.6</v>
       </c>
       <c r="L76">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M76">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N76">
         <v>3.6</v>
       </c>
       <c r="O76">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X76">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7090,7 +7090,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6886915</v>
+        <v>6886912</v>
       </c>
       <c r="C77" t="s">
         <v>35</v>
@@ -7099,76 +7099,76 @@
         <v>45199.375</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J77">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="K77">
         <v>3.6</v>
       </c>
       <c r="L77">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="M77">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O77">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
+        <v>2.025</v>
+      </c>
+      <c r="R77">
+        <v>1.775</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <v>1.975</v>
+      </c>
+      <c r="U77">
         <v>1.825</v>
       </c>
-      <c r="R77">
-        <v>1.975</v>
-      </c>
-      <c r="S77">
-        <v>2.75</v>
-      </c>
-      <c r="T77">
-        <v>1.9</v>
-      </c>
-      <c r="U77">
-        <v>1.9</v>
-      </c>
       <c r="V77">
         <v>-1</v>
       </c>
       <c r="W77">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7176,7 +7176,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6884493</v>
+        <v>6886915</v>
       </c>
       <c r="C78" t="s">
         <v>35</v>
@@ -7185,10 +7185,10 @@
         <v>45199.375</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7200,31 +7200,31 @@
         <v>56</v>
       </c>
       <c r="J78">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="K78">
         <v>3.6</v>
       </c>
       <c r="L78">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N78">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="P78">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
         <v>2.75</v>
@@ -7239,16 +7239,16 @@
         <v>-1</v>
       </c>
       <c r="W78">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z78">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>45199.375</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
         <v>49</v>
@@ -7606,7 +7606,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6886918</v>
+        <v>6886917</v>
       </c>
       <c r="C83" t="s">
         <v>35</v>
@@ -7615,55 +7615,55 @@
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
         <v>54</v>
       </c>
       <c r="J83">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L83">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N83">
         <v>3.6</v>
       </c>
       <c r="O83">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
         <v>2.75</v>
       </c>
       <c r="T83">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V83">
         <v>-1</v>
@@ -7672,19 +7672,19 @@
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7692,7 +7692,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6886917</v>
+        <v>6886918</v>
       </c>
       <c r="C84" t="s">
         <v>35</v>
@@ -7701,55 +7701,55 @@
         <v>45206.375</v>
       </c>
       <c r="E84" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I84" t="s">
         <v>54</v>
       </c>
       <c r="J84">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K84">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M84">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N84">
         <v>3.6</v>
       </c>
       <c r="O84">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
         <v>2.75</v>
       </c>
       <c r="T84">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U84">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
         <v>-1</v>
@@ -7758,19 +7758,19 @@
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="AB84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -8048,7 +8048,7 @@
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8380,7 +8380,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6885369</v>
+        <v>6884495</v>
       </c>
       <c r="C92" t="s">
         <v>35</v>
@@ -8389,73 +8389,73 @@
         <v>45213.375</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>55</v>
+      </c>
+      <c r="J92">
+        <v>1.666</v>
+      </c>
+      <c r="K92">
+        <v>3.75</v>
+      </c>
+      <c r="L92">
         <v>4</v>
       </c>
-      <c r="I92" t="s">
-        <v>54</v>
-      </c>
-      <c r="J92">
-        <v>3</v>
-      </c>
-      <c r="K92">
-        <v>3.6</v>
-      </c>
-      <c r="L92">
-        <v>2</v>
-      </c>
       <c r="M92">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="N92">
         <v>4</v>
       </c>
       <c r="O92">
-        <v>2.05</v>
+        <v>7</v>
       </c>
       <c r="P92">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q92">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T92">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB92">
         <v>-1</v>
@@ -8466,7 +8466,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6884495</v>
+        <v>6885369</v>
       </c>
       <c r="C93" t="s">
         <v>35</v>
@@ -8475,73 +8475,73 @@
         <v>45213.375</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>4</v>
       </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
       <c r="I93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J93">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="K93">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M93">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="N93">
         <v>4</v>
       </c>
       <c r="O93">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="P93">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T93">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8647,7 +8647,7 @@
         <v>45213.375</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
         <v>52</v>
@@ -8733,7 +8733,7 @@
         <v>45213.375</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
         <v>51</v>
@@ -8991,7 +8991,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
         <v>52</v>
@@ -10195,7 +10195,7 @@
         <v>45227.375</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
         <v>42</v>
@@ -10367,7 +10367,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F115" t="s">
         <v>38</v>
@@ -10542,7 +10542,7 @@
         <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10874,7 +10874,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6882770</v>
+        <v>6886936</v>
       </c>
       <c r="C121" t="s">
         <v>35</v>
@@ -10883,73 +10883,73 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>2</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J121">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K121">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L121">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="N121">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="O121">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P121">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q121">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R121">
+        <v>1.975</v>
+      </c>
+      <c r="S121">
+        <v>2.5</v>
+      </c>
+      <c r="T121">
+        <v>1.9</v>
+      </c>
+      <c r="U121">
         <v>1.95</v>
       </c>
-      <c r="S121">
-        <v>3</v>
-      </c>
-      <c r="T121">
-        <v>1.775</v>
-      </c>
-      <c r="U121">
-        <v>2.025</v>
-      </c>
       <c r="V121">
         <v>-1</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X121">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA121">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB121">
         <v>-1</v>
@@ -10960,7 +10960,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6886936</v>
+        <v>6884532</v>
       </c>
       <c r="C122" t="s">
         <v>35</v>
@@ -10969,76 +10969,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G122">
         <v>2</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J122">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="K122">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="M122">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="N122">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P122">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q122">
+        <v>1.925</v>
+      </c>
+      <c r="R122">
         <v>1.875</v>
       </c>
-      <c r="R122">
-        <v>1.975</v>
-      </c>
       <c r="S122">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T122">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W122">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11046,7 +11046,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6884532</v>
+        <v>6886935</v>
       </c>
       <c r="C123" t="s">
         <v>35</v>
@@ -11055,76 +11055,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123">
+        <v>3</v>
+      </c>
+      <c r="I123" t="s">
+        <v>54</v>
+      </c>
+      <c r="J123">
+        <v>1.166</v>
+      </c>
+      <c r="K123">
+        <v>7</v>
+      </c>
+      <c r="L123">
+        <v>9</v>
+      </c>
+      <c r="M123">
+        <v>1.25</v>
+      </c>
+      <c r="N123">
+        <v>6</v>
+      </c>
+      <c r="O123">
+        <v>6.5</v>
+      </c>
+      <c r="P123">
+        <v>-1.5</v>
+      </c>
+      <c r="Q123">
+        <v>1.95</v>
+      </c>
+      <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
+        <v>3.5</v>
+      </c>
+      <c r="T123">
+        <v>2</v>
+      </c>
+      <c r="U123">
+        <v>1.85</v>
+      </c>
+      <c r="V123">
+        <v>-1</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>5.5</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA123">
         <v>1</v>
       </c>
-      <c r="I123" t="s">
-        <v>55</v>
-      </c>
-      <c r="J123">
-        <v>2.2</v>
-      </c>
-      <c r="K123">
-        <v>3.75</v>
-      </c>
-      <c r="L123">
-        <v>2.55</v>
-      </c>
-      <c r="M123">
-        <v>2.4</v>
-      </c>
-      <c r="N123">
-        <v>3.6</v>
-      </c>
-      <c r="O123">
-        <v>2.375</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-      <c r="Q123">
-        <v>1.925</v>
-      </c>
-      <c r="R123">
-        <v>1.875</v>
-      </c>
-      <c r="S123">
-        <v>2.75</v>
-      </c>
-      <c r="T123">
-        <v>1.925</v>
-      </c>
-      <c r="U123">
-        <v>1.875</v>
-      </c>
-      <c r="V123">
-        <v>1.4</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
-      <c r="Y123">
-        <v>0.925</v>
-      </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
-      <c r="AA123">
-        <v>0.4625</v>
-      </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11132,7 +11132,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6886935</v>
+        <v>6882770</v>
       </c>
       <c r="C124" t="s">
         <v>35</v>
@@ -11141,13 +11141,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11156,40 +11156,40 @@
         <v>54</v>
       </c>
       <c r="J124">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="K124">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="L124">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="M124">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="N124">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="O124">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P124">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q124">
+        <v>1.85</v>
+      </c>
+      <c r="R124">
         <v>1.95</v>
       </c>
-      <c r="R124">
-        <v>1.9</v>
-      </c>
       <c r="S124">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
         <v>-1</v>
@@ -11198,16 +11198,16 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA124">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11390,7 +11390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6885373</v>
+        <v>6886940</v>
       </c>
       <c r="C127" t="s">
         <v>35</v>
@@ -11399,73 +11399,73 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J127">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="K127">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L127">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="N127">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O127">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T127">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U127">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W127">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="Z127">
         <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11476,7 +11476,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6886940</v>
+        <v>6885373</v>
       </c>
       <c r="C128" t="s">
         <v>35</v>
@@ -11485,73 +11485,73 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J128">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="M128">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="P128">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q128">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T128">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V128">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.4625</v>
+        <v>0.5</v>
       </c>
       <c r="Z128">
         <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB128">
         <v>-1</v>
@@ -11571,7 +11571,7 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F129" t="s">
         <v>37</v>
@@ -11743,7 +11743,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F131" t="s">
         <v>53</v>
@@ -12348,7 +12348,7 @@
         <v>53</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12520,7 +12520,7 @@
         <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12766,7 +12766,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6886951</v>
+        <v>6884500</v>
       </c>
       <c r="C143" t="s">
         <v>35</v>
@@ -12775,40 +12775,40 @@
         <v>45254.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J143">
         <v>3.8</v>
       </c>
       <c r="K143">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L143">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="M143">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N143">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O143">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="P143">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q143">
         <v>1.9</v>
@@ -12817,7 +12817,7 @@
         <v>1.9</v>
       </c>
       <c r="S143">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T143">
         <v>2</v>
@@ -12826,25 +12826,25 @@
         <v>1.8</v>
       </c>
       <c r="V143">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y143">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12852,7 +12852,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6884500</v>
+        <v>6886951</v>
       </c>
       <c r="C144" t="s">
         <v>35</v>
@@ -12861,40 +12861,40 @@
         <v>45254.64583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J144">
         <v>3.8</v>
       </c>
       <c r="K144">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L144">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M144">
+        <v>4.75</v>
+      </c>
+      <c r="N144">
         <v>4.2</v>
       </c>
-      <c r="N144">
-        <v>3.75</v>
-      </c>
       <c r="O144">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="P144">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q144">
         <v>1.9</v>
@@ -12903,7 +12903,7 @@
         <v>1.9</v>
       </c>
       <c r="S144">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T144">
         <v>2</v>
@@ -12912,25 +12912,25 @@
         <v>1.8</v>
       </c>
       <c r="V144">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z144">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12938,7 +12938,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6886952</v>
+        <v>6884534</v>
       </c>
       <c r="C145" t="s">
         <v>35</v>
@@ -12947,76 +12947,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J145">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K145">
         <v>3.75</v>
       </c>
       <c r="L145">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="M145">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N145">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O145">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="P145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R145">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13033,7 +13033,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F146" t="s">
         <v>39</v>
@@ -13196,7 +13196,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6884534</v>
+        <v>6886952</v>
       </c>
       <c r="C148" t="s">
         <v>35</v>
@@ -13205,76 +13205,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J148">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K148">
         <v>3.75</v>
       </c>
       <c r="L148">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="M148">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N148">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O148">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q148">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S148">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T148">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W148">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13721,7 +13721,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F154" t="s">
         <v>40</v>
@@ -14323,7 +14323,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
         <v>43</v>
@@ -14498,7 +14498,7 @@
         <v>42</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14581,7 +14581,7 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F164" t="s">
         <v>44</v>
@@ -14925,7 +14925,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F168" t="s">
         <v>41</v>
@@ -15272,7 +15272,7 @@
         <v>41</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -15358,7 +15358,7 @@
         <v>40</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15432,7 +15432,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6886970</v>
+        <v>6886969</v>
       </c>
       <c r="C174" t="s">
         <v>35</v>
@@ -15441,58 +15441,58 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="s">
         <v>55</v>
       </c>
       <c r="J174">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="K174">
         <v>3.8</v>
       </c>
       <c r="L174">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="M174">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="N174">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O174">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="P174">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q174">
+        <v>1.975</v>
+      </c>
+      <c r="R174">
         <v>1.875</v>
       </c>
-      <c r="R174">
-        <v>1.975</v>
-      </c>
       <c r="S174">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T174">
+        <v>1.825</v>
+      </c>
+      <c r="U174">
         <v>2.025</v>
       </c>
-      <c r="U174">
-        <v>1.825</v>
-      </c>
       <c r="V174">
-        <v>0.95</v>
+        <v>2.4</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -15501,16 +15501,16 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15518,7 +15518,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6886969</v>
+        <v>6886970</v>
       </c>
       <c r="C175" t="s">
         <v>35</v>
@@ -15527,58 +15527,58 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="s">
         <v>55</v>
       </c>
       <c r="J175">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="K175">
         <v>3.8</v>
       </c>
       <c r="L175">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="M175">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="N175">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O175">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="P175">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q175">
+        <v>1.875</v>
+      </c>
+      <c r="R175">
         <v>1.975</v>
       </c>
-      <c r="R175">
-        <v>1.875</v>
-      </c>
       <c r="S175">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T175">
+        <v>2.025</v>
+      </c>
+      <c r="U175">
         <v>1.825</v>
       </c>
-      <c r="U175">
-        <v>2.025</v>
-      </c>
       <c r="V175">
-        <v>2.4</v>
+        <v>0.95</v>
       </c>
       <c r="W175">
         <v>-1</v>
@@ -15587,16 +15587,16 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
+        <v>-1</v>
+      </c>
+      <c r="AB175">
         <v>0.825</v>
-      </c>
-      <c r="AB175">
-        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15604,7 +15604,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6882763</v>
+        <v>6880545</v>
       </c>
       <c r="C176" t="s">
         <v>35</v>
@@ -15613,13 +15613,13 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -15628,40 +15628,40 @@
         <v>54</v>
       </c>
       <c r="J176">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="K176">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L176">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="M176">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="N176">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O176">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="P176">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q176">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="R176">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T176">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
         <v>-1</v>
@@ -15670,19 +15670,19 @@
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA176">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -15690,7 +15690,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6884504</v>
+        <v>6882763</v>
       </c>
       <c r="C177" t="s">
         <v>35</v>
@@ -15699,76 +15699,76 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F177" t="s">
         <v>45</v>
       </c>
       <c r="G177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J177">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="K177">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="M177">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N177">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O177">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P177">
         <v>-0.25</v>
       </c>
       <c r="Q177">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="R177">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S177">
         <v>2.75</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA177">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15776,7 +15776,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6884537</v>
+        <v>6884504</v>
       </c>
       <c r="C178" t="s">
         <v>35</v>
@@ -15785,34 +15785,34 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178" t="s">
+        <v>55</v>
+      </c>
+      <c r="J178">
+        <v>1.727</v>
+      </c>
+      <c r="K178">
         <v>4</v>
       </c>
-      <c r="I178" t="s">
-        <v>54</v>
-      </c>
-      <c r="J178">
-        <v>2.2</v>
-      </c>
-      <c r="K178">
-        <v>3.4</v>
-      </c>
       <c r="L178">
-        <v>1.159</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N178">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O178">
         <v>2.75</v>
@@ -15821,37 +15821,37 @@
         <v>-0.25</v>
       </c>
       <c r="Q178">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="R178">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S178">
         <v>2.75</v>
       </c>
       <c r="T178">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z178">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB178">
         <v>-1</v>
@@ -15862,7 +15862,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6880545</v>
+        <v>6884537</v>
       </c>
       <c r="C179" t="s">
         <v>35</v>
@@ -15871,55 +15871,55 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I179" t="s">
         <v>54</v>
       </c>
       <c r="J179">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="K179">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L179">
-        <v>1.615</v>
+        <v>1.159</v>
       </c>
       <c r="M179">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="N179">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O179">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="P179">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q179">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="R179">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S179">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T179">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
         <v>-1</v>
@@ -15928,19 +15928,19 @@
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>0.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -16387,10 +16387,10 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E185" t="s">
+        <v>45</v>
+      </c>
+      <c r="F185" t="s">
         <v>46</v>
-      </c>
-      <c r="F185" t="s">
-        <v>45</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16808,7 +16808,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6886972</v>
+        <v>6886973</v>
       </c>
       <c r="C190" t="s">
         <v>35</v>
@@ -16817,76 +16817,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J190">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="K190">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L190">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="M190">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="N190">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O190">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="P190">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q190">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T190">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V190">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z190">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB190">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -16894,7 +16894,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6886973</v>
+        <v>6886974</v>
       </c>
       <c r="C191" t="s">
         <v>35</v>
@@ -16903,76 +16903,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J191">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="K191">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L191">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="M191">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N191">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O191">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="P191">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q191">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T191">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U191">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V191">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y191">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -16980,7 +16980,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6886974</v>
+        <v>6886972</v>
       </c>
       <c r="C192" t="s">
         <v>35</v>
@@ -16989,10 +16989,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -17004,25 +17004,25 @@
         <v>54</v>
       </c>
       <c r="J192">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="K192">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L192">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M192">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N192">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O192">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="P192">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q192">
         <v>1.825</v>
@@ -17031,13 +17031,13 @@
         <v>1.975</v>
       </c>
       <c r="S192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T192">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U192">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
         <v>-1</v>
@@ -17046,7 +17046,7 @@
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="Y192">
         <v>-1</v>
@@ -17058,7 +17058,7 @@
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:28">
@@ -17152,7 +17152,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6886980</v>
+        <v>6885379</v>
       </c>
       <c r="C194" t="s">
         <v>35</v>
@@ -17161,46 +17161,46 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F194" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="s">
         <v>55</v>
       </c>
       <c r="J194">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="K194">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L194">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M194">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N194">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O194">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="P194">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q194">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R194">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S194">
         <v>2.75</v>
@@ -17209,10 +17209,10 @@
         <v>1.85</v>
       </c>
       <c r="U194">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>1.375</v>
+        <v>1.875</v>
       </c>
       <c r="W194">
         <v>-1</v>
@@ -17221,16 +17221,16 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB194">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -17238,7 +17238,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6885379</v>
+        <v>6886980</v>
       </c>
       <c r="C195" t="s">
         <v>35</v>
@@ -17247,46 +17247,46 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E195" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F195" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="s">
         <v>55</v>
       </c>
       <c r="J195">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="K195">
+        <v>3.6</v>
+      </c>
+      <c r="L195">
+        <v>3.2</v>
+      </c>
+      <c r="M195">
+        <v>2.375</v>
+      </c>
+      <c r="N195">
         <v>3.4</v>
       </c>
-      <c r="L195">
-        <v>2.75</v>
-      </c>
-      <c r="M195">
-        <v>2.875</v>
-      </c>
-      <c r="N195">
-        <v>3.25</v>
-      </c>
       <c r="O195">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="P195">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q195">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S195">
         <v>2.75</v>
@@ -17295,10 +17295,10 @@
         <v>1.85</v>
       </c>
       <c r="U195">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V195">
-        <v>1.875</v>
+        <v>1.375</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17307,16 +17307,16 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17324,7 +17324,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6886976</v>
+        <v>6886978</v>
       </c>
       <c r="C196" t="s">
         <v>35</v>
@@ -17333,76 +17333,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F196" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="s">
         <v>56</v>
       </c>
       <c r="J196">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="K196">
         <v>3.5</v>
       </c>
       <c r="L196">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N196">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O196">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="P196">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q196">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
         <v>2.75</v>
       </c>
       <c r="T196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V196">
         <v>-1</v>
       </c>
       <c r="W196">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA196">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -17410,7 +17410,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6886978</v>
+        <v>6880546</v>
       </c>
       <c r="C197" t="s">
         <v>35</v>
@@ -17419,10 +17419,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17434,61 +17434,61 @@
         <v>56</v>
       </c>
       <c r="J197">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="K197">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="M197">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="N197">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O197">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="P197">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q197">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T197">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U197">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V197">
         <v>-1</v>
       </c>
       <c r="W197">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z197">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17496,7 +17496,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6880546</v>
+        <v>6886976</v>
       </c>
       <c r="C198" t="s">
         <v>35</v>
@@ -17505,76 +17505,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="s">
         <v>56</v>
       </c>
       <c r="J198">
+        <v>4</v>
+      </c>
+      <c r="K198">
+        <v>3.5</v>
+      </c>
+      <c r="L198">
+        <v>1.727</v>
+      </c>
+      <c r="M198">
+        <v>5.25</v>
+      </c>
+      <c r="N198">
+        <v>3.5</v>
+      </c>
+      <c r="O198">
+        <v>1.571</v>
+      </c>
+      <c r="P198">
+        <v>0.75</v>
+      </c>
+      <c r="Q198">
+        <v>1.9</v>
+      </c>
+      <c r="R198">
+        <v>1.95</v>
+      </c>
+      <c r="S198">
+        <v>2.75</v>
+      </c>
+      <c r="T198">
+        <v>1.925</v>
+      </c>
+      <c r="U198">
+        <v>1.925</v>
+      </c>
+      <c r="V198">
+        <v>-1</v>
+      </c>
+      <c r="W198">
         <v>2.5</v>
       </c>
-      <c r="K198">
-        <v>3.6</v>
-      </c>
-      <c r="L198">
-        <v>2.3</v>
-      </c>
-      <c r="M198">
-        <v>2.55</v>
-      </c>
-      <c r="N198">
-        <v>3.4</v>
-      </c>
-      <c r="O198">
-        <v>2.375</v>
-      </c>
-      <c r="P198">
-        <v>0</v>
-      </c>
-      <c r="Q198">
-        <v>1.975</v>
-      </c>
-      <c r="R198">
-        <v>1.825</v>
-      </c>
-      <c r="S198">
-        <v>2.25</v>
-      </c>
-      <c r="T198">
-        <v>1.8</v>
-      </c>
-      <c r="U198">
-        <v>2</v>
-      </c>
-      <c r="V198">
-        <v>-1</v>
-      </c>
-      <c r="W198">
-        <v>2.4</v>
-      </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB198">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17680,7 +17680,7 @@
         <v>36</v>
       </c>
       <c r="F200" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G200">
         <v>4</v>
@@ -17849,7 +17849,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F202" t="s">
         <v>50</v>
@@ -18110,7 +18110,7 @@
         <v>48</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18270,7 +18270,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6880547</v>
+        <v>6886985</v>
       </c>
       <c r="C207" t="s">
         <v>35</v>
@@ -18279,40 +18279,40 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J207">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="K207">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L207">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="M207">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="N207">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O207">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q207">
         <v>1.975</v>
@@ -18324,31 +18324,31 @@
         <v>2.75</v>
       </c>
       <c r="T207">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V207">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y207">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA207">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18356,7 +18356,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6886985</v>
+        <v>6880547</v>
       </c>
       <c r="C208" t="s">
         <v>35</v>
@@ -18365,40 +18365,40 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E208" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G208">
+        <v>4</v>
+      </c>
+      <c r="H208">
         <v>1</v>
       </c>
-      <c r="H208">
-        <v>2</v>
-      </c>
       <c r="I208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J208">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="K208">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L208">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="M208">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="N208">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O208">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q208">
         <v>1.975</v>
@@ -18410,31 +18410,31 @@
         <v>2.75</v>
       </c>
       <c r="T208">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U208">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z208">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18454,7 +18454,7 @@
         <v>50</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G209">
         <v>2</v>
@@ -19139,7 +19139,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F217" t="s">
         <v>48</v>
@@ -19225,7 +19225,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F218" t="s">
         <v>47</v>
@@ -19474,7 +19474,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6886989</v>
+        <v>6886988</v>
       </c>
       <c r="C221" t="s">
         <v>35</v>
@@ -19483,73 +19483,73 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G221">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221" t="s">
+        <v>55</v>
+      </c>
+      <c r="J221">
+        <v>2.8</v>
+      </c>
+      <c r="K221">
+        <v>3.75</v>
+      </c>
+      <c r="L221">
+        <v>2.05</v>
+      </c>
+      <c r="M221">
         <v>4</v>
       </c>
-      <c r="I221" t="s">
-        <v>54</v>
-      </c>
-      <c r="J221">
-        <v>1.666</v>
-      </c>
-      <c r="K221">
-        <v>4</v>
-      </c>
-      <c r="L221">
-        <v>3.75</v>
-      </c>
-      <c r="M221">
-        <v>1.95</v>
-      </c>
       <c r="N221">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O221">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="P221">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q221">
+        <v>1.775</v>
+      </c>
+      <c r="R221">
         <v>2.025</v>
-      </c>
-      <c r="R221">
-        <v>1.825</v>
       </c>
       <c r="S221">
         <v>2.75</v>
       </c>
       <c r="T221">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V221">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z221">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB221">
         <v>-1</v>
@@ -19560,7 +19560,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6886988</v>
+        <v>6886989</v>
       </c>
       <c r="C222" t="s">
         <v>35</v>
@@ -19569,73 +19569,73 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G222">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I222" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J222">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="K222">
+        <v>4</v>
+      </c>
+      <c r="L222">
         <v>3.75</v>
       </c>
-      <c r="L222">
-        <v>2.05</v>
-      </c>
       <c r="M222">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N222">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O222">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="P222">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q222">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="R222">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S222">
         <v>2.75</v>
       </c>
       <c r="T222">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U222">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y222">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA222">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB222">
         <v>-1</v>
@@ -19830,7 +19830,7 @@
         <v>49</v>
       </c>
       <c r="F225" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -19916,7 +19916,7 @@
         <v>47</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -20601,7 +20601,7 @@
         <v>45379.64583333334</v>
       </c>
       <c r="E234" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F234" t="s">
         <v>51</v>
@@ -20687,7 +20687,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F235" t="s">
         <v>49</v>
@@ -21538,7 +21538,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6885382</v>
+        <v>6887003</v>
       </c>
       <c r="C245" t="s">
         <v>35</v>
@@ -21547,13 +21547,13 @@
         <v>45388.375</v>
       </c>
       <c r="E245" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G245">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -21562,19 +21562,19 @@
         <v>55</v>
       </c>
       <c r="J245">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="K245">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L245">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="M245">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="N245">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O245">
         <v>4.75</v>
@@ -21583,22 +21583,22 @@
         <v>-1</v>
       </c>
       <c r="Q245">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R245">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S245">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T245">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U245">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V245">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="W245">
         <v>-1</v>
@@ -21607,16 +21607,16 @@
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB245">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:28">
@@ -21624,7 +21624,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6887002</v>
+        <v>6885382</v>
       </c>
       <c r="C246" t="s">
         <v>35</v>
@@ -21633,76 +21633,76 @@
         <v>45388.375</v>
       </c>
       <c r="E246" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F246" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J246">
-        <v>3.7</v>
+        <v>1.55</v>
       </c>
       <c r="K246">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L246">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="M246">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N246">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O246">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="P246">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q246">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R246">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S246">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T246">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U246">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V246">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z246">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="247" spans="1:28">
@@ -21710,7 +21710,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6887003</v>
+        <v>6887002</v>
       </c>
       <c r="C247" t="s">
         <v>35</v>
@@ -21719,43 +21719,43 @@
         <v>45388.375</v>
       </c>
       <c r="E247" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G247">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J247">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="K247">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="L247">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="M247">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O247">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="P247">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q247">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R247">
         <v>1.8</v>
@@ -21764,31 +21764,31 @@
         <v>3</v>
       </c>
       <c r="T247">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U247">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V247">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y247">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA247">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="248" spans="1:28">
@@ -21808,7 +21808,7 @@
         <v>51</v>
       </c>
       <c r="F248" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -21980,7 +21980,7 @@
         <v>52</v>
       </c>
       <c r="F250" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G250">
         <v>3</v>
@@ -22398,7 +22398,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6887008</v>
+        <v>6887009</v>
       </c>
       <c r="C255" t="s">
         <v>35</v>
@@ -22407,76 +22407,76 @@
         <v>45395.375</v>
       </c>
       <c r="E255" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F255" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G255">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H255">
         <v>0</v>
       </c>
       <c r="I255" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J255">
-        <v>1.285</v>
+        <v>2.55</v>
       </c>
       <c r="K255">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L255">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="M255">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="N255">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O255">
-        <v>7.5</v>
+        <v>2.45</v>
       </c>
       <c r="P255">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q255">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R255">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S255">
         <v>3</v>
       </c>
       <c r="T255">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U255">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22484,7 +22484,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6887009</v>
+        <v>6887008</v>
       </c>
       <c r="C256" t="s">
         <v>35</v>
@@ -22493,76 +22493,76 @@
         <v>45395.375</v>
       </c>
       <c r="E256" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F256" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H256">
         <v>0</v>
       </c>
       <c r="I256" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J256">
-        <v>2.55</v>
+        <v>1.285</v>
       </c>
       <c r="K256">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L256">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="M256">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="N256">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O256">
-        <v>2.45</v>
+        <v>7.5</v>
       </c>
       <c r="P256">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q256">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R256">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S256">
         <v>3</v>
       </c>
       <c r="T256">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U256">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W256">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB256">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22579,7 +22579,7 @@
         <v>45395.375</v>
       </c>
       <c r="E257" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F257" t="s">
         <v>42</v>
@@ -22926,7 +22926,7 @@
         <v>38</v>
       </c>
       <c r="F261" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -23098,7 +23098,7 @@
         <v>42</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -23525,7 +23525,7 @@
         <v>45408.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F268" t="s">
         <v>38</v>
@@ -23946,7 +23946,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6993873</v>
+        <v>6990142</v>
       </c>
       <c r="C273" t="s">
         <v>35</v>
@@ -23955,76 +23955,76 @@
         <v>45409.375</v>
       </c>
       <c r="E273" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F273" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G273">
         <v>1</v>
       </c>
       <c r="H273">
+        <v>2</v>
+      </c>
+      <c r="I273" t="s">
+        <v>54</v>
+      </c>
+      <c r="J273">
+        <v>1.363</v>
+      </c>
+      <c r="K273">
+        <v>4.75</v>
+      </c>
+      <c r="L273">
+        <v>6</v>
+      </c>
+      <c r="M273">
+        <v>1.75</v>
+      </c>
+      <c r="N273">
+        <v>3.6</v>
+      </c>
+      <c r="O273">
+        <v>3.6</v>
+      </c>
+      <c r="P273">
+        <v>-0.5</v>
+      </c>
+      <c r="Q273">
+        <v>1.8</v>
+      </c>
+      <c r="R273">
+        <v>2</v>
+      </c>
+      <c r="S273">
+        <v>2.5</v>
+      </c>
+      <c r="T273">
+        <v>2</v>
+      </c>
+      <c r="U273">
+        <v>1.8</v>
+      </c>
+      <c r="V273">
+        <v>-1</v>
+      </c>
+      <c r="W273">
+        <v>-1</v>
+      </c>
+      <c r="X273">
+        <v>2.6</v>
+      </c>
+      <c r="Y273">
+        <v>-1</v>
+      </c>
+      <c r="Z273">
         <v>1</v>
       </c>
-      <c r="I273" t="s">
-        <v>56</v>
-      </c>
-      <c r="J273">
-        <v>2</v>
-      </c>
-      <c r="K273">
-        <v>4</v>
-      </c>
-      <c r="L273">
-        <v>2.75</v>
-      </c>
-      <c r="M273">
-        <v>2.15</v>
-      </c>
-      <c r="N273">
-        <v>4</v>
-      </c>
-      <c r="O273">
-        <v>2.625</v>
-      </c>
-      <c r="P273">
-        <v>-0.25</v>
-      </c>
-      <c r="Q273">
-        <v>1.975</v>
-      </c>
-      <c r="R273">
-        <v>1.825</v>
-      </c>
-      <c r="S273">
-        <v>2.75</v>
-      </c>
-      <c r="T273">
-        <v>1.775</v>
-      </c>
-      <c r="U273">
-        <v>2.025</v>
-      </c>
-      <c r="V273">
-        <v>-1</v>
-      </c>
-      <c r="W273">
-        <v>3</v>
-      </c>
-      <c r="X273">
-        <v>-1</v>
-      </c>
-      <c r="Y273">
-        <v>-0.5</v>
-      </c>
-      <c r="Z273">
-        <v>0.4125</v>
-      </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB273">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -24032,7 +24032,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6990142</v>
+        <v>6993873</v>
       </c>
       <c r="C274" t="s">
         <v>35</v>
@@ -24041,76 +24041,76 @@
         <v>45409.375</v>
       </c>
       <c r="E274" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F274" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G274">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J274">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="K274">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="L274">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="M274">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="N274">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O274">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P274">
+        <v>-0.25</v>
+      </c>
+      <c r="Q274">
+        <v>1.975</v>
+      </c>
+      <c r="R274">
+        <v>1.825</v>
+      </c>
+      <c r="S274">
+        <v>2.75</v>
+      </c>
+      <c r="T274">
+        <v>1.775</v>
+      </c>
+      <c r="U274">
+        <v>2.025</v>
+      </c>
+      <c r="V274">
+        <v>-1</v>
+      </c>
+      <c r="W274">
+        <v>3</v>
+      </c>
+      <c r="X274">
+        <v>-1</v>
+      </c>
+      <c r="Y274">
         <v>-0.5</v>
       </c>
-      <c r="Q274">
-        <v>1.8</v>
-      </c>
-      <c r="R274">
-        <v>2</v>
-      </c>
-      <c r="S274">
-        <v>2.5</v>
-      </c>
-      <c r="T274">
-        <v>2</v>
-      </c>
-      <c r="U274">
-        <v>1.8</v>
-      </c>
-      <c r="V274">
-        <v>-1</v>
-      </c>
-      <c r="W274">
-        <v>-1</v>
-      </c>
-      <c r="X274">
-        <v>2.6</v>
-      </c>
-      <c r="Y274">
-        <v>-1</v>
-      </c>
       <c r="Z274">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA274">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="275" spans="1:28">
@@ -24216,7 +24216,7 @@
         <v>37</v>
       </c>
       <c r="F276" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G276">
         <v>2</v>
@@ -24388,7 +24388,7 @@
         <v>53</v>
       </c>
       <c r="F278" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -25159,7 +25159,7 @@
         <v>45422.60416666666</v>
       </c>
       <c r="E287" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F287" t="s">
         <v>39</v>
@@ -25675,7 +25675,7 @@
         <v>45423.375</v>
       </c>
       <c r="E293" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F293" t="s">
         <v>53</v>
@@ -25933,46 +25933,46 @@
         <v>45430.375</v>
       </c>
       <c r="E296" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F296" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J296">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K296">
         <v>4</v>
       </c>
       <c r="L296">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="M296">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N296">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O296">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="P296">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q296">
+        <v>1.825</v>
+      </c>
+      <c r="R296">
         <v>2.025</v>
       </c>
-      <c r="R296">
-        <v>1.825</v>
-      </c>
       <c r="S296">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T296">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U296">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V296">
         <v>0</v>
@@ -25998,46 +25998,46 @@
         <v>45430.375</v>
       </c>
       <c r="E297" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F297" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J297">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K297">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L297">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="M297">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="N297">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O297">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="P297">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q297">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R297">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S297">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T297">
+        <v>1.9</v>
+      </c>
+      <c r="U297">
         <v>1.95</v>
-      </c>
-      <c r="U297">
-        <v>1.9</v>
       </c>
       <c r="V297">
         <v>0</v>
@@ -26063,40 +26063,40 @@
         <v>45430.375</v>
       </c>
       <c r="E298" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F298" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J298">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K298">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L298">
         <v>2.4</v>
       </c>
       <c r="M298">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N298">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O298">
+        <v>1.85</v>
+      </c>
+      <c r="P298">
+        <v>0.5</v>
+      </c>
+      <c r="Q298">
+        <v>1.875</v>
+      </c>
+      <c r="R298">
+        <v>1.975</v>
+      </c>
+      <c r="S298">
         <v>3</v>
-      </c>
-      <c r="P298">
-        <v>-0.25</v>
-      </c>
-      <c r="Q298">
-        <v>1.825</v>
-      </c>
-      <c r="R298">
-        <v>2.025</v>
-      </c>
-      <c r="S298">
-        <v>2.75</v>
       </c>
       <c r="T298">
         <v>1.825</v>
@@ -26128,46 +26128,46 @@
         <v>45430.375</v>
       </c>
       <c r="E299" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F299" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J299">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K299">
         <v>4</v>
       </c>
       <c r="L299">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="M299">
-        <v>2.45</v>
+        <v>1.9</v>
       </c>
       <c r="N299">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O299">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="P299">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q299">
+        <v>2</v>
+      </c>
+      <c r="R299">
+        <v>1.85</v>
+      </c>
+      <c r="S299">
+        <v>2.75</v>
+      </c>
+      <c r="T299">
+        <v>1.8</v>
+      </c>
+      <c r="U299">
         <v>2.05</v>
-      </c>
-      <c r="R299">
-        <v>1.8</v>
-      </c>
-      <c r="S299">
-        <v>3</v>
-      </c>
-      <c r="T299">
-        <v>1.9</v>
-      </c>
-      <c r="U299">
-        <v>1.95</v>
       </c>
       <c r="V299">
         <v>0</v>
@@ -26193,46 +26193,46 @@
         <v>45430.375</v>
       </c>
       <c r="E300" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F300" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J300">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="K300">
         <v>4</v>
       </c>
       <c r="L300">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M300">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="N300">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O300">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P300">
         <v>-0.75</v>
       </c>
       <c r="Q300">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R300">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S300">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T300">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U300">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V300">
         <v>0</v>
@@ -26258,46 +26258,46 @@
         <v>45430.375</v>
       </c>
       <c r="E301" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F301" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J301">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="K301">
+        <v>4</v>
+      </c>
+      <c r="L301">
+        <v>4.5</v>
+      </c>
+      <c r="M301">
+        <v>1.7</v>
+      </c>
+      <c r="N301">
+        <v>3.8</v>
+      </c>
+      <c r="O301">
         <v>3.75</v>
       </c>
-      <c r="L301">
-        <v>2.4</v>
-      </c>
-      <c r="M301">
-        <v>2.25</v>
-      </c>
-      <c r="N301">
-        <v>3.75</v>
-      </c>
-      <c r="O301">
-        <v>2.45</v>
-      </c>
       <c r="P301">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q301">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R301">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S301">
         <v>3</v>
       </c>
       <c r="T301">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U301">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V301">
         <v>0</v>
@@ -26323,46 +26323,46 @@
         <v>45430.375</v>
       </c>
       <c r="E302" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F302" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J302">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="K302">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L302">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="M302">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="N302">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O302">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="P302">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q302">
+        <v>1.875</v>
+      </c>
+      <c r="R302">
+        <v>1.975</v>
+      </c>
+      <c r="S302">
+        <v>3</v>
+      </c>
+      <c r="T302">
+        <v>1.95</v>
+      </c>
+      <c r="U302">
         <v>1.9</v>
-      </c>
-      <c r="R302">
-        <v>1.95</v>
-      </c>
-      <c r="S302">
-        <v>3.25</v>
-      </c>
-      <c r="T302">
-        <v>2.025</v>
-      </c>
-      <c r="U302">
-        <v>1.825</v>
       </c>
       <c r="V302">
         <v>0</v>
@@ -26388,46 +26388,46 @@
         <v>45430.375</v>
       </c>
       <c r="E303" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F303" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J303">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="K303">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L303">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="M303">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="N303">
-        <v>3.9</v>
+        <v>5.25</v>
       </c>
       <c r="O303">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P303">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q303">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R303">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S303">
         <v>3.25</v>
       </c>
       <c r="T303">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U303">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V303">
         <v>0</v>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -115,10 +115,10 @@
     <t>SSVg Velbert</t>
   </si>
   <si>
-    <t>SC Wiedenbruck</t>
+    <t>FC WegbergBeeck</t>
   </si>
   <si>
-    <t>FC WegbergBeeck</t>
+    <t>SC Wiedenbruck</t>
   </si>
   <si>
     <t>SC Paderborn 07 II</t>
@@ -133,10 +133,10 @@
     <t>RotWeiss Oberhausen</t>
   </si>
   <si>
-    <t>Fortuna Dusseldorf II</t>
+    <t>SC Fortuna Kln</t>
   </si>
   <si>
-    <t>SC Fortuna Kln</t>
+    <t>Fortuna Dusseldorf II</t>
   </si>
   <si>
     <t>Rot Weiss Ahlen</t>
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6886876</v>
+        <v>6886877</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1058,7 +1058,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1070,43 +1070,43 @@
         <v>47</v>
       </c>
       <c r="J7">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="M7">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N7">
         <v>3.6</v>
       </c>
       <c r="O7">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="P7">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q7">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
         <v>3</v>
       </c>
       <c r="T7">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1115,7 +1115,7 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z7">
         <v>-1</v>
@@ -1124,7 +1124,7 @@
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6886877</v>
+        <v>6886876</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1144,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1156,43 +1156,43 @@
         <v>47</v>
       </c>
       <c r="J8">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="K8">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L8">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="M8">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N8">
         <v>3.6</v>
       </c>
       <c r="O8">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="P8">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q8">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R8">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
         <v>3</v>
       </c>
       <c r="T8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1201,7 +1201,7 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z8">
         <v>-1</v>
@@ -1210,7 +1210,7 @@
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1402,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1562,7 +1562,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6886884</v>
+        <v>6886883</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1574,73 +1574,73 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="K13">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="N13">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O13">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q13">
+        <v>1.975</v>
+      </c>
+      <c r="R13">
         <v>1.825</v>
       </c>
-      <c r="R13">
-        <v>1.975</v>
-      </c>
       <c r="S13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1648,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6886883</v>
+        <v>6886884</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1660,73 +1660,73 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>3.8</v>
+      </c>
+      <c r="L14">
+        <v>2.875</v>
+      </c>
+      <c r="M14">
+        <v>2.25</v>
+      </c>
+      <c r="N14">
+        <v>3.8</v>
+      </c>
+      <c r="O14">
+        <v>2.5</v>
+      </c>
+      <c r="P14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14">
-        <v>1.55</v>
-      </c>
-      <c r="K14">
-        <v>3.75</v>
-      </c>
-      <c r="L14">
-        <v>5</v>
-      </c>
-      <c r="M14">
-        <v>1.4</v>
-      </c>
-      <c r="N14">
-        <v>4.2</v>
-      </c>
-      <c r="O14">
-        <v>6.5</v>
-      </c>
-      <c r="P14">
-        <v>-1.25</v>
-      </c>
       <c r="Q14">
+        <v>1.825</v>
+      </c>
+      <c r="R14">
         <v>1.975</v>
       </c>
-      <c r="R14">
-        <v>1.825</v>
-      </c>
       <c r="S14">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2259,7 +2259,7 @@
         <v>45150.375</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>41</v>
@@ -2517,10 +2517,10 @@
         <v>45150.375</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2692,7 +2692,7 @@
         <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2938,7 +2938,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6886892</v>
+        <v>6886893</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2947,55 +2947,55 @@
         <v>45157.375</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I29" t="s">
         <v>46</v>
       </c>
       <c r="J29">
+        <v>1.909</v>
+      </c>
+      <c r="K29">
+        <v>3.75</v>
+      </c>
+      <c r="L29">
+        <v>3.1</v>
+      </c>
+      <c r="M29">
         <v>2.2</v>
       </c>
-      <c r="K29">
-        <v>3.2</v>
-      </c>
-      <c r="L29">
-        <v>2.875</v>
-      </c>
-      <c r="M29">
-        <v>1.45</v>
-      </c>
       <c r="N29">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="P29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R29">
         <v>2</v>
       </c>
       <c r="S29">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T29">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U29">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
         <v>-1</v>
@@ -3004,7 +3004,7 @@
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="Y29">
         <v>-1</v>
@@ -3013,10 +3013,10 @@
         <v>1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3024,7 +3024,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6886891</v>
+        <v>6886892</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3033,40 +3033,40 @@
         <v>45157.375</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J30">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L30">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="M30">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="N30">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O30">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q30">
         <v>1.8</v>
@@ -3075,34 +3075,34 @@
         <v>2</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T30">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
         <v>-1</v>
       </c>
       <c r="W30">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3110,7 +3110,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6886890</v>
+        <v>6886891</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3119,10 +3119,10 @@
         <v>45157.375</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3134,61 +3134,61 @@
         <v>48</v>
       </c>
       <c r="J31">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="K31">
         <v>3.4</v>
       </c>
       <c r="L31">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="M31">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="N31">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O31">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="P31">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q31">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S31">
         <v>3</v>
       </c>
       <c r="T31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
         <v>-1</v>
       </c>
       <c r="W31">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z31">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3196,7 +3196,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6884523</v>
+        <v>6886890</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3205,34 +3205,34 @@
         <v>45157.375</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J32">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K32">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L32">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N32">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O32">
         <v>2.8</v>
@@ -3241,40 +3241,40 @@
         <v>-0.25</v>
       </c>
       <c r="Q32">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U32">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3282,7 +3282,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6886893</v>
+        <v>6885364</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3291,76 +3291,76 @@
         <v>45157.375</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J33">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="K33">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L33">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="M33">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N33">
         <v>3.5</v>
       </c>
       <c r="O33">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T33">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
         <v>-1</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X33">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3368,7 +3368,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6885364</v>
+        <v>6884523</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3377,76 +3377,76 @@
         <v>45157.375</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K34">
         <v>3.25</v>
       </c>
       <c r="L34">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="M34">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N34">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O34">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P34">
         <v>-0.25</v>
       </c>
       <c r="Q34">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T34">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U34">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W34">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z34">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3466,7 +3466,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3549,7 +3549,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
         <v>41</v>
@@ -3635,7 +3635,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -3712,7 +3712,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6884490</v>
+        <v>6885365</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3721,76 +3721,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K38">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L38">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="P38">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q38">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V38">
         <v>-1</v>
       </c>
       <c r="W38">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3798,7 +3798,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6885365</v>
+        <v>6884490</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3807,76 +3807,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>3.8</v>
+      </c>
+      <c r="L39">
+        <v>2.875</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>3.75</v>
+      </c>
+      <c r="O39">
         <v>3</v>
       </c>
-      <c r="I39" t="s">
-        <v>46</v>
-      </c>
-      <c r="J39">
-        <v>2.5</v>
-      </c>
-      <c r="K39">
-        <v>3.4</v>
-      </c>
-      <c r="L39">
-        <v>2.375</v>
-      </c>
-      <c r="M39">
-        <v>3.4</v>
-      </c>
-      <c r="N39">
-        <v>3.5</v>
-      </c>
-      <c r="O39">
-        <v>1.833</v>
-      </c>
       <c r="P39">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q39">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
         <v>-1</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X39">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -4154,7 +4154,7 @@
         <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4323,7 +4323,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
@@ -4400,7 +4400,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6886899</v>
+        <v>6886901</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4409,46 +4409,46 @@
         <v>45171.375</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
         <v>47</v>
       </c>
       <c r="J46">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="M46">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O46">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="P46">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
         <v>3</v>
@@ -4460,7 +4460,7 @@
         <v>1.975</v>
       </c>
       <c r="V46">
-        <v>0.444</v>
+        <v>1.3</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4469,16 +4469,16 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4486,7 +4486,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6885366</v>
+        <v>6886899</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4495,58 +4495,58 @@
         <v>45171.375</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
         <v>47</v>
       </c>
       <c r="J47">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="K47">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="M47">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="N47">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O47">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q47">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
         <v>3</v>
       </c>
       <c r="T47">
+        <v>1.825</v>
+      </c>
+      <c r="U47">
         <v>1.975</v>
       </c>
-      <c r="U47">
-        <v>1.825</v>
-      </c>
       <c r="V47">
-        <v>1.375</v>
+        <v>0.444</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4555,13 +4555,13 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -4572,7 +4572,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6886901</v>
+        <v>6886898</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4581,13 +4581,13 @@
         <v>45171.375</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4596,25 +4596,25 @@
         <v>47</v>
       </c>
       <c r="J48">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K48">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q48">
         <v>1.85</v>
@@ -4623,16 +4623,16 @@
         <v>1.95</v>
       </c>
       <c r="S48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T48">
+        <v>1.975</v>
+      </c>
+      <c r="U48">
         <v>1.825</v>
       </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
       <c r="V48">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4647,10 +4647,10 @@
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4658,7 +4658,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6886898</v>
+        <v>6885366</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4667,40 +4667,40 @@
         <v>45171.375</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="s">
         <v>47</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K49">
         <v>3.6</v>
       </c>
       <c r="L49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N49">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="P49">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <v>1.85</v>
@@ -4709,7 +4709,7 @@
         <v>1.95</v>
       </c>
       <c r="S49">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T49">
         <v>1.975</v>
@@ -4718,7 +4718,7 @@
         <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4733,10 +4733,10 @@
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4756,7 +4756,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4928,7 +4928,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5355,7 +5355,7 @@
         <v>45184.60416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
         <v>29</v>
@@ -5432,7 +5432,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6886903</v>
+        <v>6886905</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5441,76 +5441,76 @@
         <v>45185.375</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J58">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="K58">
         <v>3.75</v>
       </c>
       <c r="L58">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N58">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O58">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="P58">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q58">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T58">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5518,7 +5518,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6886905</v>
+        <v>6886906</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5527,76 +5527,76 @@
         <v>45185.375</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J59">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="K59">
         <v>3.75</v>
       </c>
       <c r="L59">
+        <v>2.5</v>
+      </c>
+      <c r="M59">
+        <v>1.95</v>
+      </c>
+      <c r="N59">
+        <v>3.8</v>
+      </c>
+      <c r="O59">
         <v>3</v>
       </c>
-      <c r="M59">
+      <c r="P59">
+        <v>-0.5</v>
+      </c>
+      <c r="Q59">
+        <v>2.025</v>
+      </c>
+      <c r="R59">
+        <v>1.825</v>
+      </c>
+      <c r="S59">
+        <v>2.75</v>
+      </c>
+      <c r="T59">
+        <v>1.8</v>
+      </c>
+      <c r="U59">
         <v>2.05</v>
       </c>
-      <c r="N59">
-        <v>3.5</v>
-      </c>
-      <c r="O59">
-        <v>2.875</v>
-      </c>
-      <c r="P59">
-        <v>-0.25</v>
-      </c>
-      <c r="Q59">
-        <v>1.85</v>
-      </c>
-      <c r="R59">
-        <v>1.95</v>
-      </c>
-      <c r="S59">
-        <v>3.25</v>
-      </c>
-      <c r="T59">
-        <v>1.975</v>
-      </c>
-      <c r="U59">
-        <v>1.825</v>
-      </c>
       <c r="V59">
+        <v>-1</v>
+      </c>
+      <c r="W59">
+        <v>2.8</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
+        <v>0.825</v>
+      </c>
+      <c r="AA59">
+        <v>-1</v>
+      </c>
+      <c r="AB59">
         <v>1.05</v>
-      </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
-      <c r="AA59">
-        <v>-0.5</v>
-      </c>
-      <c r="AB59">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5604,7 +5604,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6886906</v>
+        <v>6886903</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5613,76 +5613,76 @@
         <v>45185.375</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J60">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="K60">
         <v>3.75</v>
       </c>
       <c r="L60">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M60">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N60">
         <v>3.8</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P60">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q60">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
         <v>2.75</v>
       </c>
       <c r="T60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U60">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5788,7 +5788,7 @@
         <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6046,7 +6046,7 @@
         <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6215,7 +6215,7 @@
         <v>45192.375</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
         <v>37</v>
@@ -6562,7 +6562,7 @@
         <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6645,7 +6645,7 @@
         <v>45193.375</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
         <v>28</v>
@@ -6731,7 +6731,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
         <v>30</v>
@@ -6903,7 +6903,7 @@
         <v>45199.375</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
         <v>29</v>
@@ -6980,7 +6980,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6880534</v>
+        <v>6886916</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6989,49 +6989,49 @@
         <v>45199.375</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J76">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="K76">
         <v>3.6</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="M76">
-        <v>1.55</v>
+        <v>3.8</v>
       </c>
       <c r="N76">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O76">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="P76">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T76">
         <v>1.95</v>
@@ -7043,22 +7043,22 @@
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7066,7 +7066,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6884493</v>
+        <v>6886915</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7075,10 +7075,10 @@
         <v>45199.375</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,31 +7090,31 @@
         <v>48</v>
       </c>
       <c r="J77">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="K77">
         <v>3.6</v>
       </c>
       <c r="L77">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N77">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="P77">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
         <v>2.75</v>
@@ -7129,16 +7129,16 @@
         <v>-1</v>
       </c>
       <c r="W77">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z77">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>-1</v>
@@ -7152,7 +7152,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6886915</v>
+        <v>6884493</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -7161,10 +7161,10 @@
         <v>45199.375</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7176,31 +7176,31 @@
         <v>48</v>
       </c>
       <c r="J78">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="K78">
         <v>3.6</v>
       </c>
       <c r="L78">
+        <v>2.8</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>3.6</v>
+      </c>
+      <c r="O78">
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <v>-0.25</v>
+      </c>
+      <c r="Q78">
         <v>1.8</v>
       </c>
-      <c r="M78">
-        <v>4.75</v>
-      </c>
-      <c r="N78">
-        <v>4</v>
-      </c>
-      <c r="O78">
-        <v>1.533</v>
-      </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>1.825</v>
-      </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S78">
         <v>2.75</v>
@@ -7215,16 +7215,16 @@
         <v>-1</v>
       </c>
       <c r="W78">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7238,7 +7238,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6886916</v>
+        <v>6880534</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7247,49 +7247,49 @@
         <v>45199.375</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J79">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="K79">
         <v>3.6</v>
       </c>
       <c r="L79">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M79">
+        <v>1.55</v>
+      </c>
+      <c r="N79">
         <v>3.8</v>
       </c>
-      <c r="N79">
-        <v>3.5</v>
-      </c>
       <c r="O79">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="P79">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T79">
         <v>1.95</v>
@@ -7301,22 +7301,22 @@
         <v>-1</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7419,7 +7419,7 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
         <v>28</v>
@@ -7852,7 +7852,7 @@
         <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8193,7 +8193,7 @@
         <v>45212.60416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
         <v>41</v>
@@ -8279,7 +8279,7 @@
         <v>45212.60416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
         <v>30</v>
@@ -8454,7 +8454,7 @@
         <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8614,7 +8614,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6886925</v>
+        <v>6880535</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -8623,76 +8623,76 @@
         <v>45213.375</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J95">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="K95">
         <v>3.6</v>
       </c>
       <c r="L95">
+        <v>1.909</v>
+      </c>
+      <c r="M95">
         <v>2.15</v>
       </c>
-      <c r="M95">
-        <v>2.3</v>
-      </c>
       <c r="N95">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O95">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="P95">
         <v>-0.25</v>
       </c>
       <c r="Q95">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="R95">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T95">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V95">
         <v>-1</v>
       </c>
       <c r="W95">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.3625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8786,7 +8786,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6880535</v>
+        <v>6886925</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8795,76 +8795,76 @@
         <v>45213.375</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J97">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="K97">
         <v>3.6</v>
       </c>
       <c r="L97">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="M97">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N97">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O97">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="P97">
         <v>-0.25</v>
       </c>
       <c r="Q97">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="R97">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S97">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T97">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
         <v>-1</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X97">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z97">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8872,7 +8872,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6886927</v>
+        <v>6882772</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8881,73 +8881,73 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J98">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K98">
         <v>3.6</v>
       </c>
       <c r="L98">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M98">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O98">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="P98">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q98">
+        <v>1.9</v>
+      </c>
+      <c r="R98">
         <v>1.95</v>
       </c>
-      <c r="R98">
+      <c r="S98">
+        <v>3</v>
+      </c>
+      <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="U98">
         <v>1.85</v>
       </c>
-      <c r="S98">
-        <v>2.5</v>
-      </c>
-      <c r="T98">
-        <v>1.9</v>
-      </c>
-      <c r="U98">
-        <v>1.9</v>
-      </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
         <v>0.95</v>
       </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
       <c r="AA98">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -8958,7 +8958,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6882772</v>
+        <v>6886927</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8967,73 +8967,73 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J99">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K99">
         <v>3.6</v>
       </c>
       <c r="L99">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M99">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N99">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O99">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="P99">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q99">
+        <v>1.95</v>
+      </c>
+      <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
+        <v>2.5</v>
+      </c>
+      <c r="T99">
         <v>1.9</v>
       </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>3</v>
-      </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9056,7 +9056,7 @@
         <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9142,7 +9142,7 @@
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9400,7 +9400,7 @@
         <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -9741,7 +9741,7 @@
         <v>45226.60416666666</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F108" t="s">
         <v>43</v>
@@ -9827,7 +9827,7 @@
         <v>45226.60416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
         <v>42</v>
@@ -9999,10 +9999,10 @@
         <v>45227.375</v>
       </c>
       <c r="E111" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111" t="s">
         <v>33</v>
-      </c>
-      <c r="F111" t="s">
-        <v>34</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10429,7 +10429,7 @@
         <v>45233.64583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
         <v>32</v>
@@ -10506,7 +10506,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6880538</v>
+        <v>6886935</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10515,76 +10515,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F117" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
         <v>3</v>
       </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J117">
-        <v>2</v>
+        <v>1.166</v>
       </c>
       <c r="K117">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L117">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="M117">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N117">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="O117">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="P117">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q117">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R117">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T117">
         <v>2</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y117">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10592,7 +10592,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6884532</v>
+        <v>6880538</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10601,58 +10601,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
         <v>47</v>
       </c>
       <c r="J118">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K118">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="M118">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N118">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O118">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q118">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
         <v>2.75</v>
       </c>
       <c r="T118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -10661,13 +10661,13 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.4625</v>
+        <v>0.5</v>
       </c>
       <c r="AB118">
         <v>-0.5</v>
@@ -10678,7 +10678,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6886935</v>
+        <v>6882770</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10687,13 +10687,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -10702,40 +10702,40 @@
         <v>46</v>
       </c>
       <c r="J119">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="K119">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="L119">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="M119">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="N119">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="O119">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q119">
+        <v>1.85</v>
+      </c>
+      <c r="R119">
         <v>1.95</v>
       </c>
-      <c r="R119">
-        <v>1.9</v>
-      </c>
       <c r="S119">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
         <v>-1</v>
@@ -10744,16 +10744,16 @@
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB119">
         <v>-1</v>
@@ -10764,7 +10764,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6886936</v>
+        <v>6884532</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10773,76 +10773,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>2</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J120">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="K120">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="M120">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="N120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P120">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q120">
+        <v>1.925</v>
+      </c>
+      <c r="R120">
         <v>1.875</v>
       </c>
-      <c r="R120">
-        <v>1.975</v>
-      </c>
       <c r="S120">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W120">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10850,7 +10850,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6886937</v>
+        <v>6886936</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -10859,76 +10859,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G121">
         <v>2</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J121">
-        <v>1.363</v>
+        <v>1.6</v>
       </c>
       <c r="K121">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="L121">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="N121">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="O121">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="P121">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="Q121">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U121">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB121">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10936,7 +10936,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6886938</v>
+        <v>6886937</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10945,76 +10945,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
         <v>0</v>
       </c>
-      <c r="H122">
-        <v>4</v>
-      </c>
       <c r="I122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J122">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="K122">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L122">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="M122">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N122">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O122">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="P122">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q122">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R122">
         <v>1.875</v>
       </c>
       <c r="S122">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T122">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U122">
         <v>1.875</v>
       </c>
       <c r="V122">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
         <v>0.875</v>
-      </c>
-      <c r="AA122">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11022,7 +11022,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6882770</v>
+        <v>6886938</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11031,55 +11031,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I123" t="s">
         <v>46</v>
       </c>
       <c r="J123">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="K123">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L123">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="M123">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="N123">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O123">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="P123">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T123">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U123">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
         <v>-1</v>
@@ -11088,16 +11088,16 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB123">
         <v>-1</v>
@@ -11120,7 +11120,7 @@
         <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11203,7 +11203,7 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
         <v>31</v>
@@ -11378,7 +11378,7 @@
         <v>28</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11547,7 +11547,7 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
         <v>29</v>
@@ -12140,7 +12140,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6886947</v>
+        <v>6886948</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12149,40 +12149,40 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J136">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="K136">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L136">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M136">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="N136">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O136">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q136">
         <v>1.925</v>
@@ -12191,34 +12191,34 @@
         <v>1.875</v>
       </c>
       <c r="S136">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12226,7 +12226,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6886948</v>
+        <v>6886946</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12235,28 +12235,28 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="s">
         <v>47</v>
       </c>
       <c r="J137">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="K137">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L137">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="M137">
         <v>1.666</v>
@@ -12271,19 +12271,19 @@
         <v>-0.75</v>
       </c>
       <c r="Q137">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R137">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
         <v>0.6659999999999999</v>
@@ -12295,16 +12295,16 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12312,7 +12312,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6886946</v>
+        <v>6885374</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12321,58 +12321,58 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="s">
         <v>47</v>
       </c>
       <c r="J138">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K138">
+        <v>3.75</v>
+      </c>
+      <c r="L138">
+        <v>3.1</v>
+      </c>
+      <c r="M138">
+        <v>1.95</v>
+      </c>
+      <c r="N138">
         <v>3.6</v>
       </c>
-      <c r="L138">
-        <v>2.8</v>
-      </c>
-      <c r="M138">
-        <v>1.666</v>
-      </c>
-      <c r="N138">
-        <v>4</v>
-      </c>
       <c r="O138">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q138">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
         <v>2.75</v>
       </c>
       <c r="T138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>0.6659999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12381,16 +12381,16 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
+        <v>0.4375</v>
+      </c>
+      <c r="AB138">
         <v>-0.5</v>
-      </c>
-      <c r="AA138">
-        <v>-1</v>
-      </c>
-      <c r="AB138">
-        <v>1.025</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12398,7 +12398,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6885374</v>
+        <v>6886947</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12407,76 +12407,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J139">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K139">
         <v>3.75</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M139">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="N139">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="P139">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T139">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA139">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12493,7 +12493,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
         <v>38</v>
@@ -12668,7 +12668,7 @@
         <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12751,7 +12751,7 @@
         <v>45254.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
         <v>45</v>
@@ -13009,7 +13009,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F146" t="s">
         <v>30</v>
@@ -13184,7 +13184,7 @@
         <v>37</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13356,7 +13356,7 @@
         <v>45</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13430,7 +13430,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6880542</v>
+        <v>6886954</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
@@ -13439,52 +13439,52 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="s">
         <v>48</v>
       </c>
       <c r="J151">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="K151">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L151">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M151">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="N151">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O151">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="P151">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q151">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
         <v>3</v>
       </c>
       <c r="T151">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U151">
         <v>1.825</v>
@@ -13493,22 +13493,22 @@
         <v>-1</v>
       </c>
       <c r="W151">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13516,7 +13516,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6886954</v>
+        <v>6886958</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -13525,73 +13525,73 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J152">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="K152">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L152">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="N152">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O152">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q152">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S152">
         <v>3</v>
       </c>
       <c r="T152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W152">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB152">
         <v>-1</v>
@@ -13602,7 +13602,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6886958</v>
+        <v>6884501</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13611,49 +13611,49 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G153">
         <v>3</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J153">
+        <v>2.4</v>
+      </c>
+      <c r="K153">
+        <v>3.4</v>
+      </c>
+      <c r="L153">
+        <v>2.5</v>
+      </c>
+      <c r="M153">
+        <v>2.7</v>
+      </c>
+      <c r="N153">
+        <v>3.4</v>
+      </c>
+      <c r="O153">
+        <v>2.3</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>2</v>
+      </c>
+      <c r="R153">
         <v>1.8</v>
       </c>
-      <c r="K153">
-        <v>3.75</v>
-      </c>
-      <c r="L153">
-        <v>3.4</v>
-      </c>
-      <c r="M153">
-        <v>1.8</v>
-      </c>
-      <c r="N153">
-        <v>3.75</v>
-      </c>
-      <c r="O153">
-        <v>3.5</v>
-      </c>
-      <c r="P153">
-        <v>-0.5</v>
-      </c>
-      <c r="Q153">
-        <v>1.825</v>
-      </c>
-      <c r="R153">
-        <v>1.975</v>
-      </c>
       <c r="S153">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T153">
         <v>1.9</v>
@@ -13662,19 +13662,19 @@
         <v>1.9</v>
       </c>
       <c r="V153">
+        <v>-1</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>1.3</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
         <v>0.8</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>0.825</v>
-      </c>
-      <c r="Z153">
-        <v>-1</v>
       </c>
       <c r="AA153">
         <v>0.8999999999999999</v>
@@ -13688,7 +13688,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6884501</v>
+        <v>6880542</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13697,76 +13697,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>48</v>
+      </c>
+      <c r="J154">
+        <v>1.95</v>
+      </c>
+      <c r="K154">
+        <v>3.75</v>
+      </c>
+      <c r="L154">
         <v>3</v>
       </c>
-      <c r="H154">
-        <v>4</v>
-      </c>
-      <c r="I154" t="s">
-        <v>46</v>
-      </c>
-      <c r="J154">
-        <v>2.4</v>
-      </c>
-      <c r="K154">
-        <v>3.4</v>
-      </c>
-      <c r="L154">
-        <v>2.5</v>
-      </c>
       <c r="M154">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N154">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O154">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="P154">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q154">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R154">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T154">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
         <v>-1</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X154">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z154">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13786,7 +13786,7 @@
         <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13946,7 +13946,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6884502</v>
+        <v>6880543</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13955,58 +13955,58 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G157">
         <v>2</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
       </c>
       <c r="J157">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="K157">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L157">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="M157">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="N157">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O157">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="P157">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q157">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T157">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14015,16 +14015,16 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z157">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14032,7 +14032,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6880543</v>
+        <v>6884502</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14041,58 +14041,58 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G158">
         <v>2</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
       </c>
       <c r="J158">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="K158">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L158">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="M158">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="N158">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O158">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="P158">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q158">
+        <v>1.825</v>
+      </c>
+      <c r="R158">
         <v>1.975</v>
       </c>
-      <c r="R158">
-        <v>1.875</v>
-      </c>
       <c r="S158">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T158">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.15</v>
+        <v>0.333</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14101,16 +14101,16 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB158">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14385,10 +14385,10 @@
         <v>45318.41666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14987,10 +14987,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15159,7 +15159,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F171" t="s">
         <v>35</v>
@@ -15236,7 +15236,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7764092</v>
+        <v>7691489</v>
       </c>
       <c r="C172" t="s">
         <v>27</v>
@@ -15245,55 +15245,55 @@
         <v>45328.64583333334</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="s">
         <v>46</v>
       </c>
       <c r="J172">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="K172">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L172">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="M172">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N172">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O172">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="P172">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q172">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R172">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
         <v>2.75</v>
       </c>
       <c r="T172">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U172">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
         <v>-1</v>
@@ -15302,19 +15302,19 @@
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA172">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15322,7 +15322,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7691489</v>
+        <v>7764092</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
@@ -15331,55 +15331,55 @@
         <v>45328.64583333334</v>
       </c>
       <c r="E173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I173" t="s">
         <v>46</v>
       </c>
       <c r="J173">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="K173">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L173">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="M173">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N173">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O173">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="P173">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
         <v>2.75</v>
       </c>
       <c r="T173">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
         <v>-1</v>
@@ -15388,19 +15388,19 @@
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB173">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15408,7 +15408,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6884504</v>
+        <v>6880545</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
@@ -15417,40 +15417,40 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J174">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="K174">
         <v>4</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="M174">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="N174">
         <v>3.8</v>
       </c>
       <c r="O174">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="P174">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q174">
         <v>1.875</v>
@@ -15459,34 +15459,34 @@
         <v>1.975</v>
       </c>
       <c r="S174">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T174">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y174">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15494,7 +15494,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6884537</v>
+        <v>6884504</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
@@ -15503,34 +15503,34 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175" t="s">
+        <v>47</v>
+      </c>
+      <c r="J175">
+        <v>1.727</v>
+      </c>
+      <c r="K175">
         <v>4</v>
       </c>
-      <c r="I175" t="s">
-        <v>46</v>
-      </c>
-      <c r="J175">
-        <v>2.2</v>
-      </c>
-      <c r="K175">
-        <v>3.4</v>
-      </c>
       <c r="L175">
-        <v>1.159</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N175">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O175">
         <v>2.75</v>
@@ -15539,37 +15539,37 @@
         <v>-0.25</v>
       </c>
       <c r="Q175">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="R175">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
         <v>2.75</v>
       </c>
       <c r="T175">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z175">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB175">
         <v>-1</v>
@@ -15580,7 +15580,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6885377</v>
+        <v>6884537</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
@@ -15589,55 +15589,55 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
       <c r="H176">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I176" t="s">
         <v>46</v>
       </c>
       <c r="J176">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="K176">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L176">
-        <v>2</v>
+        <v>1.159</v>
       </c>
       <c r="M176">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N176">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O176">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="P176">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q176">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
         <v>2.75</v>
       </c>
       <c r="T176">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V176">
         <v>-1</v>
@@ -15646,16 +15646,16 @@
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>1.375</v>
+        <v>1.75</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA176">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB176">
         <v>-1</v>
@@ -15666,7 +15666,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6880545</v>
+        <v>6882763</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15675,13 +15675,13 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -15690,61 +15690,61 @@
         <v>46</v>
       </c>
       <c r="J177">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="K177">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L177">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="M177">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="N177">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O177">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="P177">
+        <v>-0.25</v>
+      </c>
+      <c r="Q177">
+        <v>2.125</v>
+      </c>
+      <c r="R177">
+        <v>1.75</v>
+      </c>
+      <c r="S177">
+        <v>2.75</v>
+      </c>
+      <c r="T177">
+        <v>2.025</v>
+      </c>
+      <c r="U177">
+        <v>1.825</v>
+      </c>
+      <c r="V177">
+        <v>-1</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
+        <v>1.8</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
         <v>0.75</v>
       </c>
-      <c r="Q177">
-        <v>1.875</v>
-      </c>
-      <c r="R177">
-        <v>1.975</v>
-      </c>
-      <c r="S177">
-        <v>2.5</v>
-      </c>
-      <c r="T177">
-        <v>1.9</v>
-      </c>
-      <c r="U177">
-        <v>1.95</v>
-      </c>
-      <c r="V177">
-        <v>-1</v>
-      </c>
-      <c r="W177">
-        <v>-1</v>
-      </c>
-      <c r="X177">
-        <v>0.7</v>
-      </c>
-      <c r="Y177">
-        <v>-1</v>
-      </c>
-      <c r="Z177">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15752,7 +15752,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6882763</v>
+        <v>6886969</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -15761,76 +15761,76 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J178">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="K178">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="L178">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="M178">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N178">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O178">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="P178">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q178">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="R178">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T178">
+        <v>1.825</v>
+      </c>
+      <c r="U178">
         <v>2.025</v>
       </c>
-      <c r="U178">
-        <v>1.825</v>
-      </c>
       <c r="V178">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z178">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15838,7 +15838,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6886969</v>
+        <v>6886968</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15847,73 +15847,73 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J179">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="K179">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L179">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="N179">
         <v>3.75</v>
       </c>
       <c r="O179">
+        <v>3.2</v>
+      </c>
+      <c r="P179">
+        <v>-0.5</v>
+      </c>
+      <c r="Q179">
+        <v>2.05</v>
+      </c>
+      <c r="R179">
         <v>1.8</v>
       </c>
-      <c r="P179">
-        <v>0.5</v>
-      </c>
-      <c r="Q179">
+      <c r="S179">
+        <v>3</v>
+      </c>
+      <c r="T179">
+        <v>1.875</v>
+      </c>
+      <c r="U179">
         <v>1.975</v>
       </c>
-      <c r="R179">
-        <v>1.875</v>
-      </c>
-      <c r="S179">
-        <v>2.5</v>
-      </c>
-      <c r="T179">
-        <v>1.825</v>
-      </c>
-      <c r="U179">
-        <v>2.025</v>
-      </c>
       <c r="V179">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA179">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB179">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6886968</v>
+        <v>6885377</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
@@ -15933,73 +15933,73 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I180" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J180">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="K180">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M180">
+        <v>2.55</v>
+      </c>
+      <c r="N180">
+        <v>3.4</v>
+      </c>
+      <c r="O180">
+        <v>2.375</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>1.95</v>
+      </c>
+      <c r="R180">
         <v>1.85</v>
       </c>
-      <c r="N180">
-        <v>3.75</v>
-      </c>
-      <c r="O180">
-        <v>3.2</v>
-      </c>
-      <c r="P180">
-        <v>-0.5</v>
-      </c>
-      <c r="Q180">
-        <v>2.05</v>
-      </c>
-      <c r="R180">
-        <v>1.8</v>
-      </c>
       <c r="S180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T180">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
         <v>-1</v>
       </c>
       <c r="W180">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA180">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB180">
         <v>-1</v>
@@ -16277,10 +16277,10 @@
         <v>45336.64583333334</v>
       </c>
       <c r="E184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16535,7 +16535,7 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F187" t="s">
         <v>32</v>
@@ -16612,7 +16612,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6882762</v>
+        <v>6886972</v>
       </c>
       <c r="C188" t="s">
         <v>27</v>
@@ -16621,10 +16621,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16636,41 +16636,41 @@
         <v>46</v>
       </c>
       <c r="J188">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="K188">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="M188">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N188">
         <v>3.6</v>
       </c>
       <c r="O188">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="P188">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q188">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S188">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T188">
+        <v>1.825</v>
+      </c>
+      <c r="U188">
         <v>1.975</v>
       </c>
-      <c r="U188">
-        <v>1.825</v>
-      </c>
       <c r="V188">
         <v>-1</v>
       </c>
@@ -16678,19 +16678,19 @@
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -16698,7 +16698,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6886972</v>
+        <v>6886973</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -16707,76 +16707,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s">
         <v>33</v>
       </c>
       <c r="G189">
+        <v>3</v>
+      </c>
+      <c r="H189">
         <v>0</v>
       </c>
-      <c r="H189">
-        <v>1</v>
-      </c>
       <c r="I189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J189">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="K189">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L189">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="M189">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="N189">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O189">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="P189">
+        <v>-1.25</v>
+      </c>
+      <c r="Q189">
+        <v>1.9</v>
+      </c>
+      <c r="R189">
+        <v>1.9</v>
+      </c>
+      <c r="S189">
+        <v>3</v>
+      </c>
+      <c r="T189">
+        <v>2</v>
+      </c>
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z189">
+        <v>-1</v>
+      </c>
+      <c r="AA189">
         <v>0</v>
       </c>
-      <c r="Q189">
-        <v>1.825</v>
-      </c>
-      <c r="R189">
-        <v>1.975</v>
-      </c>
-      <c r="S189">
-        <v>2.5</v>
-      </c>
-      <c r="T189">
-        <v>1.825</v>
-      </c>
-      <c r="U189">
-        <v>1.975</v>
-      </c>
-      <c r="V189">
-        <v>-1</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>1.5</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
-      <c r="Z189">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA189">
-        <v>-1</v>
-      </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16784,7 +16784,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6886973</v>
+        <v>6886974</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -16793,76 +16793,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J190">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="K190">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L190">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="M190">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N190">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O190">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="P190">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q190">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R190">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -16870,7 +16870,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6886974</v>
+        <v>6882762</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -16879,10 +16879,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16894,40 +16894,40 @@
         <v>46</v>
       </c>
       <c r="J191">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="K191">
         <v>4</v>
       </c>
       <c r="L191">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="N191">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O191">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="P191">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q191">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R191">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
         <v>2.75</v>
       </c>
       <c r="T191">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V191">
         <v>-1</v>
@@ -16936,19 +16936,19 @@
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -16965,7 +16965,7 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F192" t="s">
         <v>36</v>
@@ -17312,7 +17312,7 @@
         <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17653,7 +17653,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E200" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F200" t="s">
         <v>44</v>
@@ -17739,7 +17739,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F201" t="s">
         <v>43</v>
@@ -17828,7 +17828,7 @@
         <v>38</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17902,7 +17902,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6884506</v>
+        <v>6880547</v>
       </c>
       <c r="C203" t="s">
         <v>27</v>
@@ -17911,76 +17911,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F203" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H203">
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J203">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="K203">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L203">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="M203">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="N203">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O203">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="P203">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q203">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R203">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T203">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U203">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V203">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W203">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB203">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -17988,7 +17988,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6882759</v>
+        <v>6884506</v>
       </c>
       <c r="C204" t="s">
         <v>27</v>
@@ -17997,76 +17997,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E204" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J204">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="K204">
         <v>3.6</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="M204">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N204">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O204">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="P204">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q204">
+        <v>1.775</v>
+      </c>
+      <c r="R204">
+        <v>2.1</v>
+      </c>
+      <c r="S204">
+        <v>2.25</v>
+      </c>
+      <c r="T204">
         <v>1.825</v>
       </c>
-      <c r="R204">
+      <c r="U204">
         <v>2.025</v>
       </c>
-      <c r="S204">
-        <v>2.75</v>
-      </c>
-      <c r="T204">
-        <v>1.85</v>
-      </c>
-      <c r="U204">
-        <v>2</v>
-      </c>
       <c r="V204">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB204">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18074,7 +18074,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6880547</v>
+        <v>6882759</v>
       </c>
       <c r="C205" t="s">
         <v>27</v>
@@ -18083,58 +18083,58 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
       </c>
       <c r="J205">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="K205">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L205">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="M205">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="N205">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O205">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P205">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q205">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R205">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S205">
         <v>2.75</v>
       </c>
       <c r="T205">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U205">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V205">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18143,16 +18143,16 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:28">
@@ -18160,7 +18160,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6886981</v>
+        <v>6886982</v>
       </c>
       <c r="C206" t="s">
         <v>27</v>
@@ -18169,76 +18169,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F206" t="s">
         <v>33</v>
       </c>
       <c r="G206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206" t="s">
+        <v>47</v>
+      </c>
+      <c r="J206">
+        <v>1.727</v>
+      </c>
+      <c r="K206">
+        <v>3.75</v>
+      </c>
+      <c r="L206">
+        <v>3.75</v>
+      </c>
+      <c r="M206">
+        <v>1.55</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206">
         <v>5</v>
       </c>
-      <c r="I206" t="s">
-        <v>46</v>
-      </c>
-      <c r="J206">
-        <v>1.444</v>
-      </c>
-      <c r="K206">
-        <v>4</v>
-      </c>
-      <c r="L206">
-        <v>6</v>
-      </c>
-      <c r="M206">
-        <v>1.909</v>
-      </c>
-      <c r="N206">
-        <v>3.2</v>
-      </c>
-      <c r="O206">
-        <v>3.8</v>
-      </c>
       <c r="P206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q206">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T206">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U206">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V206">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:28">
@@ -18255,7 +18255,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F207" t="s">
         <v>38</v>
@@ -18418,7 +18418,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6886982</v>
+        <v>6886981</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -18427,76 +18427,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E209" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F209" t="s">
         <v>34</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I209" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J209">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="K209">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L209">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M209">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="N209">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O209">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q209">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S209">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T209">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U209">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB209">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18688,7 +18688,7 @@
         <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18860,7 +18860,7 @@
         <v>28</v>
       </c>
       <c r="F214" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -19118,7 +19118,7 @@
         <v>37</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -19201,7 +19201,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F218" t="s">
         <v>43</v>
@@ -19459,7 +19459,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F221" t="s">
         <v>31</v>
@@ -19880,7 +19880,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6884542</v>
+        <v>6886990</v>
       </c>
       <c r="C226" t="s">
         <v>27</v>
@@ -19889,76 +19889,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G226">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H226">
+        <v>2</v>
+      </c>
+      <c r="I226" t="s">
+        <v>46</v>
+      </c>
+      <c r="J226">
+        <v>2.05</v>
+      </c>
+      <c r="K226">
+        <v>3.75</v>
+      </c>
+      <c r="L226">
+        <v>2.8</v>
+      </c>
+      <c r="M226">
+        <v>2.4</v>
+      </c>
+      <c r="N226">
+        <v>3.4</v>
+      </c>
+      <c r="O226">
+        <v>2.5</v>
+      </c>
+      <c r="P226">
         <v>0</v>
       </c>
-      <c r="I226" t="s">
-        <v>47</v>
-      </c>
-      <c r="J226">
-        <v>1.333</v>
-      </c>
-      <c r="K226">
-        <v>5</v>
-      </c>
-      <c r="L226">
-        <v>6</v>
-      </c>
-      <c r="M226">
-        <v>1.333</v>
-      </c>
-      <c r="N226">
-        <v>5.5</v>
-      </c>
-      <c r="O226">
-        <v>5.75</v>
-      </c>
-      <c r="P226">
-        <v>-1.5</v>
-      </c>
       <c r="Q226">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S226">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T226">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U226">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V226">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA226">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="227" spans="1:28">
@@ -19966,7 +19966,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6886990</v>
+        <v>6884542</v>
       </c>
       <c r="C227" t="s">
         <v>27</v>
@@ -19975,76 +19975,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J227">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="K227">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L227">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="M227">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="N227">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="O227">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="P227">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q227">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R227">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S227">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T227">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V227">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z227">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:28">
@@ -20064,7 +20064,7 @@
         <v>30</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G228">
         <v>5</v>
@@ -20233,10 +20233,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E230" t="s">
+        <v>39</v>
+      </c>
+      <c r="F230" t="s">
         <v>40</v>
-      </c>
-      <c r="F230" t="s">
-        <v>39</v>
       </c>
       <c r="G230">
         <v>4</v>
@@ -20408,7 +20408,7 @@
         <v>41</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20749,7 +20749,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E236" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F236" t="s">
         <v>31</v>
@@ -20835,7 +20835,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F237" t="s">
         <v>41</v>
@@ -21096,7 +21096,7 @@
         <v>28</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -21265,7 +21265,7 @@
         <v>45382.375</v>
       </c>
       <c r="E242" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F242" t="s">
         <v>45</v>
@@ -21440,7 +21440,7 @@
         <v>30</v>
       </c>
       <c r="F244" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -21523,7 +21523,7 @@
         <v>45388.375</v>
       </c>
       <c r="E245" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F245" t="s">
         <v>28</v>
@@ -21698,7 +21698,7 @@
         <v>44</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -21944,7 +21944,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6887003</v>
+        <v>6887002</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -21953,43 +21953,43 @@
         <v>45388.375</v>
       </c>
       <c r="E250" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G250">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J250">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="K250">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="L250">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="M250">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="N250">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O250">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="P250">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q250">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R250">
         <v>1.8</v>
@@ -21998,31 +21998,31 @@
         <v>3</v>
       </c>
       <c r="T250">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U250">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V250">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y250">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA250">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22030,7 +22030,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6887002</v>
+        <v>6887003</v>
       </c>
       <c r="C251" t="s">
         <v>27</v>
@@ -22039,43 +22039,43 @@
         <v>45388.375</v>
       </c>
       <c r="E251" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F251" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G251">
+        <v>4</v>
+      </c>
+      <c r="H251">
         <v>0</v>
       </c>
-      <c r="H251">
-        <v>2</v>
-      </c>
       <c r="I251" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J251">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="K251">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="L251">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="M251">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="N251">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O251">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="P251">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q251">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R251">
         <v>1.8</v>
@@ -22084,31 +22084,31 @@
         <v>3</v>
       </c>
       <c r="T251">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U251">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V251">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -22202,7 +22202,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6887004</v>
+        <v>6887008</v>
       </c>
       <c r="C253" t="s">
         <v>27</v>
@@ -22211,76 +22211,76 @@
         <v>45395.375</v>
       </c>
       <c r="E253" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G253">
+        <v>3</v>
+      </c>
+      <c r="H253">
         <v>0</v>
       </c>
-      <c r="H253">
-        <v>1</v>
-      </c>
       <c r="I253" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J253">
-        <v>1.75</v>
+        <v>1.285</v>
       </c>
       <c r="K253">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L253">
-        <v>4.1</v>
+        <v>7.5</v>
       </c>
       <c r="M253">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="N253">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O253">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P253">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q253">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R253">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S253">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T253">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U253">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V253">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z253">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB253">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:28">
@@ -22288,7 +22288,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6887007</v>
+        <v>6887017</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
@@ -22297,76 +22297,76 @@
         <v>45395.375</v>
       </c>
       <c r="E254" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F254" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J254">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="K254">
         <v>3.8</v>
       </c>
       <c r="L254">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="M254">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N254">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O254">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="P254">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q254">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R254">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S254">
         <v>3</v>
       </c>
       <c r="T254">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U254">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V254">
         <v>-1</v>
       </c>
       <c r="W254">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X254">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA254">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22374,7 +22374,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6887017</v>
+        <v>6887009</v>
       </c>
       <c r="C255" t="s">
         <v>27</v>
@@ -22383,10 +22383,10 @@
         <v>45395.375</v>
       </c>
       <c r="E255" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F255" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -22398,40 +22398,40 @@
         <v>48</v>
       </c>
       <c r="J255">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="K255">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L255">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="M255">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N255">
         <v>3.6</v>
       </c>
       <c r="O255">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P255">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q255">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R255">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S255">
         <v>3</v>
       </c>
       <c r="T255">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
         <v>-1</v>
@@ -22443,16 +22443,16 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA255">
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22460,7 +22460,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6887009</v>
+        <v>6887007</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -22469,76 +22469,76 @@
         <v>45395.375</v>
       </c>
       <c r="E256" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F256" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I256" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J256">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="K256">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L256">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="M256">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N256">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O256">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="P256">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q256">
         <v>1.875</v>
       </c>
       <c r="R256">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S256">
         <v>3</v>
       </c>
       <c r="T256">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U256">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V256">
         <v>-1</v>
       </c>
       <c r="W256">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB256">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22546,7 +22546,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6887008</v>
+        <v>6887006</v>
       </c>
       <c r="C257" t="s">
         <v>27</v>
@@ -22555,58 +22555,58 @@
         <v>45395.375</v>
       </c>
       <c r="E257" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F257" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G257">
         <v>3</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257" t="s">
         <v>47</v>
       </c>
       <c r="J257">
-        <v>1.285</v>
+        <v>2.6</v>
       </c>
       <c r="K257">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L257">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="M257">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="N257">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O257">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P257">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q257">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R257">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S257">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T257">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U257">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V257">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -22615,16 +22615,16 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB257">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -22632,7 +22632,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6887006</v>
+        <v>6887004</v>
       </c>
       <c r="C258" t="s">
         <v>27</v>
@@ -22641,76 +22641,76 @@
         <v>45395.375</v>
       </c>
       <c r="E258" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F258" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G258">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J258">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="K258">
         <v>3.4</v>
       </c>
       <c r="L258">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="M258">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N258">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O258">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P258">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q258">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R258">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S258">
         <v>2.75</v>
       </c>
       <c r="T258">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U258">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V258">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W258">
         <v>-1</v>
       </c>
       <c r="X258">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y258">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA258">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="259" spans="1:28">
@@ -22816,7 +22816,7 @@
         <v>35</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G260">
         <v>4</v>
@@ -23246,7 +23246,7 @@
         <v>42</v>
       </c>
       <c r="F265" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -23587,7 +23587,7 @@
         <v>45408.60416666666</v>
       </c>
       <c r="E269" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F269" t="s">
         <v>43</v>
@@ -23676,7 +23676,7 @@
         <v>32</v>
       </c>
       <c r="F270" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G270">
         <v>2</v>
@@ -23759,7 +23759,7 @@
         <v>45409.375</v>
       </c>
       <c r="E271" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F271" t="s">
         <v>35</v>
@@ -24103,7 +24103,7 @@
         <v>45410.375</v>
       </c>
       <c r="E275" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F275" t="s">
         <v>29</v>
@@ -24361,7 +24361,7 @@
         <v>45416.375</v>
       </c>
       <c r="E278" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F278" t="s">
         <v>36</v>
@@ -24450,7 +24450,7 @@
         <v>29</v>
       </c>
       <c r="F279" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G279">
         <v>2</v>
@@ -24536,7 +24536,7 @@
         <v>31</v>
       </c>
       <c r="F280" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G280">
         <v>2</v>
@@ -24705,7 +24705,7 @@
         <v>45416.375</v>
       </c>
       <c r="E282" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F282" t="s">
         <v>28</v>
@@ -24966,7 +24966,7 @@
         <v>43</v>
       </c>
       <c r="F285" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -25126,7 +25126,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7060506</v>
+        <v>7060504</v>
       </c>
       <c r="C287" t="s">
         <v>27</v>
@@ -25135,40 +25135,40 @@
         <v>45422.60416666666</v>
       </c>
       <c r="E287" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F287" t="s">
         <v>34</v>
       </c>
       <c r="G287">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="s">
         <v>47</v>
       </c>
       <c r="J287">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="K287">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L287">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="M287">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="N287">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="O287">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="P287">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q287">
         <v>1.825</v>
@@ -25177,16 +25177,16 @@
         <v>1.975</v>
       </c>
       <c r="S287">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T287">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U287">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V287">
-        <v>0.222</v>
+        <v>1.625</v>
       </c>
       <c r="W287">
         <v>-1</v>
@@ -25201,7 +25201,7 @@
         <v>-1</v>
       </c>
       <c r="AA287">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB287">
         <v>-1</v>
@@ -25212,7 +25212,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7060504</v>
+        <v>7060506</v>
       </c>
       <c r="C288" t="s">
         <v>27</v>
@@ -25221,40 +25221,40 @@
         <v>45422.60416666666</v>
       </c>
       <c r="E288" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F288" t="s">
         <v>33</v>
       </c>
       <c r="G288">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="s">
         <v>47</v>
       </c>
       <c r="J288">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="K288">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L288">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="M288">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="N288">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="O288">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="P288">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q288">
         <v>1.825</v>
@@ -25263,16 +25263,16 @@
         <v>1.975</v>
       </c>
       <c r="S288">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T288">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U288">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V288">
-        <v>1.625</v>
+        <v>0.222</v>
       </c>
       <c r="W288">
         <v>-1</v>
@@ -25287,7 +25287,7 @@
         <v>-1</v>
       </c>
       <c r="AA288">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB288">
         <v>-1</v>
@@ -25307,7 +25307,7 @@
         <v>45423.375</v>
       </c>
       <c r="E289" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F289" t="s">
         <v>30</v>
@@ -25479,7 +25479,7 @@
         <v>45423.375</v>
       </c>
       <c r="E291" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F291" t="s">
         <v>31</v>
@@ -25912,7 +25912,7 @@
         <v>45</v>
       </c>
       <c r="F296" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G296">
         <v>3</v>
@@ -25998,7 +25998,7 @@
         <v>30</v>
       </c>
       <c r="F297" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -26244,7 +26244,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7088567</v>
+        <v>7091980</v>
       </c>
       <c r="C300" t="s">
         <v>27</v>
@@ -26253,76 +26253,76 @@
         <v>45430.375</v>
       </c>
       <c r="E300" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F300" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J300">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="K300">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L300">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="M300">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="N300">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="O300">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="P300">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q300">
+        <v>1.85</v>
+      </c>
+      <c r="R300">
+        <v>1.95</v>
+      </c>
+      <c r="S300">
+        <v>3.25</v>
+      </c>
+      <c r="T300">
         <v>1.9</v>
       </c>
-      <c r="R300">
+      <c r="U300">
         <v>1.9</v>
       </c>
-      <c r="S300">
-        <v>3.5</v>
-      </c>
-      <c r="T300">
-        <v>2</v>
-      </c>
-      <c r="U300">
-        <v>1.8</v>
-      </c>
       <c r="V300">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W300">
         <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y300">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB300">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="301" spans="1:28">
@@ -26330,7 +26330,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7088568</v>
+        <v>7088569</v>
       </c>
       <c r="C301" t="s">
         <v>27</v>
@@ -26339,10 +26339,10 @@
         <v>45430.375</v>
       </c>
       <c r="E301" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F301" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -26354,61 +26354,61 @@
         <v>48</v>
       </c>
       <c r="J301">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="K301">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L301">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="M301">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N301">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O301">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="P301">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q301">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R301">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S301">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T301">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U301">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V301">
         <v>-1</v>
       </c>
       <c r="W301">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA301">
         <v>-1</v>
       </c>
       <c r="AB301">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:28">
@@ -26416,7 +26416,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7088569</v>
+        <v>7088568</v>
       </c>
       <c r="C302" t="s">
         <v>27</v>
@@ -26425,10 +26425,10 @@
         <v>45430.375</v>
       </c>
       <c r="E302" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F302" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G302">
         <v>1</v>
@@ -26440,61 +26440,61 @@
         <v>48</v>
       </c>
       <c r="J302">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="K302">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L302">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="M302">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N302">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O302">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="P302">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q302">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R302">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S302">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T302">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U302">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V302">
         <v>-1</v>
       </c>
       <c r="W302">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA302">
         <v>-1</v>
       </c>
       <c r="AB302">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="303" spans="1:28">
@@ -26502,7 +26502,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7091980</v>
+        <v>7088567</v>
       </c>
       <c r="C303" t="s">
         <v>27</v>
@@ -26511,76 +26511,76 @@
         <v>45430.375</v>
       </c>
       <c r="E303" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F303" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J303">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="K303">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L303">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="M303">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="N303">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="O303">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="P303">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q303">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R303">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S303">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T303">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U303">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V303">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W303">
         <v>-1</v>
       </c>
       <c r="X303">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z303">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga West/Germany Regionalliga West.xlsx
+++ b/Germany Regionalliga West/Germany Regionalliga West.xlsx
@@ -142,13 +142,13 @@
     <t>Rot Weiss Ahlen</t>
   </si>
   <si>
+    <t>Wuppertaler</t>
+  </si>
+  <si>
     <t>Duren</t>
   </si>
   <si>
     <t>1 FC Bocholt</t>
-  </si>
-  <si>
-    <t>Wuppertaler</t>
   </si>
   <si>
     <t>Cologne II</t>
@@ -628,7 +628,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1820,7 +1820,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6886881</v>
+        <v>6884521</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -1832,43 +1832,43 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="K16">
         <v>3.6</v>
       </c>
       <c r="L16">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N16">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q16">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
         <v>3.25</v>
@@ -1880,10 +1880,10 @@
         <v>1.9</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W16">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1906,7 +1906,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6880528</v>
+        <v>6886881</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1918,73 +1918,73 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="K17">
         <v>3.6</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="M17">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O17">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="P17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S17">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1992,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6884521</v>
+        <v>6880528</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2004,55 +2004,55 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>47</v>
       </c>
       <c r="J18">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="K18">
         <v>3.6</v>
       </c>
       <c r="L18">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="P18">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2061,16 +2061,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2176,7 +2176,7 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2348,7 +2348,7 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2606,7 +2606,7 @@
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3119,7 +3119,7 @@
         <v>45157.375</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
         <v>45</v>
@@ -3291,7 +3291,7 @@
         <v>45157.375</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
         <v>29</v>
@@ -3377,7 +3377,7 @@
         <v>45157.375</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
         <v>33</v>
@@ -3626,7 +3626,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6886895</v>
+        <v>6884490</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3635,76 +3635,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>3.8</v>
+      </c>
+      <c r="L37">
+        <v>2.875</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3.75</v>
+      </c>
+      <c r="O37">
         <v>3</v>
       </c>
-      <c r="I37" t="s">
-        <v>46</v>
-      </c>
-      <c r="J37">
-        <v>2.375</v>
-      </c>
-      <c r="K37">
-        <v>3.4</v>
-      </c>
-      <c r="L37">
-        <v>2.5</v>
-      </c>
-      <c r="M37">
-        <v>3.2</v>
-      </c>
-      <c r="N37">
-        <v>3.5</v>
-      </c>
-      <c r="O37">
-        <v>1.95</v>
-      </c>
       <c r="P37">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q37">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
         <v>-1</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3712,7 +3712,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6884490</v>
+        <v>6886895</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3721,76 +3721,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="K38">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L38">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P38">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q38">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
         <v>-1</v>
       </c>
       <c r="W38">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -4068,7 +4068,7 @@
         <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4240,7 +4240,7 @@
         <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -4486,7 +4486,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6886898</v>
+        <v>6885366</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4495,40 +4495,40 @@
         <v>45171.375</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="s">
         <v>47</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47">
         <v>3.6</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N47">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="P47">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>1.85</v>
@@ -4537,7 +4537,7 @@
         <v>1.95</v>
       </c>
       <c r="S47">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T47">
         <v>1.975</v>
@@ -4546,7 +4546,7 @@
         <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4561,10 +4561,10 @@
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4572,7 +4572,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6886899</v>
+        <v>6886898</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4581,58 +4581,58 @@
         <v>45171.375</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
         <v>47</v>
       </c>
       <c r="J48">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L48">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P48">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q48">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T48">
+        <v>1.975</v>
+      </c>
+      <c r="U48">
         <v>1.825</v>
       </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
       <c r="V48">
-        <v>0.444</v>
+        <v>1</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4641,16 +4641,16 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
+        <v>-1</v>
+      </c>
+      <c r="AB48">
         <v>0.825</v>
-      </c>
-      <c r="AB48">
-        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4658,7 +4658,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6885366</v>
+        <v>6886899</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4667,58 +4667,58 @@
         <v>45171.375</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
         <v>47</v>
       </c>
       <c r="J49">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="K49">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="M49">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="N49">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O49">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q49">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
         <v>3</v>
       </c>
       <c r="T49">
+        <v>1.825</v>
+      </c>
+      <c r="U49">
         <v>1.975</v>
       </c>
-      <c r="U49">
-        <v>1.825</v>
-      </c>
       <c r="V49">
-        <v>1.375</v>
+        <v>0.444</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4727,13 +4727,13 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
         <v>-1</v>
@@ -4753,7 +4753,7 @@
         <v>45171.375</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
         <v>33</v>
@@ -4925,7 +4925,7 @@
         <v>45171.375</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
@@ -5100,7 +5100,7 @@
         <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5432,7 +5432,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6880532</v>
+        <v>6886903</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5441,19 +5441,19 @@
         <v>45185.375</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
         <v>43</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J58">
         <v>2.7</v>
@@ -5465,52 +5465,52 @@
         <v>2.1</v>
       </c>
       <c r="M58">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O58">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q58">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T58">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
         <v>-1</v>
       </c>
       <c r="W58">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5518,7 +5518,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6882777</v>
+        <v>6884491</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5527,10 +5527,10 @@
         <v>45185.375</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5542,43 +5542,43 @@
         <v>47</v>
       </c>
       <c r="J59">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K59">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L59">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M59">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="N59">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q59">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T59">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5587,7 +5587,7 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="Z59">
         <v>-1</v>
@@ -5596,7 +5596,7 @@
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5604,7 +5604,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6884491</v>
+        <v>6882777</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5613,10 +5613,10 @@
         <v>45185.375</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5628,43 +5628,43 @@
         <v>47</v>
       </c>
       <c r="J60">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60">
         <v>3.75</v>
       </c>
-      <c r="L60">
-        <v>2.875</v>
-      </c>
       <c r="M60">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N60">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O60">
+        <v>3.1</v>
+      </c>
+      <c r="P60">
+        <v>-0.5</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+      <c r="R60">
+        <v>1.85</v>
+      </c>
+      <c r="S60">
         <v>3</v>
       </c>
-      <c r="P60">
-        <v>-0.25</v>
-      </c>
-      <c r="Q60">
+      <c r="T60">
+        <v>2.025</v>
+      </c>
+      <c r="U60">
         <v>1.825</v>
       </c>
-      <c r="R60">
-        <v>1.975</v>
-      </c>
-      <c r="S60">
-        <v>2.5</v>
-      </c>
-      <c r="T60">
-        <v>1.875</v>
-      </c>
-      <c r="U60">
-        <v>1.925</v>
-      </c>
       <c r="V60">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5673,16 +5673,16 @@
         <v>-1</v>
       </c>
       <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
+        <v>-1</v>
+      </c>
+      <c r="AB60">
         <v>0.825</v>
-      </c>
-      <c r="Z60">
-        <v>-1</v>
-      </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
-      <c r="AB60">
-        <v>0.925</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5690,7 +5690,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6886903</v>
+        <v>6880532</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -5699,19 +5699,19 @@
         <v>45185.375</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J61">
         <v>2.7</v>
@@ -5723,52 +5723,52 @@
         <v>2.1</v>
       </c>
       <c r="M61">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N61">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O61">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="P61">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T61">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
         <v>-1</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -6043,7 +6043,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
         <v>34</v>
@@ -6120,7 +6120,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6885367</v>
+        <v>6886909</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -6129,58 +6129,58 @@
         <v>45192.375</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
         <v>47</v>
       </c>
       <c r="J66">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="K66">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L66">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="M66">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="N66">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O66">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="P66">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="R66">
+        <v>1.85</v>
+      </c>
+      <c r="S66">
+        <v>2.75</v>
+      </c>
+      <c r="T66">
+        <v>1.9</v>
+      </c>
+      <c r="U66">
         <v>1.95</v>
       </c>
-      <c r="R66">
-        <v>1.9</v>
-      </c>
-      <c r="S66">
-        <v>3</v>
-      </c>
-      <c r="T66">
-        <v>1.95</v>
-      </c>
-      <c r="U66">
-        <v>1.9</v>
-      </c>
       <c r="V66">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6189,16 +6189,16 @@
         <v>-1</v>
       </c>
       <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
         <v>0.95</v>
-      </c>
-      <c r="Z66">
-        <v>-1</v>
-      </c>
-      <c r="AA66">
-        <v>0.95</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6206,7 +6206,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6886908</v>
+        <v>6885367</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -6215,76 +6215,76 @@
         <v>45192.375</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J67">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L67">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="M67">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N67">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O67">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R67">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
         <v>3</v>
       </c>
       <c r="T67">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W67">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6292,7 +6292,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6886909</v>
+        <v>6886908</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -6301,67 +6301,67 @@
         <v>45192.375</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J68">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="K68">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="M68">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="N68">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O68">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="P68">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V68">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6370,7 +6370,7 @@
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6473,7 +6473,7 @@
         <v>45192.375</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
         <v>36</v>
@@ -6734,7 +6734,7 @@
         <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6906,7 +6906,7 @@
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7250,7 +7250,7 @@
         <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7505,7 +7505,7 @@
         <v>45206.375</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
         <v>37</v>
@@ -7763,7 +7763,7 @@
         <v>45206.375</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s">
         <v>36</v>
@@ -8021,7 +8021,7 @@
         <v>45206.375</v>
       </c>
       <c r="E88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
         <v>38</v>
@@ -8454,7 +8454,7 @@
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8626,7 +8626,7 @@
         <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8970,7 +8970,7 @@
         <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -9130,7 +9130,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6880536</v>
+        <v>6886928</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9139,58 +9139,58 @@
         <v>45220.375</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="s">
         <v>47</v>
       </c>
       <c r="J101">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="K101">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O101">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="P101">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q101">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R101">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
         <v>2.75</v>
       </c>
       <c r="T101">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9199,13 +9199,13 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.4875</v>
+        <v>0.3875</v>
       </c>
       <c r="AB101">
         <v>-0.5</v>
@@ -9216,7 +9216,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6884496</v>
+        <v>6886926</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9225,73 +9225,73 @@
         <v>45220.375</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J102">
-        <v>6</v>
+        <v>1.285</v>
       </c>
       <c r="K102">
         <v>5</v>
       </c>
       <c r="L102">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="M102">
-        <v>4.2</v>
+        <v>1.533</v>
       </c>
       <c r="N102">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O102">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q102">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R102">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
         <v>3</v>
       </c>
       <c r="T102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9302,7 +9302,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6886928</v>
+        <v>6880536</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9311,58 +9311,58 @@
         <v>45220.375</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="s">
         <v>47</v>
       </c>
       <c r="J103">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="K103">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="M103">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N103">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="P103">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q103">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R103">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
         <v>2.75</v>
       </c>
       <c r="T103">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>0.6000000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9371,13 +9371,13 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.3875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB103">
         <v>-0.5</v>
@@ -9388,7 +9388,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6886926</v>
+        <v>6884496</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9397,73 +9397,73 @@
         <v>45220.375</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J104">
-        <v>1.285</v>
+        <v>6</v>
       </c>
       <c r="K104">
         <v>5</v>
       </c>
       <c r="L104">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="M104">
-        <v>1.533</v>
+        <v>4.2</v>
       </c>
       <c r="N104">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="P104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
         <v>3</v>
       </c>
       <c r="T104">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U104">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB104">
         <v>-1</v>
@@ -9732,7 +9732,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6886932</v>
+        <v>6884531</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9741,76 +9741,76 @@
         <v>45226.60416666666</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J108">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="K108">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L108">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="M108">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="N108">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O108">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="P108">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q108">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R108">
         <v>1.875</v>
       </c>
       <c r="S108">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T108">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9818,7 +9818,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6884531</v>
+        <v>6886932</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -9827,76 +9827,76 @@
         <v>45226.60416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J109">
+        <v>2.3</v>
+      </c>
+      <c r="K109">
         <v>3.75</v>
       </c>
-      <c r="K109">
-        <v>4</v>
-      </c>
       <c r="L109">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="M109">
+        <v>2.15</v>
+      </c>
+      <c r="N109">
         <v>3.6</v>
       </c>
-      <c r="N109">
-        <v>4</v>
-      </c>
       <c r="O109">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="P109">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q109">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R109">
         <v>1.875</v>
       </c>
       <c r="S109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T109">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z109">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -10076,7 +10076,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6880537</v>
+        <v>6882771</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10085,73 +10085,73 @@
         <v>45227.375</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112" t="s">
+        <v>48</v>
+      </c>
+      <c r="J112">
+        <v>3.1</v>
+      </c>
+      <c r="K112">
+        <v>4</v>
+      </c>
+      <c r="L112">
+        <v>1.833</v>
+      </c>
+      <c r="M112">
+        <v>2.4</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112">
+        <v>2.25</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>2.025</v>
+      </c>
+      <c r="R112">
+        <v>1.825</v>
+      </c>
+      <c r="S112">
         <v>3</v>
       </c>
-      <c r="I112" t="s">
-        <v>46</v>
-      </c>
-      <c r="J112">
-        <v>9</v>
-      </c>
-      <c r="K112">
-        <v>7</v>
-      </c>
-      <c r="L112">
-        <v>1.166</v>
-      </c>
-      <c r="M112">
-        <v>3.5</v>
-      </c>
-      <c r="N112">
-        <v>4.5</v>
-      </c>
-      <c r="O112">
-        <v>1.65</v>
-      </c>
-      <c r="P112">
-        <v>0.75</v>
-      </c>
-      <c r="Q112">
-        <v>1.925</v>
-      </c>
-      <c r="R112">
-        <v>1.875</v>
-      </c>
-      <c r="S112">
-        <v>2.75</v>
-      </c>
       <c r="T112">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X112">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z112">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB112">
         <v>-1</v>
@@ -10162,7 +10162,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6882771</v>
+        <v>6884497</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10171,76 +10171,76 @@
         <v>45227.375</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G113">
         <v>2</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J113">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="K113">
         <v>4</v>
       </c>
       <c r="L113">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N113">
+        <v>3.6</v>
+      </c>
+      <c r="O113">
         <v>4</v>
       </c>
-      <c r="O113">
-        <v>2.25</v>
-      </c>
       <c r="P113">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q113">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T113">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10248,7 +10248,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6884497</v>
+        <v>6880537</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10257,76 +10257,76 @@
         <v>45227.375</v>
       </c>
       <c r="E114" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J114">
-        <v>1.615</v>
+        <v>9</v>
       </c>
       <c r="K114">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="M114">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N114">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="P114">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
         <v>2.75</v>
       </c>
       <c r="T114">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y114">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA114">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10506,7 +10506,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6884532</v>
+        <v>6886935</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10515,76 +10515,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J117">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="K117">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="L117">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="M117">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="N117">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O117">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q117">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T117">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10601,7 +10601,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
         <v>28</v>
@@ -10764,7 +10764,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6886935</v>
+        <v>6884532</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10776,73 +10776,73 @@
         <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J120">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="K120">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L120">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="M120">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="N120">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O120">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="P120">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10936,7 +10936,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6886938</v>
+        <v>6886937</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10945,76 +10945,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
         <v>0</v>
       </c>
-      <c r="H122">
-        <v>4</v>
-      </c>
       <c r="I122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J122">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="K122">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L122">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="M122">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N122">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O122">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="P122">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q122">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R122">
         <v>1.875</v>
       </c>
       <c r="S122">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T122">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U122">
         <v>1.875</v>
       </c>
       <c r="V122">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
         <v>0.875</v>
-      </c>
-      <c r="AA122">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11108,7 +11108,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6886937</v>
+        <v>6886938</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11117,76 +11117,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J124">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="K124">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L124">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="M124">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="N124">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O124">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="P124">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q124">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R124">
         <v>1.875</v>
       </c>
       <c r="S124">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T124">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U124">
         <v>1.875</v>
       </c>
       <c r="V124">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11722,7 +11722,7 @@
         <v>41</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11805,10 +11805,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E132" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" t="s">
         <v>43</v>
-      </c>
-      <c r="F132" t="s">
-        <v>42</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6886946</v>
+        <v>6886948</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -11891,28 +11891,28 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="s">
         <v>47</v>
       </c>
       <c r="J133">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="K133">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L133">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="M133">
         <v>1.666</v>
@@ -11927,19 +11927,19 @@
         <v>-0.75</v>
       </c>
       <c r="Q133">
+        <v>1.925</v>
+      </c>
+      <c r="R133">
+        <v>1.875</v>
+      </c>
+      <c r="S133">
+        <v>3.25</v>
+      </c>
+      <c r="T133">
         <v>1.95</v>
       </c>
-      <c r="R133">
-        <v>1.9</v>
-      </c>
-      <c r="S133">
-        <v>2.75</v>
-      </c>
-      <c r="T133">
-        <v>1.825</v>
-      </c>
       <c r="U133">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
         <v>0.6659999999999999</v>
@@ -11951,16 +11951,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11968,7 +11968,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6886948</v>
+        <v>6886947</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -11977,40 +11977,40 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J134">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="K134">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M134">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="N134">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O134">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="P134">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q134">
         <v>1.925</v>
@@ -12019,34 +12019,34 @@
         <v>1.875</v>
       </c>
       <c r="S134">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T134">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12054,7 +12054,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6886947</v>
+        <v>6886946</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12063,76 +12063,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
         <v>0</v>
       </c>
-      <c r="H135">
-        <v>2</v>
-      </c>
       <c r="I135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J135">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K135">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L135">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M135">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="N135">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O135">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q135">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V135">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12235,10 +12235,10 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E137" t="s">
+        <v>42</v>
+      </c>
+      <c r="F137" t="s">
         <v>44</v>
-      </c>
-      <c r="F137" t="s">
-        <v>43</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12312,7 +12312,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6884499</v>
+        <v>6882768</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12321,49 +12321,49 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J138">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="K138">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L138">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M138">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="N138">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="P138">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q138">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S138">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T138">
         <v>1.925</v>
@@ -12372,25 +12372,25 @@
         <v>1.875</v>
       </c>
       <c r="V138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA138">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12398,7 +12398,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6882768</v>
+        <v>6884499</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12407,49 +12407,49 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J139">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K139">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L139">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M139">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="N139">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="O139">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="P139">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q139">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S139">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T139">
         <v>1.925</v>
@@ -12458,25 +12458,25 @@
         <v>1.875</v>
       </c>
       <c r="V139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W139">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12914,7 +12914,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6880541</v>
+        <v>6886952</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -12923,58 +12923,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
       </c>
       <c r="J145">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="K145">
         <v>3.75</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M145">
+        <v>1.615</v>
+      </c>
+      <c r="N145">
+        <v>4.2</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>-0.75</v>
+      </c>
+      <c r="Q145">
+        <v>1.775</v>
+      </c>
+      <c r="R145">
+        <v>2.025</v>
+      </c>
+      <c r="S145">
+        <v>3.25</v>
+      </c>
+      <c r="T145">
+        <v>2</v>
+      </c>
+      <c r="U145">
         <v>1.8</v>
       </c>
-      <c r="N145">
-        <v>3.75</v>
-      </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>-0.5</v>
-      </c>
-      <c r="Q145">
-        <v>1.9</v>
-      </c>
-      <c r="R145">
-        <v>1.95</v>
-      </c>
-      <c r="S145">
-        <v>3</v>
-      </c>
-      <c r="T145">
-        <v>1.925</v>
-      </c>
-      <c r="U145">
-        <v>1.925</v>
-      </c>
       <c r="V145">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -12983,16 +12983,16 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13000,7 +13000,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6886950</v>
+        <v>6880541</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
@@ -13009,76 +13009,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J146">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="K146">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L146">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M146">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
         <v>-0.5</v>
       </c>
       <c r="Q146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T146">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U146">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13086,7 +13086,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6884534</v>
+        <v>6886950</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
@@ -13095,76 +13095,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J147">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="K147">
+        <v>4.75</v>
+      </c>
+      <c r="L147">
+        <v>6</v>
+      </c>
+      <c r="M147">
+        <v>1.75</v>
+      </c>
+      <c r="N147">
+        <v>3.6</v>
+      </c>
+      <c r="O147">
         <v>3.75</v>
       </c>
-      <c r="L147">
-        <v>2.55</v>
-      </c>
-      <c r="M147">
-        <v>2.375</v>
-      </c>
-      <c r="N147">
-        <v>3.75</v>
-      </c>
-      <c r="O147">
-        <v>2.4</v>
-      </c>
       <c r="P147">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S147">
         <v>2.75</v>
       </c>
       <c r="T147">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
         <v>-1</v>
       </c>
       <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
         <v>2.75</v>
       </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
       <c r="Y147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13172,7 +13172,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6886952</v>
+        <v>6884534</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -13181,76 +13181,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J148">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K148">
         <v>3.75</v>
       </c>
       <c r="L148">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="M148">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N148">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="P148">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q148">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R148">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13439,7 +13439,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F151" t="s">
         <v>30</v>
@@ -13525,7 +13525,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F152" t="s">
         <v>28</v>
@@ -13602,7 +13602,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6880542</v>
+        <v>6886954</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13611,52 +13611,52 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="s">
         <v>48</v>
       </c>
       <c r="J153">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="K153">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L153">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="N153">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O153">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="P153">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q153">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S153">
         <v>3</v>
       </c>
       <c r="T153">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U153">
         <v>1.825</v>
@@ -13665,22 +13665,22 @@
         <v>-1</v>
       </c>
       <c r="W153">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13688,7 +13688,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6886954</v>
+        <v>6880542</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13697,52 +13697,52 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="s">
         <v>48</v>
       </c>
       <c r="J154">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="K154">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L154">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M154">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="N154">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O154">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P154">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q154">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R154">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
         <v>3</v>
       </c>
       <c r="T154">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U154">
         <v>1.825</v>
@@ -13751,22 +13751,22 @@
         <v>-1</v>
       </c>
       <c r="W154">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z154">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13786,7 +13786,7 @@
         <v>31</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -13958,7 +13958,7 @@
         <v>29</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -14130,7 +14130,7 @@
         <v>30</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14643,7 +14643,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
         <v>45</v>
@@ -14815,7 +14815,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F167" t="s">
         <v>31</v>
@@ -14987,7 +14987,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F169" t="s">
         <v>29</v>
@@ -15420,7 +15420,7 @@
         <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -15494,7 +15494,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6886969</v>
+        <v>6886970</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
@@ -15503,58 +15503,58 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="s">
         <v>47</v>
       </c>
       <c r="J175">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="K175">
         <v>3.8</v>
       </c>
       <c r="L175">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="M175">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="N175">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O175">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="P175">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q175">
+        <v>1.875</v>
+      </c>
+      <c r="R175">
         <v>1.975</v>
       </c>
-      <c r="R175">
-        <v>1.875</v>
-      </c>
       <c r="S175">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T175">
+        <v>2.025</v>
+      </c>
+      <c r="U175">
         <v>1.825</v>
       </c>
-      <c r="U175">
-        <v>2.025</v>
-      </c>
       <c r="V175">
-        <v>2.4</v>
+        <v>0.95</v>
       </c>
       <c r="W175">
         <v>-1</v>
@@ -15563,16 +15563,16 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
+        <v>-1</v>
+      </c>
+      <c r="AB175">
         <v>0.825</v>
-      </c>
-      <c r="AB175">
-        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15764,7 +15764,7 @@
         <v>29</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15924,7 +15924,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6886970</v>
+        <v>6886969</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
@@ -15933,58 +15933,58 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H180">
-      